--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd97481b0ff2b3c9/Documents/R/skeena-sockeye-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9236AB5D-239B-4D49-9FC9-9561F11EF2D8}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C42306D-C888-425A-952A-C228710B4F7B}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="1880" windowWidth="19200" windowHeight="11180" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="-22830" yWindow="6105" windowWidth="19200" windowHeight="11175" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -175,6 +175,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,10 +501,10 @@
   <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <f t="shared" ref="N2:N22" si="0">B2+M2</f>
+        <f t="shared" ref="N2:N23" si="0">B2+M2</f>
         <v>0</v>
       </c>
       <c r="O2" s="1">
@@ -652,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M22" si="2">I3+K3</f>
+        <f t="shared" ref="M3:M23" si="2">I3+K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="2">
@@ -1023,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" ref="P10:P22" si="5">C10+J10</f>
+        <f t="shared" ref="P10:P23" si="5">C10+J10</f>
         <v>0</v>
       </c>
       <c r="Q10" s="1">
@@ -2081,6 +2085,60 @@
       <c r="A23" s="3">
         <v>45495</v>
       </c>
+      <c r="B23">
+        <v>11449</v>
+      </c>
+      <c r="C23">
+        <v>200</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" ref="L23" si="9">L22+B23</f>
+        <v>21800</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" ref="M23" si="10">I23+K23</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" ref="N23" si="11">B23+M23</f>
+        <v>11449</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" ref="O23" si="12">O22+N23</f>
+        <v>21800</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" ref="P23" si="13">C23+J23</f>
+        <v>200</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" ref="Q23" si="14">P23+Q22</f>
+        <v>366</v>
+      </c>
       <c r="R23" s="1">
         <v>19763</v>
       </c>
@@ -2491,11 +2549,11 @@
         <v>18790.8</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" ref="T36:U51" si="9">T35+R36</f>
+        <f t="shared" ref="T36:U51" si="15">T35+R36</f>
         <v>520442</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>179104.5853174603</v>
       </c>
       <c r="V36" s="1">
@@ -2522,11 +2580,11 @@
         <v>25713.3</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>550390</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>204817.88531746028</v>
       </c>
       <c r="V37" s="1">
@@ -2553,11 +2611,11 @@
         <v>18006.400000000001</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>581098</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>222824.28531746028</v>
       </c>
       <c r="V38" s="1">
@@ -2584,11 +2642,11 @@
         <v>24560.3</v>
       </c>
       <c r="T39" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>605588</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>247384.58531746027</v>
       </c>
       <c r="V39" s="1">
@@ -2615,11 +2673,11 @@
         <v>22302.5</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>627171</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>269687.08531746024</v>
       </c>
       <c r="V40" s="1">
@@ -2646,11 +2704,11 @@
         <v>36342.400000000001</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>652373</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>306029.48531746026</v>
       </c>
       <c r="V41" s="1">
@@ -2677,11 +2735,11 @@
         <v>26445.363636363636</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>675506</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>332474.84895382391</v>
       </c>
       <c r="V42" s="1">
@@ -2708,11 +2766,11 @@
         <v>28798.363636363636</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>717110</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>361273.21259018756</v>
       </c>
       <c r="V43" s="1">
@@ -2739,11 +2797,11 @@
         <v>22717.545454545456</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>740207</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>383990.75804473303</v>
       </c>
       <c r="V44" s="1">
@@ -2770,11 +2828,11 @@
         <v>24761.090909090908</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>770155</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>408751.84895382391</v>
       </c>
       <c r="V45" s="1">
@@ -2801,11 +2859,11 @@
         <v>27668.909090909092</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>813557</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>436420.75804473303</v>
       </c>
       <c r="V46" s="1">
@@ -2832,11 +2890,11 @@
         <v>28715</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>849071</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>465135.75804473303</v>
       </c>
       <c r="V47" s="1">
@@ -2863,11 +2921,11 @@
         <v>19741.18181818182</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>891191</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>484876.93986291485</v>
       </c>
       <c r="V48" s="1">
@@ -2894,11 +2952,11 @@
         <v>24994.81818181818</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>963510</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>509871.75804473303</v>
       </c>
       <c r="V49" s="1">
@@ -2925,11 +2983,11 @@
         <v>30512.18181818182</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1014593</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>540383.93986291485</v>
       </c>
       <c r="V50" s="1">
@@ -2956,11 +3014,11 @@
         <v>29755.272727272728</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1077884</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>570139.21259018756</v>
       </c>
       <c r="V51" s="1">
@@ -2987,11 +3045,11 @@
         <v>29568.909090909092</v>
       </c>
       <c r="T52" s="1">
-        <f t="shared" ref="T52:U67" si="10">T51+R52</f>
+        <f t="shared" ref="T52:U67" si="16">T51+R52</f>
         <v>1114483</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>599708.12168109661</v>
       </c>
       <c r="V52" s="1">
@@ -3018,11 +3076,11 @@
         <v>27004.636363636364</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1174452</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>626712.75804473297</v>
       </c>
       <c r="V53" s="1">
@@ -3049,11 +3107,11 @@
         <v>26730.909090909092</v>
       </c>
       <c r="T54" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1202504</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>653443.66713564203</v>
       </c>
       <c r="V54" s="1">
@@ -3080,11 +3138,11 @@
         <v>22068.454545454544</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1277668</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>675512.12168109661</v>
       </c>
       <c r="V55" s="1">
@@ -3111,11 +3169,11 @@
         <v>24809.363636363636</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1370228</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>700321.48531746026</v>
       </c>
       <c r="V56" s="1">
@@ -3142,11 +3200,11 @@
         <v>28342.545454545456</v>
       </c>
       <c r="T57" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1440848</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>728664.03077200567</v>
       </c>
       <c r="V57" s="1">
@@ -3173,11 +3231,11 @@
         <v>26309.272727272728</v>
       </c>
       <c r="T58" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1497008</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>754973.30349927838</v>
       </c>
       <c r="V58" s="1">
@@ -3204,11 +3262,11 @@
         <v>23571.727272727272</v>
       </c>
       <c r="T59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1540279</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>778545.03077200567</v>
       </c>
       <c r="V59" s="1">
@@ -3235,11 +3293,11 @@
         <v>21629.454545454544</v>
       </c>
       <c r="T60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1594464</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>800174.48531746026</v>
       </c>
       <c r="V60" s="1">
@@ -3266,11 +3324,11 @@
         <v>21511.909090909092</v>
       </c>
       <c r="T61" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1642593</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>821686.39440836932</v>
       </c>
       <c r="V61" s="1">
@@ -3297,11 +3355,11 @@
         <v>19461.272727272728</v>
       </c>
       <c r="T62" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1678981</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>841147.66713564203</v>
       </c>
       <c r="V62" s="1">
@@ -3328,11 +3386,11 @@
         <v>17916.636363636364</v>
       </c>
       <c r="T63" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1711287</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>859064.30349927838</v>
       </c>
       <c r="V63" s="1">
@@ -3359,11 +3417,11 @@
         <v>17763.909090909092</v>
       </c>
       <c r="T64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1744119</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>876828.21259018744</v>
       </c>
       <c r="V64" s="1">
@@ -3390,11 +3448,11 @@
         <v>17535.090909090908</v>
       </c>
       <c r="T65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1768866</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>894363.30349927838</v>
       </c>
       <c r="V65" s="1">
@@ -3421,11 +3479,11 @@
         <v>17130.18181818182</v>
       </c>
       <c r="T66" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1794920</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>911493.48531746014</v>
       </c>
       <c r="V66" s="1">
@@ -3452,11 +3510,11 @@
         <v>17186.363636363636</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1816116</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>928679.84895382379</v>
       </c>
       <c r="V67" s="1">
@@ -3483,11 +3541,11 @@
         <v>14679.636363636364</v>
       </c>
       <c r="T68" s="1">
-        <f t="shared" ref="T68:U83" si="11">T67+R68</f>
+        <f t="shared" ref="T68:U83" si="17">T67+R68</f>
         <v>1846521</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>943359.48531746014</v>
       </c>
       <c r="V68" s="1">
@@ -3514,11 +3572,11 @@
         <v>15690.818181818182</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1878833</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>959050.30349927838</v>
       </c>
       <c r="V69" s="1">
@@ -3545,11 +3603,11 @@
         <v>14967.545454545454</v>
       </c>
       <c r="T70" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1901010</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>974017.84895382379</v>
       </c>
       <c r="V70" s="1">
@@ -3576,11 +3634,11 @@
         <v>14546.818181818182</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1914981</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>988564.66713564203</v>
       </c>
       <c r="V71" s="1">
@@ -3607,11 +3665,11 @@
         <v>13876.272727272728</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1928616</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1002440.9398629147</v>
       </c>
       <c r="V72" s="1">
@@ -3638,11 +3696,11 @@
         <v>12522.363636363636</v>
       </c>
       <c r="T73" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1938412</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1014963.3034992784</v>
       </c>
       <c r="V73" s="1">
@@ -3669,11 +3727,11 @@
         <v>12105.636363636364</v>
       </c>
       <c r="T74" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1946010</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1027068.9398629147</v>
       </c>
       <c r="V74" s="1">
@@ -3700,11 +3758,11 @@
         <v>11272.545454545454</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1953188</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1038341.4853174601</v>
       </c>
       <c r="V75" s="1">
@@ -3731,11 +3789,11 @@
         <v>9771.0909090909099</v>
       </c>
       <c r="T76" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1962346</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1048112.5762265511</v>
       </c>
       <c r="V76" s="1">
@@ -3762,11 +3820,11 @@
         <v>7589.909090909091</v>
       </c>
       <c r="T77" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1973666</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1055702.4853174603</v>
       </c>
       <c r="V77" s="1">
@@ -3793,11 +3851,11 @@
         <v>8318.545454545454</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1981697</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1064021.0307720057</v>
       </c>
       <c r="V78" s="1">
@@ -3824,11 +3882,11 @@
         <v>7405.727272727273</v>
       </c>
       <c r="T79" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1991144</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1071426.758044733</v>
       </c>
       <c r="V79" s="1">
@@ -3855,11 +3913,11 @@
         <v>7004.181818181818</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2001289</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1078430.9398629148</v>
       </c>
       <c r="V80" s="1">
@@ -3886,11 +3944,11 @@
         <v>6677.818181818182</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2013289</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1085108.758044733</v>
       </c>
       <c r="V81" s="1">
@@ -3917,11 +3975,11 @@
         <v>6140.454545454545</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2026172</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1091249.2125901876</v>
       </c>
       <c r="V82" s="1">
@@ -3948,11 +4006,11 @@
         <v>6411.4</v>
       </c>
       <c r="T83" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2032538</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1097660.6125901875</v>
       </c>
       <c r="V83" s="1">
@@ -3979,11 +4037,11 @@
         <v>6189.6</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" ref="T84:U99" si="12">T83+R84</f>
+        <f t="shared" ref="T84:U99" si="18">T83+R84</f>
         <v>2036693</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1103850.2125901876</v>
       </c>
       <c r="V84" s="1">
@@ -4010,11 +4068,11 @@
         <v>4314.3999999999996</v>
       </c>
       <c r="T85" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2039343</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1108164.6125901875</v>
       </c>
       <c r="V85" s="1">
@@ -4041,11 +4099,11 @@
         <v>3802.6</v>
       </c>
       <c r="T86" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2043072</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1111967.2125901876</v>
       </c>
       <c r="V86" s="1">
@@ -4072,11 +4130,11 @@
         <v>3261.3333333333335</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2045727</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1115228.5459235208</v>
       </c>
       <c r="V87" s="1">
@@ -4103,11 +4161,11 @@
         <v>2728.4444444444443</v>
       </c>
       <c r="T88" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2047725</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1117956.9903679653</v>
       </c>
       <c r="V88" s="1">
@@ -4134,11 +4192,11 @@
         <v>2059.7777777777778</v>
       </c>
       <c r="T89" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2049017</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1120016.7681457431</v>
       </c>
       <c r="V89" s="1">
@@ -4165,11 +4223,11 @@
         <v>1764.2222222222222</v>
       </c>
       <c r="T90" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2049846</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1121780.9903679653</v>
       </c>
       <c r="V90" s="1">
@@ -4196,11 +4254,11 @@
         <v>1664.125</v>
       </c>
       <c r="T91" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2051014</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1123445.1153679653</v>
       </c>
       <c r="V91" s="1">
@@ -4227,11 +4285,11 @@
         <v>1687.375</v>
       </c>
       <c r="T92" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2051949</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1125132.4903679653</v>
       </c>
       <c r="V92" s="1">
@@ -4258,11 +4316,11 @@
         <v>868.83333333333337</v>
       </c>
       <c r="T93" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2052845</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1126001.3237012986</v>
       </c>
       <c r="V93" s="1">
@@ -4286,11 +4344,11 @@
         <v>707.66666666666663</v>
       </c>
       <c r="T94" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2052845</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1126708.9903679653</v>
       </c>
       <c r="V94" s="1">
@@ -4314,11 +4372,11 @@
         <v>440</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2052845</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1127148.9903679653</v>
       </c>
       <c r="V95" s="1">
@@ -4342,11 +4400,11 @@
         <v>720.66666666666663</v>
       </c>
       <c r="T96" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2052845</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1127869.6570346321</v>
       </c>
       <c r="V96" s="1">
@@ -4370,11 +4428,11 @@
         <v>238</v>
       </c>
       <c r="T97" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2052845</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1128107.6570346321</v>
       </c>
       <c r="V97" s="1">
@@ -4398,11 +4456,11 @@
         <v>323</v>
       </c>
       <c r="T98" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2052845</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1128430.6570346321</v>
       </c>
       <c r="V98" s="1">
@@ -4426,11 +4484,11 @@
         <v>250</v>
       </c>
       <c r="T99" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2052845</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V99" s="1">
@@ -4451,11 +4509,11 @@
         <v>45572</v>
       </c>
       <c r="T100" s="1">
-        <f t="shared" ref="T100:U108" si="13">T99+R100</f>
+        <f t="shared" ref="T100:U108" si="19">T99+R100</f>
         <v>2052845</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V100" s="1">
@@ -4476,11 +4534,11 @@
         <v>45573</v>
       </c>
       <c r="T101" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2052845</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V101" s="1">
@@ -4495,11 +4553,11 @@
         <v>45574</v>
       </c>
       <c r="T102" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2052845</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V102" s="1">
@@ -4514,11 +4572,11 @@
         <v>45575</v>
       </c>
       <c r="T103" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2052845</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V103" s="1">
@@ -4533,11 +4591,11 @@
         <v>45576</v>
       </c>
       <c r="T104" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2052845</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V104" s="1">
@@ -4552,11 +4610,11 @@
         <v>45577</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2052845</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V105" s="1">
@@ -4571,11 +4629,11 @@
         <v>45578</v>
       </c>
       <c r="T106" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2052845</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V106" s="1">
@@ -4590,11 +4648,11 @@
         <v>45579</v>
       </c>
       <c r="T107" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2052845</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V107" s="1">
@@ -4609,11 +4667,11 @@
         <v>45580</v>
       </c>
       <c r="T108" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2052845</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V108" s="1">

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd97481b0ff2b3c9/Documents/R/skeena-sockeye-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C42306D-C888-425A-952A-C228710B4F7B}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65DE0EA0-ED75-4C24-B04E-0A65E04E1C3A}"/>
   <bookViews>
-    <workbookView xWindow="-22830" yWindow="6105" windowWidth="19200" windowHeight="11175" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="3760" yWindow="2060" windowWidth="19200" windowHeight="11180" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -175,10 +175,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,10 +497,10 @@
   <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <f t="shared" ref="N2:N23" si="0">B2+M2</f>
+        <f t="shared" ref="N2:N22" si="0">B2+M2</f>
         <v>0</v>
       </c>
       <c r="O2" s="1">
@@ -656,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M23" si="2">I3+K3</f>
+        <f t="shared" ref="M3:M22" si="2">I3+K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="2">
@@ -1027,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" ref="P10:P23" si="5">C10+J10</f>
+        <f t="shared" ref="P10:P22" si="5">C10+J10</f>
         <v>0</v>
       </c>
       <c r="Q10" s="1">
@@ -2120,11 +2116,11 @@
         <v>21800</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" ref="M23" si="10">I23+K23</f>
+        <f t="shared" ref="M23:M25" si="10">I23+K23</f>
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" ref="N23" si="11">B23+M23</f>
+        <f t="shared" ref="N23:N25" si="11">B23+M23</f>
         <v>11449</v>
       </c>
       <c r="O23" s="1">
@@ -2132,7 +2128,7 @@
         <v>21800</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" ref="P23" si="13">C23+J23</f>
+        <f t="shared" ref="P23:P25" si="13">C23+J23</f>
         <v>200</v>
       </c>
       <c r="Q23" s="1">
@@ -2170,6 +2166,60 @@
       <c r="A24" s="3">
         <v>45496</v>
       </c>
+      <c r="B24">
+        <v>25407</v>
+      </c>
+      <c r="C24">
+        <v>1060</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" ref="L24:L25" si="15">L23+B24</f>
+        <v>47207</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" ref="M24:M25" si="16">I24+K24</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" ref="N24:N25" si="17">B24+M24</f>
+        <v>25407</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" ref="O24:O25" si="18">O23+N24</f>
+        <v>47207</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" ref="P24:P25" si="19">C24+J24</f>
+        <v>1060</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" ref="Q24:Q25" si="20">P24+Q23</f>
+        <v>1426</v>
+      </c>
       <c r="R24" s="1">
         <v>12174</v>
       </c>
@@ -2201,6 +2251,60 @@
       <c r="A25" s="3">
         <v>45497</v>
       </c>
+      <c r="B25">
+        <v>13068</v>
+      </c>
+      <c r="C25">
+        <v>538</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="15"/>
+        <v>60275</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="17"/>
+        <v>13068</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="18"/>
+        <v>60275</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="19"/>
+        <v>538</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="20"/>
+        <v>1964</v>
+      </c>
       <c r="R25" s="1">
         <v>16576</v>
       </c>
@@ -2549,11 +2653,11 @@
         <v>18790.8</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" ref="T36:U51" si="15">T35+R36</f>
+        <f t="shared" ref="T36:U51" si="21">T35+R36</f>
         <v>520442</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>179104.5853174603</v>
       </c>
       <c r="V36" s="1">
@@ -2580,11 +2684,11 @@
         <v>25713.3</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>550390</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>204817.88531746028</v>
       </c>
       <c r="V37" s="1">
@@ -2611,11 +2715,11 @@
         <v>18006.400000000001</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>581098</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>222824.28531746028</v>
       </c>
       <c r="V38" s="1">
@@ -2642,11 +2746,11 @@
         <v>24560.3</v>
       </c>
       <c r="T39" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>605588</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>247384.58531746027</v>
       </c>
       <c r="V39" s="1">
@@ -2673,11 +2777,11 @@
         <v>22302.5</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>627171</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>269687.08531746024</v>
       </c>
       <c r="V40" s="1">
@@ -2704,11 +2808,11 @@
         <v>36342.400000000001</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>652373</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>306029.48531746026</v>
       </c>
       <c r="V41" s="1">
@@ -2735,11 +2839,11 @@
         <v>26445.363636363636</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>675506</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>332474.84895382391</v>
       </c>
       <c r="V42" s="1">
@@ -2766,11 +2870,11 @@
         <v>28798.363636363636</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>717110</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>361273.21259018756</v>
       </c>
       <c r="V43" s="1">
@@ -2797,11 +2901,11 @@
         <v>22717.545454545456</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>740207</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>383990.75804473303</v>
       </c>
       <c r="V44" s="1">
@@ -2828,11 +2932,11 @@
         <v>24761.090909090908</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>770155</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>408751.84895382391</v>
       </c>
       <c r="V45" s="1">
@@ -2859,11 +2963,11 @@
         <v>27668.909090909092</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>813557</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>436420.75804473303</v>
       </c>
       <c r="V46" s="1">
@@ -2890,11 +2994,11 @@
         <v>28715</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>849071</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>465135.75804473303</v>
       </c>
       <c r="V47" s="1">
@@ -2921,11 +3025,11 @@
         <v>19741.18181818182</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>891191</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>484876.93986291485</v>
       </c>
       <c r="V48" s="1">
@@ -2952,11 +3056,11 @@
         <v>24994.81818181818</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>963510</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>509871.75804473303</v>
       </c>
       <c r="V49" s="1">
@@ -2983,11 +3087,11 @@
         <v>30512.18181818182</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1014593</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>540383.93986291485</v>
       </c>
       <c r="V50" s="1">
@@ -3014,11 +3118,11 @@
         <v>29755.272727272728</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1077884</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>570139.21259018756</v>
       </c>
       <c r="V51" s="1">
@@ -3045,11 +3149,11 @@
         <v>29568.909090909092</v>
       </c>
       <c r="T52" s="1">
-        <f t="shared" ref="T52:U67" si="16">T51+R52</f>
+        <f t="shared" ref="T52:U67" si="22">T51+R52</f>
         <v>1114483</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>599708.12168109661</v>
       </c>
       <c r="V52" s="1">
@@ -3076,11 +3180,11 @@
         <v>27004.636363636364</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1174452</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>626712.75804473297</v>
       </c>
       <c r="V53" s="1">
@@ -3107,11 +3211,11 @@
         <v>26730.909090909092</v>
       </c>
       <c r="T54" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1202504</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>653443.66713564203</v>
       </c>
       <c r="V54" s="1">
@@ -3138,11 +3242,11 @@
         <v>22068.454545454544</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1277668</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>675512.12168109661</v>
       </c>
       <c r="V55" s="1">
@@ -3169,11 +3273,11 @@
         <v>24809.363636363636</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1370228</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>700321.48531746026</v>
       </c>
       <c r="V56" s="1">
@@ -3200,11 +3304,11 @@
         <v>28342.545454545456</v>
       </c>
       <c r="T57" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1440848</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>728664.03077200567</v>
       </c>
       <c r="V57" s="1">
@@ -3231,11 +3335,11 @@
         <v>26309.272727272728</v>
       </c>
       <c r="T58" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1497008</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>754973.30349927838</v>
       </c>
       <c r="V58" s="1">
@@ -3262,11 +3366,11 @@
         <v>23571.727272727272</v>
       </c>
       <c r="T59" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1540279</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>778545.03077200567</v>
       </c>
       <c r="V59" s="1">
@@ -3293,11 +3397,11 @@
         <v>21629.454545454544</v>
       </c>
       <c r="T60" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1594464</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>800174.48531746026</v>
       </c>
       <c r="V60" s="1">
@@ -3324,11 +3428,11 @@
         <v>21511.909090909092</v>
       </c>
       <c r="T61" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1642593</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>821686.39440836932</v>
       </c>
       <c r="V61" s="1">
@@ -3355,11 +3459,11 @@
         <v>19461.272727272728</v>
       </c>
       <c r="T62" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1678981</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>841147.66713564203</v>
       </c>
       <c r="V62" s="1">
@@ -3386,11 +3490,11 @@
         <v>17916.636363636364</v>
       </c>
       <c r="T63" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1711287</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>859064.30349927838</v>
       </c>
       <c r="V63" s="1">
@@ -3417,11 +3521,11 @@
         <v>17763.909090909092</v>
       </c>
       <c r="T64" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1744119</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>876828.21259018744</v>
       </c>
       <c r="V64" s="1">
@@ -3448,11 +3552,11 @@
         <v>17535.090909090908</v>
       </c>
       <c r="T65" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1768866</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>894363.30349927838</v>
       </c>
       <c r="V65" s="1">
@@ -3479,11 +3583,11 @@
         <v>17130.18181818182</v>
       </c>
       <c r="T66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1794920</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>911493.48531746014</v>
       </c>
       <c r="V66" s="1">
@@ -3510,11 +3614,11 @@
         <v>17186.363636363636</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1816116</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>928679.84895382379</v>
       </c>
       <c r="V67" s="1">
@@ -3541,11 +3645,11 @@
         <v>14679.636363636364</v>
       </c>
       <c r="T68" s="1">
-        <f t="shared" ref="T68:U83" si="17">T67+R68</f>
+        <f t="shared" ref="T68:U83" si="23">T67+R68</f>
         <v>1846521</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>943359.48531746014</v>
       </c>
       <c r="V68" s="1">
@@ -3572,11 +3676,11 @@
         <v>15690.818181818182</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1878833</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>959050.30349927838</v>
       </c>
       <c r="V69" s="1">
@@ -3603,11 +3707,11 @@
         <v>14967.545454545454</v>
       </c>
       <c r="T70" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1901010</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>974017.84895382379</v>
       </c>
       <c r="V70" s="1">
@@ -3634,11 +3738,11 @@
         <v>14546.818181818182</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1914981</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>988564.66713564203</v>
       </c>
       <c r="V71" s="1">
@@ -3665,11 +3769,11 @@
         <v>13876.272727272728</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1928616</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1002440.9398629147</v>
       </c>
       <c r="V72" s="1">
@@ -3696,11 +3800,11 @@
         <v>12522.363636363636</v>
       </c>
       <c r="T73" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1938412</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1014963.3034992784</v>
       </c>
       <c r="V73" s="1">
@@ -3727,11 +3831,11 @@
         <v>12105.636363636364</v>
       </c>
       <c r="T74" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1946010</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1027068.9398629147</v>
       </c>
       <c r="V74" s="1">
@@ -3758,11 +3862,11 @@
         <v>11272.545454545454</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1953188</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1038341.4853174601</v>
       </c>
       <c r="V75" s="1">
@@ -3789,11 +3893,11 @@
         <v>9771.0909090909099</v>
       </c>
       <c r="T76" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1962346</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1048112.5762265511</v>
       </c>
       <c r="V76" s="1">
@@ -3820,11 +3924,11 @@
         <v>7589.909090909091</v>
       </c>
       <c r="T77" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1973666</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1055702.4853174603</v>
       </c>
       <c r="V77" s="1">
@@ -3851,11 +3955,11 @@
         <v>8318.545454545454</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1981697</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1064021.0307720057</v>
       </c>
       <c r="V78" s="1">
@@ -3882,11 +3986,11 @@
         <v>7405.727272727273</v>
       </c>
       <c r="T79" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1991144</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1071426.758044733</v>
       </c>
       <c r="V79" s="1">
@@ -3913,11 +4017,11 @@
         <v>7004.181818181818</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2001289</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1078430.9398629148</v>
       </c>
       <c r="V80" s="1">
@@ -3944,11 +4048,11 @@
         <v>6677.818181818182</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2013289</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1085108.758044733</v>
       </c>
       <c r="V81" s="1">
@@ -3975,11 +4079,11 @@
         <v>6140.454545454545</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2026172</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1091249.2125901876</v>
       </c>
       <c r="V82" s="1">
@@ -4006,11 +4110,11 @@
         <v>6411.4</v>
       </c>
       <c r="T83" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2032538</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1097660.6125901875</v>
       </c>
       <c r="V83" s="1">
@@ -4037,11 +4141,11 @@
         <v>6189.6</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" ref="T84:U99" si="18">T83+R84</f>
+        <f t="shared" ref="T84:U99" si="24">T83+R84</f>
         <v>2036693</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1103850.2125901876</v>
       </c>
       <c r="V84" s="1">
@@ -4068,11 +4172,11 @@
         <v>4314.3999999999996</v>
       </c>
       <c r="T85" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2039343</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1108164.6125901875</v>
       </c>
       <c r="V85" s="1">
@@ -4099,11 +4203,11 @@
         <v>3802.6</v>
       </c>
       <c r="T86" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2043072</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1111967.2125901876</v>
       </c>
       <c r="V86" s="1">
@@ -4130,11 +4234,11 @@
         <v>3261.3333333333335</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2045727</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1115228.5459235208</v>
       </c>
       <c r="V87" s="1">
@@ -4161,11 +4265,11 @@
         <v>2728.4444444444443</v>
       </c>
       <c r="T88" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2047725</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1117956.9903679653</v>
       </c>
       <c r="V88" s="1">
@@ -4192,11 +4296,11 @@
         <v>2059.7777777777778</v>
       </c>
       <c r="T89" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2049017</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1120016.7681457431</v>
       </c>
       <c r="V89" s="1">
@@ -4223,11 +4327,11 @@
         <v>1764.2222222222222</v>
       </c>
       <c r="T90" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2049846</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1121780.9903679653</v>
       </c>
       <c r="V90" s="1">
@@ -4254,11 +4358,11 @@
         <v>1664.125</v>
       </c>
       <c r="T91" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2051014</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1123445.1153679653</v>
       </c>
       <c r="V91" s="1">
@@ -4285,11 +4389,11 @@
         <v>1687.375</v>
       </c>
       <c r="T92" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2051949</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1125132.4903679653</v>
       </c>
       <c r="V92" s="1">
@@ -4316,11 +4420,11 @@
         <v>868.83333333333337</v>
       </c>
       <c r="T93" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2052845</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1126001.3237012986</v>
       </c>
       <c r="V93" s="1">
@@ -4344,11 +4448,11 @@
         <v>707.66666666666663</v>
       </c>
       <c r="T94" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2052845</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1126708.9903679653</v>
       </c>
       <c r="V94" s="1">
@@ -4372,11 +4476,11 @@
         <v>440</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2052845</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1127148.9903679653</v>
       </c>
       <c r="V95" s="1">
@@ -4400,11 +4504,11 @@
         <v>720.66666666666663</v>
       </c>
       <c r="T96" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2052845</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1127869.6570346321</v>
       </c>
       <c r="V96" s="1">
@@ -4428,11 +4532,11 @@
         <v>238</v>
       </c>
       <c r="T97" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2052845</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1128107.6570346321</v>
       </c>
       <c r="V97" s="1">
@@ -4456,11 +4560,11 @@
         <v>323</v>
       </c>
       <c r="T98" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2052845</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1128430.6570346321</v>
       </c>
       <c r="V98" s="1">
@@ -4484,11 +4588,11 @@
         <v>250</v>
       </c>
       <c r="T99" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2052845</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V99" s="1">
@@ -4509,11 +4613,11 @@
         <v>45572</v>
       </c>
       <c r="T100" s="1">
-        <f t="shared" ref="T100:U108" si="19">T99+R100</f>
+        <f t="shared" ref="T100:U108" si="25">T99+R100</f>
         <v>2052845</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V100" s="1">
@@ -4534,11 +4638,11 @@
         <v>45573</v>
       </c>
       <c r="T101" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2052845</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V101" s="1">
@@ -4553,11 +4657,11 @@
         <v>45574</v>
       </c>
       <c r="T102" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2052845</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V102" s="1">
@@ -4572,11 +4676,11 @@
         <v>45575</v>
       </c>
       <c r="T103" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2052845</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V103" s="1">
@@ -4591,11 +4695,11 @@
         <v>45576</v>
       </c>
       <c r="T104" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2052845</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V104" s="1">
@@ -4610,11 +4714,11 @@
         <v>45577</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2052845</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V105" s="1">
@@ -4629,11 +4733,11 @@
         <v>45578</v>
       </c>
       <c r="T106" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2052845</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V106" s="1">
@@ -4648,11 +4752,11 @@
         <v>45579</v>
       </c>
       <c r="T107" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2052845</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V107" s="1">
@@ -4667,11 +4771,11 @@
         <v>45580</v>
       </c>
       <c r="T108" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2052845</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V108" s="1">

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd97481b0ff2b3c9/Documents/R/skeena-sockeye-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65DE0EA0-ED75-4C24-B04E-0A65E04E1C3A}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A0A3637-8828-4E43-BD53-AF3D892F2817}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="2060" windowWidth="19200" windowHeight="11180" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="2530" yWindow="1660" windowWidth="19200" windowHeight="11180" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -175,6 +175,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,10 +501,10 @@
   <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2116,11 +2120,11 @@
         <v>21800</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" ref="M23:M25" si="10">I23+K23</f>
+        <f t="shared" ref="M23" si="10">I23+K23</f>
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" ref="N23:N25" si="11">B23+M23</f>
+        <f t="shared" ref="N23" si="11">B23+M23</f>
         <v>11449</v>
       </c>
       <c r="O23" s="1">
@@ -2128,7 +2132,7 @@
         <v>21800</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" ref="P23:P25" si="13">C23+J23</f>
+        <f t="shared" ref="P23" si="13">C23+J23</f>
         <v>200</v>
       </c>
       <c r="Q23" s="1">
@@ -2201,11 +2205,11 @@
         <v>47207</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" ref="M24:M25" si="16">I24+K24</f>
+        <f t="shared" ref="M24:M26" si="16">I24+K24</f>
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" ref="N24:N25" si="17">B24+M24</f>
+        <f t="shared" ref="N24:N26" si="17">B24+M24</f>
         <v>25407</v>
       </c>
       <c r="O24" s="1">
@@ -2213,7 +2217,7 @@
         <v>47207</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" ref="P24:P25" si="19">C24+J24</f>
+        <f t="shared" ref="P24:P26" si="19">C24+J24</f>
         <v>1060</v>
       </c>
       <c r="Q24" s="1">
@@ -2336,6 +2340,60 @@
       <c r="A26" s="3">
         <v>45498</v>
       </c>
+      <c r="B26">
+        <v>15166</v>
+      </c>
+      <c r="C26">
+        <v>801</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" ref="L26" si="21">L25+B26</f>
+        <v>75441</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" ref="M26" si="22">I26+K26</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" ref="N26" si="23">B26+M26</f>
+        <v>15166</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" ref="O26" si="24">O25+N26</f>
+        <v>75441</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" ref="P26" si="25">C26+J26</f>
+        <v>801</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" ref="Q26" si="26">P26+Q25</f>
+        <v>2765</v>
+      </c>
       <c r="R26" s="1">
         <v>18566</v>
       </c>
@@ -2653,11 +2711,11 @@
         <v>18790.8</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" ref="T36:U51" si="21">T35+R36</f>
+        <f t="shared" ref="T36:U51" si="27">T35+R36</f>
         <v>520442</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>179104.5853174603</v>
       </c>
       <c r="V36" s="1">
@@ -2684,11 +2742,11 @@
         <v>25713.3</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>550390</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>204817.88531746028</v>
       </c>
       <c r="V37" s="1">
@@ -2715,11 +2773,11 @@
         <v>18006.400000000001</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>581098</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>222824.28531746028</v>
       </c>
       <c r="V38" s="1">
@@ -2746,11 +2804,11 @@
         <v>24560.3</v>
       </c>
       <c r="T39" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>605588</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>247384.58531746027</v>
       </c>
       <c r="V39" s="1">
@@ -2777,11 +2835,11 @@
         <v>22302.5</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>627171</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>269687.08531746024</v>
       </c>
       <c r="V40" s="1">
@@ -2808,11 +2866,11 @@
         <v>36342.400000000001</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>652373</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>306029.48531746026</v>
       </c>
       <c r="V41" s="1">
@@ -2839,11 +2897,11 @@
         <v>26445.363636363636</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>675506</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>332474.84895382391</v>
       </c>
       <c r="V42" s="1">
@@ -2870,11 +2928,11 @@
         <v>28798.363636363636</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>717110</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>361273.21259018756</v>
       </c>
       <c r="V43" s="1">
@@ -2901,11 +2959,11 @@
         <v>22717.545454545456</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>740207</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>383990.75804473303</v>
       </c>
       <c r="V44" s="1">
@@ -2932,11 +2990,11 @@
         <v>24761.090909090908</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>770155</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>408751.84895382391</v>
       </c>
       <c r="V45" s="1">
@@ -2963,11 +3021,11 @@
         <v>27668.909090909092</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>813557</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>436420.75804473303</v>
       </c>
       <c r="V46" s="1">
@@ -2994,11 +3052,11 @@
         <v>28715</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>849071</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>465135.75804473303</v>
       </c>
       <c r="V47" s="1">
@@ -3025,11 +3083,11 @@
         <v>19741.18181818182</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>891191</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>484876.93986291485</v>
       </c>
       <c r="V48" s="1">
@@ -3056,11 +3114,11 @@
         <v>24994.81818181818</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>963510</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>509871.75804473303</v>
       </c>
       <c r="V49" s="1">
@@ -3087,11 +3145,11 @@
         <v>30512.18181818182</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1014593</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>540383.93986291485</v>
       </c>
       <c r="V50" s="1">
@@ -3118,11 +3176,11 @@
         <v>29755.272727272728</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1077884</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>570139.21259018756</v>
       </c>
       <c r="V51" s="1">
@@ -3149,11 +3207,11 @@
         <v>29568.909090909092</v>
       </c>
       <c r="T52" s="1">
-        <f t="shared" ref="T52:U67" si="22">T51+R52</f>
+        <f t="shared" ref="T52:U67" si="28">T51+R52</f>
         <v>1114483</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>599708.12168109661</v>
       </c>
       <c r="V52" s="1">
@@ -3180,11 +3238,11 @@
         <v>27004.636363636364</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1174452</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>626712.75804473297</v>
       </c>
       <c r="V53" s="1">
@@ -3211,11 +3269,11 @@
         <v>26730.909090909092</v>
       </c>
       <c r="T54" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1202504</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>653443.66713564203</v>
       </c>
       <c r="V54" s="1">
@@ -3242,11 +3300,11 @@
         <v>22068.454545454544</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1277668</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>675512.12168109661</v>
       </c>
       <c r="V55" s="1">
@@ -3273,11 +3331,11 @@
         <v>24809.363636363636</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1370228</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>700321.48531746026</v>
       </c>
       <c r="V56" s="1">
@@ -3304,11 +3362,11 @@
         <v>28342.545454545456</v>
       </c>
       <c r="T57" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1440848</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>728664.03077200567</v>
       </c>
       <c r="V57" s="1">
@@ -3335,11 +3393,11 @@
         <v>26309.272727272728</v>
       </c>
       <c r="T58" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1497008</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>754973.30349927838</v>
       </c>
       <c r="V58" s="1">
@@ -3366,11 +3424,11 @@
         <v>23571.727272727272</v>
       </c>
       <c r="T59" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1540279</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>778545.03077200567</v>
       </c>
       <c r="V59" s="1">
@@ -3397,11 +3455,11 @@
         <v>21629.454545454544</v>
       </c>
       <c r="T60" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1594464</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>800174.48531746026</v>
       </c>
       <c r="V60" s="1">
@@ -3428,11 +3486,11 @@
         <v>21511.909090909092</v>
       </c>
       <c r="T61" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1642593</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>821686.39440836932</v>
       </c>
       <c r="V61" s="1">
@@ -3459,11 +3517,11 @@
         <v>19461.272727272728</v>
       </c>
       <c r="T62" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1678981</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>841147.66713564203</v>
       </c>
       <c r="V62" s="1">
@@ -3490,11 +3548,11 @@
         <v>17916.636363636364</v>
       </c>
       <c r="T63" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1711287</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>859064.30349927838</v>
       </c>
       <c r="V63" s="1">
@@ -3521,11 +3579,11 @@
         <v>17763.909090909092</v>
       </c>
       <c r="T64" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1744119</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>876828.21259018744</v>
       </c>
       <c r="V64" s="1">
@@ -3552,11 +3610,11 @@
         <v>17535.090909090908</v>
       </c>
       <c r="T65" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1768866</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>894363.30349927838</v>
       </c>
       <c r="V65" s="1">
@@ -3583,11 +3641,11 @@
         <v>17130.18181818182</v>
       </c>
       <c r="T66" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1794920</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>911493.48531746014</v>
       </c>
       <c r="V66" s="1">
@@ -3614,11 +3672,11 @@
         <v>17186.363636363636</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1816116</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>928679.84895382379</v>
       </c>
       <c r="V67" s="1">
@@ -3645,11 +3703,11 @@
         <v>14679.636363636364</v>
       </c>
       <c r="T68" s="1">
-        <f t="shared" ref="T68:U83" si="23">T67+R68</f>
+        <f t="shared" ref="T68:U83" si="29">T67+R68</f>
         <v>1846521</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>943359.48531746014</v>
       </c>
       <c r="V68" s="1">
@@ -3676,11 +3734,11 @@
         <v>15690.818181818182</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1878833</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>959050.30349927838</v>
       </c>
       <c r="V69" s="1">
@@ -3707,11 +3765,11 @@
         <v>14967.545454545454</v>
       </c>
       <c r="T70" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1901010</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>974017.84895382379</v>
       </c>
       <c r="V70" s="1">
@@ -3738,11 +3796,11 @@
         <v>14546.818181818182</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1914981</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>988564.66713564203</v>
       </c>
       <c r="V71" s="1">
@@ -3769,11 +3827,11 @@
         <v>13876.272727272728</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1928616</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1002440.9398629147</v>
       </c>
       <c r="V72" s="1">
@@ -3800,11 +3858,11 @@
         <v>12522.363636363636</v>
       </c>
       <c r="T73" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1938412</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1014963.3034992784</v>
       </c>
       <c r="V73" s="1">
@@ -3831,11 +3889,11 @@
         <v>12105.636363636364</v>
       </c>
       <c r="T74" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1946010</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1027068.9398629147</v>
       </c>
       <c r="V74" s="1">
@@ -3862,11 +3920,11 @@
         <v>11272.545454545454</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1953188</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1038341.4853174601</v>
       </c>
       <c r="V75" s="1">
@@ -3893,11 +3951,11 @@
         <v>9771.0909090909099</v>
       </c>
       <c r="T76" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1962346</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1048112.5762265511</v>
       </c>
       <c r="V76" s="1">
@@ -3924,11 +3982,11 @@
         <v>7589.909090909091</v>
       </c>
       <c r="T77" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1973666</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1055702.4853174603</v>
       </c>
       <c r="V77" s="1">
@@ -3955,11 +4013,11 @@
         <v>8318.545454545454</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1981697</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1064021.0307720057</v>
       </c>
       <c r="V78" s="1">
@@ -3986,11 +4044,11 @@
         <v>7405.727272727273</v>
       </c>
       <c r="T79" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1991144</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1071426.758044733</v>
       </c>
       <c r="V79" s="1">
@@ -4017,11 +4075,11 @@
         <v>7004.181818181818</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>2001289</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1078430.9398629148</v>
       </c>
       <c r="V80" s="1">
@@ -4048,11 +4106,11 @@
         <v>6677.818181818182</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>2013289</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1085108.758044733</v>
       </c>
       <c r="V81" s="1">
@@ -4079,11 +4137,11 @@
         <v>6140.454545454545</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>2026172</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1091249.2125901876</v>
       </c>
       <c r="V82" s="1">
@@ -4110,11 +4168,11 @@
         <v>6411.4</v>
       </c>
       <c r="T83" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>2032538</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1097660.6125901875</v>
       </c>
       <c r="V83" s="1">
@@ -4141,11 +4199,11 @@
         <v>6189.6</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" ref="T84:U99" si="24">T83+R84</f>
+        <f t="shared" ref="T84:U99" si="30">T83+R84</f>
         <v>2036693</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1103850.2125901876</v>
       </c>
       <c r="V84" s="1">
@@ -4172,11 +4230,11 @@
         <v>4314.3999999999996</v>
       </c>
       <c r="T85" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2039343</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1108164.6125901875</v>
       </c>
       <c r="V85" s="1">
@@ -4203,11 +4261,11 @@
         <v>3802.6</v>
       </c>
       <c r="T86" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2043072</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1111967.2125901876</v>
       </c>
       <c r="V86" s="1">
@@ -4234,11 +4292,11 @@
         <v>3261.3333333333335</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2045727</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1115228.5459235208</v>
       </c>
       <c r="V87" s="1">
@@ -4265,11 +4323,11 @@
         <v>2728.4444444444443</v>
       </c>
       <c r="T88" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2047725</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1117956.9903679653</v>
       </c>
       <c r="V88" s="1">
@@ -4296,11 +4354,11 @@
         <v>2059.7777777777778</v>
       </c>
       <c r="T89" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2049017</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1120016.7681457431</v>
       </c>
       <c r="V89" s="1">
@@ -4327,11 +4385,11 @@
         <v>1764.2222222222222</v>
       </c>
       <c r="T90" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2049846</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1121780.9903679653</v>
       </c>
       <c r="V90" s="1">
@@ -4358,11 +4416,11 @@
         <v>1664.125</v>
       </c>
       <c r="T91" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2051014</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1123445.1153679653</v>
       </c>
       <c r="V91" s="1">
@@ -4389,11 +4447,11 @@
         <v>1687.375</v>
       </c>
       <c r="T92" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2051949</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1125132.4903679653</v>
       </c>
       <c r="V92" s="1">
@@ -4420,11 +4478,11 @@
         <v>868.83333333333337</v>
       </c>
       <c r="T93" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2052845</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1126001.3237012986</v>
       </c>
       <c r="V93" s="1">
@@ -4448,11 +4506,11 @@
         <v>707.66666666666663</v>
       </c>
       <c r="T94" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2052845</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1126708.9903679653</v>
       </c>
       <c r="V94" s="1">
@@ -4476,11 +4534,11 @@
         <v>440</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2052845</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1127148.9903679653</v>
       </c>
       <c r="V95" s="1">
@@ -4504,11 +4562,11 @@
         <v>720.66666666666663</v>
       </c>
       <c r="T96" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2052845</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1127869.6570346321</v>
       </c>
       <c r="V96" s="1">
@@ -4532,11 +4590,11 @@
         <v>238</v>
       </c>
       <c r="T97" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2052845</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1128107.6570346321</v>
       </c>
       <c r="V97" s="1">
@@ -4560,11 +4618,11 @@
         <v>323</v>
       </c>
       <c r="T98" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2052845</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1128430.6570346321</v>
       </c>
       <c r="V98" s="1">
@@ -4588,11 +4646,11 @@
         <v>250</v>
       </c>
       <c r="T99" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2052845</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V99" s="1">
@@ -4613,11 +4671,11 @@
         <v>45572</v>
       </c>
       <c r="T100" s="1">
-        <f t="shared" ref="T100:U108" si="25">T99+R100</f>
+        <f t="shared" ref="T100:U108" si="31">T99+R100</f>
         <v>2052845</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V100" s="1">
@@ -4638,11 +4696,11 @@
         <v>45573</v>
       </c>
       <c r="T101" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>2052845</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V101" s="1">
@@ -4657,11 +4715,11 @@
         <v>45574</v>
       </c>
       <c r="T102" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>2052845</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V102" s="1">
@@ -4676,11 +4734,11 @@
         <v>45575</v>
       </c>
       <c r="T103" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>2052845</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V103" s="1">
@@ -4695,11 +4753,11 @@
         <v>45576</v>
       </c>
       <c r="T104" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>2052845</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V104" s="1">
@@ -4714,11 +4772,11 @@
         <v>45577</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>2052845</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V105" s="1">
@@ -4733,11 +4791,11 @@
         <v>45578</v>
       </c>
       <c r="T106" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>2052845</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V106" s="1">
@@ -4752,11 +4810,11 @@
         <v>45579</v>
       </c>
       <c r="T107" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>2052845</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V107" s="1">
@@ -4771,11 +4829,11 @@
         <v>45580</v>
       </c>
       <c r="T108" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>2052845</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V108" s="1">

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd97481b0ff2b3c9/Documents/R/skeena-sockeye-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A0A3637-8828-4E43-BD53-AF3D892F2817}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00CE6239-520D-4D9B-A0B4-ACA6EC44DC16}"/>
   <bookViews>
-    <workbookView xWindow="2530" yWindow="1660" windowWidth="19200" windowHeight="11180" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="-20655" yWindow="5175" windowWidth="19200" windowHeight="11175" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -501,10 +501,10 @@
   <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L25" sqref="L25:Q26"/>
+      <selection pane="bottomRight" activeCell="L28" sqref="L28:Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2205,11 +2205,11 @@
         <v>47207</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" ref="M24:M26" si="16">I24+K24</f>
+        <f t="shared" ref="M24:M25" si="16">I24+K24</f>
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" ref="N24:N26" si="17">B24+M24</f>
+        <f t="shared" ref="N24:N25" si="17">B24+M24</f>
         <v>25407</v>
       </c>
       <c r="O24" s="1">
@@ -2217,7 +2217,7 @@
         <v>47207</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" ref="P24:P26" si="19">C24+J24</f>
+        <f t="shared" ref="P24:P25" si="19">C24+J24</f>
         <v>1060</v>
       </c>
       <c r="Q24" s="1">
@@ -2425,6 +2425,60 @@
       <c r="A27" s="3">
         <v>45499</v>
       </c>
+      <c r="B27">
+        <v>18159</v>
+      </c>
+      <c r="C27">
+        <v>919</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" ref="L27:L28" si="27">L26+B27</f>
+        <v>93600</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" ref="M27:M29" si="28">I27+K27</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" ref="N27:N29" si="29">B27+M27</f>
+        <v>18159</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" ref="O27:O28" si="30">O26+N27</f>
+        <v>93600</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" ref="P27:P29" si="31">C27+J27</f>
+        <v>919</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" ref="Q27:Q28" si="32">P27+Q26</f>
+        <v>3684</v>
+      </c>
       <c r="R27" s="1">
         <v>28226</v>
       </c>
@@ -2456,6 +2510,60 @@
       <c r="A28" s="3">
         <v>45500</v>
       </c>
+      <c r="B28">
+        <v>16399</v>
+      </c>
+      <c r="C28">
+        <v>956</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="27"/>
+        <v>109999</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="29"/>
+        <v>16399</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="30"/>
+        <v>109999</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="31"/>
+        <v>956</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="32"/>
+        <v>4640</v>
+      </c>
       <c r="R28" s="1">
         <v>28784</v>
       </c>
@@ -2487,6 +2595,60 @@
       <c r="A29" s="3">
         <v>45501</v>
       </c>
+      <c r="B29">
+        <v>15879</v>
+      </c>
+      <c r="C29">
+        <v>1535</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" ref="L29" si="33">L28+B29</f>
+        <v>125878</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" ref="M29" si="34">I29+K29</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" ref="N29" si="35">B29+M29</f>
+        <v>15879</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" ref="O29" si="36">O28+N29</f>
+        <v>125878</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" ref="P29" si="37">C29+J29</f>
+        <v>1535</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" ref="Q29" si="38">P29+Q28</f>
+        <v>6175</v>
+      </c>
       <c r="R29" s="1">
         <v>27926</v>
       </c>
@@ -2711,11 +2873,11 @@
         <v>18790.8</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" ref="T36:U51" si="27">T35+R36</f>
+        <f t="shared" ref="T36:U51" si="39">T35+R36</f>
         <v>520442</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>179104.5853174603</v>
       </c>
       <c r="V36" s="1">
@@ -2742,11 +2904,11 @@
         <v>25713.3</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>550390</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>204817.88531746028</v>
       </c>
       <c r="V37" s="1">
@@ -2773,11 +2935,11 @@
         <v>18006.400000000001</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>581098</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>222824.28531746028</v>
       </c>
       <c r="V38" s="1">
@@ -2804,11 +2966,11 @@
         <v>24560.3</v>
       </c>
       <c r="T39" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>605588</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>247384.58531746027</v>
       </c>
       <c r="V39" s="1">
@@ -2835,11 +2997,11 @@
         <v>22302.5</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>627171</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>269687.08531746024</v>
       </c>
       <c r="V40" s="1">
@@ -2866,11 +3028,11 @@
         <v>36342.400000000001</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>652373</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>306029.48531746026</v>
       </c>
       <c r="V41" s="1">
@@ -2897,11 +3059,11 @@
         <v>26445.363636363636</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>675506</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>332474.84895382391</v>
       </c>
       <c r="V42" s="1">
@@ -2928,11 +3090,11 @@
         <v>28798.363636363636</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>717110</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>361273.21259018756</v>
       </c>
       <c r="V43" s="1">
@@ -2959,11 +3121,11 @@
         <v>22717.545454545456</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>740207</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>383990.75804473303</v>
       </c>
       <c r="V44" s="1">
@@ -2990,11 +3152,11 @@
         <v>24761.090909090908</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>770155</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>408751.84895382391</v>
       </c>
       <c r="V45" s="1">
@@ -3021,11 +3183,11 @@
         <v>27668.909090909092</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>813557</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>436420.75804473303</v>
       </c>
       <c r="V46" s="1">
@@ -3052,11 +3214,11 @@
         <v>28715</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>849071</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>465135.75804473303</v>
       </c>
       <c r="V47" s="1">
@@ -3083,11 +3245,11 @@
         <v>19741.18181818182</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>891191</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>484876.93986291485</v>
       </c>
       <c r="V48" s="1">
@@ -3114,11 +3276,11 @@
         <v>24994.81818181818</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>963510</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>509871.75804473303</v>
       </c>
       <c r="V49" s="1">
@@ -3145,11 +3307,11 @@
         <v>30512.18181818182</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>1014593</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>540383.93986291485</v>
       </c>
       <c r="V50" s="1">
@@ -3176,11 +3338,11 @@
         <v>29755.272727272728</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>1077884</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>570139.21259018756</v>
       </c>
       <c r="V51" s="1">
@@ -3207,11 +3369,11 @@
         <v>29568.909090909092</v>
       </c>
       <c r="T52" s="1">
-        <f t="shared" ref="T52:U67" si="28">T51+R52</f>
+        <f t="shared" ref="T52:U67" si="40">T51+R52</f>
         <v>1114483</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>599708.12168109661</v>
       </c>
       <c r="V52" s="1">
@@ -3238,11 +3400,11 @@
         <v>27004.636363636364</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1174452</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>626712.75804473297</v>
       </c>
       <c r="V53" s="1">
@@ -3269,11 +3431,11 @@
         <v>26730.909090909092</v>
       </c>
       <c r="T54" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1202504</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>653443.66713564203</v>
       </c>
       <c r="V54" s="1">
@@ -3300,11 +3462,11 @@
         <v>22068.454545454544</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1277668</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>675512.12168109661</v>
       </c>
       <c r="V55" s="1">
@@ -3331,11 +3493,11 @@
         <v>24809.363636363636</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1370228</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>700321.48531746026</v>
       </c>
       <c r="V56" s="1">
@@ -3362,11 +3524,11 @@
         <v>28342.545454545456</v>
       </c>
       <c r="T57" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1440848</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>728664.03077200567</v>
       </c>
       <c r="V57" s="1">
@@ -3393,11 +3555,11 @@
         <v>26309.272727272728</v>
       </c>
       <c r="T58" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1497008</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>754973.30349927838</v>
       </c>
       <c r="V58" s="1">
@@ -3424,11 +3586,11 @@
         <v>23571.727272727272</v>
       </c>
       <c r="T59" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1540279</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>778545.03077200567</v>
       </c>
       <c r="V59" s="1">
@@ -3455,11 +3617,11 @@
         <v>21629.454545454544</v>
       </c>
       <c r="T60" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1594464</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>800174.48531746026</v>
       </c>
       <c r="V60" s="1">
@@ -3486,11 +3648,11 @@
         <v>21511.909090909092</v>
       </c>
       <c r="T61" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1642593</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>821686.39440836932</v>
       </c>
       <c r="V61" s="1">
@@ -3517,11 +3679,11 @@
         <v>19461.272727272728</v>
       </c>
       <c r="T62" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1678981</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>841147.66713564203</v>
       </c>
       <c r="V62" s="1">
@@ -3548,11 +3710,11 @@
         <v>17916.636363636364</v>
       </c>
       <c r="T63" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1711287</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>859064.30349927838</v>
       </c>
       <c r="V63" s="1">
@@ -3579,11 +3741,11 @@
         <v>17763.909090909092</v>
       </c>
       <c r="T64" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1744119</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>876828.21259018744</v>
       </c>
       <c r="V64" s="1">
@@ -3610,11 +3772,11 @@
         <v>17535.090909090908</v>
       </c>
       <c r="T65" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1768866</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>894363.30349927838</v>
       </c>
       <c r="V65" s="1">
@@ -3641,11 +3803,11 @@
         <v>17130.18181818182</v>
       </c>
       <c r="T66" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1794920</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>911493.48531746014</v>
       </c>
       <c r="V66" s="1">
@@ -3672,11 +3834,11 @@
         <v>17186.363636363636</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1816116</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>928679.84895382379</v>
       </c>
       <c r="V67" s="1">
@@ -3703,11 +3865,11 @@
         <v>14679.636363636364</v>
       </c>
       <c r="T68" s="1">
-        <f t="shared" ref="T68:U83" si="29">T67+R68</f>
+        <f t="shared" ref="T68:U83" si="41">T67+R68</f>
         <v>1846521</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>943359.48531746014</v>
       </c>
       <c r="V68" s="1">
@@ -3734,11 +3896,11 @@
         <v>15690.818181818182</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1878833</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>959050.30349927838</v>
       </c>
       <c r="V69" s="1">
@@ -3765,11 +3927,11 @@
         <v>14967.545454545454</v>
       </c>
       <c r="T70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1901010</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>974017.84895382379</v>
       </c>
       <c r="V70" s="1">
@@ -3796,11 +3958,11 @@
         <v>14546.818181818182</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1914981</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>988564.66713564203</v>
       </c>
       <c r="V71" s="1">
@@ -3827,11 +3989,11 @@
         <v>13876.272727272728</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1928616</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1002440.9398629147</v>
       </c>
       <c r="V72" s="1">
@@ -3858,11 +4020,11 @@
         <v>12522.363636363636</v>
       </c>
       <c r="T73" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1938412</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1014963.3034992784</v>
       </c>
       <c r="V73" s="1">
@@ -3889,11 +4051,11 @@
         <v>12105.636363636364</v>
       </c>
       <c r="T74" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1946010</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1027068.9398629147</v>
       </c>
       <c r="V74" s="1">
@@ -3920,11 +4082,11 @@
         <v>11272.545454545454</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1953188</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1038341.4853174601</v>
       </c>
       <c r="V75" s="1">
@@ -3951,11 +4113,11 @@
         <v>9771.0909090909099</v>
       </c>
       <c r="T76" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1962346</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1048112.5762265511</v>
       </c>
       <c r="V76" s="1">
@@ -3982,11 +4144,11 @@
         <v>7589.909090909091</v>
       </c>
       <c r="T77" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1973666</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1055702.4853174603</v>
       </c>
       <c r="V77" s="1">
@@ -4013,11 +4175,11 @@
         <v>8318.545454545454</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1981697</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1064021.0307720057</v>
       </c>
       <c r="V78" s="1">
@@ -4044,11 +4206,11 @@
         <v>7405.727272727273</v>
       </c>
       <c r="T79" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1991144</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1071426.758044733</v>
       </c>
       <c r="V79" s="1">
@@ -4075,11 +4237,11 @@
         <v>7004.181818181818</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>2001289</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1078430.9398629148</v>
       </c>
       <c r="V80" s="1">
@@ -4106,11 +4268,11 @@
         <v>6677.818181818182</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>2013289</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1085108.758044733</v>
       </c>
       <c r="V81" s="1">
@@ -4137,11 +4299,11 @@
         <v>6140.454545454545</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>2026172</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1091249.2125901876</v>
       </c>
       <c r="V82" s="1">
@@ -4168,11 +4330,11 @@
         <v>6411.4</v>
       </c>
       <c r="T83" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>2032538</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1097660.6125901875</v>
       </c>
       <c r="V83" s="1">
@@ -4199,11 +4361,11 @@
         <v>6189.6</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" ref="T84:U99" si="30">T83+R84</f>
+        <f t="shared" ref="T84:U99" si="42">T83+R84</f>
         <v>2036693</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1103850.2125901876</v>
       </c>
       <c r="V84" s="1">
@@ -4230,11 +4392,11 @@
         <v>4314.3999999999996</v>
       </c>
       <c r="T85" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2039343</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1108164.6125901875</v>
       </c>
       <c r="V85" s="1">
@@ -4261,11 +4423,11 @@
         <v>3802.6</v>
       </c>
       <c r="T86" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2043072</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1111967.2125901876</v>
       </c>
       <c r="V86" s="1">
@@ -4292,11 +4454,11 @@
         <v>3261.3333333333335</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2045727</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1115228.5459235208</v>
       </c>
       <c r="V87" s="1">
@@ -4323,11 +4485,11 @@
         <v>2728.4444444444443</v>
       </c>
       <c r="T88" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2047725</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1117956.9903679653</v>
       </c>
       <c r="V88" s="1">
@@ -4354,11 +4516,11 @@
         <v>2059.7777777777778</v>
       </c>
       <c r="T89" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2049017</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1120016.7681457431</v>
       </c>
       <c r="V89" s="1">
@@ -4385,11 +4547,11 @@
         <v>1764.2222222222222</v>
       </c>
       <c r="T90" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2049846</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1121780.9903679653</v>
       </c>
       <c r="V90" s="1">
@@ -4416,11 +4578,11 @@
         <v>1664.125</v>
       </c>
       <c r="T91" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2051014</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1123445.1153679653</v>
       </c>
       <c r="V91" s="1">
@@ -4447,11 +4609,11 @@
         <v>1687.375</v>
       </c>
       <c r="T92" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2051949</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1125132.4903679653</v>
       </c>
       <c r="V92" s="1">
@@ -4478,11 +4640,11 @@
         <v>868.83333333333337</v>
       </c>
       <c r="T93" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2052845</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1126001.3237012986</v>
       </c>
       <c r="V93" s="1">
@@ -4506,11 +4668,11 @@
         <v>707.66666666666663</v>
       </c>
       <c r="T94" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2052845</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1126708.9903679653</v>
       </c>
       <c r="V94" s="1">
@@ -4534,11 +4696,11 @@
         <v>440</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2052845</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1127148.9903679653</v>
       </c>
       <c r="V95" s="1">
@@ -4562,11 +4724,11 @@
         <v>720.66666666666663</v>
       </c>
       <c r="T96" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2052845</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1127869.6570346321</v>
       </c>
       <c r="V96" s="1">
@@ -4590,11 +4752,11 @@
         <v>238</v>
       </c>
       <c r="T97" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2052845</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1128107.6570346321</v>
       </c>
       <c r="V97" s="1">
@@ -4618,11 +4780,11 @@
         <v>323</v>
       </c>
       <c r="T98" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2052845</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1128430.6570346321</v>
       </c>
       <c r="V98" s="1">
@@ -4646,11 +4808,11 @@
         <v>250</v>
       </c>
       <c r="T99" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2052845</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V99" s="1">
@@ -4671,11 +4833,11 @@
         <v>45572</v>
       </c>
       <c r="T100" s="1">
-        <f t="shared" ref="T100:U108" si="31">T99+R100</f>
+        <f t="shared" ref="T100:U108" si="43">T99+R100</f>
         <v>2052845</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V100" s="1">
@@ -4696,11 +4858,11 @@
         <v>45573</v>
       </c>
       <c r="T101" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>2052845</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V101" s="1">
@@ -4715,11 +4877,11 @@
         <v>45574</v>
       </c>
       <c r="T102" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>2052845</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V102" s="1">
@@ -4734,11 +4896,11 @@
         <v>45575</v>
       </c>
       <c r="T103" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>2052845</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V103" s="1">
@@ -4753,11 +4915,11 @@
         <v>45576</v>
       </c>
       <c r="T104" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>2052845</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V104" s="1">
@@ -4772,11 +4934,11 @@
         <v>45577</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>2052845</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V105" s="1">
@@ -4791,11 +4953,11 @@
         <v>45578</v>
       </c>
       <c r="T106" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>2052845</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V106" s="1">
@@ -4810,11 +4972,11 @@
         <v>45579</v>
       </c>
       <c r="T107" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>2052845</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V107" s="1">
@@ -4829,11 +4991,11 @@
         <v>45580</v>
       </c>
       <c r="T108" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>2052845</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V108" s="1">

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd97481b0ff2b3c9/Documents/R/skeena-sockeye-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00CE6239-520D-4D9B-A0B4-ACA6EC44DC16}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A86474AC-6808-4109-B472-8DECCB491A4F}"/>
   <bookViews>
-    <workbookView xWindow="-20655" yWindow="5175" windowWidth="19200" windowHeight="11175" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="1450" yWindow="830" windowWidth="20410" windowHeight="13740" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -504,7 +504,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L28" sqref="L28:Q29"/>
+      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2460,11 +2460,11 @@
         <v>93600</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" ref="M27:M29" si="28">I27+K27</f>
+        <f t="shared" ref="M27:M28" si="28">I27+K27</f>
         <v>0</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" ref="N27:N29" si="29">B27+M27</f>
+        <f t="shared" ref="N27:N28" si="29">B27+M27</f>
         <v>18159</v>
       </c>
       <c r="O27" s="1">
@@ -2472,7 +2472,7 @@
         <v>93600</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" ref="P27:P29" si="31">C27+J27</f>
+        <f t="shared" ref="P27:P28" si="31">C27+J27</f>
         <v>919</v>
       </c>
       <c r="Q27" s="1">
@@ -2626,27 +2626,27 @@
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" ref="L29" si="33">L28+B29</f>
+        <f>L28+B29</f>
         <v>125878</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" ref="M29" si="34">I29+K29</f>
+        <f t="shared" ref="M29:M30" si="33">I29+K29</f>
         <v>0</v>
       </c>
       <c r="N29" s="2">
-        <f t="shared" ref="N29" si="35">B29+M29</f>
+        <f t="shared" ref="N29:N30" si="34">B29+M29</f>
         <v>15879</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" ref="O29" si="36">O28+N29</f>
+        <f t="shared" ref="O29" si="35">O28+N29</f>
         <v>125878</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" ref="P29" si="37">C29+J29</f>
+        <f t="shared" ref="P29:P30" si="36">C29+J29</f>
         <v>1535</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" ref="Q29" si="38">P29+Q28</f>
+        <f t="shared" ref="Q29" si="37">P29+Q28</f>
         <v>6175</v>
       </c>
       <c r="R29" s="1">
@@ -2680,6 +2680,60 @@
       <c r="A30" s="3">
         <v>45502</v>
       </c>
+      <c r="B30">
+        <v>14197</v>
+      </c>
+      <c r="C30">
+        <v>1005</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <f>L29+B30</f>
+        <v>140075</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" ref="M30" si="38">I30+K30</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" ref="N30" si="39">B30+M30</f>
+        <v>14197</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" ref="O30" si="40">O29+N30</f>
+        <v>140075</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" ref="P30" si="41">C30+J30</f>
+        <v>1005</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" ref="Q30" si="42">P30+Q29</f>
+        <v>7180</v>
+      </c>
       <c r="R30" s="1">
         <v>31775</v>
       </c>
@@ -2873,11 +2927,11 @@
         <v>18790.8</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" ref="T36:U51" si="39">T35+R36</f>
+        <f t="shared" ref="T36:U51" si="43">T35+R36</f>
         <v>520442</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>179104.5853174603</v>
       </c>
       <c r="V36" s="1">
@@ -2904,11 +2958,11 @@
         <v>25713.3</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>550390</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>204817.88531746028</v>
       </c>
       <c r="V37" s="1">
@@ -2935,11 +2989,11 @@
         <v>18006.400000000001</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>581098</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>222824.28531746028</v>
       </c>
       <c r="V38" s="1">
@@ -2966,11 +3020,11 @@
         <v>24560.3</v>
       </c>
       <c r="T39" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>605588</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>247384.58531746027</v>
       </c>
       <c r="V39" s="1">
@@ -2997,11 +3051,11 @@
         <v>22302.5</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>627171</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>269687.08531746024</v>
       </c>
       <c r="V40" s="1">
@@ -3028,11 +3082,11 @@
         <v>36342.400000000001</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>652373</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>306029.48531746026</v>
       </c>
       <c r="V41" s="1">
@@ -3059,11 +3113,11 @@
         <v>26445.363636363636</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>675506</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>332474.84895382391</v>
       </c>
       <c r="V42" s="1">
@@ -3090,11 +3144,11 @@
         <v>28798.363636363636</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>717110</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>361273.21259018756</v>
       </c>
       <c r="V43" s="1">
@@ -3121,11 +3175,11 @@
         <v>22717.545454545456</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>740207</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>383990.75804473303</v>
       </c>
       <c r="V44" s="1">
@@ -3152,11 +3206,11 @@
         <v>24761.090909090908</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>770155</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>408751.84895382391</v>
       </c>
       <c r="V45" s="1">
@@ -3183,11 +3237,11 @@
         <v>27668.909090909092</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>813557</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>436420.75804473303</v>
       </c>
       <c r="V46" s="1">
@@ -3214,11 +3268,11 @@
         <v>28715</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>849071</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>465135.75804473303</v>
       </c>
       <c r="V47" s="1">
@@ -3245,11 +3299,11 @@
         <v>19741.18181818182</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>891191</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>484876.93986291485</v>
       </c>
       <c r="V48" s="1">
@@ -3276,11 +3330,11 @@
         <v>24994.81818181818</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>963510</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>509871.75804473303</v>
       </c>
       <c r="V49" s="1">
@@ -3307,11 +3361,11 @@
         <v>30512.18181818182</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1014593</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>540383.93986291485</v>
       </c>
       <c r="V50" s="1">
@@ -3338,11 +3392,11 @@
         <v>29755.272727272728</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1077884</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>570139.21259018756</v>
       </c>
       <c r="V51" s="1">
@@ -3369,11 +3423,11 @@
         <v>29568.909090909092</v>
       </c>
       <c r="T52" s="1">
-        <f t="shared" ref="T52:U67" si="40">T51+R52</f>
+        <f t="shared" ref="T52:U67" si="44">T51+R52</f>
         <v>1114483</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>599708.12168109661</v>
       </c>
       <c r="V52" s="1">
@@ -3400,11 +3454,11 @@
         <v>27004.636363636364</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1174452</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>626712.75804473297</v>
       </c>
       <c r="V53" s="1">
@@ -3431,11 +3485,11 @@
         <v>26730.909090909092</v>
       </c>
       <c r="T54" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1202504</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>653443.66713564203</v>
       </c>
       <c r="V54" s="1">
@@ -3462,11 +3516,11 @@
         <v>22068.454545454544</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1277668</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>675512.12168109661</v>
       </c>
       <c r="V55" s="1">
@@ -3493,11 +3547,11 @@
         <v>24809.363636363636</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1370228</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>700321.48531746026</v>
       </c>
       <c r="V56" s="1">
@@ -3524,11 +3578,11 @@
         <v>28342.545454545456</v>
       </c>
       <c r="T57" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1440848</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>728664.03077200567</v>
       </c>
       <c r="V57" s="1">
@@ -3555,11 +3609,11 @@
         <v>26309.272727272728</v>
       </c>
       <c r="T58" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1497008</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>754973.30349927838</v>
       </c>
       <c r="V58" s="1">
@@ -3586,11 +3640,11 @@
         <v>23571.727272727272</v>
       </c>
       <c r="T59" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1540279</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>778545.03077200567</v>
       </c>
       <c r="V59" s="1">
@@ -3617,11 +3671,11 @@
         <v>21629.454545454544</v>
       </c>
       <c r="T60" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1594464</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>800174.48531746026</v>
       </c>
       <c r="V60" s="1">
@@ -3648,11 +3702,11 @@
         <v>21511.909090909092</v>
       </c>
       <c r="T61" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1642593</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>821686.39440836932</v>
       </c>
       <c r="V61" s="1">
@@ -3679,11 +3733,11 @@
         <v>19461.272727272728</v>
       </c>
       <c r="T62" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1678981</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>841147.66713564203</v>
       </c>
       <c r="V62" s="1">
@@ -3710,11 +3764,11 @@
         <v>17916.636363636364</v>
       </c>
       <c r="T63" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1711287</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>859064.30349927838</v>
       </c>
       <c r="V63" s="1">
@@ -3741,11 +3795,11 @@
         <v>17763.909090909092</v>
       </c>
       <c r="T64" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1744119</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>876828.21259018744</v>
       </c>
       <c r="V64" s="1">
@@ -3772,11 +3826,11 @@
         <v>17535.090909090908</v>
       </c>
       <c r="T65" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1768866</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>894363.30349927838</v>
       </c>
       <c r="V65" s="1">
@@ -3803,11 +3857,11 @@
         <v>17130.18181818182</v>
       </c>
       <c r="T66" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1794920</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>911493.48531746014</v>
       </c>
       <c r="V66" s="1">
@@ -3834,11 +3888,11 @@
         <v>17186.363636363636</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1816116</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>928679.84895382379</v>
       </c>
       <c r="V67" s="1">
@@ -3865,11 +3919,11 @@
         <v>14679.636363636364</v>
       </c>
       <c r="T68" s="1">
-        <f t="shared" ref="T68:U83" si="41">T67+R68</f>
+        <f t="shared" ref="T68:U83" si="45">T67+R68</f>
         <v>1846521</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>943359.48531746014</v>
       </c>
       <c r="V68" s="1">
@@ -3896,11 +3950,11 @@
         <v>15690.818181818182</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1878833</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>959050.30349927838</v>
       </c>
       <c r="V69" s="1">
@@ -3927,11 +3981,11 @@
         <v>14967.545454545454</v>
       </c>
       <c r="T70" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1901010</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>974017.84895382379</v>
       </c>
       <c r="V70" s="1">
@@ -3958,11 +4012,11 @@
         <v>14546.818181818182</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1914981</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>988564.66713564203</v>
       </c>
       <c r="V71" s="1">
@@ -3989,11 +4043,11 @@
         <v>13876.272727272728</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1928616</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1002440.9398629147</v>
       </c>
       <c r="V72" s="1">
@@ -4020,11 +4074,11 @@
         <v>12522.363636363636</v>
       </c>
       <c r="T73" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1938412</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1014963.3034992784</v>
       </c>
       <c r="V73" s="1">
@@ -4051,11 +4105,11 @@
         <v>12105.636363636364</v>
       </c>
       <c r="T74" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1946010</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1027068.9398629147</v>
       </c>
       <c r="V74" s="1">
@@ -4082,11 +4136,11 @@
         <v>11272.545454545454</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1953188</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1038341.4853174601</v>
       </c>
       <c r="V75" s="1">
@@ -4113,11 +4167,11 @@
         <v>9771.0909090909099</v>
       </c>
       <c r="T76" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1962346</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1048112.5762265511</v>
       </c>
       <c r="V76" s="1">
@@ -4144,11 +4198,11 @@
         <v>7589.909090909091</v>
       </c>
       <c r="T77" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1973666</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1055702.4853174603</v>
       </c>
       <c r="V77" s="1">
@@ -4175,11 +4229,11 @@
         <v>8318.545454545454</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1981697</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1064021.0307720057</v>
       </c>
       <c r="V78" s="1">
@@ -4206,11 +4260,11 @@
         <v>7405.727272727273</v>
       </c>
       <c r="T79" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1991144</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1071426.758044733</v>
       </c>
       <c r="V79" s="1">
@@ -4237,11 +4291,11 @@
         <v>7004.181818181818</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>2001289</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1078430.9398629148</v>
       </c>
       <c r="V80" s="1">
@@ -4268,11 +4322,11 @@
         <v>6677.818181818182</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>2013289</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1085108.758044733</v>
       </c>
       <c r="V81" s="1">
@@ -4299,11 +4353,11 @@
         <v>6140.454545454545</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>2026172</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1091249.2125901876</v>
       </c>
       <c r="V82" s="1">
@@ -4330,11 +4384,11 @@
         <v>6411.4</v>
       </c>
       <c r="T83" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>2032538</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1097660.6125901875</v>
       </c>
       <c r="V83" s="1">
@@ -4361,11 +4415,11 @@
         <v>6189.6</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" ref="T84:U99" si="42">T83+R84</f>
+        <f t="shared" ref="T84:U99" si="46">T83+R84</f>
         <v>2036693</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1103850.2125901876</v>
       </c>
       <c r="V84" s="1">
@@ -4392,11 +4446,11 @@
         <v>4314.3999999999996</v>
       </c>
       <c r="T85" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>2039343</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1108164.6125901875</v>
       </c>
       <c r="V85" s="1">
@@ -4423,11 +4477,11 @@
         <v>3802.6</v>
       </c>
       <c r="T86" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>2043072</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1111967.2125901876</v>
       </c>
       <c r="V86" s="1">
@@ -4454,11 +4508,11 @@
         <v>3261.3333333333335</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>2045727</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1115228.5459235208</v>
       </c>
       <c r="V87" s="1">
@@ -4485,11 +4539,11 @@
         <v>2728.4444444444443</v>
       </c>
       <c r="T88" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>2047725</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1117956.9903679653</v>
       </c>
       <c r="V88" s="1">
@@ -4516,11 +4570,11 @@
         <v>2059.7777777777778</v>
       </c>
       <c r="T89" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>2049017</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1120016.7681457431</v>
       </c>
       <c r="V89" s="1">
@@ -4547,11 +4601,11 @@
         <v>1764.2222222222222</v>
       </c>
       <c r="T90" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>2049846</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1121780.9903679653</v>
       </c>
       <c r="V90" s="1">
@@ -4578,11 +4632,11 @@
         <v>1664.125</v>
       </c>
       <c r="T91" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>2051014</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1123445.1153679653</v>
       </c>
       <c r="V91" s="1">
@@ -4609,11 +4663,11 @@
         <v>1687.375</v>
       </c>
       <c r="T92" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>2051949</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1125132.4903679653</v>
       </c>
       <c r="V92" s="1">
@@ -4640,11 +4694,11 @@
         <v>868.83333333333337</v>
       </c>
       <c r="T93" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>2052845</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1126001.3237012986</v>
       </c>
       <c r="V93" s="1">
@@ -4668,11 +4722,11 @@
         <v>707.66666666666663</v>
       </c>
       <c r="T94" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>2052845</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1126708.9903679653</v>
       </c>
       <c r="V94" s="1">
@@ -4696,11 +4750,11 @@
         <v>440</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>2052845</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1127148.9903679653</v>
       </c>
       <c r="V95" s="1">
@@ -4724,11 +4778,11 @@
         <v>720.66666666666663</v>
       </c>
       <c r="T96" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>2052845</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1127869.6570346321</v>
       </c>
       <c r="V96" s="1">
@@ -4752,11 +4806,11 @@
         <v>238</v>
       </c>
       <c r="T97" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>2052845</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1128107.6570346321</v>
       </c>
       <c r="V97" s="1">
@@ -4780,11 +4834,11 @@
         <v>323</v>
       </c>
       <c r="T98" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>2052845</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1128430.6570346321</v>
       </c>
       <c r="V98" s="1">
@@ -4808,11 +4862,11 @@
         <v>250</v>
       </c>
       <c r="T99" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>2052845</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V99" s="1">
@@ -4833,11 +4887,11 @@
         <v>45572</v>
       </c>
       <c r="T100" s="1">
-        <f t="shared" ref="T100:U108" si="43">T99+R100</f>
+        <f t="shared" ref="T100:U108" si="47">T99+R100</f>
         <v>2052845</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V100" s="1">
@@ -4858,11 +4912,11 @@
         <v>45573</v>
       </c>
       <c r="T101" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>2052845</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V101" s="1">
@@ -4877,11 +4931,11 @@
         <v>45574</v>
       </c>
       <c r="T102" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>2052845</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V102" s="1">
@@ -4896,11 +4950,11 @@
         <v>45575</v>
       </c>
       <c r="T103" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>2052845</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V103" s="1">
@@ -4915,11 +4969,11 @@
         <v>45576</v>
       </c>
       <c r="T104" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>2052845</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V104" s="1">
@@ -4934,11 +4988,11 @@
         <v>45577</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>2052845</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V105" s="1">
@@ -4953,11 +5007,11 @@
         <v>45578</v>
       </c>
       <c r="T106" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>2052845</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V106" s="1">
@@ -4972,11 +5026,11 @@
         <v>45579</v>
       </c>
       <c r="T107" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>2052845</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V107" s="1">
@@ -4991,11 +5045,11 @@
         <v>45580</v>
       </c>
       <c r="T108" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>2052845</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V108" s="1">

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd97481b0ff2b3c9/Documents/R/skeena-sockeye-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A86474AC-6808-4109-B472-8DECCB491A4F}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1E7C0DA-7D5E-417D-B7C4-FCCD100A5DD7}"/>
   <bookViews>
-    <workbookView xWindow="1450" yWindow="830" windowWidth="20410" windowHeight="13740" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -501,10 +501,10 @@
   <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30:Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2630,11 +2630,11 @@
         <v>125878</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" ref="M29:M30" si="33">I29+K29</f>
+        <f t="shared" ref="M29" si="33">I29+K29</f>
         <v>0</v>
       </c>
       <c r="N29" s="2">
-        <f t="shared" ref="N29:N30" si="34">B29+M29</f>
+        <f t="shared" ref="N29" si="34">B29+M29</f>
         <v>15879</v>
       </c>
       <c r="O29" s="1">
@@ -2642,7 +2642,7 @@
         <v>125878</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" ref="P29:P30" si="36">C29+J29</f>
+        <f t="shared" ref="P29" si="36">C29+J29</f>
         <v>1535</v>
       </c>
       <c r="Q29" s="1">
@@ -2715,11 +2715,11 @@
         <v>140075</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" ref="M30" si="38">I30+K30</f>
+        <f t="shared" ref="M30:M32" si="38">I30+K30</f>
         <v>0</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" ref="N30" si="39">B30+M30</f>
+        <f t="shared" ref="N30:N32" si="39">B30+M30</f>
         <v>14197</v>
       </c>
       <c r="O30" s="1">
@@ -2727,7 +2727,7 @@
         <v>140075</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" ref="P30" si="41">C30+J30</f>
+        <f t="shared" ref="P30:P32" si="41">C30+J30</f>
         <v>1005</v>
       </c>
       <c r="Q30" s="1">
@@ -2765,6 +2765,60 @@
       <c r="A31" s="3">
         <v>45503</v>
       </c>
+      <c r="B31">
+        <v>9611</v>
+      </c>
+      <c r="C31">
+        <v>705</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" ref="L31:L32" si="43">L30+B31</f>
+        <v>149686</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" ref="M31:M32" si="44">I31+K31</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" ref="N31:N32" si="45">B31+M31</f>
+        <v>9611</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" ref="O31:O32" si="46">O30+N31</f>
+        <v>149686</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" ref="P31:P32" si="47">C31+J31</f>
+        <v>705</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" ref="Q31:Q32" si="48">P31+Q30</f>
+        <v>7885</v>
+      </c>
       <c r="R31" s="1">
         <v>27571</v>
       </c>
@@ -2796,6 +2850,60 @@
       <c r="A32" s="3">
         <v>45504</v>
       </c>
+      <c r="B32">
+        <v>10056</v>
+      </c>
+      <c r="C32">
+        <v>948</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>24</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="43"/>
+        <v>159742</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="45"/>
+        <v>10056</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="46"/>
+        <v>159742</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="47"/>
+        <v>948</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="48"/>
+        <v>8833</v>
+      </c>
       <c r="R32" s="1">
         <v>26853</v>
       </c>
@@ -2927,11 +3035,11 @@
         <v>18790.8</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" ref="T36:U51" si="43">T35+R36</f>
+        <f t="shared" ref="T36:U51" si="49">T35+R36</f>
         <v>520442</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>179104.5853174603</v>
       </c>
       <c r="V36" s="1">
@@ -2958,11 +3066,11 @@
         <v>25713.3</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>550390</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>204817.88531746028</v>
       </c>
       <c r="V37" s="1">
@@ -2989,11 +3097,11 @@
         <v>18006.400000000001</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>581098</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>222824.28531746028</v>
       </c>
       <c r="V38" s="1">
@@ -3020,11 +3128,11 @@
         <v>24560.3</v>
       </c>
       <c r="T39" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>605588</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>247384.58531746027</v>
       </c>
       <c r="V39" s="1">
@@ -3051,11 +3159,11 @@
         <v>22302.5</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>627171</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>269687.08531746024</v>
       </c>
       <c r="V40" s="1">
@@ -3082,11 +3190,11 @@
         <v>36342.400000000001</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>652373</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>306029.48531746026</v>
       </c>
       <c r="V41" s="1">
@@ -3113,11 +3221,11 @@
         <v>26445.363636363636</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>675506</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>332474.84895382391</v>
       </c>
       <c r="V42" s="1">
@@ -3144,11 +3252,11 @@
         <v>28798.363636363636</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>717110</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>361273.21259018756</v>
       </c>
       <c r="V43" s="1">
@@ -3175,11 +3283,11 @@
         <v>22717.545454545456</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>740207</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>383990.75804473303</v>
       </c>
       <c r="V44" s="1">
@@ -3206,11 +3314,11 @@
         <v>24761.090909090908</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>770155</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>408751.84895382391</v>
       </c>
       <c r="V45" s="1">
@@ -3237,11 +3345,11 @@
         <v>27668.909090909092</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>813557</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>436420.75804473303</v>
       </c>
       <c r="V46" s="1">
@@ -3268,11 +3376,11 @@
         <v>28715</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>849071</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>465135.75804473303</v>
       </c>
       <c r="V47" s="1">
@@ -3299,11 +3407,11 @@
         <v>19741.18181818182</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>891191</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>484876.93986291485</v>
       </c>
       <c r="V48" s="1">
@@ -3330,11 +3438,11 @@
         <v>24994.81818181818</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>963510</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>509871.75804473303</v>
       </c>
       <c r="V49" s="1">
@@ -3361,11 +3469,11 @@
         <v>30512.18181818182</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>1014593</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>540383.93986291485</v>
       </c>
       <c r="V50" s="1">
@@ -3392,11 +3500,11 @@
         <v>29755.272727272728</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>1077884</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>570139.21259018756</v>
       </c>
       <c r="V51" s="1">
@@ -3423,11 +3531,11 @@
         <v>29568.909090909092</v>
       </c>
       <c r="T52" s="1">
-        <f t="shared" ref="T52:U67" si="44">T51+R52</f>
+        <f t="shared" ref="T52:U67" si="50">T51+R52</f>
         <v>1114483</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>599708.12168109661</v>
       </c>
       <c r="V52" s="1">
@@ -3454,11 +3562,11 @@
         <v>27004.636363636364</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1174452</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>626712.75804473297</v>
       </c>
       <c r="V53" s="1">
@@ -3485,11 +3593,11 @@
         <v>26730.909090909092</v>
       </c>
       <c r="T54" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1202504</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>653443.66713564203</v>
       </c>
       <c r="V54" s="1">
@@ -3516,11 +3624,11 @@
         <v>22068.454545454544</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1277668</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>675512.12168109661</v>
       </c>
       <c r="V55" s="1">
@@ -3547,11 +3655,11 @@
         <v>24809.363636363636</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1370228</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>700321.48531746026</v>
       </c>
       <c r="V56" s="1">
@@ -3578,11 +3686,11 @@
         <v>28342.545454545456</v>
       </c>
       <c r="T57" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1440848</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>728664.03077200567</v>
       </c>
       <c r="V57" s="1">
@@ -3609,11 +3717,11 @@
         <v>26309.272727272728</v>
       </c>
       <c r="T58" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1497008</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>754973.30349927838</v>
       </c>
       <c r="V58" s="1">
@@ -3640,11 +3748,11 @@
         <v>23571.727272727272</v>
       </c>
       <c r="T59" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1540279</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>778545.03077200567</v>
       </c>
       <c r="V59" s="1">
@@ -3671,11 +3779,11 @@
         <v>21629.454545454544</v>
       </c>
       <c r="T60" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1594464</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>800174.48531746026</v>
       </c>
       <c r="V60" s="1">
@@ -3702,11 +3810,11 @@
         <v>21511.909090909092</v>
       </c>
       <c r="T61" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1642593</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>821686.39440836932</v>
       </c>
       <c r="V61" s="1">
@@ -3733,11 +3841,11 @@
         <v>19461.272727272728</v>
       </c>
       <c r="T62" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1678981</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>841147.66713564203</v>
       </c>
       <c r="V62" s="1">
@@ -3764,11 +3872,11 @@
         <v>17916.636363636364</v>
       </c>
       <c r="T63" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1711287</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>859064.30349927838</v>
       </c>
       <c r="V63" s="1">
@@ -3795,11 +3903,11 @@
         <v>17763.909090909092</v>
       </c>
       <c r="T64" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1744119</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>876828.21259018744</v>
       </c>
       <c r="V64" s="1">
@@ -3826,11 +3934,11 @@
         <v>17535.090909090908</v>
       </c>
       <c r="T65" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1768866</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>894363.30349927838</v>
       </c>
       <c r="V65" s="1">
@@ -3857,11 +3965,11 @@
         <v>17130.18181818182</v>
       </c>
       <c r="T66" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1794920</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>911493.48531746014</v>
       </c>
       <c r="V66" s="1">
@@ -3888,11 +3996,11 @@
         <v>17186.363636363636</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>1816116</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>928679.84895382379</v>
       </c>
       <c r="V67" s="1">
@@ -3919,11 +4027,11 @@
         <v>14679.636363636364</v>
       </c>
       <c r="T68" s="1">
-        <f t="shared" ref="T68:U83" si="45">T67+R68</f>
+        <f t="shared" ref="T68:U83" si="51">T67+R68</f>
         <v>1846521</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>943359.48531746014</v>
       </c>
       <c r="V68" s="1">
@@ -3950,11 +4058,11 @@
         <v>15690.818181818182</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1878833</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>959050.30349927838</v>
       </c>
       <c r="V69" s="1">
@@ -3981,11 +4089,11 @@
         <v>14967.545454545454</v>
       </c>
       <c r="T70" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1901010</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>974017.84895382379</v>
       </c>
       <c r="V70" s="1">
@@ -4012,11 +4120,11 @@
         <v>14546.818181818182</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1914981</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>988564.66713564203</v>
       </c>
       <c r="V71" s="1">
@@ -4043,11 +4151,11 @@
         <v>13876.272727272728</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1928616</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1002440.9398629147</v>
       </c>
       <c r="V72" s="1">
@@ -4074,11 +4182,11 @@
         <v>12522.363636363636</v>
       </c>
       <c r="T73" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1938412</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1014963.3034992784</v>
       </c>
       <c r="V73" s="1">
@@ -4105,11 +4213,11 @@
         <v>12105.636363636364</v>
       </c>
       <c r="T74" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1946010</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1027068.9398629147</v>
       </c>
       <c r="V74" s="1">
@@ -4136,11 +4244,11 @@
         <v>11272.545454545454</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1953188</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1038341.4853174601</v>
       </c>
       <c r="V75" s="1">
@@ -4167,11 +4275,11 @@
         <v>9771.0909090909099</v>
       </c>
       <c r="T76" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1962346</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1048112.5762265511</v>
       </c>
       <c r="V76" s="1">
@@ -4198,11 +4306,11 @@
         <v>7589.909090909091</v>
       </c>
       <c r="T77" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1973666</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1055702.4853174603</v>
       </c>
       <c r="V77" s="1">
@@ -4229,11 +4337,11 @@
         <v>8318.545454545454</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1981697</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1064021.0307720057</v>
       </c>
       <c r="V78" s="1">
@@ -4260,11 +4368,11 @@
         <v>7405.727272727273</v>
       </c>
       <c r="T79" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1991144</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1071426.758044733</v>
       </c>
       <c r="V79" s="1">
@@ -4291,11 +4399,11 @@
         <v>7004.181818181818</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>2001289</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1078430.9398629148</v>
       </c>
       <c r="V80" s="1">
@@ -4322,11 +4430,11 @@
         <v>6677.818181818182</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>2013289</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1085108.758044733</v>
       </c>
       <c r="V81" s="1">
@@ -4353,11 +4461,11 @@
         <v>6140.454545454545</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>2026172</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1091249.2125901876</v>
       </c>
       <c r="V82" s="1">
@@ -4384,11 +4492,11 @@
         <v>6411.4</v>
       </c>
       <c r="T83" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>2032538</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>1097660.6125901875</v>
       </c>
       <c r="V83" s="1">
@@ -4415,11 +4523,11 @@
         <v>6189.6</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" ref="T84:U99" si="46">T83+R84</f>
+        <f t="shared" ref="T84:U99" si="52">T83+R84</f>
         <v>2036693</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1103850.2125901876</v>
       </c>
       <c r="V84" s="1">
@@ -4446,11 +4554,11 @@
         <v>4314.3999999999996</v>
       </c>
       <c r="T85" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>2039343</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1108164.6125901875</v>
       </c>
       <c r="V85" s="1">
@@ -4477,11 +4585,11 @@
         <v>3802.6</v>
       </c>
       <c r="T86" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>2043072</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1111967.2125901876</v>
       </c>
       <c r="V86" s="1">
@@ -4508,11 +4616,11 @@
         <v>3261.3333333333335</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>2045727</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1115228.5459235208</v>
       </c>
       <c r="V87" s="1">
@@ -4539,11 +4647,11 @@
         <v>2728.4444444444443</v>
       </c>
       <c r="T88" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>2047725</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1117956.9903679653</v>
       </c>
       <c r="V88" s="1">
@@ -4570,11 +4678,11 @@
         <v>2059.7777777777778</v>
       </c>
       <c r="T89" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>2049017</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1120016.7681457431</v>
       </c>
       <c r="V89" s="1">
@@ -4601,11 +4709,11 @@
         <v>1764.2222222222222</v>
       </c>
       <c r="T90" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>2049846</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1121780.9903679653</v>
       </c>
       <c r="V90" s="1">
@@ -4632,11 +4740,11 @@
         <v>1664.125</v>
       </c>
       <c r="T91" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>2051014</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1123445.1153679653</v>
       </c>
       <c r="V91" s="1">
@@ -4663,11 +4771,11 @@
         <v>1687.375</v>
       </c>
       <c r="T92" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>2051949</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1125132.4903679653</v>
       </c>
       <c r="V92" s="1">
@@ -4694,11 +4802,11 @@
         <v>868.83333333333337</v>
       </c>
       <c r="T93" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>2052845</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1126001.3237012986</v>
       </c>
       <c r="V93" s="1">
@@ -4722,11 +4830,11 @@
         <v>707.66666666666663</v>
       </c>
       <c r="T94" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>2052845</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1126708.9903679653</v>
       </c>
       <c r="V94" s="1">
@@ -4750,11 +4858,11 @@
         <v>440</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>2052845</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1127148.9903679653</v>
       </c>
       <c r="V95" s="1">
@@ -4778,11 +4886,11 @@
         <v>720.66666666666663</v>
       </c>
       <c r="T96" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>2052845</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1127869.6570346321</v>
       </c>
       <c r="V96" s="1">
@@ -4806,11 +4914,11 @@
         <v>238</v>
       </c>
       <c r="T97" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>2052845</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1128107.6570346321</v>
       </c>
       <c r="V97" s="1">
@@ -4834,11 +4942,11 @@
         <v>323</v>
       </c>
       <c r="T98" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>2052845</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1128430.6570346321</v>
       </c>
       <c r="V98" s="1">
@@ -4862,11 +4970,11 @@
         <v>250</v>
       </c>
       <c r="T99" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>2052845</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V99" s="1">
@@ -4887,11 +4995,11 @@
         <v>45572</v>
       </c>
       <c r="T100" s="1">
-        <f t="shared" ref="T100:U108" si="47">T99+R100</f>
+        <f t="shared" ref="T100:U108" si="53">T99+R100</f>
         <v>2052845</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V100" s="1">
@@ -4912,11 +5020,11 @@
         <v>45573</v>
       </c>
       <c r="T101" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>2052845</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V101" s="1">
@@ -4931,11 +5039,11 @@
         <v>45574</v>
       </c>
       <c r="T102" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>2052845</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V102" s="1">
@@ -4950,11 +5058,11 @@
         <v>45575</v>
       </c>
       <c r="T103" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>2052845</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V103" s="1">
@@ -4969,11 +5077,11 @@
         <v>45576</v>
       </c>
       <c r="T104" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>2052845</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V104" s="1">
@@ -4988,11 +5096,11 @@
         <v>45577</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>2052845</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V105" s="1">
@@ -5007,11 +5115,11 @@
         <v>45578</v>
       </c>
       <c r="T106" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>2052845</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V106" s="1">
@@ -5026,11 +5134,11 @@
         <v>45579</v>
       </c>
       <c r="T107" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>2052845</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V107" s="1">
@@ -5045,11 +5153,11 @@
         <v>45580</v>
       </c>
       <c r="T108" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>2052845</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V108" s="1">

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd97481b0ff2b3c9/Documents/R/skeena-sockeye-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1E7C0DA-7D5E-417D-B7C4-FCCD100A5DD7}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2628363-1FCE-4278-94DA-F81E9CBB2179}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="4510" yWindow="1630" windowWidth="16800" windowHeight="11350" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -504,7 +504,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30:Q32"/>
+      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2715,11 +2715,11 @@
         <v>140075</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" ref="M30:M32" si="38">I30+K30</f>
+        <f t="shared" ref="M30" si="38">I30+K30</f>
         <v>0</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" ref="N30:N32" si="39">B30+M30</f>
+        <f t="shared" ref="N30" si="39">B30+M30</f>
         <v>14197</v>
       </c>
       <c r="O30" s="1">
@@ -2727,7 +2727,7 @@
         <v>140075</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" ref="P30:P32" si="41">C30+J30</f>
+        <f t="shared" ref="P30" si="41">C30+J30</f>
         <v>1005</v>
       </c>
       <c r="Q30" s="1">
@@ -2800,11 +2800,11 @@
         <v>149686</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" ref="M31:M32" si="44">I31+K31</f>
+        <f t="shared" ref="M31:M33" si="44">I31+K31</f>
         <v>0</v>
       </c>
       <c r="N31" s="2">
-        <f t="shared" ref="N31:N32" si="45">B31+M31</f>
+        <f t="shared" ref="N31:N33" si="45">B31+M31</f>
         <v>9611</v>
       </c>
       <c r="O31" s="1">
@@ -2812,7 +2812,7 @@
         <v>149686</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" ref="P31:P32" si="47">C31+J31</f>
+        <f t="shared" ref="P31:P33" si="47">C31+J31</f>
         <v>705</v>
       </c>
       <c r="Q31" s="1">
@@ -2935,6 +2935,60 @@
       <c r="A33" s="3">
         <v>45505</v>
       </c>
+      <c r="B33">
+        <v>17509</v>
+      </c>
+      <c r="C33">
+        <v>1417</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>57</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" ref="L33" si="49">L32+B33</f>
+        <v>177251</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" ref="M33" si="50">I33+K33</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" ref="N33" si="51">B33+M33</f>
+        <v>17509</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" ref="O33" si="52">O32+N33</f>
+        <v>177251</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" ref="P33" si="53">C33+J33</f>
+        <v>1417</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" ref="Q33" si="54">P33+Q32</f>
+        <v>10250</v>
+      </c>
       <c r="R33" s="1">
         <v>21710</v>
       </c>
@@ -3035,11 +3089,11 @@
         <v>18790.8</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" ref="T36:U51" si="49">T35+R36</f>
+        <f t="shared" ref="T36:U51" si="55">T35+R36</f>
         <v>520442</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>179104.5853174603</v>
       </c>
       <c r="V36" s="1">
@@ -3066,11 +3120,11 @@
         <v>25713.3</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>550390</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>204817.88531746028</v>
       </c>
       <c r="V37" s="1">
@@ -3097,11 +3151,11 @@
         <v>18006.400000000001</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>581098</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>222824.28531746028</v>
       </c>
       <c r="V38" s="1">
@@ -3128,11 +3182,11 @@
         <v>24560.3</v>
       </c>
       <c r="T39" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>605588</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>247384.58531746027</v>
       </c>
       <c r="V39" s="1">
@@ -3159,11 +3213,11 @@
         <v>22302.5</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>627171</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>269687.08531746024</v>
       </c>
       <c r="V40" s="1">
@@ -3190,11 +3244,11 @@
         <v>36342.400000000001</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>652373</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>306029.48531746026</v>
       </c>
       <c r="V41" s="1">
@@ -3221,11 +3275,11 @@
         <v>26445.363636363636</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>675506</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>332474.84895382391</v>
       </c>
       <c r="V42" s="1">
@@ -3252,11 +3306,11 @@
         <v>28798.363636363636</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>717110</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>361273.21259018756</v>
       </c>
       <c r="V43" s="1">
@@ -3283,11 +3337,11 @@
         <v>22717.545454545456</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>740207</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>383990.75804473303</v>
       </c>
       <c r="V44" s="1">
@@ -3314,11 +3368,11 @@
         <v>24761.090909090908</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>770155</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>408751.84895382391</v>
       </c>
       <c r="V45" s="1">
@@ -3345,11 +3399,11 @@
         <v>27668.909090909092</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>813557</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>436420.75804473303</v>
       </c>
       <c r="V46" s="1">
@@ -3376,11 +3430,11 @@
         <v>28715</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>849071</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>465135.75804473303</v>
       </c>
       <c r="V47" s="1">
@@ -3407,11 +3461,11 @@
         <v>19741.18181818182</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>891191</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>484876.93986291485</v>
       </c>
       <c r="V48" s="1">
@@ -3438,11 +3492,11 @@
         <v>24994.81818181818</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>963510</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>509871.75804473303</v>
       </c>
       <c r="V49" s="1">
@@ -3469,11 +3523,11 @@
         <v>30512.18181818182</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>1014593</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>540383.93986291485</v>
       </c>
       <c r="V50" s="1">
@@ -3500,11 +3554,11 @@
         <v>29755.272727272728</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>1077884</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>570139.21259018756</v>
       </c>
       <c r="V51" s="1">
@@ -3531,11 +3585,11 @@
         <v>29568.909090909092</v>
       </c>
       <c r="T52" s="1">
-        <f t="shared" ref="T52:U67" si="50">T51+R52</f>
+        <f t="shared" ref="T52:U67" si="56">T51+R52</f>
         <v>1114483</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>599708.12168109661</v>
       </c>
       <c r="V52" s="1">
@@ -3562,11 +3616,11 @@
         <v>27004.636363636364</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1174452</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>626712.75804473297</v>
       </c>
       <c r="V53" s="1">
@@ -3593,11 +3647,11 @@
         <v>26730.909090909092</v>
       </c>
       <c r="T54" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1202504</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>653443.66713564203</v>
       </c>
       <c r="V54" s="1">
@@ -3624,11 +3678,11 @@
         <v>22068.454545454544</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1277668</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>675512.12168109661</v>
       </c>
       <c r="V55" s="1">
@@ -3655,11 +3709,11 @@
         <v>24809.363636363636</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1370228</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>700321.48531746026</v>
       </c>
       <c r="V56" s="1">
@@ -3686,11 +3740,11 @@
         <v>28342.545454545456</v>
       </c>
       <c r="T57" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1440848</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>728664.03077200567</v>
       </c>
       <c r="V57" s="1">
@@ -3717,11 +3771,11 @@
         <v>26309.272727272728</v>
       </c>
       <c r="T58" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1497008</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>754973.30349927838</v>
       </c>
       <c r="V58" s="1">
@@ -3748,11 +3802,11 @@
         <v>23571.727272727272</v>
       </c>
       <c r="T59" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1540279</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>778545.03077200567</v>
       </c>
       <c r="V59" s="1">
@@ -3779,11 +3833,11 @@
         <v>21629.454545454544</v>
       </c>
       <c r="T60" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1594464</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>800174.48531746026</v>
       </c>
       <c r="V60" s="1">
@@ -3810,11 +3864,11 @@
         <v>21511.909090909092</v>
       </c>
       <c r="T61" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1642593</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>821686.39440836932</v>
       </c>
       <c r="V61" s="1">
@@ -3841,11 +3895,11 @@
         <v>19461.272727272728</v>
       </c>
       <c r="T62" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1678981</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>841147.66713564203</v>
       </c>
       <c r="V62" s="1">
@@ -3872,11 +3926,11 @@
         <v>17916.636363636364</v>
       </c>
       <c r="T63" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1711287</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>859064.30349927838</v>
       </c>
       <c r="V63" s="1">
@@ -3903,11 +3957,11 @@
         <v>17763.909090909092</v>
       </c>
       <c r="T64" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1744119</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>876828.21259018744</v>
       </c>
       <c r="V64" s="1">
@@ -3934,11 +3988,11 @@
         <v>17535.090909090908</v>
       </c>
       <c r="T65" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1768866</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>894363.30349927838</v>
       </c>
       <c r="V65" s="1">
@@ -3965,11 +4019,11 @@
         <v>17130.18181818182</v>
       </c>
       <c r="T66" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1794920</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>911493.48531746014</v>
       </c>
       <c r="V66" s="1">
@@ -3996,11 +4050,11 @@
         <v>17186.363636363636</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1816116</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>928679.84895382379</v>
       </c>
       <c r="V67" s="1">
@@ -4027,11 +4081,11 @@
         <v>14679.636363636364</v>
       </c>
       <c r="T68" s="1">
-        <f t="shared" ref="T68:U83" si="51">T67+R68</f>
+        <f t="shared" ref="T68:U83" si="57">T67+R68</f>
         <v>1846521</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>943359.48531746014</v>
       </c>
       <c r="V68" s="1">
@@ -4058,11 +4112,11 @@
         <v>15690.818181818182</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1878833</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>959050.30349927838</v>
       </c>
       <c r="V69" s="1">
@@ -4089,11 +4143,11 @@
         <v>14967.545454545454</v>
       </c>
       <c r="T70" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1901010</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>974017.84895382379</v>
       </c>
       <c r="V70" s="1">
@@ -4120,11 +4174,11 @@
         <v>14546.818181818182</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1914981</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>988564.66713564203</v>
       </c>
       <c r="V71" s="1">
@@ -4151,11 +4205,11 @@
         <v>13876.272727272728</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1928616</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1002440.9398629147</v>
       </c>
       <c r="V72" s="1">
@@ -4182,11 +4236,11 @@
         <v>12522.363636363636</v>
       </c>
       <c r="T73" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1938412</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1014963.3034992784</v>
       </c>
       <c r="V73" s="1">
@@ -4213,11 +4267,11 @@
         <v>12105.636363636364</v>
       </c>
       <c r="T74" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1946010</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1027068.9398629147</v>
       </c>
       <c r="V74" s="1">
@@ -4244,11 +4298,11 @@
         <v>11272.545454545454</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1953188</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1038341.4853174601</v>
       </c>
       <c r="V75" s="1">
@@ -4275,11 +4329,11 @@
         <v>9771.0909090909099</v>
       </c>
       <c r="T76" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1962346</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1048112.5762265511</v>
       </c>
       <c r="V76" s="1">
@@ -4306,11 +4360,11 @@
         <v>7589.909090909091</v>
       </c>
       <c r="T77" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1973666</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1055702.4853174603</v>
       </c>
       <c r="V77" s="1">
@@ -4337,11 +4391,11 @@
         <v>8318.545454545454</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1981697</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1064021.0307720057</v>
       </c>
       <c r="V78" s="1">
@@ -4368,11 +4422,11 @@
         <v>7405.727272727273</v>
       </c>
       <c r="T79" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1991144</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1071426.758044733</v>
       </c>
       <c r="V79" s="1">
@@ -4399,11 +4453,11 @@
         <v>7004.181818181818</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>2001289</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1078430.9398629148</v>
       </c>
       <c r="V80" s="1">
@@ -4430,11 +4484,11 @@
         <v>6677.818181818182</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>2013289</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1085108.758044733</v>
       </c>
       <c r="V81" s="1">
@@ -4461,11 +4515,11 @@
         <v>6140.454545454545</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>2026172</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1091249.2125901876</v>
       </c>
       <c r="V82" s="1">
@@ -4492,11 +4546,11 @@
         <v>6411.4</v>
       </c>
       <c r="T83" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>2032538</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1097660.6125901875</v>
       </c>
       <c r="V83" s="1">
@@ -4523,11 +4577,11 @@
         <v>6189.6</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" ref="T84:U99" si="52">T83+R84</f>
+        <f t="shared" ref="T84:U99" si="58">T83+R84</f>
         <v>2036693</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1103850.2125901876</v>
       </c>
       <c r="V84" s="1">
@@ -4554,11 +4608,11 @@
         <v>4314.3999999999996</v>
       </c>
       <c r="T85" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2039343</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1108164.6125901875</v>
       </c>
       <c r="V85" s="1">
@@ -4585,11 +4639,11 @@
         <v>3802.6</v>
       </c>
       <c r="T86" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2043072</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1111967.2125901876</v>
       </c>
       <c r="V86" s="1">
@@ -4616,11 +4670,11 @@
         <v>3261.3333333333335</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2045727</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1115228.5459235208</v>
       </c>
       <c r="V87" s="1">
@@ -4647,11 +4701,11 @@
         <v>2728.4444444444443</v>
       </c>
       <c r="T88" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2047725</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1117956.9903679653</v>
       </c>
       <c r="V88" s="1">
@@ -4678,11 +4732,11 @@
         <v>2059.7777777777778</v>
       </c>
       <c r="T89" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2049017</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1120016.7681457431</v>
       </c>
       <c r="V89" s="1">
@@ -4709,11 +4763,11 @@
         <v>1764.2222222222222</v>
       </c>
       <c r="T90" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2049846</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1121780.9903679653</v>
       </c>
       <c r="V90" s="1">
@@ -4740,11 +4794,11 @@
         <v>1664.125</v>
       </c>
       <c r="T91" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2051014</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1123445.1153679653</v>
       </c>
       <c r="V91" s="1">
@@ -4771,11 +4825,11 @@
         <v>1687.375</v>
       </c>
       <c r="T92" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2051949</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1125132.4903679653</v>
       </c>
       <c r="V92" s="1">
@@ -4802,11 +4856,11 @@
         <v>868.83333333333337</v>
       </c>
       <c r="T93" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2052845</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1126001.3237012986</v>
       </c>
       <c r="V93" s="1">
@@ -4830,11 +4884,11 @@
         <v>707.66666666666663</v>
       </c>
       <c r="T94" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2052845</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1126708.9903679653</v>
       </c>
       <c r="V94" s="1">
@@ -4858,11 +4912,11 @@
         <v>440</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2052845</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1127148.9903679653</v>
       </c>
       <c r="V95" s="1">
@@ -4886,11 +4940,11 @@
         <v>720.66666666666663</v>
       </c>
       <c r="T96" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2052845</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1127869.6570346321</v>
       </c>
       <c r="V96" s="1">
@@ -4914,11 +4968,11 @@
         <v>238</v>
       </c>
       <c r="T97" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2052845</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1128107.6570346321</v>
       </c>
       <c r="V97" s="1">
@@ -4942,11 +4996,11 @@
         <v>323</v>
       </c>
       <c r="T98" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2052845</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1128430.6570346321</v>
       </c>
       <c r="V98" s="1">
@@ -4970,11 +5024,11 @@
         <v>250</v>
       </c>
       <c r="T99" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2052845</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V99" s="1">
@@ -4995,11 +5049,11 @@
         <v>45572</v>
       </c>
       <c r="T100" s="1">
-        <f t="shared" ref="T100:U108" si="53">T99+R100</f>
+        <f t="shared" ref="T100:U108" si="59">T99+R100</f>
         <v>2052845</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V100" s="1">
@@ -5020,11 +5074,11 @@
         <v>45573</v>
       </c>
       <c r="T101" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>2052845</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V101" s="1">
@@ -5039,11 +5093,11 @@
         <v>45574</v>
       </c>
       <c r="T102" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>2052845</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V102" s="1">
@@ -5058,11 +5112,11 @@
         <v>45575</v>
       </c>
       <c r="T103" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>2052845</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V103" s="1">
@@ -5077,11 +5131,11 @@
         <v>45576</v>
       </c>
       <c r="T104" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>2052845</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V104" s="1">
@@ -5096,11 +5150,11 @@
         <v>45577</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>2052845</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V105" s="1">
@@ -5115,11 +5169,11 @@
         <v>45578</v>
       </c>
       <c r="T106" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>2052845</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V106" s="1">
@@ -5134,11 +5188,11 @@
         <v>45579</v>
       </c>
       <c r="T107" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>2052845</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V107" s="1">
@@ -5153,11 +5207,11 @@
         <v>45580</v>
       </c>
       <c r="T108" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>2052845</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V108" s="1">

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd97481b0ff2b3c9/Documents/R/skeena-sockeye-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2628363-1FCE-4278-94DA-F81E9CBB2179}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78ECAD5F-266B-4430-8D9C-9EB1AB6E43BD}"/>
   <bookViews>
-    <workbookView xWindow="4510" yWindow="1630" windowWidth="16800" windowHeight="11350" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="7310" yWindow="500" windowWidth="16800" windowHeight="11350" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -501,10 +501,10 @@
   <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2800,11 +2800,11 @@
         <v>149686</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" ref="M31:M33" si="44">I31+K31</f>
+        <f t="shared" ref="M31:M32" si="44">I31+K31</f>
         <v>0</v>
       </c>
       <c r="N31" s="2">
-        <f t="shared" ref="N31:N33" si="45">B31+M31</f>
+        <f t="shared" ref="N31:N32" si="45">B31+M31</f>
         <v>9611</v>
       </c>
       <c r="O31" s="1">
@@ -2812,7 +2812,7 @@
         <v>149686</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" ref="P31:P33" si="47">C31+J31</f>
+        <f t="shared" ref="P31:P32" si="47">C31+J31</f>
         <v>705</v>
       </c>
       <c r="Q31" s="1">
@@ -2970,11 +2970,11 @@
         <v>177251</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" ref="M33" si="50">I33+K33</f>
+        <f t="shared" ref="M33:M37" si="50">I33+K33</f>
         <v>0</v>
       </c>
       <c r="N33" s="2">
-        <f t="shared" ref="N33" si="51">B33+M33</f>
+        <f t="shared" ref="N33:N37" si="51">B33+M33</f>
         <v>17509</v>
       </c>
       <c r="O33" s="1">
@@ -2982,7 +2982,7 @@
         <v>177251</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" ref="P33" si="53">C33+J33</f>
+        <f t="shared" ref="P33:P37" si="53">C33+J33</f>
         <v>1417</v>
       </c>
       <c r="Q33" s="1">
@@ -3020,6 +3020,60 @@
       <c r="A34" s="3">
         <v>45506</v>
       </c>
+      <c r="B34">
+        <v>22287</v>
+      </c>
+      <c r="C34">
+        <v>1572</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>94</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>17</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" ref="L34:L37" si="55">L33+B34</f>
+        <v>199538</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" ref="M34:M37" si="56">I34+K34</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" ref="N34:N37" si="57">B34+M34</f>
+        <v>22287</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" ref="O34:O37" si="58">O33+N34</f>
+        <v>199538</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" ref="P34:P37" si="59">C34+J34</f>
+        <v>1572</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" ref="Q34:Q37" si="60">P34+Q33</f>
+        <v>11822</v>
+      </c>
       <c r="R34" s="1">
         <v>33295</v>
       </c>
@@ -3051,6 +3105,60 @@
       <c r="A35" s="3">
         <v>45507</v>
       </c>
+      <c r="B35">
+        <v>19292</v>
+      </c>
+      <c r="C35">
+        <v>1288</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>423</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="55"/>
+        <v>218830</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="57"/>
+        <v>19292</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="58"/>
+        <v>218830</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="59"/>
+        <v>1288</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="60"/>
+        <v>13110</v>
+      </c>
       <c r="R35" s="1">
         <v>31385</v>
       </c>
@@ -3082,6 +3190,60 @@
       <c r="A36" s="3">
         <v>45508</v>
       </c>
+      <c r="B36">
+        <v>21374</v>
+      </c>
+      <c r="C36">
+        <v>1254</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>775</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>17</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="55"/>
+        <v>240204</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="57"/>
+        <v>21375</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="58"/>
+        <v>240205</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="59"/>
+        <v>1254</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="60"/>
+        <v>14364</v>
+      </c>
       <c r="R36" s="1">
         <v>40112</v>
       </c>
@@ -3089,11 +3251,11 @@
         <v>18790.8</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" ref="T36:U51" si="55">T35+R36</f>
+        <f t="shared" ref="T36:U51" si="61">T35+R36</f>
         <v>520442</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>179104.5853174603</v>
       </c>
       <c r="V36" s="1">
@@ -3113,6 +3275,60 @@
       <c r="A37" s="3">
         <v>45509</v>
       </c>
+      <c r="B37">
+        <v>27737</v>
+      </c>
+      <c r="C37">
+        <v>2180</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>982</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <v>17</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="55"/>
+        <v>267941</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="57"/>
+        <v>27737</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="58"/>
+        <v>267942</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="59"/>
+        <v>2180</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="60"/>
+        <v>16544</v>
+      </c>
       <c r="R37" s="1">
         <v>29948</v>
       </c>
@@ -3120,11 +3336,11 @@
         <v>25713.3</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>550390</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>204817.88531746028</v>
       </c>
       <c r="V37" s="1">
@@ -3151,11 +3367,11 @@
         <v>18006.400000000001</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>581098</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>222824.28531746028</v>
       </c>
       <c r="V38" s="1">
@@ -3182,11 +3398,11 @@
         <v>24560.3</v>
       </c>
       <c r="T39" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>605588</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>247384.58531746027</v>
       </c>
       <c r="V39" s="1">
@@ -3213,11 +3429,11 @@
         <v>22302.5</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>627171</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>269687.08531746024</v>
       </c>
       <c r="V40" s="1">
@@ -3244,11 +3460,11 @@
         <v>36342.400000000001</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>652373</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>306029.48531746026</v>
       </c>
       <c r="V41" s="1">
@@ -3275,11 +3491,11 @@
         <v>26445.363636363636</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>675506</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>332474.84895382391</v>
       </c>
       <c r="V42" s="1">
@@ -3306,11 +3522,11 @@
         <v>28798.363636363636</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>717110</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>361273.21259018756</v>
       </c>
       <c r="V43" s="1">
@@ -3337,11 +3553,11 @@
         <v>22717.545454545456</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>740207</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>383990.75804473303</v>
       </c>
       <c r="V44" s="1">
@@ -3368,11 +3584,11 @@
         <v>24761.090909090908</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>770155</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>408751.84895382391</v>
       </c>
       <c r="V45" s="1">
@@ -3399,11 +3615,11 @@
         <v>27668.909090909092</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>813557</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>436420.75804473303</v>
       </c>
       <c r="V46" s="1">
@@ -3430,11 +3646,11 @@
         <v>28715</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>849071</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>465135.75804473303</v>
       </c>
       <c r="V47" s="1">
@@ -3461,11 +3677,11 @@
         <v>19741.18181818182</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>891191</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>484876.93986291485</v>
       </c>
       <c r="V48" s="1">
@@ -3492,11 +3708,11 @@
         <v>24994.81818181818</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>963510</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>509871.75804473303</v>
       </c>
       <c r="V49" s="1">
@@ -3523,11 +3739,11 @@
         <v>30512.18181818182</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>1014593</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>540383.93986291485</v>
       </c>
       <c r="V50" s="1">
@@ -3554,11 +3770,11 @@
         <v>29755.272727272728</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>1077884</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>570139.21259018756</v>
       </c>
       <c r="V51" s="1">
@@ -3585,11 +3801,11 @@
         <v>29568.909090909092</v>
       </c>
       <c r="T52" s="1">
-        <f t="shared" ref="T52:U67" si="56">T51+R52</f>
+        <f t="shared" ref="T52:U67" si="62">T51+R52</f>
         <v>1114483</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>599708.12168109661</v>
       </c>
       <c r="V52" s="1">
@@ -3616,11 +3832,11 @@
         <v>27004.636363636364</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1174452</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>626712.75804473297</v>
       </c>
       <c r="V53" s="1">
@@ -3647,11 +3863,11 @@
         <v>26730.909090909092</v>
       </c>
       <c r="T54" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1202504</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>653443.66713564203</v>
       </c>
       <c r="V54" s="1">
@@ -3678,11 +3894,11 @@
         <v>22068.454545454544</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1277668</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>675512.12168109661</v>
       </c>
       <c r="V55" s="1">
@@ -3709,11 +3925,11 @@
         <v>24809.363636363636</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1370228</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>700321.48531746026</v>
       </c>
       <c r="V56" s="1">
@@ -3740,11 +3956,11 @@
         <v>28342.545454545456</v>
       </c>
       <c r="T57" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1440848</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>728664.03077200567</v>
       </c>
       <c r="V57" s="1">
@@ -3771,11 +3987,11 @@
         <v>26309.272727272728</v>
       </c>
       <c r="T58" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1497008</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>754973.30349927838</v>
       </c>
       <c r="V58" s="1">
@@ -3802,11 +4018,11 @@
         <v>23571.727272727272</v>
       </c>
       <c r="T59" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1540279</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>778545.03077200567</v>
       </c>
       <c r="V59" s="1">
@@ -3833,11 +4049,11 @@
         <v>21629.454545454544</v>
       </c>
       <c r="T60" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1594464</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>800174.48531746026</v>
       </c>
       <c r="V60" s="1">
@@ -3864,11 +4080,11 @@
         <v>21511.909090909092</v>
       </c>
       <c r="T61" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1642593</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>821686.39440836932</v>
       </c>
       <c r="V61" s="1">
@@ -3895,11 +4111,11 @@
         <v>19461.272727272728</v>
       </c>
       <c r="T62" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1678981</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>841147.66713564203</v>
       </c>
       <c r="V62" s="1">
@@ -3926,11 +4142,11 @@
         <v>17916.636363636364</v>
       </c>
       <c r="T63" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1711287</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>859064.30349927838</v>
       </c>
       <c r="V63" s="1">
@@ -3957,11 +4173,11 @@
         <v>17763.909090909092</v>
       </c>
       <c r="T64" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1744119</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>876828.21259018744</v>
       </c>
       <c r="V64" s="1">
@@ -3988,11 +4204,11 @@
         <v>17535.090909090908</v>
       </c>
       <c r="T65" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1768866</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>894363.30349927838</v>
       </c>
       <c r="V65" s="1">
@@ -4019,11 +4235,11 @@
         <v>17130.18181818182</v>
       </c>
       <c r="T66" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1794920</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>911493.48531746014</v>
       </c>
       <c r="V66" s="1">
@@ -4050,11 +4266,11 @@
         <v>17186.363636363636</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1816116</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>928679.84895382379</v>
       </c>
       <c r="V67" s="1">
@@ -4081,11 +4297,11 @@
         <v>14679.636363636364</v>
       </c>
       <c r="T68" s="1">
-        <f t="shared" ref="T68:U83" si="57">T67+R68</f>
+        <f t="shared" ref="T68:U83" si="63">T67+R68</f>
         <v>1846521</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>943359.48531746014</v>
       </c>
       <c r="V68" s="1">
@@ -4112,11 +4328,11 @@
         <v>15690.818181818182</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1878833</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>959050.30349927838</v>
       </c>
       <c r="V69" s="1">
@@ -4143,11 +4359,11 @@
         <v>14967.545454545454</v>
       </c>
       <c r="T70" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1901010</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>974017.84895382379</v>
       </c>
       <c r="V70" s="1">
@@ -4174,11 +4390,11 @@
         <v>14546.818181818182</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1914981</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>988564.66713564203</v>
       </c>
       <c r="V71" s="1">
@@ -4205,11 +4421,11 @@
         <v>13876.272727272728</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1928616</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1002440.9398629147</v>
       </c>
       <c r="V72" s="1">
@@ -4236,11 +4452,11 @@
         <v>12522.363636363636</v>
       </c>
       <c r="T73" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1938412</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1014963.3034992784</v>
       </c>
       <c r="V73" s="1">
@@ -4267,11 +4483,11 @@
         <v>12105.636363636364</v>
       </c>
       <c r="T74" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1946010</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1027068.9398629147</v>
       </c>
       <c r="V74" s="1">
@@ -4298,11 +4514,11 @@
         <v>11272.545454545454</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1953188</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1038341.4853174601</v>
       </c>
       <c r="V75" s="1">
@@ -4329,11 +4545,11 @@
         <v>9771.0909090909099</v>
       </c>
       <c r="T76" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1962346</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1048112.5762265511</v>
       </c>
       <c r="V76" s="1">
@@ -4360,11 +4576,11 @@
         <v>7589.909090909091</v>
       </c>
       <c r="T77" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1973666</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1055702.4853174603</v>
       </c>
       <c r="V77" s="1">
@@ -4391,11 +4607,11 @@
         <v>8318.545454545454</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1981697</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1064021.0307720057</v>
       </c>
       <c r="V78" s="1">
@@ -4422,11 +4638,11 @@
         <v>7405.727272727273</v>
       </c>
       <c r="T79" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1991144</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1071426.758044733</v>
       </c>
       <c r="V79" s="1">
@@ -4453,11 +4669,11 @@
         <v>7004.181818181818</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>2001289</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1078430.9398629148</v>
       </c>
       <c r="V80" s="1">
@@ -4484,11 +4700,11 @@
         <v>6677.818181818182</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>2013289</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1085108.758044733</v>
       </c>
       <c r="V81" s="1">
@@ -4515,11 +4731,11 @@
         <v>6140.454545454545</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>2026172</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1091249.2125901876</v>
       </c>
       <c r="V82" s="1">
@@ -4546,11 +4762,11 @@
         <v>6411.4</v>
       </c>
       <c r="T83" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>2032538</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1097660.6125901875</v>
       </c>
       <c r="V83" s="1">
@@ -4577,11 +4793,11 @@
         <v>6189.6</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" ref="T84:U99" si="58">T83+R84</f>
+        <f t="shared" ref="T84:U99" si="64">T83+R84</f>
         <v>2036693</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1103850.2125901876</v>
       </c>
       <c r="V84" s="1">
@@ -4608,11 +4824,11 @@
         <v>4314.3999999999996</v>
       </c>
       <c r="T85" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2039343</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1108164.6125901875</v>
       </c>
       <c r="V85" s="1">
@@ -4639,11 +4855,11 @@
         <v>3802.6</v>
       </c>
       <c r="T86" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2043072</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1111967.2125901876</v>
       </c>
       <c r="V86" s="1">
@@ -4670,11 +4886,11 @@
         <v>3261.3333333333335</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2045727</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1115228.5459235208</v>
       </c>
       <c r="V87" s="1">
@@ -4701,11 +4917,11 @@
         <v>2728.4444444444443</v>
       </c>
       <c r="T88" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2047725</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1117956.9903679653</v>
       </c>
       <c r="V88" s="1">
@@ -4732,11 +4948,11 @@
         <v>2059.7777777777778</v>
       </c>
       <c r="T89" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2049017</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1120016.7681457431</v>
       </c>
       <c r="V89" s="1">
@@ -4763,11 +4979,11 @@
         <v>1764.2222222222222</v>
       </c>
       <c r="T90" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2049846</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1121780.9903679653</v>
       </c>
       <c r="V90" s="1">
@@ -4794,11 +5010,11 @@
         <v>1664.125</v>
       </c>
       <c r="T91" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2051014</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1123445.1153679653</v>
       </c>
       <c r="V91" s="1">
@@ -4825,11 +5041,11 @@
         <v>1687.375</v>
       </c>
       <c r="T92" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2051949</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1125132.4903679653</v>
       </c>
       <c r="V92" s="1">
@@ -4856,11 +5072,11 @@
         <v>868.83333333333337</v>
       </c>
       <c r="T93" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2052845</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1126001.3237012986</v>
       </c>
       <c r="V93" s="1">
@@ -4884,11 +5100,11 @@
         <v>707.66666666666663</v>
       </c>
       <c r="T94" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2052845</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1126708.9903679653</v>
       </c>
       <c r="V94" s="1">
@@ -4912,11 +5128,11 @@
         <v>440</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2052845</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1127148.9903679653</v>
       </c>
       <c r="V95" s="1">
@@ -4940,11 +5156,11 @@
         <v>720.66666666666663</v>
       </c>
       <c r="T96" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2052845</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1127869.6570346321</v>
       </c>
       <c r="V96" s="1">
@@ -4968,11 +5184,11 @@
         <v>238</v>
       </c>
       <c r="T97" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2052845</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1128107.6570346321</v>
       </c>
       <c r="V97" s="1">
@@ -4996,11 +5212,11 @@
         <v>323</v>
       </c>
       <c r="T98" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2052845</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1128430.6570346321</v>
       </c>
       <c r="V98" s="1">
@@ -5024,11 +5240,11 @@
         <v>250</v>
       </c>
       <c r="T99" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>2052845</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V99" s="1">
@@ -5049,11 +5265,11 @@
         <v>45572</v>
       </c>
       <c r="T100" s="1">
-        <f t="shared" ref="T100:U108" si="59">T99+R100</f>
+        <f t="shared" ref="T100:U108" si="65">T99+R100</f>
         <v>2052845</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V100" s="1">
@@ -5074,11 +5290,11 @@
         <v>45573</v>
       </c>
       <c r="T101" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>2052845</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V101" s="1">
@@ -5093,11 +5309,11 @@
         <v>45574</v>
       </c>
       <c r="T102" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>2052845</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V102" s="1">
@@ -5112,11 +5328,11 @@
         <v>45575</v>
       </c>
       <c r="T103" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>2052845</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V103" s="1">
@@ -5131,11 +5347,11 @@
         <v>45576</v>
       </c>
       <c r="T104" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>2052845</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V104" s="1">
@@ -5150,11 +5366,11 @@
         <v>45577</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>2052845</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V105" s="1">
@@ -5169,11 +5385,11 @@
         <v>45578</v>
       </c>
       <c r="T106" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>2052845</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V106" s="1">
@@ -5188,11 +5404,11 @@
         <v>45579</v>
       </c>
       <c r="T107" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>2052845</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V107" s="1">
@@ -5207,11 +5423,11 @@
         <v>45580</v>
       </c>
       <c r="T108" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>2052845</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V108" s="1">

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd97481b0ff2b3c9/Documents/R/skeena-sockeye-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78ECAD5F-266B-4430-8D9C-9EB1AB6E43BD}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18230AB2-2C1F-48CB-BE44-8411288FAADD}"/>
   <bookViews>
-    <workbookView xWindow="7310" yWindow="500" windowWidth="16800" windowHeight="11350" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="4410" yWindow="1110" windowWidth="18430" windowHeight="14150" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -501,10 +501,10 @@
   <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2970,11 +2970,11 @@
         <v>177251</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" ref="M33:M37" si="50">I33+K33</f>
+        <f t="shared" ref="M33" si="50">I33+K33</f>
         <v>0</v>
       </c>
       <c r="N33" s="2">
-        <f t="shared" ref="N33:N37" si="51">B33+M33</f>
+        <f t="shared" ref="N33" si="51">B33+M33</f>
         <v>17509</v>
       </c>
       <c r="O33" s="1">
@@ -2982,7 +2982,7 @@
         <v>177251</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" ref="P33:P37" si="53">C33+J33</f>
+        <f t="shared" ref="P33" si="53">C33+J33</f>
         <v>1417</v>
       </c>
       <c r="Q33" s="1">
@@ -3055,11 +3055,11 @@
         <v>199538</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" ref="M34:M37" si="56">I34+K34</f>
+        <f t="shared" ref="M34:M39" si="56">I34+K34</f>
         <v>0</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" ref="N34:N37" si="57">B34+M34</f>
+        <f t="shared" ref="N34:N39" si="57">B34+M34</f>
         <v>22287</v>
       </c>
       <c r="O34" s="1">
@@ -3067,7 +3067,7 @@
         <v>199538</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" ref="P34:P37" si="59">C34+J34</f>
+        <f t="shared" ref="P34:P39" si="59">C34+J34</f>
         <v>1572</v>
       </c>
       <c r="Q34" s="1">
@@ -3360,6 +3360,60 @@
       <c r="A38" s="3">
         <v>45510</v>
       </c>
+      <c r="B38">
+        <v>38420</v>
+      </c>
+      <c r="C38">
+        <v>3255</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>2201</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" ref="L38:L39" si="62">L37+B38</f>
+        <v>306361</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" ref="M38:M39" si="63">I38+K38</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" ref="N38:N39" si="64">B38+M38</f>
+        <v>38420</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" ref="O38:O39" si="65">O37+N38</f>
+        <v>306362</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" ref="P38:P39" si="66">C38+J38</f>
+        <v>3255</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" ref="Q38:Q39" si="67">P38+Q37</f>
+        <v>19799</v>
+      </c>
       <c r="R38" s="1">
         <v>30708</v>
       </c>
@@ -3391,6 +3445,60 @@
       <c r="A39" s="3">
         <v>45511</v>
       </c>
+      <c r="B39">
+        <v>48720</v>
+      </c>
+      <c r="C39">
+        <v>3572</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>3791</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>52</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="62"/>
+        <v>355081</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="64"/>
+        <v>48720</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="65"/>
+        <v>355082</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="66"/>
+        <v>3572</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="67"/>
+        <v>23371</v>
+      </c>
       <c r="R39" s="1">
         <v>24490</v>
       </c>
@@ -3801,11 +3909,11 @@
         <v>29568.909090909092</v>
       </c>
       <c r="T52" s="1">
-        <f t="shared" ref="T52:U67" si="62">T51+R52</f>
+        <f t="shared" ref="T52:U67" si="68">T51+R52</f>
         <v>1114483</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>599708.12168109661</v>
       </c>
       <c r="V52" s="1">
@@ -3832,11 +3940,11 @@
         <v>27004.636363636364</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1174452</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>626712.75804473297</v>
       </c>
       <c r="V53" s="1">
@@ -3863,11 +3971,11 @@
         <v>26730.909090909092</v>
       </c>
       <c r="T54" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1202504</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>653443.66713564203</v>
       </c>
       <c r="V54" s="1">
@@ -3894,11 +4002,11 @@
         <v>22068.454545454544</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1277668</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>675512.12168109661</v>
       </c>
       <c r="V55" s="1">
@@ -3925,11 +4033,11 @@
         <v>24809.363636363636</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1370228</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>700321.48531746026</v>
       </c>
       <c r="V56" s="1">
@@ -3956,11 +4064,11 @@
         <v>28342.545454545456</v>
       </c>
       <c r="T57" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1440848</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>728664.03077200567</v>
       </c>
       <c r="V57" s="1">
@@ -3987,11 +4095,11 @@
         <v>26309.272727272728</v>
       </c>
       <c r="T58" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1497008</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>754973.30349927838</v>
       </c>
       <c r="V58" s="1">
@@ -4018,11 +4126,11 @@
         <v>23571.727272727272</v>
       </c>
       <c r="T59" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1540279</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>778545.03077200567</v>
       </c>
       <c r="V59" s="1">
@@ -4049,11 +4157,11 @@
         <v>21629.454545454544</v>
       </c>
       <c r="T60" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1594464</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>800174.48531746026</v>
       </c>
       <c r="V60" s="1">
@@ -4080,11 +4188,11 @@
         <v>21511.909090909092</v>
       </c>
       <c r="T61" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1642593</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>821686.39440836932</v>
       </c>
       <c r="V61" s="1">
@@ -4111,11 +4219,11 @@
         <v>19461.272727272728</v>
       </c>
       <c r="T62" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1678981</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>841147.66713564203</v>
       </c>
       <c r="V62" s="1">
@@ -4142,11 +4250,11 @@
         <v>17916.636363636364</v>
       </c>
       <c r="T63" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1711287</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>859064.30349927838</v>
       </c>
       <c r="V63" s="1">
@@ -4173,11 +4281,11 @@
         <v>17763.909090909092</v>
       </c>
       <c r="T64" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1744119</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>876828.21259018744</v>
       </c>
       <c r="V64" s="1">
@@ -4204,11 +4312,11 @@
         <v>17535.090909090908</v>
       </c>
       <c r="T65" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1768866</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>894363.30349927838</v>
       </c>
       <c r="V65" s="1">
@@ -4235,11 +4343,11 @@
         <v>17130.18181818182</v>
       </c>
       <c r="T66" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1794920</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>911493.48531746014</v>
       </c>
       <c r="V66" s="1">
@@ -4266,11 +4374,11 @@
         <v>17186.363636363636</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1816116</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>928679.84895382379</v>
       </c>
       <c r="V67" s="1">
@@ -4297,11 +4405,11 @@
         <v>14679.636363636364</v>
       </c>
       <c r="T68" s="1">
-        <f t="shared" ref="T68:U83" si="63">T67+R68</f>
+        <f t="shared" ref="T68:U83" si="69">T67+R68</f>
         <v>1846521</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>943359.48531746014</v>
       </c>
       <c r="V68" s="1">
@@ -4328,11 +4436,11 @@
         <v>15690.818181818182</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1878833</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>959050.30349927838</v>
       </c>
       <c r="V69" s="1">
@@ -4359,11 +4467,11 @@
         <v>14967.545454545454</v>
       </c>
       <c r="T70" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1901010</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>974017.84895382379</v>
       </c>
       <c r="V70" s="1">
@@ -4390,11 +4498,11 @@
         <v>14546.818181818182</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1914981</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>988564.66713564203</v>
       </c>
       <c r="V71" s="1">
@@ -4421,11 +4529,11 @@
         <v>13876.272727272728</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1928616</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1002440.9398629147</v>
       </c>
       <c r="V72" s="1">
@@ -4452,11 +4560,11 @@
         <v>12522.363636363636</v>
       </c>
       <c r="T73" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1938412</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1014963.3034992784</v>
       </c>
       <c r="V73" s="1">
@@ -4483,11 +4591,11 @@
         <v>12105.636363636364</v>
       </c>
       <c r="T74" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1946010</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1027068.9398629147</v>
       </c>
       <c r="V74" s="1">
@@ -4514,11 +4622,11 @@
         <v>11272.545454545454</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1953188</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1038341.4853174601</v>
       </c>
       <c r="V75" s="1">
@@ -4545,11 +4653,11 @@
         <v>9771.0909090909099</v>
       </c>
       <c r="T76" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1962346</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1048112.5762265511</v>
       </c>
       <c r="V76" s="1">
@@ -4576,11 +4684,11 @@
         <v>7589.909090909091</v>
       </c>
       <c r="T77" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1973666</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1055702.4853174603</v>
       </c>
       <c r="V77" s="1">
@@ -4607,11 +4715,11 @@
         <v>8318.545454545454</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1981697</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1064021.0307720057</v>
       </c>
       <c r="V78" s="1">
@@ -4638,11 +4746,11 @@
         <v>7405.727272727273</v>
       </c>
       <c r="T79" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1991144</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1071426.758044733</v>
       </c>
       <c r="V79" s="1">
@@ -4669,11 +4777,11 @@
         <v>7004.181818181818</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>2001289</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1078430.9398629148</v>
       </c>
       <c r="V80" s="1">
@@ -4700,11 +4808,11 @@
         <v>6677.818181818182</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>2013289</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1085108.758044733</v>
       </c>
       <c r="V81" s="1">
@@ -4731,11 +4839,11 @@
         <v>6140.454545454545</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>2026172</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1091249.2125901876</v>
       </c>
       <c r="V82" s="1">
@@ -4762,11 +4870,11 @@
         <v>6411.4</v>
       </c>
       <c r="T83" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>2032538</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1097660.6125901875</v>
       </c>
       <c r="V83" s="1">
@@ -4793,11 +4901,11 @@
         <v>6189.6</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" ref="T84:U99" si="64">T83+R84</f>
+        <f t="shared" ref="T84:U99" si="70">T83+R84</f>
         <v>2036693</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1103850.2125901876</v>
       </c>
       <c r="V84" s="1">
@@ -4824,11 +4932,11 @@
         <v>4314.3999999999996</v>
       </c>
       <c r="T85" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2039343</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1108164.6125901875</v>
       </c>
       <c r="V85" s="1">
@@ -4855,11 +4963,11 @@
         <v>3802.6</v>
       </c>
       <c r="T86" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2043072</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1111967.2125901876</v>
       </c>
       <c r="V86" s="1">
@@ -4886,11 +4994,11 @@
         <v>3261.3333333333335</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2045727</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1115228.5459235208</v>
       </c>
       <c r="V87" s="1">
@@ -4917,11 +5025,11 @@
         <v>2728.4444444444443</v>
       </c>
       <c r="T88" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2047725</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1117956.9903679653</v>
       </c>
       <c r="V88" s="1">
@@ -4948,11 +5056,11 @@
         <v>2059.7777777777778</v>
       </c>
       <c r="T89" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2049017</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1120016.7681457431</v>
       </c>
       <c r="V89" s="1">
@@ -4979,11 +5087,11 @@
         <v>1764.2222222222222</v>
       </c>
       <c r="T90" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2049846</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1121780.9903679653</v>
       </c>
       <c r="V90" s="1">
@@ -5010,11 +5118,11 @@
         <v>1664.125</v>
       </c>
       <c r="T91" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2051014</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1123445.1153679653</v>
       </c>
       <c r="V91" s="1">
@@ -5041,11 +5149,11 @@
         <v>1687.375</v>
       </c>
       <c r="T92" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2051949</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1125132.4903679653</v>
       </c>
       <c r="V92" s="1">
@@ -5072,11 +5180,11 @@
         <v>868.83333333333337</v>
       </c>
       <c r="T93" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2052845</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1126001.3237012986</v>
       </c>
       <c r="V93" s="1">
@@ -5100,11 +5208,11 @@
         <v>707.66666666666663</v>
       </c>
       <c r="T94" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2052845</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1126708.9903679653</v>
       </c>
       <c r="V94" s="1">
@@ -5128,11 +5236,11 @@
         <v>440</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2052845</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1127148.9903679653</v>
       </c>
       <c r="V95" s="1">
@@ -5156,11 +5264,11 @@
         <v>720.66666666666663</v>
       </c>
       <c r="T96" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2052845</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1127869.6570346321</v>
       </c>
       <c r="V96" s="1">
@@ -5184,11 +5292,11 @@
         <v>238</v>
       </c>
       <c r="T97" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2052845</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1128107.6570346321</v>
       </c>
       <c r="V97" s="1">
@@ -5212,11 +5320,11 @@
         <v>323</v>
       </c>
       <c r="T98" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2052845</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1128430.6570346321</v>
       </c>
       <c r="V98" s="1">
@@ -5240,11 +5348,11 @@
         <v>250</v>
       </c>
       <c r="T99" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2052845</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V99" s="1">
@@ -5265,11 +5373,11 @@
         <v>45572</v>
       </c>
       <c r="T100" s="1">
-        <f t="shared" ref="T100:U108" si="65">T99+R100</f>
+        <f t="shared" ref="T100:U108" si="71">T99+R100</f>
         <v>2052845</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V100" s="1">
@@ -5290,11 +5398,11 @@
         <v>45573</v>
       </c>
       <c r="T101" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>2052845</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V101" s="1">
@@ -5309,11 +5417,11 @@
         <v>45574</v>
       </c>
       <c r="T102" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>2052845</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V102" s="1">
@@ -5328,11 +5436,11 @@
         <v>45575</v>
       </c>
       <c r="T103" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>2052845</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V103" s="1">
@@ -5347,11 +5455,11 @@
         <v>45576</v>
       </c>
       <c r="T104" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>2052845</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V104" s="1">
@@ -5366,11 +5474,11 @@
         <v>45577</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>2052845</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V105" s="1">
@@ -5385,11 +5493,11 @@
         <v>45578</v>
       </c>
       <c r="T106" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>2052845</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V106" s="1">
@@ -5404,11 +5512,11 @@
         <v>45579</v>
       </c>
       <c r="T107" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>2052845</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V107" s="1">
@@ -5423,11 +5531,11 @@
         <v>45580</v>
       </c>
       <c r="T108" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>2052845</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V108" s="1">

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd97481b0ff2b3c9/Documents/R/skeena-sockeye-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18230AB2-2C1F-48CB-BE44-8411288FAADD}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAFD3509-412A-4BF4-9933-BFE89B9A0767}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="1110" windowWidth="18430" windowHeight="14150" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="3400" yWindow="310" windowWidth="21700" windowHeight="10890" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -175,10 +175,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,10 +497,10 @@
   <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomRight" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3055,11 +3051,11 @@
         <v>199538</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" ref="M34:M39" si="56">I34+K34</f>
+        <f t="shared" ref="M34:M37" si="56">I34+K34</f>
         <v>0</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" ref="N34:N39" si="57">B34+M34</f>
+        <f t="shared" ref="N34:N37" si="57">B34+M34</f>
         <v>22287</v>
       </c>
       <c r="O34" s="1">
@@ -3067,7 +3063,7 @@
         <v>199538</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" ref="P34:P39" si="59">C34+J34</f>
+        <f t="shared" ref="P34:P37" si="59">C34+J34</f>
         <v>1572</v>
       </c>
       <c r="Q34" s="1">
@@ -3395,11 +3391,11 @@
         <v>306361</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" ref="M38:M39" si="63">I38+K38</f>
+        <f t="shared" ref="M38:M41" si="63">I38+K38</f>
         <v>0</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" ref="N38:N39" si="64">B38+M38</f>
+        <f t="shared" ref="N38:N41" si="64">B38+M38</f>
         <v>38420</v>
       </c>
       <c r="O38" s="1">
@@ -3407,7 +3403,7 @@
         <v>306362</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" ref="P38:P39" si="66">C38+J38</f>
+        <f t="shared" ref="P38:P41" si="66">C38+J38</f>
         <v>3255</v>
       </c>
       <c r="Q38" s="1">
@@ -3530,6 +3526,60 @@
       <c r="A40" s="3">
         <v>45512</v>
       </c>
+      <c r="B40">
+        <v>63001</v>
+      </c>
+      <c r="C40">
+        <v>4173</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>6737</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>28</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" ref="L40:L41" si="68">L39+B40</f>
+        <v>418082</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" ref="M40:M41" si="69">I40+K40</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" ref="N40:N41" si="70">B40+M40</f>
+        <v>63001</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" ref="O40:O41" si="71">O39+N40</f>
+        <v>418083</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" ref="P40:P41" si="72">C40+J40</f>
+        <v>4173</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" ref="Q40:Q41" si="73">P40+Q39</f>
+        <v>27544</v>
+      </c>
       <c r="R40" s="1">
         <v>21583</v>
       </c>
@@ -3561,6 +3611,60 @@
       <c r="A41" s="3">
         <v>45513</v>
       </c>
+      <c r="B41">
+        <v>79924</v>
+      </c>
+      <c r="C41">
+        <v>3954</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>8459</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41">
+        <v>37</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="68"/>
+        <v>498006</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="70"/>
+        <v>79924</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="71"/>
+        <v>498007</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="72"/>
+        <v>3954</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="73"/>
+        <v>31498</v>
+      </c>
       <c r="R41" s="1">
         <v>25202</v>
       </c>
@@ -3909,11 +4013,11 @@
         <v>29568.909090909092</v>
       </c>
       <c r="T52" s="1">
-        <f t="shared" ref="T52:U67" si="68">T51+R52</f>
+        <f t="shared" ref="T52:U67" si="74">T51+R52</f>
         <v>1114483</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>599708.12168109661</v>
       </c>
       <c r="V52" s="1">
@@ -3940,11 +4044,11 @@
         <v>27004.636363636364</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1174452</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>626712.75804473297</v>
       </c>
       <c r="V53" s="1">
@@ -3971,11 +4075,11 @@
         <v>26730.909090909092</v>
       </c>
       <c r="T54" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1202504</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>653443.66713564203</v>
       </c>
       <c r="V54" s="1">
@@ -4002,11 +4106,11 @@
         <v>22068.454545454544</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1277668</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>675512.12168109661</v>
       </c>
       <c r="V55" s="1">
@@ -4033,11 +4137,11 @@
         <v>24809.363636363636</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1370228</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>700321.48531746026</v>
       </c>
       <c r="V56" s="1">
@@ -4064,11 +4168,11 @@
         <v>28342.545454545456</v>
       </c>
       <c r="T57" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1440848</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>728664.03077200567</v>
       </c>
       <c r="V57" s="1">
@@ -4095,11 +4199,11 @@
         <v>26309.272727272728</v>
       </c>
       <c r="T58" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1497008</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>754973.30349927838</v>
       </c>
       <c r="V58" s="1">
@@ -4126,11 +4230,11 @@
         <v>23571.727272727272</v>
       </c>
       <c r="T59" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1540279</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>778545.03077200567</v>
       </c>
       <c r="V59" s="1">
@@ -4157,11 +4261,11 @@
         <v>21629.454545454544</v>
       </c>
       <c r="T60" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1594464</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>800174.48531746026</v>
       </c>
       <c r="V60" s="1">
@@ -4188,11 +4292,11 @@
         <v>21511.909090909092</v>
       </c>
       <c r="T61" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1642593</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>821686.39440836932</v>
       </c>
       <c r="V61" s="1">
@@ -4219,11 +4323,11 @@
         <v>19461.272727272728</v>
       </c>
       <c r="T62" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1678981</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>841147.66713564203</v>
       </c>
       <c r="V62" s="1">
@@ -4250,11 +4354,11 @@
         <v>17916.636363636364</v>
       </c>
       <c r="T63" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1711287</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>859064.30349927838</v>
       </c>
       <c r="V63" s="1">
@@ -4281,11 +4385,11 @@
         <v>17763.909090909092</v>
       </c>
       <c r="T64" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1744119</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>876828.21259018744</v>
       </c>
       <c r="V64" s="1">
@@ -4312,11 +4416,11 @@
         <v>17535.090909090908</v>
       </c>
       <c r="T65" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1768866</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>894363.30349927838</v>
       </c>
       <c r="V65" s="1">
@@ -4343,11 +4447,11 @@
         <v>17130.18181818182</v>
       </c>
       <c r="T66" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1794920</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>911493.48531746014</v>
       </c>
       <c r="V66" s="1">
@@ -4374,11 +4478,11 @@
         <v>17186.363636363636</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>1816116</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>928679.84895382379</v>
       </c>
       <c r="V67" s="1">
@@ -4405,11 +4509,11 @@
         <v>14679.636363636364</v>
       </c>
       <c r="T68" s="1">
-        <f t="shared" ref="T68:U83" si="69">T67+R68</f>
+        <f t="shared" ref="T68:U83" si="75">T67+R68</f>
         <v>1846521</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>943359.48531746014</v>
       </c>
       <c r="V68" s="1">
@@ -4436,11 +4540,11 @@
         <v>15690.818181818182</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1878833</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>959050.30349927838</v>
       </c>
       <c r="V69" s="1">
@@ -4467,11 +4571,11 @@
         <v>14967.545454545454</v>
       </c>
       <c r="T70" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1901010</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>974017.84895382379</v>
       </c>
       <c r="V70" s="1">
@@ -4498,11 +4602,11 @@
         <v>14546.818181818182</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1914981</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>988564.66713564203</v>
       </c>
       <c r="V71" s="1">
@@ -4529,11 +4633,11 @@
         <v>13876.272727272728</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1928616</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1002440.9398629147</v>
       </c>
       <c r="V72" s="1">
@@ -4560,11 +4664,11 @@
         <v>12522.363636363636</v>
       </c>
       <c r="T73" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1938412</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1014963.3034992784</v>
       </c>
       <c r="V73" s="1">
@@ -4591,11 +4695,11 @@
         <v>12105.636363636364</v>
       </c>
       <c r="T74" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1946010</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1027068.9398629147</v>
       </c>
       <c r="V74" s="1">
@@ -4622,11 +4726,11 @@
         <v>11272.545454545454</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1953188</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1038341.4853174601</v>
       </c>
       <c r="V75" s="1">
@@ -4653,11 +4757,11 @@
         <v>9771.0909090909099</v>
       </c>
       <c r="T76" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1962346</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1048112.5762265511</v>
       </c>
       <c r="V76" s="1">
@@ -4684,11 +4788,11 @@
         <v>7589.909090909091</v>
       </c>
       <c r="T77" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1973666</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1055702.4853174603</v>
       </c>
       <c r="V77" s="1">
@@ -4715,11 +4819,11 @@
         <v>8318.545454545454</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1981697</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1064021.0307720057</v>
       </c>
       <c r="V78" s="1">
@@ -4746,11 +4850,11 @@
         <v>7405.727272727273</v>
       </c>
       <c r="T79" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1991144</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1071426.758044733</v>
       </c>
       <c r="V79" s="1">
@@ -4777,11 +4881,11 @@
         <v>7004.181818181818</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>2001289</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1078430.9398629148</v>
       </c>
       <c r="V80" s="1">
@@ -4808,11 +4912,11 @@
         <v>6677.818181818182</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>2013289</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1085108.758044733</v>
       </c>
       <c r="V81" s="1">
@@ -4839,11 +4943,11 @@
         <v>6140.454545454545</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>2026172</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1091249.2125901876</v>
       </c>
       <c r="V82" s="1">
@@ -4870,11 +4974,11 @@
         <v>6411.4</v>
       </c>
       <c r="T83" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>2032538</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1097660.6125901875</v>
       </c>
       <c r="V83" s="1">
@@ -4901,11 +5005,11 @@
         <v>6189.6</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" ref="T84:U99" si="70">T83+R84</f>
+        <f t="shared" ref="T84:U99" si="76">T83+R84</f>
         <v>2036693</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>1103850.2125901876</v>
       </c>
       <c r="V84" s="1">
@@ -4932,11 +5036,11 @@
         <v>4314.3999999999996</v>
       </c>
       <c r="T85" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>2039343</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>1108164.6125901875</v>
       </c>
       <c r="V85" s="1">
@@ -4963,11 +5067,11 @@
         <v>3802.6</v>
       </c>
       <c r="T86" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>2043072</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>1111967.2125901876</v>
       </c>
       <c r="V86" s="1">
@@ -4994,11 +5098,11 @@
         <v>3261.3333333333335</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>2045727</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>1115228.5459235208</v>
       </c>
       <c r="V87" s="1">
@@ -5025,11 +5129,11 @@
         <v>2728.4444444444443</v>
       </c>
       <c r="T88" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>2047725</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>1117956.9903679653</v>
       </c>
       <c r="V88" s="1">
@@ -5056,11 +5160,11 @@
         <v>2059.7777777777778</v>
       </c>
       <c r="T89" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>2049017</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>1120016.7681457431</v>
       </c>
       <c r="V89" s="1">
@@ -5087,11 +5191,11 @@
         <v>1764.2222222222222</v>
       </c>
       <c r="T90" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>2049846</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>1121780.9903679653</v>
       </c>
       <c r="V90" s="1">
@@ -5118,11 +5222,11 @@
         <v>1664.125</v>
       </c>
       <c r="T91" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>2051014</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>1123445.1153679653</v>
       </c>
       <c r="V91" s="1">
@@ -5149,11 +5253,11 @@
         <v>1687.375</v>
       </c>
       <c r="T92" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>2051949</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>1125132.4903679653</v>
       </c>
       <c r="V92" s="1">
@@ -5180,11 +5284,11 @@
         <v>868.83333333333337</v>
       </c>
       <c r="T93" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>2052845</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>1126001.3237012986</v>
       </c>
       <c r="V93" s="1">
@@ -5208,11 +5312,11 @@
         <v>707.66666666666663</v>
       </c>
       <c r="T94" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>2052845</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>1126708.9903679653</v>
       </c>
       <c r="V94" s="1">
@@ -5236,11 +5340,11 @@
         <v>440</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>2052845</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>1127148.9903679653</v>
       </c>
       <c r="V95" s="1">
@@ -5264,11 +5368,11 @@
         <v>720.66666666666663</v>
       </c>
       <c r="T96" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>2052845</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>1127869.6570346321</v>
       </c>
       <c r="V96" s="1">
@@ -5292,11 +5396,11 @@
         <v>238</v>
       </c>
       <c r="T97" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>2052845</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>1128107.6570346321</v>
       </c>
       <c r="V97" s="1">
@@ -5320,11 +5424,11 @@
         <v>323</v>
       </c>
       <c r="T98" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>2052845</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>1128430.6570346321</v>
       </c>
       <c r="V98" s="1">
@@ -5348,11 +5452,11 @@
         <v>250</v>
       </c>
       <c r="T99" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>2052845</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V99" s="1">
@@ -5373,11 +5477,11 @@
         <v>45572</v>
       </c>
       <c r="T100" s="1">
-        <f t="shared" ref="T100:U108" si="71">T99+R100</f>
+        <f t="shared" ref="T100:U108" si="77">T99+R100</f>
         <v>2052845</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V100" s="1">
@@ -5398,11 +5502,11 @@
         <v>45573</v>
       </c>
       <c r="T101" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>2052845</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V101" s="1">
@@ -5417,11 +5521,11 @@
         <v>45574</v>
       </c>
       <c r="T102" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>2052845</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V102" s="1">
@@ -5436,11 +5540,11 @@
         <v>45575</v>
       </c>
       <c r="T103" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>2052845</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V103" s="1">
@@ -5455,11 +5559,11 @@
         <v>45576</v>
       </c>
       <c r="T104" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>2052845</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V104" s="1">
@@ -5474,11 +5578,11 @@
         <v>45577</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>2052845</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V105" s="1">
@@ -5493,11 +5597,11 @@
         <v>45578</v>
       </c>
       <c r="T106" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>2052845</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V106" s="1">
@@ -5512,11 +5616,11 @@
         <v>45579</v>
       </c>
       <c r="T107" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>2052845</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V107" s="1">
@@ -5531,11 +5635,11 @@
         <v>45580</v>
       </c>
       <c r="T108" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>2052845</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V108" s="1">

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd97481b0ff2b3c9/Documents/R/skeena-sockeye-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAFD3509-412A-4BF4-9933-BFE89B9A0767}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76596E50-F038-43CE-9C81-DB98BC03E331}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="310" windowWidth="21700" windowHeight="10890" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="3250" yWindow="2740" windowWidth="21700" windowHeight="10890" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -175,6 +175,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,7 +504,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M43" sqref="M43"/>
+      <selection pane="bottomRight" activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3391,11 +3395,11 @@
         <v>306361</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" ref="M38:M41" si="63">I38+K38</f>
+        <f t="shared" ref="M38:M39" si="63">I38+K38</f>
         <v>0</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" ref="N38:N41" si="64">B38+M38</f>
+        <f t="shared" ref="N38:N39" si="64">B38+M38</f>
         <v>38420</v>
       </c>
       <c r="O38" s="1">
@@ -3403,7 +3407,7 @@
         <v>306362</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" ref="P38:P41" si="66">C38+J38</f>
+        <f t="shared" ref="P38:P39" si="66">C38+J38</f>
         <v>3255</v>
       </c>
       <c r="Q38" s="1">
@@ -3561,11 +3565,11 @@
         <v>418082</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" ref="M40:M41" si="69">I40+K40</f>
+        <f t="shared" ref="M40:M42" si="69">I40+K40</f>
         <v>0</v>
       </c>
       <c r="N40" s="2">
-        <f t="shared" ref="N40:N41" si="70">B40+M40</f>
+        <f t="shared" ref="N40:N42" si="70">B40+M40</f>
         <v>63001</v>
       </c>
       <c r="O40" s="1">
@@ -3573,7 +3577,7 @@
         <v>418083</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" ref="P40:P41" si="72">C40+J40</f>
+        <f t="shared" ref="P40:P42" si="72">C40+J40</f>
         <v>4173</v>
       </c>
       <c r="Q40" s="1">
@@ -3696,6 +3700,60 @@
       <c r="A42" s="3">
         <v>45514</v>
       </c>
+      <c r="B42">
+        <v>38971</v>
+      </c>
+      <c r="C42">
+        <v>1620</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>4586</v>
+      </c>
+      <c r="F42">
+        <v>14</v>
+      </c>
+      <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" ref="L42" si="74">L41+B42</f>
+        <v>536977</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" ref="M42" si="75">I42+K42</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" ref="N42" si="76">B42+M42</f>
+        <v>38971</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" ref="O42" si="77">O41+N42</f>
+        <v>536978</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" ref="P42" si="78">C42+J42</f>
+        <v>1620</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" ref="Q42" si="79">P42+Q41</f>
+        <v>33118</v>
+      </c>
       <c r="R42" s="1">
         <v>23133</v>
       </c>
@@ -4013,11 +4071,11 @@
         <v>29568.909090909092</v>
       </c>
       <c r="T52" s="1">
-        <f t="shared" ref="T52:U67" si="74">T51+R52</f>
+        <f t="shared" ref="T52:U67" si="80">T51+R52</f>
         <v>1114483</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>599708.12168109661</v>
       </c>
       <c r="V52" s="1">
@@ -4044,11 +4102,11 @@
         <v>27004.636363636364</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1174452</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>626712.75804473297</v>
       </c>
       <c r="V53" s="1">
@@ -4075,11 +4133,11 @@
         <v>26730.909090909092</v>
       </c>
       <c r="T54" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1202504</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>653443.66713564203</v>
       </c>
       <c r="V54" s="1">
@@ -4106,11 +4164,11 @@
         <v>22068.454545454544</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1277668</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>675512.12168109661</v>
       </c>
       <c r="V55" s="1">
@@ -4137,11 +4195,11 @@
         <v>24809.363636363636</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1370228</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>700321.48531746026</v>
       </c>
       <c r="V56" s="1">
@@ -4168,11 +4226,11 @@
         <v>28342.545454545456</v>
       </c>
       <c r="T57" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1440848</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>728664.03077200567</v>
       </c>
       <c r="V57" s="1">
@@ -4199,11 +4257,11 @@
         <v>26309.272727272728</v>
       </c>
       <c r="T58" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1497008</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>754973.30349927838</v>
       </c>
       <c r="V58" s="1">
@@ -4230,11 +4288,11 @@
         <v>23571.727272727272</v>
       </c>
       <c r="T59" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1540279</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>778545.03077200567</v>
       </c>
       <c r="V59" s="1">
@@ -4261,11 +4319,11 @@
         <v>21629.454545454544</v>
       </c>
       <c r="T60" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1594464</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>800174.48531746026</v>
       </c>
       <c r="V60" s="1">
@@ -4292,11 +4350,11 @@
         <v>21511.909090909092</v>
       </c>
       <c r="T61" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1642593</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>821686.39440836932</v>
       </c>
       <c r="V61" s="1">
@@ -4323,11 +4381,11 @@
         <v>19461.272727272728</v>
       </c>
       <c r="T62" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1678981</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>841147.66713564203</v>
       </c>
       <c r="V62" s="1">
@@ -4354,11 +4412,11 @@
         <v>17916.636363636364</v>
       </c>
       <c r="T63" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1711287</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>859064.30349927838</v>
       </c>
       <c r="V63" s="1">
@@ -4385,11 +4443,11 @@
         <v>17763.909090909092</v>
       </c>
       <c r="T64" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1744119</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>876828.21259018744</v>
       </c>
       <c r="V64" s="1">
@@ -4416,11 +4474,11 @@
         <v>17535.090909090908</v>
       </c>
       <c r="T65" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1768866</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>894363.30349927838</v>
       </c>
       <c r="V65" s="1">
@@ -4447,11 +4505,11 @@
         <v>17130.18181818182</v>
       </c>
       <c r="T66" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1794920</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>911493.48531746014</v>
       </c>
       <c r="V66" s="1">
@@ -4478,11 +4536,11 @@
         <v>17186.363636363636</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>1816116</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>928679.84895382379</v>
       </c>
       <c r="V67" s="1">
@@ -4509,11 +4567,11 @@
         <v>14679.636363636364</v>
       </c>
       <c r="T68" s="1">
-        <f t="shared" ref="T68:U83" si="75">T67+R68</f>
+        <f t="shared" ref="T68:U83" si="81">T67+R68</f>
         <v>1846521</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>943359.48531746014</v>
       </c>
       <c r="V68" s="1">
@@ -4540,11 +4598,11 @@
         <v>15690.818181818182</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1878833</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>959050.30349927838</v>
       </c>
       <c r="V69" s="1">
@@ -4571,11 +4629,11 @@
         <v>14967.545454545454</v>
       </c>
       <c r="T70" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1901010</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>974017.84895382379</v>
       </c>
       <c r="V70" s="1">
@@ -4602,11 +4660,11 @@
         <v>14546.818181818182</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1914981</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>988564.66713564203</v>
       </c>
       <c r="V71" s="1">
@@ -4633,11 +4691,11 @@
         <v>13876.272727272728</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1928616</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1002440.9398629147</v>
       </c>
       <c r="V72" s="1">
@@ -4664,11 +4722,11 @@
         <v>12522.363636363636</v>
       </c>
       <c r="T73" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1938412</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1014963.3034992784</v>
       </c>
       <c r="V73" s="1">
@@ -4695,11 +4753,11 @@
         <v>12105.636363636364</v>
       </c>
       <c r="T74" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1946010</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1027068.9398629147</v>
       </c>
       <c r="V74" s="1">
@@ -4726,11 +4784,11 @@
         <v>11272.545454545454</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1953188</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1038341.4853174601</v>
       </c>
       <c r="V75" s="1">
@@ -4757,11 +4815,11 @@
         <v>9771.0909090909099</v>
       </c>
       <c r="T76" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1962346</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1048112.5762265511</v>
       </c>
       <c r="V76" s="1">
@@ -4788,11 +4846,11 @@
         <v>7589.909090909091</v>
       </c>
       <c r="T77" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1973666</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1055702.4853174603</v>
       </c>
       <c r="V77" s="1">
@@ -4819,11 +4877,11 @@
         <v>8318.545454545454</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1981697</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1064021.0307720057</v>
       </c>
       <c r="V78" s="1">
@@ -4850,11 +4908,11 @@
         <v>7405.727272727273</v>
       </c>
       <c r="T79" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1991144</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1071426.758044733</v>
       </c>
       <c r="V79" s="1">
@@ -4881,11 +4939,11 @@
         <v>7004.181818181818</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>2001289</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1078430.9398629148</v>
       </c>
       <c r="V80" s="1">
@@ -4912,11 +4970,11 @@
         <v>6677.818181818182</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>2013289</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1085108.758044733</v>
       </c>
       <c r="V81" s="1">
@@ -4943,11 +5001,11 @@
         <v>6140.454545454545</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>2026172</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1091249.2125901876</v>
       </c>
       <c r="V82" s="1">
@@ -4974,11 +5032,11 @@
         <v>6411.4</v>
       </c>
       <c r="T83" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>2032538</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1097660.6125901875</v>
       </c>
       <c r="V83" s="1">
@@ -5005,11 +5063,11 @@
         <v>6189.6</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" ref="T84:U99" si="76">T83+R84</f>
+        <f t="shared" ref="T84:U99" si="82">T83+R84</f>
         <v>2036693</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1103850.2125901876</v>
       </c>
       <c r="V84" s="1">
@@ -5036,11 +5094,11 @@
         <v>4314.3999999999996</v>
       </c>
       <c r="T85" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>2039343</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1108164.6125901875</v>
       </c>
       <c r="V85" s="1">
@@ -5067,11 +5125,11 @@
         <v>3802.6</v>
       </c>
       <c r="T86" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>2043072</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1111967.2125901876</v>
       </c>
       <c r="V86" s="1">
@@ -5098,11 +5156,11 @@
         <v>3261.3333333333335</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>2045727</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1115228.5459235208</v>
       </c>
       <c r="V87" s="1">
@@ -5129,11 +5187,11 @@
         <v>2728.4444444444443</v>
       </c>
       <c r="T88" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>2047725</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1117956.9903679653</v>
       </c>
       <c r="V88" s="1">
@@ -5160,11 +5218,11 @@
         <v>2059.7777777777778</v>
       </c>
       <c r="T89" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>2049017</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1120016.7681457431</v>
       </c>
       <c r="V89" s="1">
@@ -5191,11 +5249,11 @@
         <v>1764.2222222222222</v>
       </c>
       <c r="T90" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>2049846</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1121780.9903679653</v>
       </c>
       <c r="V90" s="1">
@@ -5222,11 +5280,11 @@
         <v>1664.125</v>
       </c>
       <c r="T91" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>2051014</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1123445.1153679653</v>
       </c>
       <c r="V91" s="1">
@@ -5253,11 +5311,11 @@
         <v>1687.375</v>
       </c>
       <c r="T92" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>2051949</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1125132.4903679653</v>
       </c>
       <c r="V92" s="1">
@@ -5284,11 +5342,11 @@
         <v>868.83333333333337</v>
       </c>
       <c r="T93" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>2052845</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1126001.3237012986</v>
       </c>
       <c r="V93" s="1">
@@ -5312,11 +5370,11 @@
         <v>707.66666666666663</v>
       </c>
       <c r="T94" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>2052845</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1126708.9903679653</v>
       </c>
       <c r="V94" s="1">
@@ -5340,11 +5398,11 @@
         <v>440</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>2052845</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1127148.9903679653</v>
       </c>
       <c r="V95" s="1">
@@ -5368,11 +5426,11 @@
         <v>720.66666666666663</v>
       </c>
       <c r="T96" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>2052845</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1127869.6570346321</v>
       </c>
       <c r="V96" s="1">
@@ -5396,11 +5454,11 @@
         <v>238</v>
       </c>
       <c r="T97" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>2052845</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1128107.6570346321</v>
       </c>
       <c r="V97" s="1">
@@ -5424,11 +5482,11 @@
         <v>323</v>
       </c>
       <c r="T98" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>2052845</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1128430.6570346321</v>
       </c>
       <c r="V98" s="1">
@@ -5452,11 +5510,11 @@
         <v>250</v>
       </c>
       <c r="T99" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>2052845</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V99" s="1">
@@ -5477,11 +5535,11 @@
         <v>45572</v>
       </c>
       <c r="T100" s="1">
-        <f t="shared" ref="T100:U108" si="77">T99+R100</f>
+        <f t="shared" ref="T100:U108" si="83">T99+R100</f>
         <v>2052845</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V100" s="1">
@@ -5502,11 +5560,11 @@
         <v>45573</v>
       </c>
       <c r="T101" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>2052845</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V101" s="1">
@@ -5521,11 +5579,11 @@
         <v>45574</v>
       </c>
       <c r="T102" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>2052845</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V102" s="1">
@@ -5540,11 +5598,11 @@
         <v>45575</v>
       </c>
       <c r="T103" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>2052845</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V103" s="1">
@@ -5559,11 +5617,11 @@
         <v>45576</v>
       </c>
       <c r="T104" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>2052845</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V104" s="1">
@@ -5578,11 +5636,11 @@
         <v>45577</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>2052845</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V105" s="1">
@@ -5597,11 +5655,11 @@
         <v>45578</v>
       </c>
       <c r="T106" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>2052845</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V106" s="1">
@@ -5616,11 +5674,11 @@
         <v>45579</v>
       </c>
       <c r="T107" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>2052845</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V107" s="1">
@@ -5635,11 +5693,11 @@
         <v>45580</v>
       </c>
       <c r="T108" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>2052845</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="V108" s="1">

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd97481b0ff2b3c9/Documents/R/skeena-sockeye-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76596E50-F038-43CE-9C81-DB98BC03E331}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F3AB643-48A2-4F1E-BC56-9E95E77E6C38}"/>
   <bookViews>
-    <workbookView xWindow="3250" yWindow="2740" windowWidth="21700" windowHeight="10890" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="3500" yWindow="210" windowWidth="21700" windowHeight="10890" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>dailyTR.2022</t>
+  </si>
+  <si>
+    <t>sockeyemorts</t>
   </si>
 </sst>
 </file>
@@ -498,32 +501,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29846BAC-6004-4C2C-833B-71DED8EE984D}">
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N42" sqref="N42"/>
+      <selection pane="bottomRight" activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.453125" customWidth="1"/>
     <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" customWidth="1"/>
-    <col min="12" max="12" width="11.453125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="1"/>
-    <col min="14" max="14" width="8.7265625" style="2"/>
-    <col min="15" max="15" width="8.7265625" style="1"/>
-    <col min="16" max="16" width="13.6328125" style="1" customWidth="1"/>
-    <col min="17" max="22" width="8.7265625" style="1"/>
-    <col min="23" max="23" width="9.7265625" style="1" customWidth="1"/>
-    <col min="24" max="25" width="11.7265625" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="1"/>
+    <col min="15" max="15" width="8.7265625" style="2"/>
+    <col min="16" max="16" width="8.7265625" style="1"/>
+    <col min="17" max="17" width="13.6328125" style="1" customWidth="1"/>
+    <col min="18" max="23" width="8.7265625" style="1"/>
+    <col min="24" max="24" width="9.7265625" style="1" customWidth="1"/>
+    <col min="25" max="26" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,85 +553,84 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>2014</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>45474</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <f>B2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="1">
-        <f>I2+K2</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <f t="shared" ref="N2:N22" si="0">B2+M2</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <f>N2</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
+      <c r="N2" s="1">
+        <f>J2+L2</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <f t="shared" ref="O2:O22" si="0">B2+N2</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <f>O2</f>
         <v>0</v>
       </c>
       <c r="S2" s="1">
         <v>0</v>
       </c>
       <c r="T2" s="1">
-        <f>R2</f>
         <v>0</v>
       </c>
       <c r="U2" s="1">
@@ -635,46 +638,46 @@
         <v>0</v>
       </c>
       <c r="V2" s="1">
+        <f>T2</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>3.125E-2</v>
       </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
       <c r="Y2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>45475</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L22" si="1">L2+B3</f>
-        <v>0</v>
-      </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M22" si="2">I3+K3</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
+        <f t="shared" ref="M3:M22" si="1">M2+B3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N22" si="2">J3+L3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O3" s="1">
-        <f>O2+N3</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
+      <c r="P3" s="1">
+        <f>P2+O3</f>
         <v>0</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
       </c>
       <c r="T3" s="1">
-        <f>T2+R3</f>
         <v>0</v>
       </c>
       <c r="U3" s="1">
@@ -682,93 +685,93 @@
         <v>0</v>
       </c>
       <c r="V3" s="1">
+        <f>V2+T3</f>
         <v>0</v>
       </c>
       <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
         <v>3.125E-2</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
       <c r="Y3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>45476</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="1">
-        <f t="shared" ref="O4:O22" si="3">O3+N4</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P22" si="3">P3+O4</f>
         <v>0</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
       </c>
       <c r="T4" s="1">
-        <f t="shared" ref="T4:U19" si="4">T3+R4</f>
         <v>0</v>
       </c>
       <c r="U4" s="1">
+        <f t="shared" ref="U4:V19" si="4">U3+S4</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
       <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
         <v>3.125E-2</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
       <c r="Y4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>45477</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
+      <c r="O5" s="2">
+        <f t="shared" ref="O5:O43" si="5">B5+I5+N5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
       <c r="S5" s="1">
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U5" s="1">
@@ -776,46 +779,46 @@
         <v>0</v>
       </c>
       <c r="V5" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
         <v>3.125E-2</v>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
       <c r="Y5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>45478</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
+      <c r="O6" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
       <c r="S6" s="1">
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U6" s="1">
@@ -823,160 +826,164 @@
         <v>0</v>
       </c>
       <c r="V6" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
         <v>3.125E-2</v>
       </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
       <c r="Y6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>45479</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
+      <c r="O7" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
       <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
         <v>2.1666666666666665</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="4"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="V7" s="1">
+      <c r="W7" s="1">
         <v>0.04</v>
       </c>
-      <c r="W7" s="1">
+      <c r="X7" s="1">
         <v>6.25E-2</v>
       </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
       <c r="Y7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>45480</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="O8" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
       <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
         <v>3.3333333333333335</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
       <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
         <v>6.25E-2</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>45481</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
+      <c r="O9" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
       <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
         <v>6.5</v>
-      </c>
-      <c r="T9" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <v>0.62962962962962965</v>
       </c>
-      <c r="W9" s="1">
+      <c r="X9" s="1">
         <v>0.59375</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
       <c r="Y9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>45482</v>
       </c>
@@ -1010,58 +1017,61 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
+      <c r="O10" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P10" s="1">
-        <f t="shared" ref="P10:P22" si="5">C10+J10</f>
-        <v>0</v>
-      </c>
       <c r="Q10" s="1">
-        <f t="shared" ref="Q10:Q15" si="6">C10</f>
+        <f t="shared" ref="Q10:Q22" si="6">C10+K10</f>
         <v>0</v>
       </c>
       <c r="R10" s="1">
+        <f t="shared" ref="R10:R15" si="7">C10</f>
         <v>0</v>
       </c>
       <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
         <v>8</v>
-      </c>
-      <c r="T10" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>0.62962962962962965</v>
       </c>
-      <c r="W10" s="1">
+      <c r="X10" s="1">
         <v>1.125</v>
       </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
       <c r="Y10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>45483</v>
       </c>
@@ -1095,24 +1105,23 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
+      <c r="O11" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q11" s="1">
@@ -1120,33 +1129,37 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
         <v>13.833333333333334</v>
-      </c>
-      <c r="T11" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="4"/>
         <v>33.833333333333336</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W11" s="1">
         <v>0.7407407407407407</v>
       </c>
-      <c r="W11" s="1">
+      <c r="X11" s="1">
         <v>1.75</v>
       </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
       <c r="Y11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>45484</v>
       </c>
@@ -1180,24 +1193,23 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
+      <c r="O12" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q12" s="1">
@@ -1205,33 +1217,37 @@
         <v>0</v>
       </c>
       <c r="R12" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
         <v>32.285714285714285</v>
-      </c>
-      <c r="T12" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="4"/>
         <v>66.11904761904762</v>
       </c>
-      <c r="V12" s="1">
+      <c r="W12" s="1">
         <v>0.81481481481481477</v>
       </c>
-      <c r="W12" s="1">
+      <c r="X12" s="1">
         <v>2.4375</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
       <c r="Y12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45485</v>
       </c>
@@ -1265,24 +1281,23 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
+      <c r="O13" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q13" s="1">
@@ -1290,33 +1305,37 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
         <v>11</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>131.57142857142858</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <f t="shared" si="4"/>
         <v>197.6904761904762</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <v>1</v>
       </c>
-      <c r="W13" s="1">
+      <c r="X13" s="1">
         <v>3.28125</v>
       </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
       <c r="Y13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>45486</v>
       </c>
@@ -1350,58 +1369,61 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="2">
-        <f t="shared" si="0"/>
+      <c r="O14" s="2">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="P14" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="Q14" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R14" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
         <v>41</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>174.71428571428572</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="U14" s="1">
+      <c r="V14" s="1">
         <f t="shared" si="4"/>
         <v>372.40476190476193</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W14" s="1">
         <v>1.1111111111111112</v>
       </c>
-      <c r="W14" s="1">
+      <c r="X14" s="1">
         <v>4.21875</v>
       </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
       <c r="Y14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>45487</v>
       </c>
@@ -1427,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1435,58 +1457,61 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N15" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O15" s="1">
+      <c r="O15" s="2">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="P15" s="1">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R15" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
         <v>153</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <v>628.625</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="1">
         <f t="shared" si="4"/>
         <v>205</v>
       </c>
-      <c r="U15" s="1">
+      <c r="V15" s="1">
         <f t="shared" si="4"/>
         <v>1001.0297619047619</v>
       </c>
-      <c r="V15" s="1">
+      <c r="W15" s="1">
         <v>10.857142857142858</v>
       </c>
-      <c r="W15" s="1">
+      <c r="X15" s="1">
         <v>13.71875</v>
       </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
       <c r="Y15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>45488</v>
       </c>
@@ -1520,58 +1545,61 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16" s="2">
-        <f t="shared" si="0"/>
+      <c r="O16" s="2">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="P16" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
         <f>C16</f>
         <v>0</v>
       </c>
-      <c r="R16" s="1">
+      <c r="S16" s="1">
         <v>402</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <v>1181</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <f t="shared" si="4"/>
         <v>607</v>
       </c>
-      <c r="U16" s="1">
+      <c r="V16" s="1">
         <f t="shared" si="4"/>
         <v>2182.0297619047619</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <v>13.642857142857142</v>
       </c>
-      <c r="W16" s="1">
+      <c r="X16" s="1">
         <v>25.65625</v>
       </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
       <c r="Y16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>45489</v>
       </c>
@@ -1597,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1605,58 +1633,61 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17" s="2">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="O17" s="1">
+      <c r="O17" s="2">
+        <f t="shared" si="5"/>
+        <v>129</v>
+      </c>
+      <c r="P17" s="1">
         <f t="shared" si="3"/>
-        <v>162</v>
-      </c>
-      <c r="P17" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="1">
-        <f>P17+Q16</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R17" s="1">
+        <f>Q17+R16</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
         <v>1696</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <v>1131.6666666666667</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <f t="shared" si="4"/>
         <v>2303</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <f t="shared" si="4"/>
         <v>3313.6964285714284</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="1">
         <v>12.285714285714286</v>
       </c>
-      <c r="W17" s="1">
+      <c r="X17" s="1">
         <v>36.40625</v>
-      </c>
-      <c r="X17">
-        <v>2</v>
       </c>
       <c r="Y17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>45490</v>
       </c>
@@ -1690,58 +1721,61 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
         <f t="shared" si="1"/>
         <v>556</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N18" s="2">
-        <f t="shared" si="0"/>
+      <c r="O18" s="2">
+        <f t="shared" si="5"/>
         <v>394</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <f t="shared" si="3"/>
-        <v>556</v>
-      </c>
-      <c r="P18" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="Q18" s="1">
-        <f>P18+Q17</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R18" s="1">
+        <f>Q18+R17</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
         <v>21215</v>
       </c>
-      <c r="S18" s="1">
+      <c r="T18" s="1">
         <v>1632.2222222222222</v>
       </c>
-      <c r="T18" s="1">
+      <c r="U18" s="1">
         <f t="shared" si="4"/>
         <v>23518</v>
       </c>
-      <c r="U18" s="1">
+      <c r="V18" s="1">
         <f t="shared" si="4"/>
         <v>4945.9186507936502</v>
       </c>
-      <c r="V18" s="1">
+      <c r="W18" s="1">
         <v>18</v>
       </c>
-      <c r="W18" s="1">
+      <c r="X18" s="1">
         <v>52.15625</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>10</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>45491</v>
       </c>
@@ -1775,58 +1809,61 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
         <f t="shared" si="1"/>
         <v>939</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N19" s="2">
-        <f t="shared" si="0"/>
+      <c r="O19" s="2">
+        <f t="shared" si="5"/>
         <v>383</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <f t="shared" si="3"/>
-        <v>939</v>
-      </c>
-      <c r="P19" s="1">
-        <f t="shared" si="5"/>
+        <v>941</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="1">
-        <f>P19+Q18</f>
+      <c r="R19" s="1">
+        <f>Q19+R18</f>
         <v>1</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S19" s="1">
         <v>58948</v>
       </c>
-      <c r="S19" s="1">
+      <c r="T19" s="1">
         <v>4494.2222222222226</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <f t="shared" si="4"/>
         <v>82466</v>
       </c>
-      <c r="U19" s="1">
+      <c r="V19" s="1">
         <f t="shared" si="4"/>
         <v>9440.1408730158728</v>
       </c>
-      <c r="V19" s="1">
+      <c r="W19" s="1">
         <v>26.714285714285715</v>
       </c>
-      <c r="W19" s="1">
+      <c r="X19" s="1">
         <v>75.53125</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>20</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>45492</v>
       </c>
@@ -1860,58 +1897,61 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
         <f t="shared" si="1"/>
         <v>1730</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N20" s="2">
-        <f t="shared" si="0"/>
+      <c r="O20" s="2">
+        <f t="shared" si="5"/>
         <v>791</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <f t="shared" si="3"/>
-        <v>1730</v>
-      </c>
-      <c r="P20" s="1">
-        <f t="shared" si="5"/>
+        <v>1732</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="Q20" s="1">
-        <f t="shared" ref="Q20:Q22" si="7">P20+Q19</f>
+      <c r="R20" s="1">
+        <f t="shared" ref="R20:R22" si="8">Q20+R19</f>
         <v>3</v>
       </c>
-      <c r="R20" s="1">
+      <c r="S20" s="1">
         <v>26854</v>
       </c>
-      <c r="S20" s="1">
+      <c r="T20" s="1">
         <v>7776.666666666667</v>
       </c>
-      <c r="T20" s="1">
-        <f t="shared" ref="T20:U35" si="8">T19+R20</f>
+      <c r="U20" s="1">
+        <f t="shared" ref="U20:V35" si="9">U19+S20</f>
         <v>109320</v>
       </c>
-      <c r="U20" s="1">
-        <f t="shared" si="8"/>
+      <c r="V20" s="1">
+        <f t="shared" si="9"/>
         <v>17216.807539682541</v>
       </c>
-      <c r="V20" s="1">
+      <c r="W20" s="1">
         <v>62.571428571428569</v>
       </c>
-      <c r="W20" s="1">
+      <c r="X20" s="1">
         <v>130.28125</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>30</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>45493</v>
       </c>
@@ -1945,58 +1985,61 @@
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
         <f t="shared" si="1"/>
         <v>4426</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N21" s="2">
-        <f t="shared" si="0"/>
+      <c r="O21" s="2">
+        <f t="shared" si="5"/>
         <v>2696</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <f t="shared" si="3"/>
-        <v>4426</v>
-      </c>
-      <c r="P21" s="1">
-        <f t="shared" si="5"/>
+        <v>4428</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="7"/>
+      <c r="R21" s="1">
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="R21" s="1">
+      <c r="S21" s="1">
         <v>23148</v>
       </c>
-      <c r="S21" s="1">
+      <c r="T21" s="1">
         <v>4627.666666666667</v>
       </c>
-      <c r="T21" s="1">
-        <f t="shared" si="8"/>
+      <c r="U21" s="1">
+        <f t="shared" si="9"/>
         <v>132468</v>
       </c>
-      <c r="U21" s="1">
-        <f t="shared" si="8"/>
+      <c r="V21" s="1">
+        <f t="shared" si="9"/>
         <v>21844.474206349209</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="1">
         <v>74.392857142857139</v>
       </c>
-      <c r="W21" s="1">
+      <c r="X21" s="1">
         <v>195.375</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>48</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>45494</v>
       </c>
@@ -2030,58 +2073,61 @@
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
         <f t="shared" si="1"/>
         <v>10351</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="2">
-        <f t="shared" si="0"/>
+      <c r="O22" s="2">
+        <f t="shared" si="5"/>
         <v>5925</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <f t="shared" si="3"/>
-        <v>10351</v>
-      </c>
-      <c r="P22" s="1">
-        <f t="shared" si="5"/>
+        <v>10353</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="6"/>
         <v>128</v>
       </c>
-      <c r="Q22" s="1">
-        <f t="shared" si="7"/>
+      <c r="R22" s="1">
+        <f t="shared" si="8"/>
         <v>166</v>
       </c>
-      <c r="R22" s="1">
+      <c r="S22" s="1">
         <v>23258</v>
       </c>
-      <c r="S22" s="1">
+      <c r="T22" s="1">
         <v>5438.4444444444443</v>
       </c>
-      <c r="T22" s="1">
-        <f t="shared" si="8"/>
+      <c r="U22" s="1">
+        <f t="shared" si="9"/>
         <v>155726</v>
       </c>
-      <c r="U22" s="1">
-        <f t="shared" si="8"/>
+      <c r="V22" s="1">
+        <f t="shared" si="9"/>
         <v>27282.918650793654</v>
       </c>
-      <c r="V22" s="1">
+      <c r="W22" s="1">
         <v>99.068965517241381</v>
       </c>
-      <c r="W22" s="1">
+      <c r="X22" s="1">
         <v>285.15625</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>73</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>45495</v>
       </c>
@@ -2115,58 +2161,61 @@
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23" s="1">
-        <f t="shared" ref="L23" si="9">L22+B23</f>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" ref="M23" si="10">M22+B23</f>
         <v>21800</v>
       </c>
-      <c r="M23" s="1">
-        <f t="shared" ref="M23" si="10">I23+K23</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" ref="N23" si="11">B23+M23</f>
+      <c r="N23" s="1">
+        <f t="shared" ref="N23" si="11">J23+L23</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="5"/>
         <v>11449</v>
       </c>
-      <c r="O23" s="1">
-        <f t="shared" ref="O23" si="12">O22+N23</f>
-        <v>21800</v>
-      </c>
       <c r="P23" s="1">
-        <f t="shared" ref="P23" si="13">C23+J23</f>
+        <f t="shared" ref="P23" si="12">P22+O23</f>
+        <v>21802</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" ref="Q23" si="13">C23+K23</f>
         <v>200</v>
       </c>
-      <c r="Q23" s="1">
-        <f t="shared" ref="Q23" si="14">P23+Q22</f>
+      <c r="R23" s="1">
+        <f t="shared" ref="R23" si="14">Q23+R22</f>
         <v>366</v>
       </c>
-      <c r="R23" s="1">
+      <c r="S23" s="1">
         <v>19763</v>
       </c>
-      <c r="S23" s="1">
+      <c r="T23" s="1">
         <v>6964.666666666667</v>
       </c>
-      <c r="T23" s="1">
-        <f t="shared" si="8"/>
+      <c r="U23" s="1">
+        <f t="shared" si="9"/>
         <v>175489</v>
       </c>
-      <c r="U23" s="1">
-        <f t="shared" si="8"/>
+      <c r="V23" s="1">
+        <f t="shared" si="9"/>
         <v>34247.585317460318</v>
       </c>
-      <c r="V23" s="1">
+      <c r="W23" s="1">
         <v>133.0344827586207</v>
       </c>
-      <c r="W23" s="1">
+      <c r="X23" s="1">
         <v>405.71875</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>109</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>45496</v>
       </c>
@@ -2200,58 +2249,61 @@
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24" s="1">
-        <f t="shared" ref="L24:L25" si="15">L23+B24</f>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" ref="M24:M25" si="15">M23+B24</f>
         <v>47207</v>
       </c>
-      <c r="M24" s="1">
-        <f t="shared" ref="M24:M25" si="16">I24+K24</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
-        <f t="shared" ref="N24:N25" si="17">B24+M24</f>
+      <c r="N24" s="1">
+        <f t="shared" ref="N24:N25" si="16">J24+L24</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="5"/>
         <v>25407</v>
       </c>
-      <c r="O24" s="1">
-        <f t="shared" ref="O24:O25" si="18">O23+N24</f>
-        <v>47207</v>
-      </c>
       <c r="P24" s="1">
-        <f t="shared" ref="P24:P25" si="19">C24+J24</f>
+        <f t="shared" ref="P24:P25" si="17">P23+O24</f>
+        <v>47209</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" ref="Q24:Q25" si="18">C24+K24</f>
         <v>1060</v>
       </c>
-      <c r="Q24" s="1">
-        <f t="shared" ref="Q24:Q25" si="20">P24+Q23</f>
+      <c r="R24" s="1">
+        <f t="shared" ref="R24:R25" si="19">Q24+R23</f>
         <v>1426</v>
       </c>
-      <c r="R24" s="1">
+      <c r="S24" s="1">
         <v>12174</v>
       </c>
-      <c r="S24" s="1">
+      <c r="T24" s="1">
         <v>5896.2</v>
       </c>
-      <c r="T24" s="1">
-        <f t="shared" si="8"/>
+      <c r="U24" s="1">
+        <f t="shared" si="9"/>
         <v>187663</v>
       </c>
-      <c r="U24" s="1">
-        <f t="shared" si="8"/>
+      <c r="V24" s="1">
+        <f t="shared" si="9"/>
         <v>40143.785317460315</v>
       </c>
-      <c r="V24" s="1">
+      <c r="W24" s="1">
         <v>188.44827586206895</v>
       </c>
-      <c r="W24" s="1">
+      <c r="X24" s="1">
         <v>576.5</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>156</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>45497</v>
       </c>
@@ -2285,58 +2337,61 @@
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
         <f t="shared" si="15"/>
         <v>60275</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N25" s="2">
+      <c r="O25" s="2">
+        <f t="shared" si="5"/>
+        <v>13068</v>
+      </c>
+      <c r="P25" s="1">
         <f t="shared" si="17"/>
-        <v>13068</v>
-      </c>
-      <c r="O25" s="1">
+        <v>60277</v>
+      </c>
+      <c r="Q25" s="1">
         <f t="shared" si="18"/>
-        <v>60275</v>
-      </c>
-      <c r="P25" s="1">
+        <v>538</v>
+      </c>
+      <c r="R25" s="1">
         <f t="shared" si="19"/>
-        <v>538</v>
-      </c>
-      <c r="Q25" s="1">
-        <f t="shared" si="20"/>
         <v>1964</v>
       </c>
-      <c r="R25" s="1">
+      <c r="S25" s="1">
         <v>16576</v>
       </c>
-      <c r="S25" s="1">
+      <c r="T25" s="1">
         <v>5104.2</v>
       </c>
-      <c r="T25" s="1">
-        <f t="shared" si="8"/>
+      <c r="U25" s="1">
+        <f t="shared" si="9"/>
         <v>204239</v>
       </c>
-      <c r="U25" s="1">
-        <f t="shared" si="8"/>
+      <c r="V25" s="1">
+        <f t="shared" si="9"/>
         <v>45247.985317460312</v>
       </c>
-      <c r="V25" s="1">
+      <c r="W25" s="1">
         <v>294.82758620689657</v>
       </c>
-      <c r="W25" s="1">
+      <c r="X25" s="1">
         <v>843.6875</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>207</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>45498</v>
       </c>
@@ -2362,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2370,58 +2425,61 @@
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="L26" s="1">
-        <f t="shared" ref="L26" si="21">L25+B26</f>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" ref="M26" si="20">M25+B26</f>
         <v>75441</v>
       </c>
-      <c r="M26" s="1">
-        <f t="shared" ref="M26" si="22">I26+K26</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="2">
-        <f t="shared" ref="N26" si="23">B26+M26</f>
-        <v>15166</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" ref="O26" si="24">O25+N26</f>
-        <v>75441</v>
+      <c r="N26" s="1">
+        <f t="shared" ref="N26" si="21">J26+L26</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="5"/>
+        <v>15169</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" ref="P26" si="25">C26+J26</f>
+        <f t="shared" ref="P26" si="22">P25+O26</f>
+        <v>75446</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" ref="Q26" si="23">C26+K26</f>
         <v>801</v>
       </c>
-      <c r="Q26" s="1">
-        <f t="shared" ref="Q26" si="26">P26+Q25</f>
+      <c r="R26" s="1">
+        <f t="shared" ref="R26" si="24">Q26+R25</f>
         <v>2765</v>
       </c>
-      <c r="R26" s="1">
+      <c r="S26" s="1">
         <v>18566</v>
       </c>
-      <c r="S26" s="1">
+      <c r="T26" s="1">
         <v>6040.3</v>
       </c>
-      <c r="T26" s="1">
-        <f t="shared" si="8"/>
+      <c r="U26" s="1">
+        <f t="shared" si="9"/>
         <v>222805</v>
       </c>
-      <c r="U26" s="1">
-        <f t="shared" si="8"/>
+      <c r="V26" s="1">
+        <f t="shared" si="9"/>
         <v>51288.285317460315</v>
       </c>
-      <c r="V26" s="1">
+      <c r="W26" s="1">
         <v>417.41379310344826</v>
       </c>
-      <c r="W26" s="1">
+      <c r="X26" s="1">
         <v>1221.96875</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>419</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>45499</v>
       </c>
@@ -2455,58 +2513,61 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27" s="1">
-        <f t="shared" ref="L27:L28" si="27">L26+B27</f>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" ref="M27:M28" si="25">M26+B27</f>
         <v>93600</v>
       </c>
-      <c r="M27" s="1">
-        <f t="shared" ref="M27:M28" si="28">I27+K27</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" ref="N27:N28" si="29">B27+M27</f>
+      <c r="N27" s="1">
+        <f t="shared" ref="N27:N28" si="26">J27+L27</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="5"/>
         <v>18159</v>
       </c>
-      <c r="O27" s="1">
-        <f t="shared" ref="O27:O28" si="30">O26+N27</f>
-        <v>93600</v>
-      </c>
       <c r="P27" s="1">
-        <f t="shared" ref="P27:P28" si="31">C27+J27</f>
+        <f t="shared" ref="P27:P28" si="27">P26+O27</f>
+        <v>93605</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" ref="Q27:Q28" si="28">C27+K27</f>
         <v>919</v>
       </c>
-      <c r="Q27" s="1">
-        <f t="shared" ref="Q27:Q28" si="32">P27+Q26</f>
+      <c r="R27" s="1">
+        <f t="shared" ref="R27:R28" si="29">Q27+R26</f>
         <v>3684</v>
       </c>
-      <c r="R27" s="1">
+      <c r="S27" s="1">
         <v>28226</v>
       </c>
-      <c r="S27" s="1">
+      <c r="T27" s="1">
         <v>5944.5</v>
       </c>
-      <c r="T27" s="1">
-        <f t="shared" si="8"/>
+      <c r="U27" s="1">
+        <f t="shared" si="9"/>
         <v>251031</v>
       </c>
-      <c r="U27" s="1">
-        <f t="shared" si="8"/>
+      <c r="V27" s="1">
+        <f t="shared" si="9"/>
         <v>57232.785317460315</v>
       </c>
-      <c r="V27" s="1">
+      <c r="W27" s="1">
         <v>480.44827586206895</v>
       </c>
-      <c r="W27" s="1">
+      <c r="X27" s="1">
         <v>1657.375</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>1262</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>843</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>45500</v>
       </c>
@@ -2532,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2540,58 +2601,61 @@
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="25"/>
+        <v>109999</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="5"/>
+        <v>16400</v>
+      </c>
+      <c r="P28" s="1">
         <f t="shared" si="27"/>
-        <v>109999</v>
-      </c>
-      <c r="M28" s="1">
+        <v>110005</v>
+      </c>
+      <c r="Q28" s="1">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="2">
+        <v>956</v>
+      </c>
+      <c r="R28" s="1">
         <f t="shared" si="29"/>
-        <v>16399</v>
-      </c>
-      <c r="O28" s="1">
-        <f t="shared" si="30"/>
-        <v>109999</v>
-      </c>
-      <c r="P28" s="1">
-        <f t="shared" si="31"/>
-        <v>956</v>
-      </c>
-      <c r="Q28" s="1">
-        <f t="shared" si="32"/>
         <v>4640</v>
       </c>
-      <c r="R28" s="1">
+      <c r="S28" s="1">
         <v>28784</v>
       </c>
-      <c r="S28" s="1">
+      <c r="T28" s="1">
         <v>8202.7000000000007</v>
       </c>
-      <c r="T28" s="1">
-        <f t="shared" si="8"/>
+      <c r="U28" s="1">
+        <f t="shared" si="9"/>
         <v>279815</v>
       </c>
-      <c r="U28" s="1">
-        <f t="shared" si="8"/>
+      <c r="V28" s="1">
+        <f t="shared" si="9"/>
         <v>65435.485317460319</v>
       </c>
-      <c r="V28" s="1">
+      <c r="W28" s="1">
         <v>454.72413793103448</v>
       </c>
-      <c r="W28" s="1">
+      <c r="X28" s="1">
         <v>2069.46875</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>6659</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>5397</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>45501</v>
       </c>
@@ -2617,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2625,58 +2689,61 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29" s="1">
-        <f>L28+B29</f>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <f>M28+B29</f>
         <v>125878</v>
       </c>
-      <c r="M29" s="1">
-        <f t="shared" ref="M29" si="33">I29+K29</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="2">
-        <f t="shared" ref="N29" si="34">B29+M29</f>
-        <v>15879</v>
-      </c>
-      <c r="O29" s="1">
-        <f t="shared" ref="O29" si="35">O28+N29</f>
-        <v>125878</v>
+      <c r="N29" s="1">
+        <f t="shared" ref="N29" si="30">J29+L29</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="5"/>
+        <v>15880</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" ref="P29" si="36">C29+J29</f>
+        <f t="shared" ref="P29" si="31">P28+O29</f>
+        <v>125885</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" ref="Q29" si="32">C29+K29</f>
         <v>1535</v>
       </c>
-      <c r="Q29" s="1">
-        <f t="shared" ref="Q29" si="37">P29+Q28</f>
+      <c r="R29" s="1">
+        <f t="shared" ref="R29" si="33">Q29+R28</f>
         <v>6175</v>
       </c>
-      <c r="R29" s="1">
+      <c r="S29" s="1">
         <v>27926</v>
       </c>
-      <c r="S29" s="1">
+      <c r="T29" s="1">
         <v>7930.6</v>
       </c>
-      <c r="T29" s="1">
-        <f t="shared" si="8"/>
+      <c r="U29" s="1">
+        <f t="shared" si="9"/>
         <v>307741</v>
       </c>
-      <c r="U29" s="1">
-        <f t="shared" si="8"/>
+      <c r="V29" s="1">
+        <f t="shared" si="9"/>
         <v>73366.085317460325</v>
       </c>
-      <c r="V29" s="1">
+      <c r="W29" s="1">
         <v>489.03333333333336</v>
       </c>
-      <c r="W29" s="1">
+      <c r="X29" s="1">
         <v>2527.9375</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>10888</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>4229</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>45502</v>
       </c>
@@ -2702,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2710,58 +2777,61 @@
       <c r="K30">
         <v>0</v>
       </c>
-      <c r="L30" s="1">
-        <f>L29+B30</f>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <f>M29+B30</f>
         <v>140075</v>
       </c>
-      <c r="M30" s="1">
-        <f t="shared" ref="M30" si="38">I30+K30</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="2">
-        <f t="shared" ref="N30" si="39">B30+M30</f>
-        <v>14197</v>
-      </c>
-      <c r="O30" s="1">
-        <f t="shared" ref="O30" si="40">O29+N30</f>
-        <v>140075</v>
+      <c r="N30" s="1">
+        <f t="shared" ref="N30" si="34">J30+L30</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="5"/>
+        <v>14198</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" ref="P30" si="41">C30+J30</f>
+        <f t="shared" ref="P30" si="35">P29+O30</f>
+        <v>140083</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" ref="Q30" si="36">C30+K30</f>
         <v>1005</v>
       </c>
-      <c r="Q30" s="1">
-        <f t="shared" ref="Q30" si="42">P30+Q29</f>
+      <c r="R30" s="1">
+        <f t="shared" ref="R30" si="37">Q30+R29</f>
         <v>7180</v>
       </c>
-      <c r="R30" s="1">
+      <c r="S30" s="1">
         <v>31775</v>
       </c>
-      <c r="S30" s="1">
+      <c r="T30" s="1">
         <v>8536.4</v>
       </c>
-      <c r="T30" s="1">
-        <f t="shared" si="8"/>
+      <c r="U30" s="1">
+        <f t="shared" si="9"/>
         <v>339516</v>
       </c>
-      <c r="U30" s="1">
-        <f t="shared" si="8"/>
+      <c r="V30" s="1">
+        <f t="shared" si="9"/>
         <v>81902.485317460319</v>
       </c>
-      <c r="V30" s="1">
+      <c r="W30" s="1">
         <v>745.28125</v>
       </c>
-      <c r="W30" s="1">
+      <c r="X30" s="1">
         <v>3273.21875</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>39802</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>28914</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>45503</v>
       </c>
@@ -2795,58 +2865,61 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31" s="1">
-        <f t="shared" ref="L31:L32" si="43">L30+B31</f>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" ref="M31:M32" si="38">M30+B31</f>
         <v>149686</v>
       </c>
-      <c r="M31" s="1">
-        <f t="shared" ref="M31:M32" si="44">I31+K31</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="2">
-        <f t="shared" ref="N31:N32" si="45">B31+M31</f>
+      <c r="N31" s="1">
+        <f t="shared" ref="N31:N32" si="39">J31+L31</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <f t="shared" si="5"/>
         <v>9611</v>
       </c>
-      <c r="O31" s="1">
-        <f t="shared" ref="O31:O32" si="46">O30+N31</f>
-        <v>149686</v>
-      </c>
       <c r="P31" s="1">
-        <f t="shared" ref="P31:P32" si="47">C31+J31</f>
+        <f t="shared" ref="P31:P32" si="40">P30+O31</f>
+        <v>149694</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" ref="Q31:Q32" si="41">C31+K31</f>
         <v>705</v>
       </c>
-      <c r="Q31" s="1">
-        <f t="shared" ref="Q31:Q32" si="48">P31+Q30</f>
+      <c r="R31" s="1">
+        <f t="shared" ref="R31:R32" si="42">Q31+R30</f>
         <v>7885</v>
       </c>
-      <c r="R31" s="1">
+      <c r="S31" s="1">
         <v>27571</v>
       </c>
-      <c r="S31" s="1">
+      <c r="T31" s="1">
         <v>11357.7</v>
       </c>
-      <c r="T31" s="1">
-        <f t="shared" si="8"/>
+      <c r="U31" s="1">
+        <f t="shared" si="9"/>
         <v>367087</v>
       </c>
-      <c r="U31" s="1">
-        <f t="shared" si="8"/>
+      <c r="V31" s="1">
+        <f t="shared" si="9"/>
         <v>93260.185317460317</v>
       </c>
-      <c r="V31" s="1">
+      <c r="W31" s="1">
         <v>926.125</v>
       </c>
-      <c r="W31" s="1">
+      <c r="X31" s="1">
         <v>4199.34375</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>118472</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>78670</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>45504</v>
       </c>
@@ -2880,58 +2953,61 @@
       <c r="K32">
         <v>0</v>
       </c>
-      <c r="L32" s="1">
-        <f t="shared" si="43"/>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="38"/>
         <v>159742</v>
       </c>
-      <c r="M32" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="2">
-        <f t="shared" si="45"/>
+      <c r="N32" s="1">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <f t="shared" si="5"/>
         <v>10056</v>
       </c>
-      <c r="O32" s="1">
-        <f t="shared" si="46"/>
-        <v>159742</v>
-      </c>
       <c r="P32" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
+        <v>159750</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="41"/>
         <v>948</v>
       </c>
-      <c r="Q32" s="1">
-        <f t="shared" si="48"/>
+      <c r="R32" s="1">
+        <f t="shared" si="42"/>
         <v>8833</v>
       </c>
-      <c r="R32" s="1">
+      <c r="S32" s="1">
         <v>26853</v>
       </c>
-      <c r="S32" s="1">
+      <c r="T32" s="1">
         <v>14360.7</v>
       </c>
-      <c r="T32" s="1">
-        <f t="shared" si="8"/>
+      <c r="U32" s="1">
+        <f t="shared" si="9"/>
         <v>393940</v>
       </c>
-      <c r="U32" s="1">
-        <f t="shared" si="8"/>
+      <c r="V32" s="1">
+        <f t="shared" si="9"/>
         <v>107620.88531746031</v>
       </c>
-      <c r="V32" s="1">
+      <c r="W32" s="1">
         <v>1043.34375</v>
       </c>
-      <c r="W32" s="1">
+      <c r="X32" s="1">
         <v>5242.6875</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>214467</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>95995</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>45505</v>
       </c>
@@ -2965,58 +3041,61 @@
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="L33" s="1">
-        <f t="shared" ref="L33" si="49">L32+B33</f>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" ref="M33" si="43">M32+B33</f>
         <v>177251</v>
       </c>
-      <c r="M33" s="1">
-        <f t="shared" ref="M33" si="50">I33+K33</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="2">
-        <f t="shared" ref="N33" si="51">B33+M33</f>
+      <c r="N33" s="1">
+        <f t="shared" ref="N33" si="44">J33+L33</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <f t="shared" si="5"/>
         <v>17509</v>
       </c>
-      <c r="O33" s="1">
-        <f t="shared" ref="O33" si="52">O32+N33</f>
-        <v>177251</v>
-      </c>
       <c r="P33" s="1">
-        <f t="shared" ref="P33" si="53">C33+J33</f>
+        <f t="shared" ref="P33" si="45">P32+O33</f>
+        <v>177259</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" ref="Q33" si="46">C33+K33</f>
         <v>1417</v>
       </c>
-      <c r="Q33" s="1">
-        <f t="shared" ref="Q33" si="54">P33+Q32</f>
+      <c r="R33" s="1">
+        <f t="shared" ref="R33" si="47">Q33+R32</f>
         <v>10250</v>
       </c>
-      <c r="R33" s="1">
+      <c r="S33" s="1">
         <v>21710</v>
       </c>
-      <c r="S33" s="1">
+      <c r="T33" s="1">
         <v>15565.8</v>
       </c>
-      <c r="T33" s="1">
-        <f t="shared" si="8"/>
+      <c r="U33" s="1">
+        <f t="shared" si="9"/>
         <v>415650</v>
       </c>
-      <c r="U33" s="1">
-        <f t="shared" si="8"/>
+      <c r="V33" s="1">
+        <f t="shared" si="9"/>
         <v>123186.68531746032</v>
       </c>
-      <c r="V33" s="1">
+      <c r="W33" s="1">
         <v>1221.59375</v>
       </c>
-      <c r="W33" s="1">
+      <c r="X33" s="1">
         <v>6464.28125</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>328480</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>114013</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>45506</v>
       </c>
@@ -3042,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3050,58 +3129,61 @@
       <c r="K34">
         <v>0</v>
       </c>
-      <c r="L34" s="1">
-        <f t="shared" ref="L34:L37" si="55">L33+B34</f>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" ref="M34:M37" si="48">M33+B34</f>
         <v>199538</v>
       </c>
-      <c r="M34" s="1">
-        <f t="shared" ref="M34:M37" si="56">I34+K34</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="2">
-        <f t="shared" ref="N34:N37" si="57">B34+M34</f>
-        <v>22287</v>
-      </c>
-      <c r="O34" s="1">
-        <f t="shared" ref="O34:O37" si="58">O33+N34</f>
-        <v>199538</v>
+      <c r="N34" s="1">
+        <f t="shared" ref="N34:N37" si="49">J34+L34</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" si="5"/>
+        <v>22288</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" ref="P34:P37" si="59">C34+J34</f>
+        <f t="shared" ref="P34:P37" si="50">P33+O34</f>
+        <v>199547</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" ref="Q34:Q37" si="51">C34+K34</f>
         <v>1572</v>
       </c>
-      <c r="Q34" s="1">
-        <f t="shared" ref="Q34:Q37" si="60">P34+Q33</f>
+      <c r="R34" s="1">
+        <f t="shared" ref="R34:R37" si="52">Q34+R33</f>
         <v>11822</v>
       </c>
-      <c r="R34" s="1">
+      <c r="S34" s="1">
         <v>33295</v>
       </c>
-      <c r="S34" s="1">
+      <c r="T34" s="1">
         <v>17444.2</v>
       </c>
-      <c r="T34" s="1">
-        <f t="shared" si="8"/>
+      <c r="U34" s="1">
+        <f t="shared" si="9"/>
         <v>448945</v>
       </c>
-      <c r="U34" s="1">
-        <f t="shared" si="8"/>
+      <c r="V34" s="1">
+        <f t="shared" si="9"/>
         <v>140630.88531746031</v>
       </c>
-      <c r="V34" s="1">
+      <c r="W34" s="1">
         <v>1335.8125</v>
       </c>
-      <c r="W34" s="1">
+      <c r="X34" s="1">
         <v>7800.09375</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>417801</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>89321</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>45507</v>
       </c>
@@ -3127,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3135,58 +3217,61 @@
       <c r="K35">
         <v>0</v>
       </c>
-      <c r="L35" s="1">
-        <f t="shared" si="55"/>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="48"/>
         <v>218830</v>
       </c>
-      <c r="M35" s="1">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" si="57"/>
-        <v>19292</v>
-      </c>
-      <c r="O35" s="1">
-        <f t="shared" si="58"/>
-        <v>218830</v>
+      <c r="N35" s="1">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="5"/>
+        <v>19295</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="50"/>
+        <v>218842</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="51"/>
         <v>1288</v>
       </c>
-      <c r="Q35" s="1">
-        <f t="shared" si="60"/>
+      <c r="R35" s="1">
+        <f t="shared" si="52"/>
         <v>13110</v>
       </c>
-      <c r="R35" s="1">
+      <c r="S35" s="1">
         <v>31385</v>
       </c>
-      <c r="S35" s="1">
+      <c r="T35" s="1">
         <v>19682.900000000001</v>
       </c>
-      <c r="T35" s="1">
-        <f t="shared" si="8"/>
+      <c r="U35" s="1">
+        <f t="shared" si="9"/>
         <v>480330</v>
       </c>
-      <c r="U35" s="1">
-        <f t="shared" si="8"/>
+      <c r="V35" s="1">
+        <f t="shared" si="9"/>
         <v>160313.78531746031</v>
       </c>
-      <c r="V35" s="1">
+      <c r="W35" s="1">
         <v>1380.3125</v>
       </c>
-      <c r="W35" s="1">
+      <c r="X35" s="1">
         <v>9180.40625</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>473924</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>56123</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>45508</v>
       </c>
@@ -3215,63 +3300,66 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
-      <c r="L36" s="1">
-        <f t="shared" si="55"/>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="48"/>
         <v>240204</v>
       </c>
-      <c r="M36" s="1">
-        <f t="shared" si="56"/>
+      <c r="N36" s="1">
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="N36" s="2">
-        <f t="shared" si="57"/>
-        <v>21375</v>
-      </c>
-      <c r="O36" s="1">
-        <f t="shared" si="58"/>
-        <v>240205</v>
+      <c r="O36" s="2">
+        <f t="shared" si="5"/>
+        <v>21376</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="50"/>
+        <v>240218</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="51"/>
         <v>1254</v>
       </c>
-      <c r="Q36" s="1">
-        <f t="shared" si="60"/>
+      <c r="R36" s="1">
+        <f t="shared" si="52"/>
         <v>14364</v>
       </c>
-      <c r="R36" s="1">
+      <c r="S36" s="1">
         <v>40112</v>
       </c>
-      <c r="S36" s="1">
+      <c r="T36" s="1">
         <v>18790.8</v>
       </c>
-      <c r="T36" s="1">
-        <f t="shared" ref="T36:U51" si="61">T35+R36</f>
+      <c r="U36" s="1">
+        <f t="shared" ref="U36:V51" si="53">U35+S36</f>
         <v>520442</v>
       </c>
-      <c r="U36" s="1">
-        <f t="shared" si="61"/>
+      <c r="V36" s="1">
+        <f t="shared" si="53"/>
         <v>179104.5853174603</v>
       </c>
-      <c r="V36" s="1">
+      <c r="W36" s="1">
         <v>1647.09375</v>
       </c>
-      <c r="W36" s="1">
+      <c r="X36" s="1">
         <v>10827.5</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>525970</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>52046</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>45509</v>
       </c>
@@ -3305,58 +3393,61 @@
       <c r="K37">
         <v>0</v>
       </c>
-      <c r="L37" s="1">
-        <f t="shared" si="55"/>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="48"/>
         <v>267941</v>
       </c>
-      <c r="M37" s="1">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" si="57"/>
+      <c r="N37" s="1">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="5"/>
         <v>27737</v>
       </c>
-      <c r="O37" s="1">
-        <f t="shared" si="58"/>
-        <v>267942</v>
-      </c>
       <c r="P37" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="50"/>
+        <v>267955</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="51"/>
         <v>2180</v>
       </c>
-      <c r="Q37" s="1">
-        <f t="shared" si="60"/>
+      <c r="R37" s="1">
+        <f t="shared" si="52"/>
         <v>16544</v>
       </c>
-      <c r="R37" s="1">
+      <c r="S37" s="1">
         <v>29948</v>
       </c>
-      <c r="S37" s="1">
+      <c r="T37" s="1">
         <v>25713.3</v>
       </c>
-      <c r="T37" s="1">
-        <f t="shared" si="61"/>
+      <c r="U37" s="1">
+        <f t="shared" si="53"/>
         <v>550390</v>
       </c>
-      <c r="U37" s="1">
-        <f t="shared" si="61"/>
+      <c r="V37" s="1">
+        <f t="shared" si="53"/>
         <v>204817.88531746028</v>
       </c>
-      <c r="V37" s="1">
+      <c r="W37" s="1">
         <v>1682.625</v>
       </c>
-      <c r="W37" s="1">
+      <c r="X37" s="1">
         <v>12510.125</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>597125</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>71155</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>45510</v>
       </c>
@@ -3390,58 +3481,61 @@
       <c r="K38">
         <v>0</v>
       </c>
-      <c r="L38" s="1">
-        <f t="shared" ref="L38:L39" si="62">L37+B38</f>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" ref="M38:M39" si="54">M37+B38</f>
         <v>306361</v>
       </c>
-      <c r="M38" s="1">
-        <f t="shared" ref="M38:M39" si="63">I38+K38</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="2">
-        <f t="shared" ref="N38:N39" si="64">B38+M38</f>
+      <c r="N38" s="1">
+        <f t="shared" ref="N38:N39" si="55">J38+L38</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="5"/>
         <v>38420</v>
       </c>
-      <c r="O38" s="1">
-        <f t="shared" ref="O38:O39" si="65">O37+N38</f>
-        <v>306362</v>
-      </c>
       <c r="P38" s="1">
-        <f t="shared" ref="P38:P39" si="66">C38+J38</f>
+        <f t="shared" ref="P38:P39" si="56">P37+O38</f>
+        <v>306375</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" ref="Q38:Q39" si="57">C38+K38</f>
         <v>3255</v>
       </c>
-      <c r="Q38" s="1">
-        <f t="shared" ref="Q38:Q39" si="67">P38+Q37</f>
+      <c r="R38" s="1">
+        <f t="shared" ref="R38:R39" si="58">Q38+R37</f>
         <v>19799</v>
       </c>
-      <c r="R38" s="1">
+      <c r="S38" s="1">
         <v>30708</v>
       </c>
-      <c r="S38" s="1">
+      <c r="T38" s="1">
         <v>18006.400000000001</v>
       </c>
-      <c r="T38" s="1">
-        <f t="shared" si="61"/>
+      <c r="U38" s="1">
+        <f t="shared" si="53"/>
         <v>581098</v>
       </c>
-      <c r="U38" s="1">
-        <f t="shared" si="61"/>
+      <c r="V38" s="1">
+        <f t="shared" si="53"/>
         <v>222824.28531746028</v>
       </c>
-      <c r="V38" s="1">
+      <c r="W38" s="1">
         <v>1667.5</v>
       </c>
-      <c r="W38" s="1">
+      <c r="X38" s="1">
         <v>14177.625</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>669311</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>72186</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>45511</v>
       </c>
@@ -3475,58 +3569,61 @@
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="L39" s="1">
-        <f t="shared" si="62"/>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="54"/>
         <v>355081</v>
       </c>
-      <c r="M39" s="1">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="2">
-        <f t="shared" si="64"/>
+      <c r="N39" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="5"/>
         <v>48720</v>
       </c>
-      <c r="O39" s="1">
-        <f t="shared" si="65"/>
-        <v>355082</v>
-      </c>
       <c r="P39" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="56"/>
+        <v>355095</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="57"/>
         <v>3572</v>
       </c>
-      <c r="Q39" s="1">
-        <f t="shared" si="67"/>
+      <c r="R39" s="1">
+        <f t="shared" si="58"/>
         <v>23371</v>
       </c>
-      <c r="R39" s="1">
+      <c r="S39" s="1">
         <v>24490</v>
       </c>
-      <c r="S39" s="1">
+      <c r="T39" s="1">
         <v>24560.3</v>
       </c>
-      <c r="T39" s="1">
-        <f t="shared" si="61"/>
+      <c r="U39" s="1">
+        <f t="shared" si="53"/>
         <v>605588</v>
       </c>
-      <c r="U39" s="1">
-        <f t="shared" si="61"/>
+      <c r="V39" s="1">
+        <f t="shared" si="53"/>
         <v>247384.58531746027</v>
       </c>
-      <c r="V39" s="1">
+      <c r="W39" s="1">
         <v>1813.25</v>
       </c>
-      <c r="W39" s="1">
+      <c r="X39" s="1">
         <v>15990.875</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>731387</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>62076</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>45512</v>
       </c>
@@ -3560,58 +3657,61 @@
       <c r="K40">
         <v>0</v>
       </c>
-      <c r="L40" s="1">
-        <f t="shared" ref="L40:L41" si="68">L39+B40</f>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" ref="M40:M41" si="59">M39+B40</f>
         <v>418082</v>
       </c>
-      <c r="M40" s="1">
-        <f t="shared" ref="M40:M42" si="69">I40+K40</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="2">
-        <f t="shared" ref="N40:N42" si="70">B40+M40</f>
+      <c r="N40" s="1">
+        <f t="shared" ref="N40:N41" si="60">J40+L40</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="5"/>
         <v>63001</v>
       </c>
-      <c r="O40" s="1">
-        <f t="shared" ref="O40:O41" si="71">O39+N40</f>
-        <v>418083</v>
-      </c>
       <c r="P40" s="1">
-        <f t="shared" ref="P40:P42" si="72">C40+J40</f>
+        <f t="shared" ref="P40:P41" si="61">P39+O40</f>
+        <v>418096</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" ref="Q40:Q41" si="62">C40+K40</f>
         <v>4173</v>
       </c>
-      <c r="Q40" s="1">
-        <f t="shared" ref="Q40:Q41" si="73">P40+Q39</f>
+      <c r="R40" s="1">
+        <f t="shared" ref="R40:R41" si="63">Q40+R39</f>
         <v>27544</v>
       </c>
-      <c r="R40" s="1">
+      <c r="S40" s="1">
         <v>21583</v>
       </c>
-      <c r="S40" s="1">
+      <c r="T40" s="1">
         <v>22302.5</v>
       </c>
-      <c r="T40" s="1">
-        <f t="shared" si="61"/>
+      <c r="U40" s="1">
+        <f t="shared" si="53"/>
         <v>627171</v>
       </c>
-      <c r="U40" s="1">
-        <f t="shared" si="61"/>
+      <c r="V40" s="1">
+        <f t="shared" si="53"/>
         <v>269687.08531746024</v>
       </c>
-      <c r="V40" s="1">
+      <c r="W40" s="1">
         <v>2108.5625</v>
       </c>
-      <c r="W40" s="1">
+      <c r="X40" s="1">
         <v>18099.4375</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>780468</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>49081</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>45513</v>
       </c>
@@ -3637,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3645,58 +3745,61 @@
       <c r="K41">
         <v>0</v>
       </c>
-      <c r="L41" s="1">
-        <f t="shared" si="68"/>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="59"/>
         <v>498006</v>
       </c>
-      <c r="M41" s="1">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="2">
-        <f t="shared" si="70"/>
-        <v>79924</v>
-      </c>
-      <c r="O41" s="1">
-        <f t="shared" si="71"/>
-        <v>498007</v>
+      <c r="N41" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <f t="shared" si="5"/>
+        <v>79927</v>
       </c>
       <c r="P41" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="61"/>
+        <v>498023</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="62"/>
         <v>3954</v>
       </c>
-      <c r="Q41" s="1">
-        <f t="shared" si="73"/>
+      <c r="R41" s="1">
+        <f t="shared" si="63"/>
         <v>31498</v>
       </c>
-      <c r="R41" s="1">
+      <c r="S41" s="1">
         <v>25202</v>
       </c>
-      <c r="S41" s="1">
+      <c r="T41" s="1">
         <v>36342.400000000001</v>
       </c>
-      <c r="T41" s="1">
-        <f t="shared" si="61"/>
+      <c r="U41" s="1">
+        <f t="shared" si="53"/>
         <v>652373</v>
       </c>
-      <c r="U41" s="1">
-        <f t="shared" si="61"/>
+      <c r="V41" s="1">
+        <f t="shared" si="53"/>
         <v>306029.48531746026</v>
       </c>
-      <c r="V41" s="1">
+      <c r="W41" s="1">
         <v>2325.15625</v>
       </c>
-      <c r="W41" s="1">
+      <c r="X41" s="1">
         <v>20424.59375</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>846804</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>66336</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>45514</v>
       </c>
@@ -3722,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -3730,1980 +3833,2097 @@
       <c r="K42">
         <v>0</v>
       </c>
-      <c r="L42" s="1">
-        <f t="shared" ref="L42" si="74">L41+B42</f>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" ref="M42" si="64">M41+B42</f>
         <v>536977</v>
       </c>
-      <c r="M42" s="1">
-        <f t="shared" ref="M42" si="75">I42+K42</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="2">
-        <f t="shared" ref="N42" si="76">B42+M42</f>
-        <v>38971</v>
-      </c>
-      <c r="O42" s="1">
-        <f t="shared" ref="O42" si="77">O41+N42</f>
-        <v>536978</v>
+      <c r="N42" s="1">
+        <f t="shared" ref="N42" si="65">J42+L42</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <f t="shared" si="5"/>
+        <v>38991</v>
       </c>
       <c r="P42" s="1">
-        <f t="shared" ref="P42" si="78">C42+J42</f>
+        <f t="shared" ref="P42" si="66">P41+O42</f>
+        <v>537014</v>
+      </c>
+      <c r="Q42" s="1">
+        <f>C42+K42</f>
         <v>1620</v>
       </c>
-      <c r="Q42" s="1">
-        <f t="shared" ref="Q42" si="79">P42+Q41</f>
+      <c r="R42" s="1">
+        <f t="shared" ref="R42" si="67">Q42+R41</f>
         <v>33118</v>
       </c>
-      <c r="R42" s="1">
+      <c r="S42" s="1">
         <v>23133</v>
       </c>
-      <c r="S42" s="1">
+      <c r="T42" s="1">
         <v>26445.363636363636</v>
       </c>
-      <c r="T42" s="1">
-        <f t="shared" si="61"/>
+      <c r="U42" s="1">
+        <f t="shared" si="53"/>
         <v>675506</v>
       </c>
-      <c r="U42" s="1">
-        <f t="shared" si="61"/>
+      <c r="V42" s="1">
+        <f t="shared" si="53"/>
         <v>332474.84895382391</v>
       </c>
-      <c r="V42" s="1">
+      <c r="W42" s="1">
         <v>2275.84375</v>
       </c>
-      <c r="W42" s="1">
+      <c r="X42" s="1">
         <v>22700.4375</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>915066</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>68262</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>45515</v>
       </c>
+      <c r="B43">
+        <v>21416</v>
+      </c>
+      <c r="C43">
+        <v>1414</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1214</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>47</v>
+      </c>
+      <c r="J43">
+        <v>91</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" ref="M43:M44" si="68">M42+B43</f>
+        <v>558393</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" ref="N43:N44" si="69">J43+L43</f>
+        <v>91</v>
+      </c>
+      <c r="O43" s="2">
+        <f t="shared" si="5"/>
+        <v>21554</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" ref="P43:P44" si="70">P42+O43</f>
+        <v>558568</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" ref="Q43:Q44" si="71">C43+K43</f>
+        <v>1414</v>
+      </c>
       <c r="R43" s="1">
+        <f t="shared" ref="R43:R44" si="72">Q43+R42</f>
+        <v>34532</v>
+      </c>
+      <c r="S43" s="1">
         <v>41604</v>
       </c>
-      <c r="S43" s="1">
+      <c r="T43" s="1">
         <v>28798.363636363636</v>
       </c>
-      <c r="T43" s="1">
-        <f t="shared" si="61"/>
+      <c r="U43" s="1">
+        <f t="shared" si="53"/>
         <v>717110</v>
       </c>
-      <c r="U43" s="1">
-        <f t="shared" si="61"/>
+      <c r="V43" s="1">
+        <f t="shared" si="53"/>
         <v>361273.21259018756</v>
       </c>
-      <c r="V43" s="1">
+      <c r="W43" s="1">
         <v>2496.375</v>
       </c>
-      <c r="W43" s="1">
+      <c r="X43" s="1">
         <v>25196.8125</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>993553</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>78487</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>45516</v>
       </c>
+      <c r="B44">
+        <v>80340</v>
+      </c>
+      <c r="C44">
+        <v>6129</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>6219</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>21</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="68"/>
+        <v>638733</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <f>B44+I44+N44</f>
+        <v>80361</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="70"/>
+        <v>638929</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="71"/>
+        <v>6129</v>
+      </c>
       <c r="R44" s="1">
+        <f t="shared" si="72"/>
+        <v>40661</v>
+      </c>
+      <c r="S44" s="1">
         <v>23097</v>
       </c>
-      <c r="S44" s="1">
+      <c r="T44" s="1">
         <v>22717.545454545456</v>
       </c>
-      <c r="T44" s="1">
-        <f t="shared" si="61"/>
+      <c r="U44" s="1">
+        <f t="shared" si="53"/>
         <v>740207</v>
       </c>
-      <c r="U44" s="1">
-        <f t="shared" si="61"/>
+      <c r="V44" s="1">
+        <f t="shared" si="53"/>
         <v>383990.75804473303</v>
       </c>
-      <c r="V44" s="1">
+      <c r="W44" s="1">
         <v>2902.0625</v>
       </c>
-      <c r="W44" s="1">
+      <c r="X44" s="1">
         <v>28098.875</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>1080252</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>86699</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>45517</v>
       </c>
-      <c r="R45" s="1">
+      <c r="S45" s="1">
         <v>29948</v>
       </c>
-      <c r="S45" s="1">
+      <c r="T45" s="1">
         <v>24761.090909090908</v>
       </c>
-      <c r="T45" s="1">
-        <f t="shared" si="61"/>
+      <c r="U45" s="1">
+        <f t="shared" si="53"/>
         <v>770155</v>
       </c>
-      <c r="U45" s="1">
-        <f t="shared" si="61"/>
+      <c r="V45" s="1">
+        <f t="shared" si="53"/>
         <v>408751.84895382391</v>
       </c>
-      <c r="V45" s="1">
+      <c r="W45" s="1">
         <v>2692.40625</v>
       </c>
-      <c r="W45" s="1">
+      <c r="X45" s="1">
         <v>30791.28125</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>1157906</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>77654</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45518</v>
       </c>
-      <c r="R46" s="1">
+      <c r="S46" s="1">
         <v>43402</v>
       </c>
-      <c r="S46" s="1">
+      <c r="T46" s="1">
         <v>27668.909090909092</v>
       </c>
-      <c r="T46" s="1">
-        <f t="shared" si="61"/>
+      <c r="U46" s="1">
+        <f t="shared" si="53"/>
         <v>813557</v>
       </c>
-      <c r="U46" s="1">
-        <f t="shared" si="61"/>
+      <c r="V46" s="1">
+        <f t="shared" si="53"/>
         <v>436420.75804473303</v>
       </c>
-      <c r="V46" s="1">
+      <c r="W46" s="1">
         <v>2560.34375</v>
       </c>
-      <c r="W46" s="1">
+      <c r="X46" s="1">
         <v>33351.625</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>1254605</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>96699</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>45519</v>
       </c>
-      <c r="R47" s="1">
+      <c r="S47" s="1">
         <v>35514</v>
       </c>
-      <c r="S47" s="1">
+      <c r="T47" s="1">
         <v>28715</v>
       </c>
-      <c r="T47" s="1">
-        <f t="shared" si="61"/>
+      <c r="U47" s="1">
+        <f t="shared" si="53"/>
         <v>849071</v>
       </c>
-      <c r="U47" s="1">
-        <f t="shared" si="61"/>
+      <c r="V47" s="1">
+        <f t="shared" si="53"/>
         <v>465135.75804473303</v>
       </c>
-      <c r="V47" s="1">
+      <c r="W47" s="1">
         <v>2669.375</v>
       </c>
-      <c r="W47" s="1">
+      <c r="X47" s="1">
         <v>36021</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>1351640</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>97035</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>45520</v>
       </c>
-      <c r="R48" s="1">
+      <c r="S48" s="1">
         <v>42120</v>
       </c>
-      <c r="S48" s="1">
+      <c r="T48" s="1">
         <v>19741.18181818182</v>
       </c>
-      <c r="T48" s="1">
-        <f t="shared" si="61"/>
+      <c r="U48" s="1">
+        <f t="shared" si="53"/>
         <v>891191</v>
       </c>
-      <c r="U48" s="1">
-        <f t="shared" si="61"/>
+      <c r="V48" s="1">
+        <f t="shared" si="53"/>
         <v>484876.93986291485</v>
       </c>
-      <c r="V48" s="1">
+      <c r="W48" s="1">
         <v>2246.625</v>
       </c>
-      <c r="W48" s="1">
+      <c r="X48" s="1">
         <v>38267.625</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>1453508</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>101868</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>45521</v>
       </c>
-      <c r="R49" s="1">
+      <c r="S49" s="1">
         <v>72319</v>
       </c>
-      <c r="S49" s="1">
+      <c r="T49" s="1">
         <v>24994.81818181818</v>
       </c>
-      <c r="T49" s="1">
-        <f t="shared" si="61"/>
+      <c r="U49" s="1">
+        <f t="shared" si="53"/>
         <v>963510</v>
       </c>
-      <c r="U49" s="1">
-        <f t="shared" si="61"/>
+      <c r="V49" s="1">
+        <f t="shared" si="53"/>
         <v>509871.75804473303</v>
       </c>
-      <c r="V49" s="1">
+      <c r="W49" s="1">
         <v>2389.96875</v>
       </c>
-      <c r="W49" s="1">
+      <c r="X49" s="1">
         <v>40657.59375</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>1549071</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>95563</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>45522</v>
       </c>
-      <c r="R50" s="1">
+      <c r="S50" s="1">
         <v>51083</v>
       </c>
-      <c r="S50" s="1">
+      <c r="T50" s="1">
         <v>30512.18181818182</v>
       </c>
-      <c r="T50" s="1">
-        <f t="shared" si="61"/>
+      <c r="U50" s="1">
+        <f t="shared" si="53"/>
         <v>1014593</v>
       </c>
-      <c r="U50" s="1">
-        <f t="shared" si="61"/>
+      <c r="V50" s="1">
+        <f t="shared" si="53"/>
         <v>540383.93986291485</v>
       </c>
-      <c r="V50" s="1">
+      <c r="W50" s="1">
         <v>2545.625</v>
       </c>
-      <c r="W50" s="1">
+      <c r="X50" s="1">
         <v>43203.21875</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>1645361</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>96290</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>45523</v>
       </c>
-      <c r="R51" s="1">
+      <c r="S51" s="1">
         <v>63291</v>
       </c>
-      <c r="S51" s="1">
+      <c r="T51" s="1">
         <v>29755.272727272728</v>
       </c>
-      <c r="T51" s="1">
-        <f t="shared" si="61"/>
+      <c r="U51" s="1">
+        <f t="shared" si="53"/>
         <v>1077884</v>
       </c>
-      <c r="U51" s="1">
-        <f t="shared" si="61"/>
+      <c r="V51" s="1">
+        <f t="shared" si="53"/>
         <v>570139.21259018756</v>
       </c>
-      <c r="V51" s="1">
+      <c r="W51" s="1">
         <v>2491.34375</v>
       </c>
-      <c r="W51" s="1">
+      <c r="X51" s="1">
         <v>45694.5625</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>1721948</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>76587</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>45524</v>
       </c>
-      <c r="R52" s="1">
+      <c r="S52" s="1">
         <v>36599</v>
       </c>
-      <c r="S52" s="1">
+      <c r="T52" s="1">
         <v>29568.909090909092</v>
       </c>
-      <c r="T52" s="1">
-        <f t="shared" ref="T52:U67" si="80">T51+R52</f>
+      <c r="U52" s="1">
+        <f t="shared" ref="U52:V67" si="73">U51+S52</f>
         <v>1114483</v>
       </c>
-      <c r="U52" s="1">
-        <f t="shared" si="80"/>
+      <c r="V52" s="1">
+        <f t="shared" si="73"/>
         <v>599708.12168109661</v>
       </c>
-      <c r="V52" s="1">
+      <c r="W52" s="1">
         <v>2794.78125</v>
       </c>
-      <c r="W52" s="1">
+      <c r="X52" s="1">
         <v>48489.34375</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>1791849</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>69901</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>45525</v>
       </c>
-      <c r="R53" s="1">
+      <c r="S53" s="1">
         <v>59969</v>
       </c>
-      <c r="S53" s="1">
+      <c r="T53" s="1">
         <v>27004.636363636364</v>
       </c>
-      <c r="T53" s="1">
-        <f t="shared" si="80"/>
+      <c r="U53" s="1">
+        <f t="shared" si="73"/>
         <v>1174452</v>
       </c>
-      <c r="U53" s="1">
-        <f t="shared" si="80"/>
+      <c r="V53" s="1">
+        <f t="shared" si="73"/>
         <v>626712.75804473297</v>
       </c>
-      <c r="V53" s="1">
+      <c r="W53" s="1">
         <v>2769.59375</v>
       </c>
-      <c r="W53" s="1">
+      <c r="X53" s="1">
         <v>51258.9375</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>1868356</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>76507</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>45526</v>
       </c>
-      <c r="R54" s="1">
+      <c r="S54" s="1">
         <v>28052</v>
       </c>
-      <c r="S54" s="1">
+      <c r="T54" s="1">
         <v>26730.909090909092</v>
       </c>
-      <c r="T54" s="1">
-        <f t="shared" si="80"/>
+      <c r="U54" s="1">
+        <f t="shared" si="73"/>
         <v>1202504</v>
       </c>
-      <c r="U54" s="1">
-        <f t="shared" si="80"/>
+      <c r="V54" s="1">
+        <f t="shared" si="73"/>
         <v>653443.66713564203</v>
       </c>
-      <c r="V54" s="1">
+      <c r="W54" s="1">
         <v>2793.03125</v>
       </c>
-      <c r="W54" s="1">
+      <c r="X54" s="1">
         <v>54051.96875</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>1967235</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>98879</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>45527</v>
       </c>
-      <c r="R55" s="1">
+      <c r="S55" s="1">
         <v>75164</v>
       </c>
-      <c r="S55" s="1">
+      <c r="T55" s="1">
         <v>22068.454545454544</v>
       </c>
-      <c r="T55" s="1">
-        <f t="shared" si="80"/>
+      <c r="U55" s="1">
+        <f t="shared" si="73"/>
         <v>1277668</v>
       </c>
-      <c r="U55" s="1">
-        <f t="shared" si="80"/>
+      <c r="V55" s="1">
+        <f t="shared" si="73"/>
         <v>675512.12168109661</v>
       </c>
-      <c r="V55" s="1">
+      <c r="W55" s="1">
         <v>2757.09375</v>
       </c>
-      <c r="W55" s="1">
+      <c r="X55" s="1">
         <v>56809.0625</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>2062551</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>95316</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>45528</v>
       </c>
-      <c r="R56" s="1">
+      <c r="S56" s="1">
         <v>92560</v>
       </c>
-      <c r="S56" s="1">
+      <c r="T56" s="1">
         <v>24809.363636363636</v>
       </c>
-      <c r="T56" s="1">
-        <f t="shared" si="80"/>
+      <c r="U56" s="1">
+        <f t="shared" si="73"/>
         <v>1370228</v>
       </c>
-      <c r="U56" s="1">
-        <f t="shared" si="80"/>
+      <c r="V56" s="1">
+        <f t="shared" si="73"/>
         <v>700321.48531746026</v>
       </c>
-      <c r="V56" s="1">
+      <c r="W56" s="1">
         <v>2848.21875</v>
       </c>
-      <c r="W56" s="1">
+      <c r="X56" s="1">
         <v>59657.28125</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>2146124</v>
       </c>
-      <c r="Y56">
+      <c r="Z56">
         <v>83573</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>45529</v>
       </c>
-      <c r="R57" s="1">
+      <c r="S57" s="1">
         <v>70620</v>
       </c>
-      <c r="S57" s="1">
+      <c r="T57" s="1">
         <v>28342.545454545456</v>
       </c>
-      <c r="T57" s="1">
-        <f t="shared" si="80"/>
+      <c r="U57" s="1">
+        <f t="shared" si="73"/>
         <v>1440848</v>
       </c>
-      <c r="U57" s="1">
-        <f t="shared" si="80"/>
+      <c r="V57" s="1">
+        <f t="shared" si="73"/>
         <v>728664.03077200567</v>
       </c>
-      <c r="V57" s="1">
+      <c r="W57" s="1">
         <v>2899.75</v>
       </c>
-      <c r="W57" s="1">
+      <c r="X57" s="1">
         <v>62557.03125</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>2240175</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>94051</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>45530</v>
       </c>
-      <c r="R58" s="1">
+      <c r="S58" s="1">
         <v>56160</v>
       </c>
-      <c r="S58" s="1">
+      <c r="T58" s="1">
         <v>26309.272727272728</v>
       </c>
-      <c r="T58" s="1">
-        <f t="shared" si="80"/>
+      <c r="U58" s="1">
+        <f t="shared" si="73"/>
         <v>1497008</v>
       </c>
-      <c r="U58" s="1">
-        <f t="shared" si="80"/>
+      <c r="V58" s="1">
+        <f t="shared" si="73"/>
         <v>754973.30349927838</v>
       </c>
-      <c r="V58" s="1">
+      <c r="W58" s="1">
         <v>2671.1875</v>
       </c>
-      <c r="W58" s="1">
+      <c r="X58" s="1">
         <v>65228.21875</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>2329478</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>89303</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>45531</v>
       </c>
-      <c r="R59" s="1">
+      <c r="S59" s="1">
         <v>43271</v>
       </c>
-      <c r="S59" s="1">
+      <c r="T59" s="1">
         <v>23571.727272727272</v>
       </c>
-      <c r="T59" s="1">
-        <f t="shared" si="80"/>
+      <c r="U59" s="1">
+        <f t="shared" si="73"/>
         <v>1540279</v>
       </c>
-      <c r="U59" s="1">
-        <f t="shared" si="80"/>
+      <c r="V59" s="1">
+        <f t="shared" si="73"/>
         <v>778545.03077200567</v>
       </c>
-      <c r="V59" s="1">
+      <c r="W59" s="1">
         <v>2521.15625</v>
       </c>
-      <c r="W59" s="1">
+      <c r="X59" s="1">
         <v>67749.375</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <v>2387858</v>
       </c>
-      <c r="Y59">
+      <c r="Z59">
         <v>58380</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>45532</v>
       </c>
-      <c r="R60" s="1">
+      <c r="S60" s="1">
         <v>54185</v>
       </c>
-      <c r="S60" s="1">
+      <c r="T60" s="1">
         <v>21629.454545454544</v>
       </c>
-      <c r="T60" s="1">
-        <f t="shared" si="80"/>
+      <c r="U60" s="1">
+        <f t="shared" si="73"/>
         <v>1594464</v>
       </c>
-      <c r="U60" s="1">
-        <f t="shared" si="80"/>
+      <c r="V60" s="1">
+        <f t="shared" si="73"/>
         <v>800174.48531746026</v>
       </c>
-      <c r="V60" s="1">
+      <c r="W60" s="1">
         <v>2604.25</v>
       </c>
-      <c r="W60" s="1">
+      <c r="X60" s="1">
         <v>70353.625</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>2453580</v>
       </c>
-      <c r="Y60">
+      <c r="Z60">
         <v>65722</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>45533</v>
       </c>
-      <c r="R61" s="1">
+      <c r="S61" s="1">
         <v>48129</v>
       </c>
-      <c r="S61" s="1">
+      <c r="T61" s="1">
         <v>21511.909090909092</v>
       </c>
-      <c r="T61" s="1">
-        <f t="shared" si="80"/>
+      <c r="U61" s="1">
+        <f t="shared" si="73"/>
         <v>1642593</v>
       </c>
-      <c r="U61" s="1">
-        <f t="shared" si="80"/>
+      <c r="V61" s="1">
+        <f t="shared" si="73"/>
         <v>821686.39440836932</v>
       </c>
-      <c r="V61" s="1">
+      <c r="W61" s="1">
         <v>2620.75</v>
       </c>
-      <c r="W61" s="1">
+      <c r="X61" s="1">
         <v>72974.375</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>2507983</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>54403</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>45534</v>
       </c>
-      <c r="R62" s="1">
+      <c r="S62" s="1">
         <v>36388</v>
       </c>
-      <c r="S62" s="1">
+      <c r="T62" s="1">
         <v>19461.272727272728</v>
       </c>
-      <c r="T62" s="1">
-        <f t="shared" si="80"/>
+      <c r="U62" s="1">
+        <f t="shared" si="73"/>
         <v>1678981</v>
       </c>
-      <c r="U62" s="1">
-        <f t="shared" si="80"/>
+      <c r="V62" s="1">
+        <f t="shared" si="73"/>
         <v>841147.66713564203</v>
       </c>
-      <c r="V62" s="1">
+      <c r="W62" s="1">
         <v>2646.4375</v>
       </c>
-      <c r="W62" s="1">
+      <c r="X62" s="1">
         <v>75620.8125</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>2555776</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>47793</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>45535</v>
       </c>
-      <c r="R63" s="1">
+      <c r="S63" s="1">
         <v>32306</v>
       </c>
-      <c r="S63" s="1">
+      <c r="T63" s="1">
         <v>17916.636363636364</v>
       </c>
-      <c r="T63" s="1">
-        <f t="shared" si="80"/>
+      <c r="U63" s="1">
+        <f t="shared" si="73"/>
         <v>1711287</v>
       </c>
-      <c r="U63" s="1">
-        <f t="shared" si="80"/>
+      <c r="V63" s="1">
+        <f t="shared" si="73"/>
         <v>859064.30349927838</v>
       </c>
-      <c r="V63" s="1">
+      <c r="W63" s="1">
         <v>2090.2580645161293</v>
       </c>
-      <c r="W63" s="1">
+      <c r="X63" s="1">
         <v>77921.0625</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>2591708</v>
       </c>
-      <c r="Y63">
+      <c r="Z63">
         <v>35932</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>45536</v>
       </c>
-      <c r="R64" s="1">
+      <c r="S64" s="1">
         <v>32832</v>
       </c>
-      <c r="S64" s="1">
+      <c r="T64" s="1">
         <v>17763.909090909092</v>
       </c>
-      <c r="T64" s="1">
-        <f t="shared" si="80"/>
+      <c r="U64" s="1">
+        <f t="shared" si="73"/>
         <v>1744119</v>
       </c>
-      <c r="U64" s="1">
-        <f t="shared" si="80"/>
+      <c r="V64" s="1">
+        <f t="shared" si="73"/>
         <v>876828.21259018744</v>
       </c>
-      <c r="V64" s="1">
+      <c r="W64" s="1">
         <v>2395.8709677419356</v>
       </c>
-      <c r="W64" s="1">
+      <c r="X64" s="1">
         <v>80454.84375</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <v>2620267</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <v>28559</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>45537</v>
       </c>
-      <c r="R65" s="1">
+      <c r="S65" s="1">
         <v>24747</v>
       </c>
-      <c r="S65" s="1">
+      <c r="T65" s="1">
         <v>17535.090909090908</v>
       </c>
-      <c r="T65" s="1">
-        <f t="shared" si="80"/>
+      <c r="U65" s="1">
+        <f t="shared" si="73"/>
         <v>1768866</v>
       </c>
-      <c r="U65" s="1">
-        <f t="shared" si="80"/>
+      <c r="V65" s="1">
+        <f t="shared" si="73"/>
         <v>894363.30349927838</v>
       </c>
-      <c r="V65" s="1">
+      <c r="W65" s="1">
         <v>2438.0322580645161</v>
       </c>
-      <c r="W65" s="1">
+      <c r="X65" s="1">
         <v>83036.21875</v>
       </c>
-      <c r="X65">
+      <c r="Y65">
         <v>2642417</v>
       </c>
-      <c r="Y65">
+      <c r="Z65">
         <v>22150</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>45538</v>
       </c>
-      <c r="R66" s="1">
+      <c r="S66" s="1">
         <v>26054</v>
       </c>
-      <c r="S66" s="1">
+      <c r="T66" s="1">
         <v>17130.18181818182</v>
       </c>
-      <c r="T66" s="1">
-        <f t="shared" si="80"/>
+      <c r="U66" s="1">
+        <f t="shared" si="73"/>
         <v>1794920</v>
       </c>
-      <c r="U66" s="1">
-        <f t="shared" si="80"/>
+      <c r="V66" s="1">
+        <f t="shared" si="73"/>
         <v>911493.48531746014</v>
       </c>
-      <c r="V66" s="1">
+      <c r="W66" s="1">
         <v>2268.2580645161293</v>
       </c>
-      <c r="W66" s="1">
+      <c r="X66" s="1">
         <v>85503.53125</v>
       </c>
-      <c r="X66">
+      <c r="Y66">
         <v>2662910</v>
       </c>
-      <c r="Y66">
+      <c r="Z66">
         <v>20493</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>45539</v>
       </c>
-      <c r="R67" s="1">
+      <c r="S67" s="1">
         <v>21196</v>
       </c>
-      <c r="S67" s="1">
+      <c r="T67" s="1">
         <v>17186.363636363636</v>
       </c>
-      <c r="T67" s="1">
-        <f t="shared" si="80"/>
+      <c r="U67" s="1">
+        <f t="shared" si="73"/>
         <v>1816116</v>
       </c>
-      <c r="U67" s="1">
-        <f t="shared" si="80"/>
+      <c r="V67" s="1">
+        <f t="shared" si="73"/>
         <v>928679.84895382379</v>
       </c>
-      <c r="V67" s="1">
+      <c r="W67" s="1">
         <v>2489.7096774193546</v>
       </c>
-      <c r="W67" s="1">
+      <c r="X67" s="1">
         <v>88247.0625</v>
       </c>
-      <c r="X67">
+      <c r="Y67">
         <v>2683297</v>
       </c>
-      <c r="Y67">
+      <c r="Z67">
         <v>20387</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>45540</v>
       </c>
-      <c r="R68" s="1">
+      <c r="S68" s="1">
         <v>30405</v>
       </c>
-      <c r="S68" s="1">
+      <c r="T68" s="1">
         <v>14679.636363636364</v>
       </c>
-      <c r="T68" s="1">
-        <f t="shared" ref="T68:U83" si="81">T67+R68</f>
+      <c r="U68" s="1">
+        <f t="shared" ref="U68:V83" si="74">U67+S68</f>
         <v>1846521</v>
       </c>
-      <c r="U68" s="1">
-        <f t="shared" si="81"/>
+      <c r="V68" s="1">
+        <f t="shared" si="74"/>
         <v>943359.48531746014</v>
       </c>
-      <c r="V68" s="1">
+      <c r="W68" s="1">
         <v>2018.8064516129032</v>
       </c>
-      <c r="W68" s="1">
+      <c r="X68" s="1">
         <v>90408.75</v>
       </c>
-      <c r="X68">
+      <c r="Y68">
         <v>2721268</v>
       </c>
-      <c r="Y68">
+      <c r="Z68">
         <v>37971</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>45541</v>
       </c>
-      <c r="R69" s="1">
+      <c r="S69" s="1">
         <v>32312</v>
       </c>
-      <c r="S69" s="1">
+      <c r="T69" s="1">
         <v>15690.818181818182</v>
       </c>
-      <c r="T69" s="1">
-        <f t="shared" si="81"/>
+      <c r="U69" s="1">
+        <f t="shared" si="74"/>
         <v>1878833</v>
       </c>
-      <c r="U69" s="1">
-        <f t="shared" si="81"/>
+      <c r="V69" s="1">
+        <f t="shared" si="74"/>
         <v>959050.30349927838</v>
       </c>
-      <c r="V69" s="1">
+      <c r="W69" s="1">
         <v>1748.9032258064517</v>
       </c>
-      <c r="W69" s="1">
+      <c r="X69" s="1">
         <v>92274.84375</v>
       </c>
-      <c r="X69">
+      <c r="Y69">
         <v>2752812</v>
       </c>
-      <c r="Y69">
+      <c r="Z69">
         <v>31544</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>45542</v>
       </c>
-      <c r="R70" s="1">
+      <c r="S70" s="1">
         <v>22177</v>
       </c>
-      <c r="S70" s="1">
+      <c r="T70" s="1">
         <v>14967.545454545454</v>
       </c>
-      <c r="T70" s="1">
-        <f t="shared" si="81"/>
+      <c r="U70" s="1">
+        <f t="shared" si="74"/>
         <v>1901010</v>
       </c>
-      <c r="U70" s="1">
-        <f t="shared" si="81"/>
+      <c r="V70" s="1">
+        <f t="shared" si="74"/>
         <v>974017.84895382379</v>
       </c>
-      <c r="V70" s="1">
+      <c r="W70" s="1">
         <v>2006.9354838709678</v>
       </c>
-      <c r="W70" s="1">
+      <c r="X70" s="1">
         <v>94365.5</v>
       </c>
-      <c r="X70">
+      <c r="Y70">
         <v>2773914</v>
       </c>
-      <c r="Y70">
+      <c r="Z70">
         <v>21102</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>45543</v>
       </c>
-      <c r="R71" s="1">
+      <c r="S71" s="1">
         <v>13971</v>
       </c>
-      <c r="S71" s="1">
+      <c r="T71" s="1">
         <v>14546.818181818182</v>
       </c>
-      <c r="T71" s="1">
-        <f t="shared" si="81"/>
+      <c r="U71" s="1">
+        <f t="shared" si="74"/>
         <v>1914981</v>
       </c>
-      <c r="U71" s="1">
-        <f t="shared" si="81"/>
+      <c r="V71" s="1">
+        <f t="shared" si="74"/>
         <v>988564.66713564203</v>
       </c>
-      <c r="V71" s="1">
+      <c r="W71" s="1">
         <v>1790.9677419354839</v>
       </c>
-      <c r="W71" s="1">
+      <c r="X71" s="1">
         <v>96216.5625</v>
       </c>
-      <c r="X71">
+      <c r="Y71">
         <v>2790299</v>
       </c>
-      <c r="Y71">
+      <c r="Z71">
         <v>16385</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>45544</v>
       </c>
-      <c r="R72" s="1">
+      <c r="S72" s="1">
         <v>13635</v>
       </c>
-      <c r="S72" s="1">
+      <c r="T72" s="1">
         <v>13876.272727272728</v>
       </c>
-      <c r="T72" s="1">
-        <f t="shared" si="81"/>
+      <c r="U72" s="1">
+        <f t="shared" si="74"/>
         <v>1928616</v>
       </c>
-      <c r="U72" s="1">
-        <f t="shared" si="81"/>
+      <c r="V72" s="1">
+        <f t="shared" si="74"/>
         <v>1002440.9398629147</v>
       </c>
-      <c r="V72" s="1">
+      <c r="W72" s="1">
         <v>1389.2258064516129</v>
       </c>
-      <c r="W72" s="1">
+      <c r="X72" s="1">
         <v>97657.28125</v>
       </c>
-      <c r="X72">
+      <c r="Y72">
         <v>2806671</v>
       </c>
-      <c r="Y72">
+      <c r="Z72">
         <v>16372</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>45545</v>
       </c>
-      <c r="R73" s="1">
+      <c r="S73" s="1">
         <v>9796</v>
       </c>
-      <c r="S73" s="1">
+      <c r="T73" s="1">
         <v>12522.363636363636</v>
       </c>
-      <c r="T73" s="1">
-        <f t="shared" si="81"/>
+      <c r="U73" s="1">
+        <f t="shared" si="74"/>
         <v>1938412</v>
       </c>
-      <c r="U73" s="1">
-        <f t="shared" si="81"/>
+      <c r="V73" s="1">
+        <f t="shared" si="74"/>
         <v>1014963.3034992784</v>
       </c>
-      <c r="V73" s="1">
+      <c r="W73" s="1">
         <v>1236.1935483870968</v>
       </c>
-      <c r="W73" s="1">
+      <c r="X73" s="1">
         <v>98961.4375</v>
       </c>
-      <c r="X73">
+      <c r="Y73">
         <v>2823329</v>
       </c>
-      <c r="Y73">
+      <c r="Z73">
         <v>16658</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>45546</v>
       </c>
-      <c r="R74" s="1">
+      <c r="S74" s="1">
         <v>7598</v>
       </c>
-      <c r="S74" s="1">
+      <c r="T74" s="1">
         <v>12105.636363636364</v>
       </c>
-      <c r="T74" s="1">
-        <f t="shared" si="81"/>
+      <c r="U74" s="1">
+        <f t="shared" si="74"/>
         <v>1946010</v>
       </c>
-      <c r="U74" s="1">
-        <f t="shared" si="81"/>
+      <c r="V74" s="1">
+        <f t="shared" si="74"/>
         <v>1027068.9398629147</v>
       </c>
-      <c r="V74" s="1">
+      <c r="W74" s="1">
         <v>1233.741935483871</v>
       </c>
-      <c r="W74" s="1">
+      <c r="X74" s="1">
         <v>100263.1875</v>
       </c>
-      <c r="X74">
+      <c r="Y74">
         <v>2836231</v>
       </c>
-      <c r="Y74">
+      <c r="Z74">
         <v>12902</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>45547</v>
       </c>
-      <c r="R75" s="1">
+      <c r="S75" s="1">
         <v>7178</v>
       </c>
-      <c r="S75" s="1">
+      <c r="T75" s="1">
         <v>11272.545454545454</v>
       </c>
-      <c r="T75" s="1">
-        <f t="shared" si="81"/>
+      <c r="U75" s="1">
+        <f t="shared" si="74"/>
         <v>1953188</v>
       </c>
-      <c r="U75" s="1">
-        <f t="shared" si="81"/>
+      <c r="V75" s="1">
+        <f t="shared" si="74"/>
         <v>1038341.4853174601</v>
       </c>
-      <c r="V75" s="1">
+      <c r="W75" s="1">
         <v>1082.6129032258063</v>
       </c>
-      <c r="W75" s="1">
+      <c r="X75" s="1">
         <v>101468.84375</v>
       </c>
-      <c r="X75">
+      <c r="Y75">
         <v>2848336</v>
       </c>
-      <c r="Y75">
+      <c r="Z75">
         <v>12105</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>45548</v>
       </c>
-      <c r="R76" s="1">
+      <c r="S76" s="1">
         <v>9158</v>
       </c>
-      <c r="S76" s="1">
+      <c r="T76" s="1">
         <v>9771.0909090909099</v>
       </c>
-      <c r="T76" s="1">
-        <f t="shared" si="81"/>
+      <c r="U76" s="1">
+        <f t="shared" si="74"/>
         <v>1962346</v>
       </c>
-      <c r="U76" s="1">
-        <f t="shared" si="81"/>
+      <c r="V76" s="1">
+        <f t="shared" si="74"/>
         <v>1048112.5762265511</v>
       </c>
-      <c r="V76" s="1">
+      <c r="W76" s="1">
         <v>1169.2903225806451</v>
       </c>
-      <c r="W76" s="1">
+      <c r="X76" s="1">
         <v>102790.84375</v>
       </c>
-      <c r="X76">
+      <c r="Y76">
         <v>2858736</v>
       </c>
-      <c r="Y76">
+      <c r="Z76">
         <v>10400</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>45549</v>
       </c>
-      <c r="R77" s="1">
+      <c r="S77" s="1">
         <v>11320</v>
       </c>
-      <c r="S77" s="1">
+      <c r="T77" s="1">
         <v>7589.909090909091</v>
       </c>
-      <c r="T77" s="1">
-        <f t="shared" si="81"/>
+      <c r="U77" s="1">
+        <f t="shared" si="74"/>
         <v>1973666</v>
       </c>
-      <c r="U77" s="1">
-        <f t="shared" si="81"/>
+      <c r="V77" s="1">
+        <f t="shared" si="74"/>
         <v>1055702.4853174603</v>
       </c>
-      <c r="V77" s="1">
+      <c r="W77" s="1">
         <v>1059.4193548387098</v>
       </c>
-      <c r="W77" s="1">
+      <c r="X77" s="1">
         <v>103972.4375</v>
       </c>
-      <c r="X77">
+      <c r="Y77">
         <v>2869578</v>
       </c>
-      <c r="Y77">
+      <c r="Z77">
         <v>10842</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>45550</v>
       </c>
-      <c r="R78" s="1">
+      <c r="S78" s="1">
         <v>8031</v>
       </c>
-      <c r="S78" s="1">
+      <c r="T78" s="1">
         <v>8318.545454545454</v>
       </c>
-      <c r="T78" s="1">
-        <f t="shared" si="81"/>
+      <c r="U78" s="1">
+        <f t="shared" si="74"/>
         <v>1981697</v>
       </c>
-      <c r="U78" s="1">
-        <f t="shared" si="81"/>
+      <c r="V78" s="1">
+        <f t="shared" si="74"/>
         <v>1064021.0307720057</v>
       </c>
-      <c r="V78" s="1">
+      <c r="W78" s="1">
         <v>928.25806451612902</v>
       </c>
-      <c r="W78" s="1">
+      <c r="X78" s="1">
         <v>104985.34375</v>
       </c>
-      <c r="X78">
+      <c r="Y78">
         <v>2877873</v>
       </c>
-      <c r="Y78">
+      <c r="Z78">
         <v>8295</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>45551</v>
       </c>
-      <c r="R79" s="1">
+      <c r="S79" s="1">
         <v>9447</v>
       </c>
-      <c r="S79" s="1">
+      <c r="T79" s="1">
         <v>7405.727272727273</v>
       </c>
-      <c r="T79" s="1">
-        <f t="shared" si="81"/>
+      <c r="U79" s="1">
+        <f t="shared" si="74"/>
         <v>1991144</v>
       </c>
-      <c r="U79" s="1">
-        <f t="shared" si="81"/>
+      <c r="V79" s="1">
+        <f t="shared" si="74"/>
         <v>1071426.758044733</v>
       </c>
-      <c r="V79" s="1">
+      <c r="W79" s="1">
         <v>782.9677419354839</v>
       </c>
-      <c r="W79" s="1">
+      <c r="X79" s="1">
         <v>105830.3125</v>
       </c>
-      <c r="X79">
+      <c r="Y79">
         <v>2885340</v>
       </c>
-      <c r="Y79">
+      <c r="Z79">
         <v>7467</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>45552</v>
       </c>
-      <c r="R80" s="1">
+      <c r="S80" s="1">
         <v>10145</v>
       </c>
-      <c r="S80" s="1">
+      <c r="T80" s="1">
         <v>7004.181818181818</v>
       </c>
-      <c r="T80" s="1">
-        <f t="shared" si="81"/>
+      <c r="U80" s="1">
+        <f t="shared" si="74"/>
         <v>2001289</v>
       </c>
-      <c r="U80" s="1">
-        <f t="shared" si="81"/>
+      <c r="V80" s="1">
+        <f t="shared" si="74"/>
         <v>1078430.9398629148</v>
       </c>
-      <c r="V80" s="1">
+      <c r="W80" s="1">
         <v>617.09677419354841</v>
       </c>
-      <c r="W80" s="1">
+      <c r="X80" s="1">
         <v>106483.21875</v>
       </c>
-      <c r="X80">
+      <c r="Y80">
         <v>2891474</v>
       </c>
-      <c r="Y80">
+      <c r="Z80">
         <v>6134</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>45553</v>
       </c>
-      <c r="R81" s="1">
+      <c r="S81" s="1">
         <v>12000</v>
       </c>
-      <c r="S81" s="1">
+      <c r="T81" s="1">
         <v>6677.818181818182</v>
       </c>
-      <c r="T81" s="1">
-        <f t="shared" si="81"/>
+      <c r="U81" s="1">
+        <f t="shared" si="74"/>
         <v>2013289</v>
       </c>
-      <c r="U81" s="1">
-        <f t="shared" si="81"/>
+      <c r="V81" s="1">
+        <f t="shared" si="74"/>
         <v>1085108.758044733</v>
       </c>
-      <c r="V81" s="1">
+      <c r="W81" s="1">
         <v>636.16129032258061</v>
       </c>
-      <c r="W81" s="1">
+      <c r="X81" s="1">
         <v>107116.78125</v>
       </c>
-      <c r="X81">
+      <c r="Y81">
         <v>2898109</v>
       </c>
-      <c r="Y81">
+      <c r="Z81">
         <v>6635</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>45554</v>
       </c>
-      <c r="R82" s="1">
+      <c r="S82" s="1">
         <v>12883</v>
       </c>
-      <c r="S82" s="1">
+      <c r="T82" s="1">
         <v>6140.454545454545</v>
       </c>
-      <c r="T82" s="1">
-        <f t="shared" si="81"/>
+      <c r="U82" s="1">
+        <f t="shared" si="74"/>
         <v>2026172</v>
       </c>
-      <c r="U82" s="1">
-        <f t="shared" si="81"/>
+      <c r="V82" s="1">
+        <f t="shared" si="74"/>
         <v>1091249.2125901876</v>
       </c>
-      <c r="V82" s="1">
+      <c r="W82" s="1">
         <v>573.0322580645161</v>
       </c>
-      <c r="W82" s="1">
+      <c r="X82" s="1">
         <v>107685.875</v>
       </c>
-      <c r="X82">
+      <c r="Y82">
         <v>2904113</v>
       </c>
-      <c r="Y82">
+      <c r="Z82">
         <v>6004</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>45555</v>
       </c>
-      <c r="R83" s="1">
+      <c r="S83" s="1">
         <v>6366</v>
       </c>
-      <c r="S83" s="1">
+      <c r="T83" s="1">
         <v>6411.4</v>
       </c>
-      <c r="T83" s="1">
-        <f t="shared" si="81"/>
+      <c r="U83" s="1">
+        <f t="shared" si="74"/>
         <v>2032538</v>
       </c>
-      <c r="U83" s="1">
-        <f t="shared" si="81"/>
+      <c r="V83" s="1">
+        <f t="shared" si="74"/>
         <v>1097660.6125901875</v>
       </c>
-      <c r="V83" s="1">
+      <c r="W83" s="1">
         <v>579.06451612903231</v>
       </c>
-      <c r="W83" s="1">
+      <c r="X83" s="1">
         <v>108246.84375</v>
       </c>
-      <c r="X83">
+      <c r="Y83">
         <v>2908890</v>
       </c>
-      <c r="Y83">
+      <c r="Z83">
         <v>4777</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>45556</v>
       </c>
-      <c r="R84" s="1">
+      <c r="S84" s="1">
         <v>4155</v>
       </c>
-      <c r="S84" s="1">
+      <c r="T84" s="1">
         <v>6189.6</v>
       </c>
-      <c r="T84" s="1">
-        <f t="shared" ref="T84:U99" si="82">T83+R84</f>
+      <c r="U84" s="1">
+        <f t="shared" ref="U84:V99" si="75">U83+S84</f>
         <v>2036693</v>
       </c>
-      <c r="U84" s="1">
-        <f t="shared" si="82"/>
+      <c r="V84" s="1">
+        <f t="shared" si="75"/>
         <v>1103850.2125901876</v>
       </c>
-      <c r="V84" s="1">
+      <c r="W84" s="1">
         <v>398.58064516129031</v>
       </c>
-      <c r="W84" s="1">
+      <c r="X84" s="1">
         <v>108632.96875</v>
       </c>
-      <c r="X84">
+      <c r="Y84">
         <v>2913442</v>
       </c>
-      <c r="Y84">
+      <c r="Z84">
         <v>4552</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>45557</v>
       </c>
-      <c r="R85" s="1">
+      <c r="S85" s="1">
         <v>2650</v>
       </c>
-      <c r="S85" s="1">
+      <c r="T85" s="1">
         <v>4314.3999999999996</v>
       </c>
-      <c r="T85" s="1">
-        <f t="shared" si="82"/>
+      <c r="U85" s="1">
+        <f t="shared" si="75"/>
         <v>2039343</v>
       </c>
-      <c r="U85" s="1">
-        <f t="shared" si="82"/>
+      <c r="V85" s="1">
+        <f t="shared" si="75"/>
         <v>1108164.6125901875</v>
       </c>
-      <c r="V85" s="1">
+      <c r="W85" s="1">
         <v>325.76666666666665</v>
       </c>
-      <c r="W85" s="1">
+      <c r="X85" s="1">
         <v>108938.375</v>
       </c>
-      <c r="X85">
+      <c r="Y85">
         <v>2917079</v>
       </c>
-      <c r="Y85">
+      <c r="Z85">
         <v>3637</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>45558</v>
       </c>
-      <c r="R86" s="1">
+      <c r="S86" s="1">
         <v>3729</v>
       </c>
-      <c r="S86" s="1">
+      <c r="T86" s="1">
         <v>3802.6</v>
       </c>
-      <c r="T86" s="1">
-        <f t="shared" si="82"/>
+      <c r="U86" s="1">
+        <f t="shared" si="75"/>
         <v>2043072</v>
       </c>
-      <c r="U86" s="1">
-        <f t="shared" si="82"/>
+      <c r="V86" s="1">
+        <f t="shared" si="75"/>
         <v>1111967.2125901876</v>
       </c>
-      <c r="V86" s="1">
+      <c r="W86" s="1">
         <v>278.10000000000002</v>
       </c>
-      <c r="W86" s="1">
+      <c r="X86" s="1">
         <v>109199.09375</v>
       </c>
-      <c r="X86">
+      <c r="Y86">
         <v>2919938</v>
       </c>
-      <c r="Y86">
+      <c r="Z86">
         <v>2859</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>45559</v>
       </c>
-      <c r="R87" s="1">
+      <c r="S87" s="1">
         <v>2655</v>
       </c>
-      <c r="S87" s="1">
+      <c r="T87" s="1">
         <v>3261.3333333333335</v>
       </c>
-      <c r="T87" s="1">
-        <f t="shared" si="82"/>
+      <c r="U87" s="1">
+        <f t="shared" si="75"/>
         <v>2045727</v>
       </c>
-      <c r="U87" s="1">
-        <f t="shared" si="82"/>
+      <c r="V87" s="1">
+        <f t="shared" si="75"/>
         <v>1115228.5459235208</v>
       </c>
-      <c r="V87" s="1">
+      <c r="W87" s="1">
         <v>263.39999999999998</v>
       </c>
-      <c r="W87" s="1">
+      <c r="X87" s="1">
         <v>109446.03125</v>
       </c>
-      <c r="X87">
+      <c r="Y87">
         <v>2922555</v>
       </c>
-      <c r="Y87">
+      <c r="Z87">
         <v>2617</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>45560</v>
       </c>
-      <c r="R88" s="1">
+      <c r="S88" s="1">
         <v>1998</v>
       </c>
-      <c r="S88" s="1">
+      <c r="T88" s="1">
         <v>2728.4444444444443</v>
       </c>
-      <c r="T88" s="1">
-        <f t="shared" si="82"/>
+      <c r="U88" s="1">
+        <f t="shared" si="75"/>
         <v>2047725</v>
       </c>
-      <c r="U88" s="1">
-        <f t="shared" si="82"/>
+      <c r="V88" s="1">
+        <f t="shared" si="75"/>
         <v>1117956.9903679653</v>
       </c>
-      <c r="V88" s="1">
+      <c r="W88" s="1">
         <v>219.46666666666667</v>
       </c>
-      <c r="W88" s="1">
+      <c r="X88" s="1">
         <v>109651.78125</v>
       </c>
-      <c r="X88">
+      <c r="Y88">
         <v>2924726</v>
       </c>
-      <c r="Y88">
+      <c r="Z88">
         <v>2171</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>45561</v>
       </c>
-      <c r="R89" s="1">
+      <c r="S89" s="1">
         <v>1292</v>
       </c>
-      <c r="S89" s="1">
+      <c r="T89" s="1">
         <v>2059.7777777777778</v>
       </c>
-      <c r="T89" s="1">
-        <f t="shared" si="82"/>
+      <c r="U89" s="1">
+        <f t="shared" si="75"/>
         <v>2049017</v>
       </c>
-      <c r="U89" s="1">
-        <f t="shared" si="82"/>
+      <c r="V89" s="1">
+        <f t="shared" si="75"/>
         <v>1120016.7681457431</v>
       </c>
-      <c r="V89" s="1">
+      <c r="W89" s="1">
         <v>165.68965517241378</v>
       </c>
-      <c r="W89" s="1">
+      <c r="X89" s="1">
         <v>109801.9375</v>
       </c>
-      <c r="X89">
+      <c r="Y89">
         <v>2926439</v>
       </c>
-      <c r="Y89">
+      <c r="Z89">
         <v>1713</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>45562</v>
       </c>
-      <c r="R90" s="1">
+      <c r="S90" s="1">
         <v>829</v>
       </c>
-      <c r="S90" s="1">
+      <c r="T90" s="1">
         <v>1764.2222222222222</v>
       </c>
-      <c r="T90" s="1">
-        <f t="shared" si="82"/>
+      <c r="U90" s="1">
+        <f t="shared" si="75"/>
         <v>2049846</v>
       </c>
-      <c r="U90" s="1">
-        <f t="shared" si="82"/>
+      <c r="V90" s="1">
+        <f t="shared" si="75"/>
         <v>1121780.9903679653</v>
       </c>
-      <c r="V90" s="1">
+      <c r="W90" s="1">
         <v>128.58620689655172</v>
       </c>
-      <c r="W90" s="1">
+      <c r="X90" s="1">
         <v>109918.46875</v>
       </c>
-      <c r="X90">
+      <c r="Y90">
         <v>2927888</v>
       </c>
-      <c r="Y90">
+      <c r="Z90">
         <v>1449</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>45563</v>
       </c>
-      <c r="R91" s="1">
+      <c r="S91" s="1">
         <v>1168</v>
       </c>
-      <c r="S91" s="1">
+      <c r="T91" s="1">
         <v>1664.125</v>
       </c>
-      <c r="T91" s="1">
-        <f t="shared" si="82"/>
+      <c r="U91" s="1">
+        <f t="shared" si="75"/>
         <v>2051014</v>
       </c>
-      <c r="U91" s="1">
-        <f t="shared" si="82"/>
+      <c r="V91" s="1">
+        <f t="shared" si="75"/>
         <v>1123445.1153679653</v>
       </c>
-      <c r="V91" s="1">
+      <c r="W91" s="1">
         <v>130.21428571428572</v>
       </c>
-      <c r="W91" s="1">
+      <c r="X91" s="1">
         <v>110032.40625</v>
       </c>
-      <c r="X91">
+      <c r="Y91">
         <v>2928946</v>
       </c>
-      <c r="Y91">
+      <c r="Z91">
         <v>1058</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>45564</v>
       </c>
-      <c r="R92" s="1">
+      <c r="S92" s="1">
         <v>935</v>
       </c>
-      <c r="S92" s="1">
+      <c r="T92" s="1">
         <v>1687.375</v>
       </c>
-      <c r="T92" s="1">
-        <f t="shared" si="82"/>
+      <c r="U92" s="1">
+        <f t="shared" si="75"/>
         <v>2051949</v>
       </c>
-      <c r="U92" s="1">
-        <f t="shared" si="82"/>
+      <c r="V92" s="1">
+        <f t="shared" si="75"/>
         <v>1125132.4903679653</v>
       </c>
-      <c r="V92" s="1">
+      <c r="W92" s="1">
         <v>127.89285714285714</v>
       </c>
-      <c r="W92" s="1">
+      <c r="X92" s="1">
         <v>110144.3125</v>
       </c>
-      <c r="X92">
+      <c r="Y92">
         <v>2929993</v>
       </c>
-      <c r="Y92">
+      <c r="Z92">
         <v>1047</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>45565</v>
       </c>
-      <c r="R93" s="1">
+      <c r="S93" s="1">
         <v>896</v>
       </c>
-      <c r="S93" s="1">
+      <c r="T93" s="1">
         <v>868.83333333333337</v>
       </c>
-      <c r="T93" s="1">
-        <f t="shared" si="82"/>
+      <c r="U93" s="1">
+        <f t="shared" si="75"/>
         <v>2052845</v>
       </c>
-      <c r="U93" s="1">
-        <f t="shared" si="82"/>
+      <c r="V93" s="1">
+        <f t="shared" si="75"/>
         <v>1126001.3237012986</v>
       </c>
-      <c r="V93" s="1">
+      <c r="W93" s="1">
         <v>103.625</v>
       </c>
-      <c r="W93" s="1">
+      <c r="X93" s="1">
         <v>110222.03125</v>
       </c>
-      <c r="X93">
+      <c r="Y93">
         <v>2930854</v>
       </c>
-      <c r="Y93">
+      <c r="Z93">
         <v>861</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>45566</v>
       </c>
-      <c r="S94" s="1">
+      <c r="T94" s="1">
         <v>707.66666666666663</v>
       </c>
-      <c r="T94" s="1">
-        <f t="shared" si="82"/>
+      <c r="U94" s="1">
+        <f t="shared" si="75"/>
         <v>2052845</v>
       </c>
-      <c r="U94" s="1">
-        <f t="shared" si="82"/>
+      <c r="V94" s="1">
+        <f t="shared" si="75"/>
         <v>1126708.9903679653</v>
       </c>
-      <c r="V94" s="1">
+      <c r="W94" s="1">
         <v>99.826086956521735</v>
       </c>
-      <c r="W94" s="1">
+      <c r="X94" s="1">
         <v>110293.78125</v>
       </c>
-      <c r="X94">
+      <c r="Y94">
         <v>2931593</v>
       </c>
-      <c r="Y94">
+      <c r="Z94">
         <v>739</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>45567</v>
       </c>
-      <c r="S95" s="1">
+      <c r="T95" s="1">
         <v>440</v>
       </c>
-      <c r="T95" s="1">
-        <f t="shared" si="82"/>
+      <c r="U95" s="1">
+        <f t="shared" si="75"/>
         <v>2052845</v>
       </c>
-      <c r="U95" s="1">
-        <f t="shared" si="82"/>
+      <c r="V95" s="1">
+        <f t="shared" si="75"/>
         <v>1127148.9903679653</v>
       </c>
-      <c r="V95" s="1">
+      <c r="W95" s="1">
         <v>75.714285714285708</v>
       </c>
-      <c r="W95" s="1">
+      <c r="X95" s="1">
         <v>110343.46875</v>
       </c>
-      <c r="X95">
+      <c r="Y95">
         <v>2931945</v>
       </c>
-      <c r="Y95">
+      <c r="Z95">
         <v>352</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>45568</v>
       </c>
-      <c r="S96" s="1">
+      <c r="T96" s="1">
         <v>720.66666666666663</v>
       </c>
-      <c r="T96" s="1">
-        <f t="shared" si="82"/>
+      <c r="U96" s="1">
+        <f t="shared" si="75"/>
         <v>2052845</v>
       </c>
-      <c r="U96" s="1">
-        <f t="shared" si="82"/>
+      <c r="V96" s="1">
+        <f t="shared" si="75"/>
         <v>1127869.6570346321</v>
       </c>
-      <c r="V96" s="1">
+      <c r="W96" s="1">
         <v>72.631578947368425</v>
       </c>
-      <c r="W96" s="1">
+      <c r="X96" s="1">
         <v>110386.59375</v>
       </c>
-      <c r="X96">
+      <c r="Y96">
         <v>2932165</v>
       </c>
-      <c r="Y96">
+      <c r="Z96">
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>45569</v>
       </c>
-      <c r="S97" s="1">
+      <c r="T97" s="1">
         <v>238</v>
       </c>
-      <c r="T97" s="1">
-        <f t="shared" si="82"/>
+      <c r="U97" s="1">
+        <f t="shared" si="75"/>
         <v>2052845</v>
       </c>
-      <c r="U97" s="1">
-        <f t="shared" si="82"/>
+      <c r="V97" s="1">
+        <f t="shared" si="75"/>
         <v>1128107.6570346321</v>
       </c>
-      <c r="V97" s="1">
+      <c r="W97" s="1">
         <v>46.111111111111114</v>
       </c>
-      <c r="W97" s="1">
+      <c r="X97" s="1">
         <v>110412.53125</v>
       </c>
-      <c r="X97">
+      <c r="Y97">
         <v>2932367</v>
       </c>
-      <c r="Y97">
+      <c r="Z97">
         <v>202</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>45570</v>
       </c>
-      <c r="S98" s="1">
+      <c r="T98" s="1">
         <v>323</v>
       </c>
-      <c r="T98" s="1">
-        <f t="shared" si="82"/>
+      <c r="U98" s="1">
+        <f t="shared" si="75"/>
         <v>2052845</v>
       </c>
-      <c r="U98" s="1">
-        <f t="shared" si="82"/>
+      <c r="V98" s="1">
+        <f t="shared" si="75"/>
         <v>1128430.6570346321</v>
       </c>
-      <c r="V98" s="1">
+      <c r="W98" s="1">
         <v>45.25</v>
       </c>
-      <c r="W98" s="1">
+      <c r="X98" s="1">
         <v>110435.15625</v>
       </c>
-      <c r="X98">
+      <c r="Y98">
         <v>2932534</v>
       </c>
-      <c r="Y98">
+      <c r="Z98">
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>45571</v>
       </c>
-      <c r="S99" s="1">
+      <c r="T99" s="1">
         <v>250</v>
       </c>
-      <c r="T99" s="1">
-        <f t="shared" si="82"/>
+      <c r="U99" s="1">
+        <f t="shared" si="75"/>
         <v>2052845</v>
       </c>
-      <c r="U99" s="1">
-        <f t="shared" si="82"/>
+      <c r="V99" s="1">
+        <f t="shared" si="75"/>
         <v>1128680.6570346321</v>
       </c>
-      <c r="V99" s="1">
+      <c r="W99" s="1">
         <v>39.375</v>
       </c>
-      <c r="W99" s="1">
+      <c r="X99" s="1">
         <v>110454.84375</v>
       </c>
-      <c r="X99">
+      <c r="Y99">
         <v>2932575</v>
       </c>
-      <c r="Y99">
+      <c r="Z99">
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>45572</v>
       </c>
-      <c r="T100" s="1">
-        <f t="shared" ref="T100:U108" si="83">T99+R100</f>
+      <c r="U100" s="1">
+        <f t="shared" ref="U100:V108" si="76">U99+S100</f>
         <v>2052845</v>
       </c>
-      <c r="U100" s="1">
-        <f t="shared" si="83"/>
+      <c r="V100" s="1">
+        <f t="shared" si="76"/>
         <v>1128680.6570346321</v>
       </c>
-      <c r="V100" s="1">
+      <c r="W100" s="1">
         <v>34.799999999999997</v>
       </c>
-      <c r="W100" s="1">
+      <c r="X100" s="1">
         <v>110471.15625</v>
       </c>
-      <c r="X100">
+      <c r="Y100">
         <v>2932620</v>
       </c>
-      <c r="Y100">
+      <c r="Z100">
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>45573</v>
       </c>
-      <c r="T101" s="1">
-        <f t="shared" si="83"/>
+      <c r="U101" s="1">
+        <f t="shared" si="76"/>
         <v>2052845</v>
       </c>
-      <c r="U101" s="1">
-        <f t="shared" si="83"/>
+      <c r="V101" s="1">
+        <f t="shared" si="76"/>
         <v>1128680.6570346321</v>
       </c>
-      <c r="V101" s="1">
+      <c r="W101" s="1">
         <v>19.133333333333333</v>
       </c>
-      <c r="W101" s="1">
+      <c r="X101" s="1">
         <v>110480.125</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>45574</v>
       </c>
-      <c r="T102" s="1">
-        <f t="shared" si="83"/>
+      <c r="U102" s="1">
+        <f t="shared" si="76"/>
         <v>2052845</v>
       </c>
-      <c r="U102" s="1">
-        <f t="shared" si="83"/>
+      <c r="V102" s="1">
+        <f t="shared" si="76"/>
         <v>1128680.6570346321</v>
       </c>
-      <c r="V102" s="1">
+      <c r="W102" s="1">
         <v>19.466666666666665</v>
       </c>
-      <c r="W102" s="1">
+      <c r="X102" s="1">
         <v>110489.25</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>45575</v>
       </c>
-      <c r="T103" s="1">
-        <f t="shared" si="83"/>
+      <c r="U103" s="1">
+        <f t="shared" si="76"/>
         <v>2052845</v>
       </c>
-      <c r="U103" s="1">
-        <f t="shared" si="83"/>
+      <c r="V103" s="1">
+        <f t="shared" si="76"/>
         <v>1128680.6570346321</v>
       </c>
-      <c r="V103" s="1">
+      <c r="W103" s="1">
         <v>21.466666666666665</v>
       </c>
-      <c r="W103" s="1">
+      <c r="X103" s="1">
         <v>110499.3125</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>45576</v>
       </c>
-      <c r="T104" s="1">
-        <f t="shared" si="83"/>
+      <c r="U104" s="1">
+        <f t="shared" si="76"/>
         <v>2052845</v>
       </c>
-      <c r="U104" s="1">
-        <f t="shared" si="83"/>
+      <c r="V104" s="1">
+        <f t="shared" si="76"/>
         <v>1128680.6570346321</v>
       </c>
-      <c r="V104" s="1">
+      <c r="W104" s="1">
         <v>22.785714285714285</v>
       </c>
-      <c r="W104" s="1">
+      <c r="X104" s="1">
         <v>110509.28125</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>45577</v>
       </c>
-      <c r="T105" s="1">
-        <f t="shared" si="83"/>
+      <c r="U105" s="1">
+        <f t="shared" si="76"/>
         <v>2052845</v>
       </c>
-      <c r="U105" s="1">
-        <f t="shared" si="83"/>
+      <c r="V105" s="1">
+        <f t="shared" si="76"/>
         <v>1128680.6570346321</v>
       </c>
-      <c r="V105" s="1">
+      <c r="W105" s="1">
         <v>7.6428571428571432</v>
       </c>
-      <c r="W105" s="1">
+      <c r="X105" s="1">
         <v>110512.625</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>45578</v>
       </c>
-      <c r="T106" s="1">
-        <f t="shared" si="83"/>
+      <c r="U106" s="1">
+        <f t="shared" si="76"/>
         <v>2052845</v>
       </c>
-      <c r="U106" s="1">
-        <f t="shared" si="83"/>
+      <c r="V106" s="1">
+        <f t="shared" si="76"/>
         <v>1128680.6570346321</v>
       </c>
-      <c r="V106" s="1">
+      <c r="W106" s="1">
         <v>9.1538461538461533</v>
       </c>
-      <c r="W106" s="1">
+      <c r="X106" s="1">
         <v>110516.34375</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>45579</v>
       </c>
-      <c r="T107" s="1">
-        <f t="shared" si="83"/>
+      <c r="U107" s="1">
+        <f t="shared" si="76"/>
         <v>2052845</v>
       </c>
-      <c r="U107" s="1">
-        <f t="shared" si="83"/>
+      <c r="V107" s="1">
+        <f t="shared" si="76"/>
         <v>1128680.6570346321</v>
       </c>
-      <c r="V107" s="1">
+      <c r="W107" s="1">
         <v>7</v>
       </c>
-      <c r="W107" s="1">
+      <c r="X107" s="1">
         <v>110519.1875</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>45580</v>
       </c>
-      <c r="T108" s="1">
-        <f t="shared" si="83"/>
+      <c r="U108" s="1">
+        <f t="shared" si="76"/>
         <v>2052845</v>
       </c>
-      <c r="U108" s="1">
-        <f t="shared" si="83"/>
+      <c r="V108" s="1">
+        <f t="shared" si="76"/>
         <v>1128680.6570346321</v>
       </c>
-      <c r="V108" s="1">
+      <c r="W108" s="1">
         <v>8.545454545454545</v>
       </c>
-      <c r="W108" s="1">
+      <c r="X108" s="1">
         <v>110522.125</v>
       </c>
     </row>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd97481b0ff2b3c9/Documents/R/skeena-sockeye-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F3AB643-48A2-4F1E-BC56-9E95E77E6C38}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6D1FFB5-4007-4F9A-81BB-C2A392C925EF}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="210" windowWidth="21700" windowHeight="10890" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="9750" yWindow="920" windowWidth="13830" windowHeight="8380" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -504,10 +504,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O44" sqref="O44"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <f t="shared" ref="O2:O22" si="0">B2+N2</f>
+        <f t="shared" ref="O2:O4" si="0">B2+N2</f>
         <v>0</v>
       </c>
       <c r="P2" s="1">
@@ -3929,7 +3929,7 @@
         <v>558393</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" ref="N43:N44" si="69">J43+L43</f>
+        <f t="shared" ref="N43:N45" si="69">J43+L43</f>
         <v>91</v>
       </c>
       <c r="O43" s="2">
@@ -3941,7 +3941,7 @@
         <v>558568</v>
       </c>
       <c r="Q43" s="1">
-        <f t="shared" ref="Q43:Q44" si="71">C43+K43</f>
+        <f t="shared" ref="Q43:Q45" si="71">C43+K43</f>
         <v>1414</v>
       </c>
       <c r="R43" s="1">
@@ -4067,6 +4067,63 @@
       <c r="A45" s="3">
         <v>45517</v>
       </c>
+      <c r="B45">
+        <v>150484</v>
+      </c>
+      <c r="C45">
+        <v>7616</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>8520</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>19</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>12</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" ref="M45" si="73">M44+B45</f>
+        <v>789217</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" ref="N45" si="74">J45+L45</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <f>B45+I45+N45</f>
+        <v>150496</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" ref="P45" si="75">P44+O45</f>
+        <v>789425</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" ref="Q45" si="76">C45+K45</f>
+        <v>7616</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" ref="R45" si="77">Q45+R44</f>
+        <v>48277</v>
+      </c>
       <c r="S45" s="1">
         <v>29948</v>
       </c>
@@ -4291,11 +4348,11 @@
         <v>29568.909090909092</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" ref="U52:V67" si="73">U51+S52</f>
+        <f t="shared" ref="U52:V67" si="78">U51+S52</f>
         <v>1114483</v>
       </c>
       <c r="V52" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>599708.12168109661</v>
       </c>
       <c r="W52" s="1">
@@ -4322,11 +4379,11 @@
         <v>27004.636363636364</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>1174452</v>
       </c>
       <c r="V53" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>626712.75804473297</v>
       </c>
       <c r="W53" s="1">
@@ -4353,11 +4410,11 @@
         <v>26730.909090909092</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>1202504</v>
       </c>
       <c r="V54" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>653443.66713564203</v>
       </c>
       <c r="W54" s="1">
@@ -4384,11 +4441,11 @@
         <v>22068.454545454544</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>1277668</v>
       </c>
       <c r="V55" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>675512.12168109661</v>
       </c>
       <c r="W55" s="1">
@@ -4415,11 +4472,11 @@
         <v>24809.363636363636</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>1370228</v>
       </c>
       <c r="V56" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>700321.48531746026</v>
       </c>
       <c r="W56" s="1">
@@ -4446,11 +4503,11 @@
         <v>28342.545454545456</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>1440848</v>
       </c>
       <c r="V57" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>728664.03077200567</v>
       </c>
       <c r="W57" s="1">
@@ -4477,11 +4534,11 @@
         <v>26309.272727272728</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>1497008</v>
       </c>
       <c r="V58" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>754973.30349927838</v>
       </c>
       <c r="W58" s="1">
@@ -4508,11 +4565,11 @@
         <v>23571.727272727272</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>1540279</v>
       </c>
       <c r="V59" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>778545.03077200567</v>
       </c>
       <c r="W59" s="1">
@@ -4539,11 +4596,11 @@
         <v>21629.454545454544</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>1594464</v>
       </c>
       <c r="V60" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>800174.48531746026</v>
       </c>
       <c r="W60" s="1">
@@ -4570,11 +4627,11 @@
         <v>21511.909090909092</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>1642593</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>821686.39440836932</v>
       </c>
       <c r="W61" s="1">
@@ -4601,11 +4658,11 @@
         <v>19461.272727272728</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>1678981</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>841147.66713564203</v>
       </c>
       <c r="W62" s="1">
@@ -4632,11 +4689,11 @@
         <v>17916.636363636364</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>1711287</v>
       </c>
       <c r="V63" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>859064.30349927838</v>
       </c>
       <c r="W63" s="1">
@@ -4663,11 +4720,11 @@
         <v>17763.909090909092</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>1744119</v>
       </c>
       <c r="V64" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>876828.21259018744</v>
       </c>
       <c r="W64" s="1">
@@ -4694,11 +4751,11 @@
         <v>17535.090909090908</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>1768866</v>
       </c>
       <c r="V65" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>894363.30349927838</v>
       </c>
       <c r="W65" s="1">
@@ -4725,11 +4782,11 @@
         <v>17130.18181818182</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>1794920</v>
       </c>
       <c r="V66" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>911493.48531746014</v>
       </c>
       <c r="W66" s="1">
@@ -4756,11 +4813,11 @@
         <v>17186.363636363636</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>1816116</v>
       </c>
       <c r="V67" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>928679.84895382379</v>
       </c>
       <c r="W67" s="1">
@@ -4787,11 +4844,11 @@
         <v>14679.636363636364</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" ref="U68:V83" si="74">U67+S68</f>
+        <f t="shared" ref="U68:V83" si="79">U67+S68</f>
         <v>1846521</v>
       </c>
       <c r="V68" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>943359.48531746014</v>
       </c>
       <c r="W68" s="1">
@@ -4818,11 +4875,11 @@
         <v>15690.818181818182</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1878833</v>
       </c>
       <c r="V69" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>959050.30349927838</v>
       </c>
       <c r="W69" s="1">
@@ -4849,11 +4906,11 @@
         <v>14967.545454545454</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1901010</v>
       </c>
       <c r="V70" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>974017.84895382379</v>
       </c>
       <c r="W70" s="1">
@@ -4880,11 +4937,11 @@
         <v>14546.818181818182</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1914981</v>
       </c>
       <c r="V71" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>988564.66713564203</v>
       </c>
       <c r="W71" s="1">
@@ -4911,11 +4968,11 @@
         <v>13876.272727272728</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1928616</v>
       </c>
       <c r="V72" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1002440.9398629147</v>
       </c>
       <c r="W72" s="1">
@@ -4942,11 +4999,11 @@
         <v>12522.363636363636</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1938412</v>
       </c>
       <c r="V73" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1014963.3034992784</v>
       </c>
       <c r="W73" s="1">
@@ -4973,11 +5030,11 @@
         <v>12105.636363636364</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1946010</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1027068.9398629147</v>
       </c>
       <c r="W74" s="1">
@@ -5004,11 +5061,11 @@
         <v>11272.545454545454</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1953188</v>
       </c>
       <c r="V75" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1038341.4853174601</v>
       </c>
       <c r="W75" s="1">
@@ -5035,11 +5092,11 @@
         <v>9771.0909090909099</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1962346</v>
       </c>
       <c r="V76" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1048112.5762265511</v>
       </c>
       <c r="W76" s="1">
@@ -5066,11 +5123,11 @@
         <v>7589.909090909091</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1973666</v>
       </c>
       <c r="V77" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1055702.4853174603</v>
       </c>
       <c r="W77" s="1">
@@ -5097,11 +5154,11 @@
         <v>8318.545454545454</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1981697</v>
       </c>
       <c r="V78" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1064021.0307720057</v>
       </c>
       <c r="W78" s="1">
@@ -5128,11 +5185,11 @@
         <v>7405.727272727273</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1991144</v>
       </c>
       <c r="V79" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1071426.758044733</v>
       </c>
       <c r="W79" s="1">
@@ -5159,11 +5216,11 @@
         <v>7004.181818181818</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>2001289</v>
       </c>
       <c r="V80" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1078430.9398629148</v>
       </c>
       <c r="W80" s="1">
@@ -5190,11 +5247,11 @@
         <v>6677.818181818182</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>2013289</v>
       </c>
       <c r="V81" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1085108.758044733</v>
       </c>
       <c r="W81" s="1">
@@ -5221,11 +5278,11 @@
         <v>6140.454545454545</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>2026172</v>
       </c>
       <c r="V82" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1091249.2125901876</v>
       </c>
       <c r="W82" s="1">
@@ -5252,11 +5309,11 @@
         <v>6411.4</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>2032538</v>
       </c>
       <c r="V83" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>1097660.6125901875</v>
       </c>
       <c r="W83" s="1">
@@ -5283,11 +5340,11 @@
         <v>6189.6</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" ref="U84:V99" si="75">U83+S84</f>
+        <f t="shared" ref="U84:V99" si="80">U83+S84</f>
         <v>2036693</v>
       </c>
       <c r="V84" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>1103850.2125901876</v>
       </c>
       <c r="W84" s="1">
@@ -5314,11 +5371,11 @@
         <v>4314.3999999999996</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>2039343</v>
       </c>
       <c r="V85" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>1108164.6125901875</v>
       </c>
       <c r="W85" s="1">
@@ -5345,11 +5402,11 @@
         <v>3802.6</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>2043072</v>
       </c>
       <c r="V86" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>1111967.2125901876</v>
       </c>
       <c r="W86" s="1">
@@ -5376,11 +5433,11 @@
         <v>3261.3333333333335</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>2045727</v>
       </c>
       <c r="V87" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>1115228.5459235208</v>
       </c>
       <c r="W87" s="1">
@@ -5407,11 +5464,11 @@
         <v>2728.4444444444443</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>2047725</v>
       </c>
       <c r="V88" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>1117956.9903679653</v>
       </c>
       <c r="W88" s="1">
@@ -5438,11 +5495,11 @@
         <v>2059.7777777777778</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>2049017</v>
       </c>
       <c r="V89" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>1120016.7681457431</v>
       </c>
       <c r="W89" s="1">
@@ -5469,11 +5526,11 @@
         <v>1764.2222222222222</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>2049846</v>
       </c>
       <c r="V90" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>1121780.9903679653</v>
       </c>
       <c r="W90" s="1">
@@ -5500,11 +5557,11 @@
         <v>1664.125</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>2051014</v>
       </c>
       <c r="V91" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>1123445.1153679653</v>
       </c>
       <c r="W91" s="1">
@@ -5531,11 +5588,11 @@
         <v>1687.375</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>2051949</v>
       </c>
       <c r="V92" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>1125132.4903679653</v>
       </c>
       <c r="W92" s="1">
@@ -5562,11 +5619,11 @@
         <v>868.83333333333337</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>2052845</v>
       </c>
       <c r="V93" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>1126001.3237012986</v>
       </c>
       <c r="W93" s="1">
@@ -5590,11 +5647,11 @@
         <v>707.66666666666663</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>2052845</v>
       </c>
       <c r="V94" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>1126708.9903679653</v>
       </c>
       <c r="W94" s="1">
@@ -5618,11 +5675,11 @@
         <v>440</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>2052845</v>
       </c>
       <c r="V95" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>1127148.9903679653</v>
       </c>
       <c r="W95" s="1">
@@ -5646,11 +5703,11 @@
         <v>720.66666666666663</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>2052845</v>
       </c>
       <c r="V96" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>1127869.6570346321</v>
       </c>
       <c r="W96" s="1">
@@ -5674,11 +5731,11 @@
         <v>238</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>2052845</v>
       </c>
       <c r="V97" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>1128107.6570346321</v>
       </c>
       <c r="W97" s="1">
@@ -5702,11 +5759,11 @@
         <v>323</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>2052845</v>
       </c>
       <c r="V98" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>1128430.6570346321</v>
       </c>
       <c r="W98" s="1">
@@ -5730,11 +5787,11 @@
         <v>250</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>2052845</v>
       </c>
       <c r="V99" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W99" s="1">
@@ -5755,11 +5812,11 @@
         <v>45572</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" ref="U100:V108" si="76">U99+S100</f>
+        <f t="shared" ref="U100:V108" si="81">U99+S100</f>
         <v>2052845</v>
       </c>
       <c r="V100" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W100" s="1">
@@ -5780,11 +5837,11 @@
         <v>45573</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>2052845</v>
       </c>
       <c r="V101" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W101" s="1">
@@ -5799,11 +5856,11 @@
         <v>45574</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>2052845</v>
       </c>
       <c r="V102" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W102" s="1">
@@ -5818,11 +5875,11 @@
         <v>45575</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>2052845</v>
       </c>
       <c r="V103" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W103" s="1">
@@ -5837,11 +5894,11 @@
         <v>45576</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>2052845</v>
       </c>
       <c r="V104" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W104" s="1">
@@ -5856,11 +5913,11 @@
         <v>45577</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>2052845</v>
       </c>
       <c r="V105" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W105" s="1">
@@ -5875,11 +5932,11 @@
         <v>45578</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>2052845</v>
       </c>
       <c r="V106" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W106" s="1">
@@ -5894,11 +5951,11 @@
         <v>45579</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>2052845</v>
       </c>
       <c r="V107" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W107" s="1">
@@ -5913,11 +5970,11 @@
         <v>45580</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>2052845</v>
       </c>
       <c r="V108" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W108" s="1">

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd97481b0ff2b3c9/Documents/R/skeena-sockeye-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6D1FFB5-4007-4F9A-81BB-C2A392C925EF}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC8A1E92-4352-44DC-AF84-99024669DA81}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="920" windowWidth="13830" windowHeight="8380" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="7510" yWindow="1320" windowWidth="16270" windowHeight="11900" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -504,10 +504,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomRight" activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3929,7 +3929,7 @@
         <v>558393</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" ref="N43:N45" si="69">J43+L43</f>
+        <f t="shared" ref="N43:N44" si="69">J43+L43</f>
         <v>91</v>
       </c>
       <c r="O43" s="2">
@@ -3941,7 +3941,7 @@
         <v>558568</v>
       </c>
       <c r="Q43" s="1">
-        <f t="shared" ref="Q43:Q45" si="71">C43+K43</f>
+        <f t="shared" ref="Q43:Q44" si="71">C43+K43</f>
         <v>1414</v>
       </c>
       <c r="R43" s="1">
@@ -4105,7 +4105,7 @@
         <v>789217</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" ref="N45" si="74">J45+L45</f>
+        <f t="shared" ref="N45:N46" si="74">J45+L45</f>
         <v>0</v>
       </c>
       <c r="O45" s="2">
@@ -4117,7 +4117,7 @@
         <v>789425</v>
       </c>
       <c r="Q45" s="1">
-        <f t="shared" ref="Q45" si="76">C45+K45</f>
+        <f t="shared" ref="Q45:Q46" si="76">C45+K45</f>
         <v>7616</v>
       </c>
       <c r="R45" s="1">
@@ -4155,6 +4155,63 @@
       <c r="A46" s="3">
         <v>45518</v>
       </c>
+      <c r="B46">
+        <v>128763</v>
+      </c>
+      <c r="C46">
+        <v>5760</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>9130</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>26</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>24</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" ref="M46" si="78">M45+B46</f>
+        <v>917980</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" ref="N46" si="79">J46+L46</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <f>B46+I46+N46</f>
+        <v>128787</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" ref="P46" si="80">P45+O46</f>
+        <v>918212</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" ref="Q46" si="81">C46+K46</f>
+        <v>5760</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" ref="R46" si="82">Q46+R45</f>
+        <v>54037</v>
+      </c>
       <c r="S46" s="1">
         <v>43402</v>
       </c>
@@ -4348,11 +4405,11 @@
         <v>29568.909090909092</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" ref="U52:V67" si="78">U51+S52</f>
+        <f t="shared" ref="U52:V67" si="83">U51+S52</f>
         <v>1114483</v>
       </c>
       <c r="V52" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>599708.12168109661</v>
       </c>
       <c r="W52" s="1">
@@ -4379,11 +4436,11 @@
         <v>27004.636363636364</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1174452</v>
       </c>
       <c r="V53" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>626712.75804473297</v>
       </c>
       <c r="W53" s="1">
@@ -4410,11 +4467,11 @@
         <v>26730.909090909092</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1202504</v>
       </c>
       <c r="V54" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>653443.66713564203</v>
       </c>
       <c r="W54" s="1">
@@ -4441,11 +4498,11 @@
         <v>22068.454545454544</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1277668</v>
       </c>
       <c r="V55" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>675512.12168109661</v>
       </c>
       <c r="W55" s="1">
@@ -4472,11 +4529,11 @@
         <v>24809.363636363636</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1370228</v>
       </c>
       <c r="V56" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>700321.48531746026</v>
       </c>
       <c r="W56" s="1">
@@ -4503,11 +4560,11 @@
         <v>28342.545454545456</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1440848</v>
       </c>
       <c r="V57" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>728664.03077200567</v>
       </c>
       <c r="W57" s="1">
@@ -4534,11 +4591,11 @@
         <v>26309.272727272728</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1497008</v>
       </c>
       <c r="V58" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>754973.30349927838</v>
       </c>
       <c r="W58" s="1">
@@ -4565,11 +4622,11 @@
         <v>23571.727272727272</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1540279</v>
       </c>
       <c r="V59" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>778545.03077200567</v>
       </c>
       <c r="W59" s="1">
@@ -4596,11 +4653,11 @@
         <v>21629.454545454544</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1594464</v>
       </c>
       <c r="V60" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>800174.48531746026</v>
       </c>
       <c r="W60" s="1">
@@ -4627,11 +4684,11 @@
         <v>21511.909090909092</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1642593</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>821686.39440836932</v>
       </c>
       <c r="W61" s="1">
@@ -4658,11 +4715,11 @@
         <v>19461.272727272728</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1678981</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>841147.66713564203</v>
       </c>
       <c r="W62" s="1">
@@ -4689,11 +4746,11 @@
         <v>17916.636363636364</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1711287</v>
       </c>
       <c r="V63" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>859064.30349927838</v>
       </c>
       <c r="W63" s="1">
@@ -4720,11 +4777,11 @@
         <v>17763.909090909092</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1744119</v>
       </c>
       <c r="V64" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>876828.21259018744</v>
       </c>
       <c r="W64" s="1">
@@ -4751,11 +4808,11 @@
         <v>17535.090909090908</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1768866</v>
       </c>
       <c r="V65" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>894363.30349927838</v>
       </c>
       <c r="W65" s="1">
@@ -4782,11 +4839,11 @@
         <v>17130.18181818182</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1794920</v>
       </c>
       <c r="V66" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>911493.48531746014</v>
       </c>
       <c r="W66" s="1">
@@ -4813,11 +4870,11 @@
         <v>17186.363636363636</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>1816116</v>
       </c>
       <c r="V67" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="83"/>
         <v>928679.84895382379</v>
       </c>
       <c r="W67" s="1">
@@ -4844,11 +4901,11 @@
         <v>14679.636363636364</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" ref="U68:V83" si="79">U67+S68</f>
+        <f t="shared" ref="U68:V83" si="84">U67+S68</f>
         <v>1846521</v>
       </c>
       <c r="V68" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>943359.48531746014</v>
       </c>
       <c r="W68" s="1">
@@ -4875,11 +4932,11 @@
         <v>15690.818181818182</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1878833</v>
       </c>
       <c r="V69" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>959050.30349927838</v>
       </c>
       <c r="W69" s="1">
@@ -4906,11 +4963,11 @@
         <v>14967.545454545454</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1901010</v>
       </c>
       <c r="V70" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>974017.84895382379</v>
       </c>
       <c r="W70" s="1">
@@ -4937,11 +4994,11 @@
         <v>14546.818181818182</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1914981</v>
       </c>
       <c r="V71" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>988564.66713564203</v>
       </c>
       <c r="W71" s="1">
@@ -4968,11 +5025,11 @@
         <v>13876.272727272728</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1928616</v>
       </c>
       <c r="V72" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1002440.9398629147</v>
       </c>
       <c r="W72" s="1">
@@ -4999,11 +5056,11 @@
         <v>12522.363636363636</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1938412</v>
       </c>
       <c r="V73" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1014963.3034992784</v>
       </c>
       <c r="W73" s="1">
@@ -5030,11 +5087,11 @@
         <v>12105.636363636364</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1946010</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1027068.9398629147</v>
       </c>
       <c r="W74" s="1">
@@ -5061,11 +5118,11 @@
         <v>11272.545454545454</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1953188</v>
       </c>
       <c r="V75" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1038341.4853174601</v>
       </c>
       <c r="W75" s="1">
@@ -5092,11 +5149,11 @@
         <v>9771.0909090909099</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1962346</v>
       </c>
       <c r="V76" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1048112.5762265511</v>
       </c>
       <c r="W76" s="1">
@@ -5123,11 +5180,11 @@
         <v>7589.909090909091</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1973666</v>
       </c>
       <c r="V77" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1055702.4853174603</v>
       </c>
       <c r="W77" s="1">
@@ -5154,11 +5211,11 @@
         <v>8318.545454545454</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1981697</v>
       </c>
       <c r="V78" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1064021.0307720057</v>
       </c>
       <c r="W78" s="1">
@@ -5185,11 +5242,11 @@
         <v>7405.727272727273</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1991144</v>
       </c>
       <c r="V79" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1071426.758044733</v>
       </c>
       <c r="W79" s="1">
@@ -5216,11 +5273,11 @@
         <v>7004.181818181818</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>2001289</v>
       </c>
       <c r="V80" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1078430.9398629148</v>
       </c>
       <c r="W80" s="1">
@@ -5247,11 +5304,11 @@
         <v>6677.818181818182</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>2013289</v>
       </c>
       <c r="V81" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1085108.758044733</v>
       </c>
       <c r="W81" s="1">
@@ -5278,11 +5335,11 @@
         <v>6140.454545454545</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>2026172</v>
       </c>
       <c r="V82" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1091249.2125901876</v>
       </c>
       <c r="W82" s="1">
@@ -5309,11 +5366,11 @@
         <v>6411.4</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>2032538</v>
       </c>
       <c r="V83" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="84"/>
         <v>1097660.6125901875</v>
       </c>
       <c r="W83" s="1">
@@ -5340,11 +5397,11 @@
         <v>6189.6</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" ref="U84:V99" si="80">U83+S84</f>
+        <f t="shared" ref="U84:V99" si="85">U83+S84</f>
         <v>2036693</v>
       </c>
       <c r="V84" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1103850.2125901876</v>
       </c>
       <c r="W84" s="1">
@@ -5371,11 +5428,11 @@
         <v>4314.3999999999996</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>2039343</v>
       </c>
       <c r="V85" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1108164.6125901875</v>
       </c>
       <c r="W85" s="1">
@@ -5402,11 +5459,11 @@
         <v>3802.6</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>2043072</v>
       </c>
       <c r="V86" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1111967.2125901876</v>
       </c>
       <c r="W86" s="1">
@@ -5433,11 +5490,11 @@
         <v>3261.3333333333335</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>2045727</v>
       </c>
       <c r="V87" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1115228.5459235208</v>
       </c>
       <c r="W87" s="1">
@@ -5464,11 +5521,11 @@
         <v>2728.4444444444443</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>2047725</v>
       </c>
       <c r="V88" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1117956.9903679653</v>
       </c>
       <c r="W88" s="1">
@@ -5495,11 +5552,11 @@
         <v>2059.7777777777778</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>2049017</v>
       </c>
       <c r="V89" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1120016.7681457431</v>
       </c>
       <c r="W89" s="1">
@@ -5526,11 +5583,11 @@
         <v>1764.2222222222222</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>2049846</v>
       </c>
       <c r="V90" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1121780.9903679653</v>
       </c>
       <c r="W90" s="1">
@@ -5557,11 +5614,11 @@
         <v>1664.125</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>2051014</v>
       </c>
       <c r="V91" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1123445.1153679653</v>
       </c>
       <c r="W91" s="1">
@@ -5588,11 +5645,11 @@
         <v>1687.375</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>2051949</v>
       </c>
       <c r="V92" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1125132.4903679653</v>
       </c>
       <c r="W92" s="1">
@@ -5619,11 +5676,11 @@
         <v>868.83333333333337</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>2052845</v>
       </c>
       <c r="V93" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1126001.3237012986</v>
       </c>
       <c r="W93" s="1">
@@ -5647,11 +5704,11 @@
         <v>707.66666666666663</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>2052845</v>
       </c>
       <c r="V94" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1126708.9903679653</v>
       </c>
       <c r="W94" s="1">
@@ -5675,11 +5732,11 @@
         <v>440</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>2052845</v>
       </c>
       <c r="V95" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1127148.9903679653</v>
       </c>
       <c r="W95" s="1">
@@ -5703,11 +5760,11 @@
         <v>720.66666666666663</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>2052845</v>
       </c>
       <c r="V96" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1127869.6570346321</v>
       </c>
       <c r="W96" s="1">
@@ -5731,11 +5788,11 @@
         <v>238</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>2052845</v>
       </c>
       <c r="V97" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1128107.6570346321</v>
       </c>
       <c r="W97" s="1">
@@ -5759,11 +5816,11 @@
         <v>323</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>2052845</v>
       </c>
       <c r="V98" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1128430.6570346321</v>
       </c>
       <c r="W98" s="1">
@@ -5787,11 +5844,11 @@
         <v>250</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>2052845</v>
       </c>
       <c r="V99" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="85"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W99" s="1">
@@ -5812,11 +5869,11 @@
         <v>45572</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" ref="U100:V108" si="81">U99+S100</f>
+        <f t="shared" ref="U100:V108" si="86">U99+S100</f>
         <v>2052845</v>
       </c>
       <c r="V100" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W100" s="1">
@@ -5837,11 +5894,11 @@
         <v>45573</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>2052845</v>
       </c>
       <c r="V101" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W101" s="1">
@@ -5856,11 +5913,11 @@
         <v>45574</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>2052845</v>
       </c>
       <c r="V102" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W102" s="1">
@@ -5875,11 +5932,11 @@
         <v>45575</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>2052845</v>
       </c>
       <c r="V103" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W103" s="1">
@@ -5894,11 +5951,11 @@
         <v>45576</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>2052845</v>
       </c>
       <c r="V104" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W104" s="1">
@@ -5913,11 +5970,11 @@
         <v>45577</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>2052845</v>
       </c>
       <c r="V105" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W105" s="1">
@@ -5932,11 +5989,11 @@
         <v>45578</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>2052845</v>
       </c>
       <c r="V106" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W106" s="1">
@@ -5951,11 +6008,11 @@
         <v>45579</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>2052845</v>
       </c>
       <c r="V107" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W107" s="1">
@@ -5970,11 +6027,11 @@
         <v>45580</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>2052845</v>
       </c>
       <c r="V108" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="86"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W108" s="1">

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd97481b0ff2b3c9/Documents/R/skeena-sockeye-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC8A1E92-4352-44DC-AF84-99024669DA81}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCD19D7D-A616-4FB3-A2AA-820D777E11A5}"/>
   <bookViews>
-    <workbookView xWindow="7510" yWindow="1320" windowWidth="16270" windowHeight="11900" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="2510" yWindow="1510" windowWidth="16270" windowHeight="11900" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="I41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M45" sqref="M45"/>
+      <selection pane="bottomRight" activeCell="M47" sqref="M47:R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4105,7 +4105,7 @@
         <v>789217</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" ref="N45:N46" si="74">J45+L45</f>
+        <f t="shared" ref="N45" si="74">J45+L45</f>
         <v>0</v>
       </c>
       <c r="O45" s="2">
@@ -4117,7 +4117,7 @@
         <v>789425</v>
       </c>
       <c r="Q45" s="1">
-        <f t="shared" ref="Q45:Q46" si="76">C45+K45</f>
+        <f t="shared" ref="Q45" si="76">C45+K45</f>
         <v>7616</v>
       </c>
       <c r="R45" s="1">

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd97481b0ff2b3c9/Documents/R/skeena-sockeye-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCD19D7D-A616-4FB3-A2AA-820D777E11A5}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{481AA086-9072-4EDA-89C2-7099B0FEAC3C}"/>
   <bookViews>
-    <workbookView xWindow="2510" yWindow="1510" windowWidth="16270" windowHeight="11900" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="2720" yWindow="70" windowWidth="16270" windowHeight="11900" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="I41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M47" sqref="M47:R47"/>
+      <selection pane="bottomRight" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4193,7 +4193,7 @@
         <v>917980</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" ref="N46" si="79">J46+L46</f>
+        <f t="shared" ref="N46:N48" si="79">J46+L46</f>
         <v>0</v>
       </c>
       <c r="O46" s="2">
@@ -4205,7 +4205,7 @@
         <v>918212</v>
       </c>
       <c r="Q46" s="1">
-        <f t="shared" ref="Q46" si="81">C46+K46</f>
+        <f t="shared" ref="Q46:Q48" si="81">C46+K46</f>
         <v>5760</v>
       </c>
       <c r="R46" s="1">
@@ -4243,6 +4243,63 @@
       <c r="A47" s="3">
         <v>45519</v>
       </c>
+      <c r="B47">
+        <v>45914</v>
+      </c>
+      <c r="C47">
+        <v>3035</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>9384</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>20</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>35</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" ref="M47:M48" si="83">M46+B47</f>
+        <v>963894</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" ref="N47:N48" si="84">J47+L47</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" ref="O47:O48" si="85">B47+I47+N47</f>
+        <v>45949</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" ref="P47:P48" si="86">P46+O47</f>
+        <v>964161</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" ref="Q47:Q48" si="87">C47+K47</f>
+        <v>3035</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" ref="R47:R48" si="88">Q47+R46</f>
+        <v>57072</v>
+      </c>
       <c r="S47" s="1">
         <v>35514</v>
       </c>
@@ -4274,6 +4331,63 @@
       <c r="A48" s="3">
         <v>45520</v>
       </c>
+      <c r="B48">
+        <v>97022</v>
+      </c>
+      <c r="C48">
+        <v>5008</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>15791</v>
+      </c>
+      <c r="F48">
+        <v>11</v>
+      </c>
+      <c r="G48">
+        <v>16</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>33</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="83"/>
+        <v>1060916</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
+        <f t="shared" si="85"/>
+        <v>97055</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="86"/>
+        <v>1061216</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="87"/>
+        <v>5008</v>
+      </c>
+      <c r="R48" s="1">
+        <f t="shared" si="88"/>
+        <v>62080</v>
+      </c>
       <c r="S48" s="1">
         <v>42120</v>
       </c>
@@ -4405,11 +4519,11 @@
         <v>29568.909090909092</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" ref="U52:V67" si="83">U51+S52</f>
+        <f t="shared" ref="U52:V67" si="89">U51+S52</f>
         <v>1114483</v>
       </c>
       <c r="V52" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>599708.12168109661</v>
       </c>
       <c r="W52" s="1">
@@ -4436,11 +4550,11 @@
         <v>27004.636363636364</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1174452</v>
       </c>
       <c r="V53" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>626712.75804473297</v>
       </c>
       <c r="W53" s="1">
@@ -4467,11 +4581,11 @@
         <v>26730.909090909092</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1202504</v>
       </c>
       <c r="V54" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>653443.66713564203</v>
       </c>
       <c r="W54" s="1">
@@ -4498,11 +4612,11 @@
         <v>22068.454545454544</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1277668</v>
       </c>
       <c r="V55" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>675512.12168109661</v>
       </c>
       <c r="W55" s="1">
@@ -4529,11 +4643,11 @@
         <v>24809.363636363636</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1370228</v>
       </c>
       <c r="V56" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>700321.48531746026</v>
       </c>
       <c r="W56" s="1">
@@ -4560,11 +4674,11 @@
         <v>28342.545454545456</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1440848</v>
       </c>
       <c r="V57" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>728664.03077200567</v>
       </c>
       <c r="W57" s="1">
@@ -4591,11 +4705,11 @@
         <v>26309.272727272728</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1497008</v>
       </c>
       <c r="V58" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>754973.30349927838</v>
       </c>
       <c r="W58" s="1">
@@ -4622,11 +4736,11 @@
         <v>23571.727272727272</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1540279</v>
       </c>
       <c r="V59" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>778545.03077200567</v>
       </c>
       <c r="W59" s="1">
@@ -4653,11 +4767,11 @@
         <v>21629.454545454544</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1594464</v>
       </c>
       <c r="V60" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>800174.48531746026</v>
       </c>
       <c r="W60" s="1">
@@ -4684,11 +4798,11 @@
         <v>21511.909090909092</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1642593</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>821686.39440836932</v>
       </c>
       <c r="W61" s="1">
@@ -4715,11 +4829,11 @@
         <v>19461.272727272728</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1678981</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>841147.66713564203</v>
       </c>
       <c r="W62" s="1">
@@ -4746,11 +4860,11 @@
         <v>17916.636363636364</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1711287</v>
       </c>
       <c r="V63" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>859064.30349927838</v>
       </c>
       <c r="W63" s="1">
@@ -4777,11 +4891,11 @@
         <v>17763.909090909092</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1744119</v>
       </c>
       <c r="V64" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>876828.21259018744</v>
       </c>
       <c r="W64" s="1">
@@ -4808,11 +4922,11 @@
         <v>17535.090909090908</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1768866</v>
       </c>
       <c r="V65" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>894363.30349927838</v>
       </c>
       <c r="W65" s="1">
@@ -4839,11 +4953,11 @@
         <v>17130.18181818182</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1794920</v>
       </c>
       <c r="V66" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>911493.48531746014</v>
       </c>
       <c r="W66" s="1">
@@ -4870,11 +4984,11 @@
         <v>17186.363636363636</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>1816116</v>
       </c>
       <c r="V67" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>928679.84895382379</v>
       </c>
       <c r="W67" s="1">
@@ -4901,11 +5015,11 @@
         <v>14679.636363636364</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" ref="U68:V83" si="84">U67+S68</f>
+        <f t="shared" ref="U68:V83" si="90">U67+S68</f>
         <v>1846521</v>
       </c>
       <c r="V68" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>943359.48531746014</v>
       </c>
       <c r="W68" s="1">
@@ -4932,11 +5046,11 @@
         <v>15690.818181818182</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1878833</v>
       </c>
       <c r="V69" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>959050.30349927838</v>
       </c>
       <c r="W69" s="1">
@@ -4963,11 +5077,11 @@
         <v>14967.545454545454</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1901010</v>
       </c>
       <c r="V70" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>974017.84895382379</v>
       </c>
       <c r="W70" s="1">
@@ -4994,11 +5108,11 @@
         <v>14546.818181818182</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1914981</v>
       </c>
       <c r="V71" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>988564.66713564203</v>
       </c>
       <c r="W71" s="1">
@@ -5025,11 +5139,11 @@
         <v>13876.272727272728</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1928616</v>
       </c>
       <c r="V72" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1002440.9398629147</v>
       </c>
       <c r="W72" s="1">
@@ -5056,11 +5170,11 @@
         <v>12522.363636363636</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1938412</v>
       </c>
       <c r="V73" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1014963.3034992784</v>
       </c>
       <c r="W73" s="1">
@@ -5087,11 +5201,11 @@
         <v>12105.636363636364</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1946010</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1027068.9398629147</v>
       </c>
       <c r="W74" s="1">
@@ -5118,11 +5232,11 @@
         <v>11272.545454545454</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1953188</v>
       </c>
       <c r="V75" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1038341.4853174601</v>
       </c>
       <c r="W75" s="1">
@@ -5149,11 +5263,11 @@
         <v>9771.0909090909099</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1962346</v>
       </c>
       <c r="V76" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1048112.5762265511</v>
       </c>
       <c r="W76" s="1">
@@ -5180,11 +5294,11 @@
         <v>7589.909090909091</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1973666</v>
       </c>
       <c r="V77" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1055702.4853174603</v>
       </c>
       <c r="W77" s="1">
@@ -5211,11 +5325,11 @@
         <v>8318.545454545454</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1981697</v>
       </c>
       <c r="V78" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1064021.0307720057</v>
       </c>
       <c r="W78" s="1">
@@ -5242,11 +5356,11 @@
         <v>7405.727272727273</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1991144</v>
       </c>
       <c r="V79" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1071426.758044733</v>
       </c>
       <c r="W79" s="1">
@@ -5273,11 +5387,11 @@
         <v>7004.181818181818</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>2001289</v>
       </c>
       <c r="V80" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1078430.9398629148</v>
       </c>
       <c r="W80" s="1">
@@ -5304,11 +5418,11 @@
         <v>6677.818181818182</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>2013289</v>
       </c>
       <c r="V81" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1085108.758044733</v>
       </c>
       <c r="W81" s="1">
@@ -5335,11 +5449,11 @@
         <v>6140.454545454545</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>2026172</v>
       </c>
       <c r="V82" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1091249.2125901876</v>
       </c>
       <c r="W82" s="1">
@@ -5366,11 +5480,11 @@
         <v>6411.4</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>2032538</v>
       </c>
       <c r="V83" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>1097660.6125901875</v>
       </c>
       <c r="W83" s="1">
@@ -5397,11 +5511,11 @@
         <v>6189.6</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" ref="U84:V99" si="85">U83+S84</f>
+        <f t="shared" ref="U84:V99" si="91">U83+S84</f>
         <v>2036693</v>
       </c>
       <c r="V84" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1103850.2125901876</v>
       </c>
       <c r="W84" s="1">
@@ -5428,11 +5542,11 @@
         <v>4314.3999999999996</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2039343</v>
       </c>
       <c r="V85" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1108164.6125901875</v>
       </c>
       <c r="W85" s="1">
@@ -5459,11 +5573,11 @@
         <v>3802.6</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2043072</v>
       </c>
       <c r="V86" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1111967.2125901876</v>
       </c>
       <c r="W86" s="1">
@@ -5490,11 +5604,11 @@
         <v>3261.3333333333335</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2045727</v>
       </c>
       <c r="V87" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1115228.5459235208</v>
       </c>
       <c r="W87" s="1">
@@ -5521,11 +5635,11 @@
         <v>2728.4444444444443</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2047725</v>
       </c>
       <c r="V88" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1117956.9903679653</v>
       </c>
       <c r="W88" s="1">
@@ -5552,11 +5666,11 @@
         <v>2059.7777777777778</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2049017</v>
       </c>
       <c r="V89" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1120016.7681457431</v>
       </c>
       <c r="W89" s="1">
@@ -5583,11 +5697,11 @@
         <v>1764.2222222222222</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2049846</v>
       </c>
       <c r="V90" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1121780.9903679653</v>
       </c>
       <c r="W90" s="1">
@@ -5614,11 +5728,11 @@
         <v>1664.125</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2051014</v>
       </c>
       <c r="V91" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1123445.1153679653</v>
       </c>
       <c r="W91" s="1">
@@ -5645,11 +5759,11 @@
         <v>1687.375</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2051949</v>
       </c>
       <c r="V92" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1125132.4903679653</v>
       </c>
       <c r="W92" s="1">
@@ -5676,11 +5790,11 @@
         <v>868.83333333333337</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2052845</v>
       </c>
       <c r="V93" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1126001.3237012986</v>
       </c>
       <c r="W93" s="1">
@@ -5704,11 +5818,11 @@
         <v>707.66666666666663</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2052845</v>
       </c>
       <c r="V94" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1126708.9903679653</v>
       </c>
       <c r="W94" s="1">
@@ -5732,11 +5846,11 @@
         <v>440</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2052845</v>
       </c>
       <c r="V95" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1127148.9903679653</v>
       </c>
       <c r="W95" s="1">
@@ -5760,11 +5874,11 @@
         <v>720.66666666666663</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2052845</v>
       </c>
       <c r="V96" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1127869.6570346321</v>
       </c>
       <c r="W96" s="1">
@@ -5788,11 +5902,11 @@
         <v>238</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2052845</v>
       </c>
       <c r="V97" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1128107.6570346321</v>
       </c>
       <c r="W97" s="1">
@@ -5816,11 +5930,11 @@
         <v>323</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2052845</v>
       </c>
       <c r="V98" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1128430.6570346321</v>
       </c>
       <c r="W98" s="1">
@@ -5844,11 +5958,11 @@
         <v>250</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2052845</v>
       </c>
       <c r="V99" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W99" s="1">
@@ -5869,11 +5983,11 @@
         <v>45572</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" ref="U100:V108" si="86">U99+S100</f>
+        <f t="shared" ref="U100:V108" si="92">U99+S100</f>
         <v>2052845</v>
       </c>
       <c r="V100" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W100" s="1">
@@ -5894,11 +6008,11 @@
         <v>45573</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>2052845</v>
       </c>
       <c r="V101" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W101" s="1">
@@ -5913,11 +6027,11 @@
         <v>45574</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>2052845</v>
       </c>
       <c r="V102" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W102" s="1">
@@ -5932,11 +6046,11 @@
         <v>45575</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>2052845</v>
       </c>
       <c r="V103" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W103" s="1">
@@ -5951,11 +6065,11 @@
         <v>45576</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>2052845</v>
       </c>
       <c r="V104" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W104" s="1">
@@ -5970,11 +6084,11 @@
         <v>45577</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>2052845</v>
       </c>
       <c r="V105" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W105" s="1">
@@ -5989,11 +6103,11 @@
         <v>45578</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>2052845</v>
       </c>
       <c r="V106" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W106" s="1">
@@ -6008,11 +6122,11 @@
         <v>45579</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>2052845</v>
       </c>
       <c r="V107" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W107" s="1">
@@ -6027,11 +6141,11 @@
         <v>45580</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>2052845</v>
       </c>
       <c r="V108" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W108" s="1">

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd97481b0ff2b3c9/Documents/R/skeena-sockeye-inseason-updates/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="324" documentId="8_{5002ADF5-552C-4695-A0BF-EDC672F0F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{481AA086-9072-4EDA-89C2-7099B0FEAC3C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB783FD0-04CC-154B-B164-FDD0C1903F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="70" windowWidth="16270" windowHeight="11900" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="5480" yWindow="500" windowWidth="22280" windowHeight="15440" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -178,10 +178,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,30 +500,30 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K51" sqref="K51"/>
+      <selection pane="bottomRight" activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="1"/>
-    <col min="15" max="15" width="8.7265625" style="2"/>
-    <col min="16" max="16" width="8.7265625" style="1"/>
-    <col min="17" max="17" width="13.6328125" style="1" customWidth="1"/>
-    <col min="18" max="23" width="8.7265625" style="1"/>
-    <col min="24" max="24" width="9.7265625" style="1" customWidth="1"/>
-    <col min="25" max="26" width="11.7265625" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="1"/>
+    <col min="15" max="15" width="8.6640625" style="2"/>
+    <col min="16" max="16" width="8.6640625" style="1"/>
+    <col min="17" max="17" width="13.6640625" style="1" customWidth="1"/>
+    <col min="18" max="23" width="8.6640625" style="1"/>
+    <col min="24" max="24" width="9.6640625" style="1" customWidth="1"/>
+    <col min="25" max="26" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>45474</v>
       </c>
@@ -654,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>45475</v>
       </c>
@@ -701,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>45476</v>
       </c>
@@ -748,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45477</v>
       </c>
@@ -795,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45478</v>
       </c>
@@ -842,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45479</v>
       </c>
@@ -889,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45480</v>
       </c>
@@ -936,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>45481</v>
       </c>
@@ -983,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>45482</v>
       </c>
@@ -1071,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>45483</v>
       </c>
@@ -1159,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>45484</v>
       </c>
@@ -1247,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>45485</v>
       </c>
@@ -1335,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>45486</v>
       </c>
@@ -1423,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>45487</v>
       </c>
@@ -1511,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>45488</v>
       </c>
@@ -1599,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>45489</v>
       </c>
@@ -1687,7 +1683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>45490</v>
       </c>
@@ -1775,7 +1771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>45491</v>
       </c>
@@ -1863,7 +1859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>45492</v>
       </c>
@@ -1951,7 +1947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>45493</v>
       </c>
@@ -2039,7 +2035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>45494</v>
       </c>
@@ -2127,7 +2123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>45495</v>
       </c>
@@ -2215,7 +2211,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>45496</v>
       </c>
@@ -2303,7 +2299,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>45497</v>
       </c>
@@ -2391,7 +2387,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>45498</v>
       </c>
@@ -2479,7 +2475,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>45499</v>
       </c>
@@ -2567,7 +2563,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>45500</v>
       </c>
@@ -2655,7 +2651,7 @@
         <v>5397</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>45501</v>
       </c>
@@ -2743,7 +2739,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>45502</v>
       </c>
@@ -2831,7 +2827,7 @@
         <v>28914</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>45503</v>
       </c>
@@ -2919,7 +2915,7 @@
         <v>78670</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>45504</v>
       </c>
@@ -3007,7 +3003,7 @@
         <v>95995</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>45505</v>
       </c>
@@ -3095,7 +3091,7 @@
         <v>114013</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>45506</v>
       </c>
@@ -3183,7 +3179,7 @@
         <v>89321</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>45507</v>
       </c>
@@ -3271,7 +3267,7 @@
         <v>56123</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>45508</v>
       </c>
@@ -3359,7 +3355,7 @@
         <v>52046</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>45509</v>
       </c>
@@ -3447,7 +3443,7 @@
         <v>71155</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>45510</v>
       </c>
@@ -3535,7 +3531,7 @@
         <v>72186</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>45511</v>
       </c>
@@ -3623,7 +3619,7 @@
         <v>62076</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>45512</v>
       </c>
@@ -3711,7 +3707,7 @@
         <v>49081</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>45513</v>
       </c>
@@ -3799,7 +3795,7 @@
         <v>66336</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>45514</v>
       </c>
@@ -3887,7 +3883,7 @@
         <v>68262</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>45515</v>
       </c>
@@ -3975,7 +3971,7 @@
         <v>78487</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>45516</v>
       </c>
@@ -4063,7 +4059,7 @@
         <v>86699</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>45517</v>
       </c>
@@ -4151,7 +4147,7 @@
         <v>77654</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45518</v>
       </c>
@@ -4193,7 +4189,7 @@
         <v>917980</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" ref="N46:N48" si="79">J46+L46</f>
+        <f t="shared" ref="N46" si="79">J46+L46</f>
         <v>0</v>
       </c>
       <c r="O46" s="2">
@@ -4205,7 +4201,7 @@
         <v>918212</v>
       </c>
       <c r="Q46" s="1">
-        <f t="shared" ref="Q46:Q48" si="81">C46+K46</f>
+        <f t="shared" ref="Q46" si="81">C46+K46</f>
         <v>5760</v>
       </c>
       <c r="R46" s="1">
@@ -4239,7 +4235,7 @@
         <v>96699</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45519</v>
       </c>
@@ -4277,27 +4273,27 @@
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" ref="M47:M48" si="83">M46+B47</f>
+        <f t="shared" ref="M47:M49" si="83">M46+B47</f>
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N48" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N49" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O48" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O49" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P48" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P49" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q48" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q49" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R48" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R49" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -4327,7 +4323,7 @@
         <v>97035</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45520</v>
       </c>
@@ -4415,9 +4411,66 @@
         <v>101868</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>45521</v>
+      </c>
+      <c r="B49">
+        <v>95923</v>
+      </c>
+      <c r="C49">
+        <v>3645</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>12428</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>29</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="83"/>
+        <v>1156839</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" si="85"/>
+        <v>95952</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="86"/>
+        <v>1157168</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="87"/>
+        <v>3645</v>
+      </c>
+      <c r="R49" s="1">
+        <f t="shared" si="88"/>
+        <v>65725</v>
       </c>
       <c r="S49" s="1">
         <v>72319</v>
@@ -4446,7 +4499,7 @@
         <v>95563</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>45522</v>
       </c>
@@ -4477,7 +4530,7 @@
         <v>96290</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>45523</v>
       </c>
@@ -4508,7 +4561,7 @@
         <v>76587</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>45524</v>
       </c>
@@ -4539,7 +4592,7 @@
         <v>69901</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>45525</v>
       </c>
@@ -4570,7 +4623,7 @@
         <v>76507</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>45526</v>
       </c>
@@ -4601,7 +4654,7 @@
         <v>98879</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>45527</v>
       </c>
@@ -4632,7 +4685,7 @@
         <v>95316</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>45528</v>
       </c>
@@ -4663,7 +4716,7 @@
         <v>83573</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>45529</v>
       </c>
@@ -4694,7 +4747,7 @@
         <v>94051</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>45530</v>
       </c>
@@ -4725,7 +4778,7 @@
         <v>89303</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>45531</v>
       </c>
@@ -4756,7 +4809,7 @@
         <v>58380</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>45532</v>
       </c>
@@ -4787,7 +4840,7 @@
         <v>65722</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>45533</v>
       </c>
@@ -4818,7 +4871,7 @@
         <v>54403</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>45534</v>
       </c>
@@ -4849,7 +4902,7 @@
         <v>47793</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>45535</v>
       </c>
@@ -4880,7 +4933,7 @@
         <v>35932</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>45536</v>
       </c>
@@ -4911,7 +4964,7 @@
         <v>28559</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>45537</v>
       </c>
@@ -4942,7 +4995,7 @@
         <v>22150</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>45538</v>
       </c>
@@ -4973,7 +5026,7 @@
         <v>20493</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>45539</v>
       </c>
@@ -5004,7 +5057,7 @@
         <v>20387</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>45540</v>
       </c>
@@ -5035,7 +5088,7 @@
         <v>37971</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>45541</v>
       </c>
@@ -5066,7 +5119,7 @@
         <v>31544</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>45542</v>
       </c>
@@ -5097,7 +5150,7 @@
         <v>21102</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>45543</v>
       </c>
@@ -5128,7 +5181,7 @@
         <v>16385</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>45544</v>
       </c>
@@ -5159,7 +5212,7 @@
         <v>16372</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>45545</v>
       </c>
@@ -5190,7 +5243,7 @@
         <v>16658</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>45546</v>
       </c>
@@ -5221,7 +5274,7 @@
         <v>12902</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>45547</v>
       </c>
@@ -5252,7 +5305,7 @@
         <v>12105</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>45548</v>
       </c>
@@ -5283,7 +5336,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>45549</v>
       </c>
@@ -5314,7 +5367,7 @@
         <v>10842</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>45550</v>
       </c>
@@ -5345,7 +5398,7 @@
         <v>8295</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>45551</v>
       </c>
@@ -5376,7 +5429,7 @@
         <v>7467</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>45552</v>
       </c>
@@ -5407,7 +5460,7 @@
         <v>6134</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>45553</v>
       </c>
@@ -5438,7 +5491,7 @@
         <v>6635</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>45554</v>
       </c>
@@ -5469,7 +5522,7 @@
         <v>6004</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>45555</v>
       </c>
@@ -5500,7 +5553,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>45556</v>
       </c>
@@ -5531,7 +5584,7 @@
         <v>4552</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>45557</v>
       </c>
@@ -5562,7 +5615,7 @@
         <v>3637</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>45558</v>
       </c>
@@ -5593,7 +5646,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>45559</v>
       </c>
@@ -5624,7 +5677,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>45560</v>
       </c>
@@ -5655,7 +5708,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>45561</v>
       </c>
@@ -5686,7 +5739,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>45562</v>
       </c>
@@ -5717,7 +5770,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>45563</v>
       </c>
@@ -5748,7 +5801,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>45564</v>
       </c>
@@ -5779,7 +5832,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>45565</v>
       </c>
@@ -5810,7 +5863,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>45566</v>
       </c>
@@ -5838,7 +5891,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>45567</v>
       </c>
@@ -5866,7 +5919,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>45568</v>
       </c>
@@ -5894,7 +5947,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>45569</v>
       </c>
@@ -5922,7 +5975,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>45570</v>
       </c>
@@ -5950,7 +6003,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>45571</v>
       </c>
@@ -5978,7 +6031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>45572</v>
       </c>
@@ -6003,7 +6056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>45573</v>
       </c>
@@ -6022,7 +6075,7 @@
         <v>110480.125</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>45574</v>
       </c>
@@ -6041,7 +6094,7 @@
         <v>110489.25</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>45575</v>
       </c>
@@ -6060,7 +6113,7 @@
         <v>110499.3125</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>45576</v>
       </c>
@@ -6079,7 +6132,7 @@
         <v>110509.28125</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>45577</v>
       </c>
@@ -6098,7 +6151,7 @@
         <v>110512.625</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>45578</v>
       </c>
@@ -6117,7 +6170,7 @@
         <v>110516.34375</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>45579</v>
       </c>
@@ -6136,7 +6189,7 @@
         <v>110519.1875</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>45580</v>
       </c>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB783FD0-04CC-154B-B164-FDD0C1903F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C691AF-5C63-E240-93CA-EA47D1259FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="500" windowWidth="22280" windowHeight="15440" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="6300" yWindow="500" windowWidth="22280" windowHeight="15440" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S45" sqref="S45"/>
+      <selection pane="bottomRight" activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4273,27 +4273,27 @@
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" ref="M47:M49" si="83">M46+B47</f>
+        <f t="shared" ref="M47:M50" si="83">M46+B47</f>
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N49" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N50" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O49" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O50" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P49" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P50" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q49" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q50" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R49" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R50" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -4502,6 +4502,63 @@
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>45522</v>
+      </c>
+      <c r="B50">
+        <v>145434</v>
+      </c>
+      <c r="C50">
+        <v>6578</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>16519</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>30</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>31</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="83"/>
+        <v>1302273</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" si="85"/>
+        <v>145465</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="86"/>
+        <v>1302633</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" si="87"/>
+        <v>6578</v>
+      </c>
+      <c r="R50" s="1">
+        <f t="shared" si="88"/>
+        <v>72303</v>
       </c>
       <c r="S50" s="1">
         <v>51083</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C691AF-5C63-E240-93CA-EA47D1259FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7B59CA-6DEB-714B-9288-8CF7F5B9CBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="500" windowWidth="22280" windowHeight="15440" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="3400" yWindow="1340" windowWidth="22280" windowHeight="15440" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R53" sqref="R53"/>
+      <selection pane="bottomRight" activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4273,27 +4273,27 @@
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" ref="M47:M50" si="83">M46+B47</f>
+        <f t="shared" ref="M47:M51" si="83">M46+B47</f>
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N50" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N51" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O50" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O51" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P50" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P51" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q50" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q51" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R50" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R51" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -4590,6 +4590,63 @@
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>45523</v>
+      </c>
+      <c r="B51">
+        <v>113035</v>
+      </c>
+      <c r="C51">
+        <v>4941</v>
+      </c>
+      <c r="D51">
+        <v>19</v>
+      </c>
+      <c r="E51">
+        <v>14811</v>
+      </c>
+      <c r="F51">
+        <v>35</v>
+      </c>
+      <c r="G51">
+        <v>43</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>19</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="83"/>
+        <v>1415308</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="85"/>
+        <v>113054</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="86"/>
+        <v>1415687</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="87"/>
+        <v>4941</v>
+      </c>
+      <c r="R51" s="1">
+        <f t="shared" si="88"/>
+        <v>77244</v>
       </c>
       <c r="S51" s="1">
         <v>63291</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7B59CA-6DEB-714B-9288-8CF7F5B9CBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6277BD-6293-7643-A693-28086FBA50A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="1340" windowWidth="22280" windowHeight="15440" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="12540" yWindow="500" windowWidth="22280" windowHeight="15440" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S51" sqref="S51"/>
+      <selection pane="bottomRight" activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4273,27 +4273,27 @@
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" ref="M47:M51" si="83">M46+B47</f>
+        <f t="shared" ref="M47:M52" si="83">M46+B47</f>
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N51" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N52" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O51" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O52" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P51" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P52" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q51" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q52" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R51" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R52" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -4678,6 +4678,63 @@
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>45524</v>
+      </c>
+      <c r="B52">
+        <v>80112</v>
+      </c>
+      <c r="C52">
+        <v>2870</v>
+      </c>
+      <c r="D52">
+        <v>42</v>
+      </c>
+      <c r="E52">
+        <v>9730</v>
+      </c>
+      <c r="F52">
+        <v>32</v>
+      </c>
+      <c r="G52">
+        <v>37</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>8</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="83"/>
+        <v>1495420</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="2">
+        <f t="shared" si="85"/>
+        <v>80120</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="86"/>
+        <v>1495807</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" si="87"/>
+        <v>2870</v>
+      </c>
+      <c r="R52" s="1">
+        <f t="shared" si="88"/>
+        <v>80114</v>
       </c>
       <c r="S52" s="1">
         <v>36599</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6277BD-6293-7643-A693-28086FBA50A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406C9525-4444-1347-8D7E-37E72D3C234E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="500" windowWidth="22280" windowHeight="15440" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="5040" yWindow="4920" windowWidth="22280" windowHeight="15440" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P55" sqref="P55"/>
+      <selection pane="bottomRight" activeCell="S53" sqref="S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4273,27 +4273,27 @@
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" ref="M47:M52" si="83">M46+B47</f>
+        <f t="shared" ref="M47:M53" si="83">M46+B47</f>
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N52" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N53" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O52" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O54" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P52" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P53" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q52" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q53" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R52" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R53" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -4766,6 +4766,63 @@
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>45525</v>
+      </c>
+      <c r="B53">
+        <v>67942</v>
+      </c>
+      <c r="C53">
+        <v>3436</v>
+      </c>
+      <c r="D53">
+        <v>69</v>
+      </c>
+      <c r="E53">
+        <v>8337</v>
+      </c>
+      <c r="F53">
+        <v>43</v>
+      </c>
+      <c r="G53">
+        <v>62</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" si="83"/>
+        <v>1563362</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
+        <f t="shared" si="85"/>
+        <v>67942</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="86"/>
+        <v>1563749</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" si="87"/>
+        <v>3436</v>
+      </c>
+      <c r="R53" s="1">
+        <f t="shared" si="88"/>
+        <v>83550</v>
       </c>
       <c r="S53" s="1">
         <v>59969</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406C9525-4444-1347-8D7E-37E72D3C234E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CBD6EF-1C42-584F-BDB4-9779C1FC621C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="4920" windowWidth="22280" windowHeight="15440" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="4500" yWindow="500" windowWidth="22280" windowHeight="15440" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S53" sqref="S53"/>
+      <selection pane="bottomRight" activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4273,11 +4273,11 @@
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" ref="M47:M53" si="83">M46+B47</f>
+        <f t="shared" ref="M47:M54" si="83">M46+B47</f>
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N53" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N54" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
@@ -4285,15 +4285,15 @@
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P53" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P54" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q53" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q54" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R53" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R54" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -4854,6 +4854,63 @@
     <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>45526</v>
+      </c>
+      <c r="B54">
+        <v>70675</v>
+      </c>
+      <c r="C54">
+        <v>4351</v>
+      </c>
+      <c r="D54">
+        <v>58</v>
+      </c>
+      <c r="E54">
+        <v>8147</v>
+      </c>
+      <c r="F54">
+        <v>31</v>
+      </c>
+      <c r="G54">
+        <v>69</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>8</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" si="83"/>
+        <v>1634037</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="2">
+        <f t="shared" si="85"/>
+        <v>70683</v>
+      </c>
+      <c r="P54" s="1">
+        <f t="shared" si="86"/>
+        <v>1634432</v>
+      </c>
+      <c r="Q54" s="1">
+        <f t="shared" si="87"/>
+        <v>4351</v>
+      </c>
+      <c r="R54" s="1">
+        <f t="shared" si="88"/>
+        <v>87901</v>
       </c>
       <c r="S54" s="1">
         <v>28052</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CBD6EF-1C42-584F-BDB4-9779C1FC621C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E34DF6-A066-F243-8127-DEDFEFEC1B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="500" windowWidth="22280" windowHeight="15440" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="15700" yWindow="500" windowWidth="22280" windowHeight="15440" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R58" sqref="R58"/>
+      <selection pane="bottomRight" activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4273,27 +4273,27 @@
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" ref="M47:M54" si="83">M46+B47</f>
+        <f t="shared" ref="M47:M57" si="83">M46+B47</f>
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N54" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N57" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O54" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O57" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P54" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P57" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q54" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q57" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R54" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R57" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -4943,6 +4943,63 @@
       <c r="A55" s="3">
         <v>45527</v>
       </c>
+      <c r="B55">
+        <v>50823</v>
+      </c>
+      <c r="C55">
+        <v>3349</v>
+      </c>
+      <c r="D55">
+        <v>32</v>
+      </c>
+      <c r="E55">
+        <v>8256</v>
+      </c>
+      <c r="F55">
+        <v>14</v>
+      </c>
+      <c r="G55">
+        <v>25</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1505</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" si="83"/>
+        <v>1684860</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" si="84"/>
+        <v>1505</v>
+      </c>
+      <c r="O55" s="2">
+        <f t="shared" si="85"/>
+        <v>52328</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" si="86"/>
+        <v>1686760</v>
+      </c>
+      <c r="Q55" s="1">
+        <f t="shared" si="87"/>
+        <v>3349</v>
+      </c>
+      <c r="R55" s="1">
+        <f t="shared" si="88"/>
+        <v>91250</v>
+      </c>
       <c r="S55" s="1">
         <v>75164</v>
       </c>
@@ -4974,6 +5031,63 @@
       <c r="A56" s="3">
         <v>45528</v>
       </c>
+      <c r="B56">
+        <v>44597</v>
+      </c>
+      <c r="C56">
+        <v>3010</v>
+      </c>
+      <c r="D56">
+        <v>61</v>
+      </c>
+      <c r="E56">
+        <v>6182</v>
+      </c>
+      <c r="F56">
+        <v>9</v>
+      </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>1029</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" si="83"/>
+        <v>1729457</v>
+      </c>
+      <c r="N56" s="1">
+        <f t="shared" si="84"/>
+        <v>1029</v>
+      </c>
+      <c r="O56" s="2">
+        <f t="shared" si="85"/>
+        <v>45628</v>
+      </c>
+      <c r="P56" s="1">
+        <f t="shared" si="86"/>
+        <v>1732388</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" si="87"/>
+        <v>3010</v>
+      </c>
+      <c r="R56" s="1">
+        <f t="shared" si="88"/>
+        <v>94260</v>
+      </c>
       <c r="S56" s="1">
         <v>92560</v>
       </c>
@@ -5004,6 +5118,63 @@
     <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>45529</v>
+      </c>
+      <c r="B57">
+        <v>40980</v>
+      </c>
+      <c r="C57">
+        <v>3462</v>
+      </c>
+      <c r="D57">
+        <v>110</v>
+      </c>
+      <c r="E57">
+        <v>6305</v>
+      </c>
+      <c r="F57">
+        <v>22</v>
+      </c>
+      <c r="G57">
+        <v>34</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1354</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <f t="shared" si="83"/>
+        <v>1770437</v>
+      </c>
+      <c r="N57" s="1">
+        <f t="shared" si="84"/>
+        <v>1354</v>
+      </c>
+      <c r="O57" s="2">
+        <f t="shared" si="85"/>
+        <v>42335</v>
+      </c>
+      <c r="P57" s="1">
+        <f t="shared" si="86"/>
+        <v>1774723</v>
+      </c>
+      <c r="Q57" s="1">
+        <f t="shared" si="87"/>
+        <v>3462</v>
+      </c>
+      <c r="R57" s="1">
+        <f t="shared" si="88"/>
+        <v>97722</v>
       </c>
       <c r="S57" s="1">
         <v>70620</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E34DF6-A066-F243-8127-DEDFEFEC1B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2372C8FD-69BC-C346-9109-0418345EFE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15700" yWindow="500" windowWidth="22280" windowHeight="15440" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="8220" yWindow="500" windowWidth="22280" windowHeight="15440" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S52" sqref="S52"/>
+      <selection pane="bottomRight" activeCell="R62" sqref="R62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4273,27 +4273,27 @@
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" ref="M47:M57" si="83">M46+B47</f>
+        <f t="shared" ref="M47:M58" si="83">M46+B47</f>
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N57" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N58" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O57" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O58" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P57" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P58" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q57" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q58" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R57" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R58" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -5206,6 +5206,63 @@
     <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>45530</v>
+      </c>
+      <c r="B58">
+        <v>41981</v>
+      </c>
+      <c r="C58">
+        <v>3441</v>
+      </c>
+      <c r="D58">
+        <v>94</v>
+      </c>
+      <c r="E58">
+        <v>5821</v>
+      </c>
+      <c r="F58">
+        <v>17</v>
+      </c>
+      <c r="G58">
+        <v>48</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>637</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1">
+        <f t="shared" si="83"/>
+        <v>1812418</v>
+      </c>
+      <c r="N58" s="1">
+        <f t="shared" si="84"/>
+        <v>637</v>
+      </c>
+      <c r="O58" s="2">
+        <f t="shared" si="85"/>
+        <v>42618</v>
+      </c>
+      <c r="P58" s="1">
+        <f t="shared" si="86"/>
+        <v>1817341</v>
+      </c>
+      <c r="Q58" s="1">
+        <f t="shared" si="87"/>
+        <v>3441</v>
+      </c>
+      <c r="R58" s="1">
+        <f t="shared" si="88"/>
+        <v>101163</v>
       </c>
       <c r="S58" s="1">
         <v>56160</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2372C8FD-69BC-C346-9109-0418345EFE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8704DC6F-ACCB-0D49-B6A2-346EA8142747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="500" windowWidth="22280" windowHeight="15440" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="6520" yWindow="500" windowWidth="22280" windowHeight="15440" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R62" sqref="R62"/>
+      <selection pane="bottomRight" activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4273,27 +4273,27 @@
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" ref="M47:M58" si="83">M46+B47</f>
+        <f t="shared" ref="M47:M59" si="83">M46+B47</f>
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N58" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N59" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O58" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O59" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P58" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P59" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q58" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q59" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R58" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R59" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -5294,6 +5294,63 @@
     <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>45531</v>
+      </c>
+      <c r="B59">
+        <v>19710</v>
+      </c>
+      <c r="C59">
+        <v>1661</v>
+      </c>
+      <c r="D59">
+        <v>50</v>
+      </c>
+      <c r="E59">
+        <v>2990</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <v>16</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1">
+        <f t="shared" si="83"/>
+        <v>1832128</v>
+      </c>
+      <c r="N59" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="2">
+        <f t="shared" si="85"/>
+        <v>19712</v>
+      </c>
+      <c r="P59" s="1">
+        <f t="shared" si="86"/>
+        <v>1837053</v>
+      </c>
+      <c r="Q59" s="1">
+        <f t="shared" si="87"/>
+        <v>1661</v>
+      </c>
+      <c r="R59" s="1">
+        <f t="shared" si="88"/>
+        <v>102824</v>
       </c>
       <c r="S59" s="1">
         <v>43271</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8704DC6F-ACCB-0D49-B6A2-346EA8142747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F48C034-81EB-1D45-A7E6-4427259635BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="500" windowWidth="22280" windowHeight="15440" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="6520" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q62" sqref="Q62"/>
+      <selection pane="bottomRight" activeCell="P60" sqref="P60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4273,27 +4273,27 @@
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" ref="M47:M59" si="83">M46+B47</f>
+        <f t="shared" ref="M47:M58" si="83">M46+B47</f>
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N59" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N60" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O59" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O60" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P59" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P60" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q59" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q60" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R59" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R60" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="83"/>
+        <f>M58+B59</f>
         <v>1832128</v>
       </c>
       <c r="N59" s="1">
@@ -5382,6 +5382,63 @@
     <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>45532</v>
+      </c>
+      <c r="B60">
+        <v>27047</v>
+      </c>
+      <c r="C60">
+        <v>2845</v>
+      </c>
+      <c r="D60">
+        <v>54</v>
+      </c>
+      <c r="E60">
+        <v>3416</v>
+      </c>
+      <c r="F60">
+        <v>14</v>
+      </c>
+      <c r="G60">
+        <v>21</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>456</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <f>M59+B60</f>
+        <v>1859175</v>
+      </c>
+      <c r="N60" s="1">
+        <f t="shared" si="84"/>
+        <v>456</v>
+      </c>
+      <c r="O60" s="2">
+        <f t="shared" si="85"/>
+        <v>27503</v>
+      </c>
+      <c r="P60" s="1">
+        <f t="shared" si="86"/>
+        <v>1864556</v>
+      </c>
+      <c r="Q60" s="1">
+        <f t="shared" si="87"/>
+        <v>2845</v>
+      </c>
+      <c r="R60" s="1">
+        <f t="shared" si="88"/>
+        <v>105669</v>
       </c>
       <c r="S60" s="1">
         <v>54185</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F48C034-81EB-1D45-A7E6-4427259635BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEB1AAD-992A-EB48-BB90-45AE00EB38CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6520" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P60" sqref="P60"/>
+      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4277,23 +4277,23 @@
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N60" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N61" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O60" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O61" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P60" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P61" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q60" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q61" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R60" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R61" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -5470,6 +5470,63 @@
     <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>45533</v>
+      </c>
+      <c r="B61">
+        <v>21451</v>
+      </c>
+      <c r="C61">
+        <v>2597</v>
+      </c>
+      <c r="D61">
+        <v>107</v>
+      </c>
+      <c r="E61">
+        <v>4500</v>
+      </c>
+      <c r="F61">
+        <v>24</v>
+      </c>
+      <c r="G61">
+        <v>23</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1">
+        <f>M60+B61</f>
+        <v>1880626</v>
+      </c>
+      <c r="N61" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="2">
+        <f t="shared" si="85"/>
+        <v>21451</v>
+      </c>
+      <c r="P61" s="1">
+        <f t="shared" si="86"/>
+        <v>1886007</v>
+      </c>
+      <c r="Q61" s="1">
+        <f t="shared" si="87"/>
+        <v>2597</v>
+      </c>
+      <c r="R61" s="1">
+        <f t="shared" si="88"/>
+        <v>108266</v>
       </c>
       <c r="S61" s="1">
         <v>48129</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEB1AAD-992A-EB48-BB90-45AE00EB38CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A98B53-6868-D342-889F-E7091C6B5D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6520" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomRight" activeCell="R64" sqref="R64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4277,23 +4277,23 @@
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N61" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N62" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O61" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O62" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P61" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P62" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q61" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q62" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R61" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R62" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -5558,6 +5558,63 @@
     <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>45534</v>
+      </c>
+      <c r="B62">
+        <v>15472</v>
+      </c>
+      <c r="C62">
+        <v>2212</v>
+      </c>
+      <c r="D62">
+        <v>118</v>
+      </c>
+      <c r="E62">
+        <v>4092</v>
+      </c>
+      <c r="F62">
+        <v>9</v>
+      </c>
+      <c r="G62">
+        <v>19</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>15</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1">
+        <f>M61+B62</f>
+        <v>1896098</v>
+      </c>
+      <c r="N62" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="2">
+        <f t="shared" si="85"/>
+        <v>15487</v>
+      </c>
+      <c r="P62" s="1">
+        <f t="shared" si="86"/>
+        <v>1901494</v>
+      </c>
+      <c r="Q62" s="1">
+        <f t="shared" si="87"/>
+        <v>2212</v>
+      </c>
+      <c r="R62" s="1">
+        <f t="shared" si="88"/>
+        <v>110478</v>
       </c>
       <c r="S62" s="1">
         <v>36388</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A98B53-6868-D342-889F-E7091C6B5D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C4F96F-62FD-CC4B-9CD6-80C00551C181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6520" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R64" sqref="R64"/>
+      <selection pane="bottomRight" activeCell="Q67" sqref="Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4277,23 +4277,23 @@
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N62" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N63" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O62" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O63" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P62" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P63" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q62" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q63" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R62" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R63" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -5646,6 +5646,63 @@
     <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>45535</v>
+      </c>
+      <c r="B63">
+        <v>14987</v>
+      </c>
+      <c r="C63">
+        <v>2437</v>
+      </c>
+      <c r="D63">
+        <v>130</v>
+      </c>
+      <c r="E63">
+        <v>5639</v>
+      </c>
+      <c r="F63">
+        <v>9</v>
+      </c>
+      <c r="G63">
+        <v>14</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1">
+        <f>M62+B63</f>
+        <v>1911085</v>
+      </c>
+      <c r="N63" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="2">
+        <f t="shared" si="85"/>
+        <v>14989</v>
+      </c>
+      <c r="P63" s="1">
+        <f t="shared" si="86"/>
+        <v>1916483</v>
+      </c>
+      <c r="Q63" s="1">
+        <f t="shared" si="87"/>
+        <v>2437</v>
+      </c>
+      <c r="R63" s="1">
+        <f t="shared" si="88"/>
+        <v>112915</v>
       </c>
       <c r="S63" s="1">
         <v>32306</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C4F96F-62FD-CC4B-9CD6-80C00551C181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66F109A-820A-4647-8504-52902EC53ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6520" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q67" sqref="Q67"/>
+      <selection pane="bottomRight" activeCell="Q64" sqref="Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4277,23 +4277,23 @@
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N63" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N65" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O63" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O65" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P63" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P65" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q63" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q65" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R63" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R65" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -5510,15 +5510,15 @@
       </c>
       <c r="N61" s="1">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="85"/>
-        <v>21451</v>
+        <v>21649</v>
       </c>
       <c r="P61" s="1">
         <f t="shared" si="86"/>
-        <v>1886007</v>
+        <v>1886205</v>
       </c>
       <c r="Q61" s="1">
         <f t="shared" si="87"/>
@@ -5584,7 +5584,7 @@
         <v>15</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -5598,15 +5598,15 @@
       </c>
       <c r="N62" s="1">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="85"/>
-        <v>15487</v>
+        <v>15744</v>
       </c>
       <c r="P62" s="1">
         <f t="shared" si="86"/>
-        <v>1901494</v>
+        <v>1901949</v>
       </c>
       <c r="Q62" s="1">
         <f t="shared" si="87"/>
@@ -5694,7 +5694,7 @@
       </c>
       <c r="P63" s="1">
         <f t="shared" si="86"/>
-        <v>1916483</v>
+        <v>1916938</v>
       </c>
       <c r="Q63" s="1">
         <f t="shared" si="87"/>
@@ -5735,6 +5735,63 @@
       <c r="A64" s="3">
         <v>45536</v>
       </c>
+      <c r="B64">
+        <v>11684</v>
+      </c>
+      <c r="C64">
+        <v>1906</v>
+      </c>
+      <c r="D64">
+        <v>136</v>
+      </c>
+      <c r="E64">
+        <v>4619</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64">
+        <v>13</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>546</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1">
+        <f t="shared" ref="M64:M65" si="90">M63+B64</f>
+        <v>1922769</v>
+      </c>
+      <c r="N64" s="1">
+        <f t="shared" si="84"/>
+        <v>546</v>
+      </c>
+      <c r="O64" s="2">
+        <f t="shared" si="85"/>
+        <v>12230</v>
+      </c>
+      <c r="P64" s="1">
+        <f t="shared" si="86"/>
+        <v>1929168</v>
+      </c>
+      <c r="Q64" s="1">
+        <f t="shared" si="87"/>
+        <v>1906</v>
+      </c>
+      <c r="R64" s="1">
+        <f t="shared" si="88"/>
+        <v>114821</v>
+      </c>
       <c r="S64" s="1">
         <v>32832</v>
       </c>
@@ -5766,6 +5823,63 @@
       <c r="A65" s="3">
         <v>45537</v>
       </c>
+      <c r="B65">
+        <v>7011</v>
+      </c>
+      <c r="C65">
+        <v>1337</v>
+      </c>
+      <c r="D65">
+        <v>112</v>
+      </c>
+      <c r="E65">
+        <v>3549</v>
+      </c>
+      <c r="F65">
+        <v>13</v>
+      </c>
+      <c r="G65">
+        <v>27</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>990</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65" s="1">
+        <f t="shared" si="90"/>
+        <v>1929780</v>
+      </c>
+      <c r="N65" s="1">
+        <f t="shared" si="84"/>
+        <v>990</v>
+      </c>
+      <c r="O65" s="2">
+        <f t="shared" si="85"/>
+        <v>8001</v>
+      </c>
+      <c r="P65" s="1">
+        <f t="shared" si="86"/>
+        <v>1937169</v>
+      </c>
+      <c r="Q65" s="1">
+        <f t="shared" si="87"/>
+        <v>1337</v>
+      </c>
+      <c r="R65" s="1">
+        <f t="shared" si="88"/>
+        <v>116158</v>
+      </c>
       <c r="S65" s="1">
         <v>24747</v>
       </c>
@@ -5866,11 +5980,11 @@
         <v>14679.636363636364</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" ref="U68:V83" si="90">U67+S68</f>
+        <f t="shared" ref="U68:V83" si="91">U67+S68</f>
         <v>1846521</v>
       </c>
       <c r="V68" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>943359.48531746014</v>
       </c>
       <c r="W68" s="1">
@@ -5897,11 +6011,11 @@
         <v>15690.818181818182</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1878833</v>
       </c>
       <c r="V69" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>959050.30349927838</v>
       </c>
       <c r="W69" s="1">
@@ -5928,11 +6042,11 @@
         <v>14967.545454545454</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1901010</v>
       </c>
       <c r="V70" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>974017.84895382379</v>
       </c>
       <c r="W70" s="1">
@@ -5959,11 +6073,11 @@
         <v>14546.818181818182</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1914981</v>
       </c>
       <c r="V71" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>988564.66713564203</v>
       </c>
       <c r="W71" s="1">
@@ -5990,11 +6104,11 @@
         <v>13876.272727272728</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1928616</v>
       </c>
       <c r="V72" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1002440.9398629147</v>
       </c>
       <c r="W72" s="1">
@@ -6021,11 +6135,11 @@
         <v>12522.363636363636</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1938412</v>
       </c>
       <c r="V73" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1014963.3034992784</v>
       </c>
       <c r="W73" s="1">
@@ -6052,11 +6166,11 @@
         <v>12105.636363636364</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1946010</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1027068.9398629147</v>
       </c>
       <c r="W74" s="1">
@@ -6083,11 +6197,11 @@
         <v>11272.545454545454</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1953188</v>
       </c>
       <c r="V75" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1038341.4853174601</v>
       </c>
       <c r="W75" s="1">
@@ -6114,11 +6228,11 @@
         <v>9771.0909090909099</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1962346</v>
       </c>
       <c r="V76" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1048112.5762265511</v>
       </c>
       <c r="W76" s="1">
@@ -6145,11 +6259,11 @@
         <v>7589.909090909091</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1973666</v>
       </c>
       <c r="V77" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1055702.4853174603</v>
       </c>
       <c r="W77" s="1">
@@ -6176,11 +6290,11 @@
         <v>8318.545454545454</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1981697</v>
       </c>
       <c r="V78" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1064021.0307720057</v>
       </c>
       <c r="W78" s="1">
@@ -6207,11 +6321,11 @@
         <v>7405.727272727273</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1991144</v>
       </c>
       <c r="V79" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1071426.758044733</v>
       </c>
       <c r="W79" s="1">
@@ -6238,11 +6352,11 @@
         <v>7004.181818181818</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2001289</v>
       </c>
       <c r="V80" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1078430.9398629148</v>
       </c>
       <c r="W80" s="1">
@@ -6269,11 +6383,11 @@
         <v>6677.818181818182</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2013289</v>
       </c>
       <c r="V81" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1085108.758044733</v>
       </c>
       <c r="W81" s="1">
@@ -6300,11 +6414,11 @@
         <v>6140.454545454545</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2026172</v>
       </c>
       <c r="V82" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1091249.2125901876</v>
       </c>
       <c r="W82" s="1">
@@ -6331,11 +6445,11 @@
         <v>6411.4</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2032538</v>
       </c>
       <c r="V83" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1097660.6125901875</v>
       </c>
       <c r="W83" s="1">
@@ -6362,11 +6476,11 @@
         <v>6189.6</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" ref="U84:V99" si="91">U83+S84</f>
+        <f t="shared" ref="U84:V99" si="92">U83+S84</f>
         <v>2036693</v>
       </c>
       <c r="V84" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1103850.2125901876</v>
       </c>
       <c r="W84" s="1">
@@ -6393,11 +6507,11 @@
         <v>4314.3999999999996</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2039343</v>
       </c>
       <c r="V85" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1108164.6125901875</v>
       </c>
       <c r="W85" s="1">
@@ -6424,11 +6538,11 @@
         <v>3802.6</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2043072</v>
       </c>
       <c r="V86" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1111967.2125901876</v>
       </c>
       <c r="W86" s="1">
@@ -6455,11 +6569,11 @@
         <v>3261.3333333333335</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2045727</v>
       </c>
       <c r="V87" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1115228.5459235208</v>
       </c>
       <c r="W87" s="1">
@@ -6486,11 +6600,11 @@
         <v>2728.4444444444443</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2047725</v>
       </c>
       <c r="V88" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1117956.9903679653</v>
       </c>
       <c r="W88" s="1">
@@ -6517,11 +6631,11 @@
         <v>2059.7777777777778</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2049017</v>
       </c>
       <c r="V89" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1120016.7681457431</v>
       </c>
       <c r="W89" s="1">
@@ -6548,11 +6662,11 @@
         <v>1764.2222222222222</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2049846</v>
       </c>
       <c r="V90" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1121780.9903679653</v>
       </c>
       <c r="W90" s="1">
@@ -6579,11 +6693,11 @@
         <v>1664.125</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2051014</v>
       </c>
       <c r="V91" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1123445.1153679653</v>
       </c>
       <c r="W91" s="1">
@@ -6610,11 +6724,11 @@
         <v>1687.375</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2051949</v>
       </c>
       <c r="V92" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1125132.4903679653</v>
       </c>
       <c r="W92" s="1">
@@ -6641,11 +6755,11 @@
         <v>868.83333333333337</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2052845</v>
       </c>
       <c r="V93" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1126001.3237012986</v>
       </c>
       <c r="W93" s="1">
@@ -6669,11 +6783,11 @@
         <v>707.66666666666663</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2052845</v>
       </c>
       <c r="V94" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1126708.9903679653</v>
       </c>
       <c r="W94" s="1">
@@ -6697,11 +6811,11 @@
         <v>440</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2052845</v>
       </c>
       <c r="V95" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1127148.9903679653</v>
       </c>
       <c r="W95" s="1">
@@ -6725,11 +6839,11 @@
         <v>720.66666666666663</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2052845</v>
       </c>
       <c r="V96" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1127869.6570346321</v>
       </c>
       <c r="W96" s="1">
@@ -6753,11 +6867,11 @@
         <v>238</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2052845</v>
       </c>
       <c r="V97" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1128107.6570346321</v>
       </c>
       <c r="W97" s="1">
@@ -6781,11 +6895,11 @@
         <v>323</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2052845</v>
       </c>
       <c r="V98" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1128430.6570346321</v>
       </c>
       <c r="W98" s="1">
@@ -6809,11 +6923,11 @@
         <v>250</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2052845</v>
       </c>
       <c r="V99" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W99" s="1">
@@ -6834,11 +6948,11 @@
         <v>45572</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" ref="U100:V108" si="92">U99+S100</f>
+        <f t="shared" ref="U100:V108" si="93">U99+S100</f>
         <v>2052845</v>
       </c>
       <c r="V100" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W100" s="1">
@@ -6859,11 +6973,11 @@
         <v>45573</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2052845</v>
       </c>
       <c r="V101" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W101" s="1">
@@ -6878,11 +6992,11 @@
         <v>45574</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2052845</v>
       </c>
       <c r="V102" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W102" s="1">
@@ -6897,11 +7011,11 @@
         <v>45575</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2052845</v>
       </c>
       <c r="V103" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W103" s="1">
@@ -6916,11 +7030,11 @@
         <v>45576</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2052845</v>
       </c>
       <c r="V104" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W104" s="1">
@@ -6935,11 +7049,11 @@
         <v>45577</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2052845</v>
       </c>
       <c r="V105" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W105" s="1">
@@ -6954,11 +7068,11 @@
         <v>45578</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2052845</v>
       </c>
       <c r="V106" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W106" s="1">
@@ -6973,11 +7087,11 @@
         <v>45579</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2052845</v>
       </c>
       <c r="V107" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W107" s="1">
@@ -6992,11 +7106,11 @@
         <v>45580</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2052845</v>
       </c>
       <c r="V108" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W108" s="1">

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66F109A-820A-4647-8504-52902EC53ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7D2314-0814-FA47-8ADF-F0C5602C26E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6520" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q64" sqref="Q64"/>
+      <selection pane="bottomRight" activeCell="T64" sqref="T64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4277,23 +4277,23 @@
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N65" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N66" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O65" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O66" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P65" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P66" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q65" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q66" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R65" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R66" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" ref="M64:M65" si="90">M63+B64</f>
+        <f t="shared" ref="M64:M66" si="90">M63+B64</f>
         <v>1922769</v>
       </c>
       <c r="N64" s="1">
@@ -5910,6 +5910,63 @@
     <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>45538</v>
+      </c>
+      <c r="B66">
+        <v>7512</v>
+      </c>
+      <c r="C66">
+        <v>1319</v>
+      </c>
+      <c r="D66">
+        <v>131</v>
+      </c>
+      <c r="E66">
+        <v>2943</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <v>12</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>730</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66" s="1">
+        <f t="shared" si="90"/>
+        <v>1937292</v>
+      </c>
+      <c r="N66" s="1">
+        <f t="shared" si="84"/>
+        <v>730</v>
+      </c>
+      <c r="O66" s="2">
+        <f t="shared" si="85"/>
+        <v>8242</v>
+      </c>
+      <c r="P66" s="1">
+        <f t="shared" si="86"/>
+        <v>1945411</v>
+      </c>
+      <c r="Q66" s="1">
+        <f t="shared" si="87"/>
+        <v>1319</v>
+      </c>
+      <c r="R66" s="1">
+        <f t="shared" si="88"/>
+        <v>117477</v>
       </c>
       <c r="S66" s="1">
         <v>26054</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7D2314-0814-FA47-8ADF-F0C5602C26E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C32FF7-FDFF-3647-8C71-45CD72D56836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6520" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T64" sqref="T64"/>
+      <selection pane="bottomRight" activeCell="R74" sqref="R74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4277,23 +4277,23 @@
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N66" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N68" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O66" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O68" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P66" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P68" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q66" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q68" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R66" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R68" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" ref="M64:M66" si="90">M63+B64</f>
+        <f t="shared" ref="M64:M68" si="90">M63+B64</f>
         <v>1922769</v>
       </c>
       <c r="N64" s="1">
@@ -5999,6 +5999,63 @@
       <c r="A67" s="3">
         <v>45539</v>
       </c>
+      <c r="B67">
+        <v>10374</v>
+      </c>
+      <c r="C67">
+        <v>2279</v>
+      </c>
+      <c r="D67">
+        <v>148</v>
+      </c>
+      <c r="E67">
+        <v>4043</v>
+      </c>
+      <c r="F67">
+        <v>15</v>
+      </c>
+      <c r="G67">
+        <v>20</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>545</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1">
+        <f t="shared" si="90"/>
+        <v>1947666</v>
+      </c>
+      <c r="N67" s="1">
+        <f t="shared" si="84"/>
+        <v>545</v>
+      </c>
+      <c r="O67" s="2">
+        <f t="shared" si="85"/>
+        <v>10919</v>
+      </c>
+      <c r="P67" s="1">
+        <f t="shared" si="86"/>
+        <v>1956330</v>
+      </c>
+      <c r="Q67" s="1">
+        <f t="shared" si="87"/>
+        <v>2279</v>
+      </c>
+      <c r="R67" s="1">
+        <f t="shared" si="88"/>
+        <v>119756</v>
+      </c>
       <c r="S67" s="1">
         <v>21196</v>
       </c>
@@ -6029,6 +6086,63 @@
     <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>45540</v>
+      </c>
+      <c r="B68">
+        <v>7134</v>
+      </c>
+      <c r="C68">
+        <v>1414</v>
+      </c>
+      <c r="D68">
+        <v>140</v>
+      </c>
+      <c r="E68">
+        <v>5277</v>
+      </c>
+      <c r="F68">
+        <v>14</v>
+      </c>
+      <c r="G68">
+        <v>35</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>466</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68" s="1">
+        <f t="shared" si="90"/>
+        <v>1954800</v>
+      </c>
+      <c r="N68" s="1">
+        <f t="shared" si="84"/>
+        <v>466</v>
+      </c>
+      <c r="O68" s="2">
+        <f t="shared" si="85"/>
+        <v>7600</v>
+      </c>
+      <c r="P68" s="1">
+        <f t="shared" si="86"/>
+        <v>1963930</v>
+      </c>
+      <c r="Q68" s="1">
+        <f t="shared" si="87"/>
+        <v>1414</v>
+      </c>
+      <c r="R68" s="1">
+        <f t="shared" si="88"/>
+        <v>121170</v>
       </c>
       <c r="S68" s="1">
         <v>30405</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C32FF7-FDFF-3647-8C71-45CD72D56836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFAC589-3514-3446-94E9-D0FFCA58986E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6520" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R74" sqref="R74"/>
+      <selection pane="bottomRight" activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4277,23 +4277,23 @@
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N68" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N71" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O68" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O71" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P68" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P71" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q68" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q71" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R68" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R71" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" ref="M64:M68" si="90">M63+B64</f>
+        <f t="shared" ref="M64:M71" si="90">M63+B64</f>
         <v>1922769</v>
       </c>
       <c r="N64" s="1">
@@ -6175,6 +6175,63 @@
       <c r="A69" s="3">
         <v>45541</v>
       </c>
+      <c r="B69">
+        <v>6407</v>
+      </c>
+      <c r="C69">
+        <v>1237</v>
+      </c>
+      <c r="D69">
+        <v>137</v>
+      </c>
+      <c r="E69">
+        <v>8048</v>
+      </c>
+      <c r="F69">
+        <v>40</v>
+      </c>
+      <c r="G69">
+        <v>32</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1">
+        <f t="shared" si="90"/>
+        <v>1961207</v>
+      </c>
+      <c r="N69" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="2">
+        <f t="shared" si="85"/>
+        <v>6407</v>
+      </c>
+      <c r="P69" s="1">
+        <f t="shared" si="86"/>
+        <v>1970337</v>
+      </c>
+      <c r="Q69" s="1">
+        <f t="shared" si="87"/>
+        <v>1237</v>
+      </c>
+      <c r="R69" s="1">
+        <f t="shared" si="88"/>
+        <v>122407</v>
+      </c>
       <c r="S69" s="1">
         <v>32312</v>
       </c>
@@ -6206,6 +6263,63 @@
       <c r="A70" s="3">
         <v>45542</v>
       </c>
+      <c r="B70">
+        <v>5199</v>
+      </c>
+      <c r="C70">
+        <v>978</v>
+      </c>
+      <c r="D70">
+        <v>179</v>
+      </c>
+      <c r="E70">
+        <v>8380</v>
+      </c>
+      <c r="F70">
+        <v>22</v>
+      </c>
+      <c r="G70">
+        <v>20</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1">
+        <f t="shared" si="90"/>
+        <v>1966406</v>
+      </c>
+      <c r="N70" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="2">
+        <f t="shared" si="85"/>
+        <v>5199</v>
+      </c>
+      <c r="P70" s="1">
+        <f t="shared" si="86"/>
+        <v>1975536</v>
+      </c>
+      <c r="Q70" s="1">
+        <f t="shared" si="87"/>
+        <v>978</v>
+      </c>
+      <c r="R70" s="1">
+        <f t="shared" si="88"/>
+        <v>123385</v>
+      </c>
       <c r="S70" s="1">
         <v>22177</v>
       </c>
@@ -6236,6 +6350,63 @@
     <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>45543</v>
+      </c>
+      <c r="B71">
+        <v>3399</v>
+      </c>
+      <c r="C71">
+        <v>412</v>
+      </c>
+      <c r="D71">
+        <v>108</v>
+      </c>
+      <c r="E71">
+        <v>4524</v>
+      </c>
+      <c r="F71">
+        <v>14</v>
+      </c>
+      <c r="G71">
+        <v>21</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1">
+        <f t="shared" si="90"/>
+        <v>1969805</v>
+      </c>
+      <c r="N71" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="2">
+        <f t="shared" si="85"/>
+        <v>3399</v>
+      </c>
+      <c r="P71" s="1">
+        <f t="shared" si="86"/>
+        <v>1978935</v>
+      </c>
+      <c r="Q71" s="1">
+        <f t="shared" si="87"/>
+        <v>412</v>
+      </c>
+      <c r="R71" s="1">
+        <f t="shared" si="88"/>
+        <v>123797</v>
       </c>
       <c r="S71" s="1">
         <v>13971</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFAC589-3514-3446-94E9-D0FFCA58986E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60E3AC8-69DB-024C-8CFB-7C0C834315F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="10300" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q75" sqref="Q75"/>
+      <selection pane="bottomRight" activeCell="Q70" sqref="Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4277,23 +4277,23 @@
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N71" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N73" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O71" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O73" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P71" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P73" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q71" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q73" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R71" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R73" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" ref="M64:M71" si="90">M63+B64</f>
+        <f t="shared" ref="M64:M73" si="90">M63+B64</f>
         <v>1922769</v>
       </c>
       <c r="N64" s="1">
@@ -6439,6 +6439,63 @@
       <c r="A72" s="3">
         <v>45544</v>
       </c>
+      <c r="B72">
+        <v>5248</v>
+      </c>
+      <c r="C72">
+        <v>450</v>
+      </c>
+      <c r="D72">
+        <v>260</v>
+      </c>
+      <c r="E72">
+        <v>6580</v>
+      </c>
+      <c r="F72">
+        <v>78</v>
+      </c>
+      <c r="G72">
+        <v>39</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" s="1">
+        <f t="shared" si="90"/>
+        <v>1975053</v>
+      </c>
+      <c r="N72" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="2">
+        <f t="shared" si="85"/>
+        <v>5248</v>
+      </c>
+      <c r="P72" s="1">
+        <f t="shared" si="86"/>
+        <v>1984183</v>
+      </c>
+      <c r="Q72" s="1">
+        <f t="shared" si="87"/>
+        <v>450</v>
+      </c>
+      <c r="R72" s="1">
+        <f t="shared" si="88"/>
+        <v>124247</v>
+      </c>
       <c r="S72" s="1">
         <v>13635</v>
       </c>
@@ -6469,6 +6526,63 @@
     <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>45545</v>
+      </c>
+      <c r="B73">
+        <v>3708</v>
+      </c>
+      <c r="C73">
+        <v>448</v>
+      </c>
+      <c r="D73">
+        <v>367</v>
+      </c>
+      <c r="E73">
+        <v>6326</v>
+      </c>
+      <c r="F73">
+        <v>26</v>
+      </c>
+      <c r="G73">
+        <v>29</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1">
+        <f t="shared" si="90"/>
+        <v>1978761</v>
+      </c>
+      <c r="N73" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="2">
+        <f t="shared" si="85"/>
+        <v>3708</v>
+      </c>
+      <c r="P73" s="1">
+        <f t="shared" si="86"/>
+        <v>1987891</v>
+      </c>
+      <c r="Q73" s="1">
+        <f t="shared" si="87"/>
+        <v>448</v>
+      </c>
+      <c r="R73" s="1">
+        <f t="shared" si="88"/>
+        <v>124695</v>
       </c>
       <c r="S73" s="1">
         <v>9796</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60E3AC8-69DB-024C-8CFB-7C0C834315F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6AC8E9-11AF-5241-BD0D-AFF1EAF1DB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="6520" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q70" sqref="Q70"/>
+      <selection pane="bottomRight" activeCell="Q79" sqref="Q79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4277,23 +4277,23 @@
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N73" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N75" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O73" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O75" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P73" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P75" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q73" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q75" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R73" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R75" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" ref="M64:M73" si="90">M63+B64</f>
+        <f t="shared" ref="M64:M75" si="90">M63+B64</f>
         <v>1922769</v>
       </c>
       <c r="N64" s="1">
@@ -6615,6 +6615,63 @@
       <c r="A74" s="3">
         <v>45546</v>
       </c>
+      <c r="B74">
+        <v>4384</v>
+      </c>
+      <c r="C74">
+        <v>505</v>
+      </c>
+      <c r="D74">
+        <v>426</v>
+      </c>
+      <c r="E74">
+        <v>7375</v>
+      </c>
+      <c r="F74">
+        <v>88</v>
+      </c>
+      <c r="G74">
+        <v>42</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1">
+        <f t="shared" si="90"/>
+        <v>1983145</v>
+      </c>
+      <c r="N74" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="2">
+        <f t="shared" si="85"/>
+        <v>4384</v>
+      </c>
+      <c r="P74" s="1">
+        <f t="shared" si="86"/>
+        <v>1992275</v>
+      </c>
+      <c r="Q74" s="1">
+        <f t="shared" si="87"/>
+        <v>505</v>
+      </c>
+      <c r="R74" s="1">
+        <f t="shared" si="88"/>
+        <v>125200</v>
+      </c>
       <c r="S74" s="1">
         <v>7598</v>
       </c>
@@ -6645,6 +6702,63 @@
     <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>45547</v>
+      </c>
+      <c r="B75">
+        <v>3728</v>
+      </c>
+      <c r="C75">
+        <v>568</v>
+      </c>
+      <c r="D75">
+        <v>284</v>
+      </c>
+      <c r="E75">
+        <v>5828</v>
+      </c>
+      <c r="F75">
+        <v>89</v>
+      </c>
+      <c r="G75">
+        <v>30</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1">
+        <f t="shared" si="90"/>
+        <v>1986873</v>
+      </c>
+      <c r="N75" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="2">
+        <f t="shared" si="85"/>
+        <v>3728</v>
+      </c>
+      <c r="P75" s="1">
+        <f t="shared" si="86"/>
+        <v>1996003</v>
+      </c>
+      <c r="Q75" s="1">
+        <f t="shared" si="87"/>
+        <v>568</v>
+      </c>
+      <c r="R75" s="1">
+        <f t="shared" si="88"/>
+        <v>125768</v>
       </c>
       <c r="S75" s="1">
         <v>7178</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6AC8E9-11AF-5241-BD0D-AFF1EAF1DB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0991383-DE32-C349-AD29-EFD2DAF5B71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="-220" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q79" sqref="Q79"/>
+      <selection pane="bottomRight" activeCell="S77" sqref="S77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4277,23 +4277,23 @@
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N75" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N79" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O75" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O79" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P75" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P79" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q75" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q79" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R75" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R79" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" ref="M64:M75" si="90">M63+B64</f>
+        <f t="shared" ref="M64:M79" si="90">M63+B64</f>
         <v>1922769</v>
       </c>
       <c r="N64" s="1">
@@ -6791,6 +6791,63 @@
       <c r="A76" s="3">
         <v>45548</v>
       </c>
+      <c r="B76">
+        <v>2734</v>
+      </c>
+      <c r="C76">
+        <v>369</v>
+      </c>
+      <c r="D76">
+        <v>188</v>
+      </c>
+      <c r="E76">
+        <v>7440</v>
+      </c>
+      <c r="F76">
+        <v>114</v>
+      </c>
+      <c r="G76">
+        <v>46</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76" s="1">
+        <f t="shared" si="90"/>
+        <v>1989607</v>
+      </c>
+      <c r="N76" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="2">
+        <f t="shared" si="85"/>
+        <v>2734</v>
+      </c>
+      <c r="P76" s="1">
+        <f t="shared" si="86"/>
+        <v>1998737</v>
+      </c>
+      <c r="Q76" s="1">
+        <f t="shared" si="87"/>
+        <v>369</v>
+      </c>
+      <c r="R76" s="1">
+        <f t="shared" si="88"/>
+        <v>126137</v>
+      </c>
       <c r="S76" s="1">
         <v>9158</v>
       </c>
@@ -6822,6 +6879,63 @@
       <c r="A77" s="3">
         <v>45549</v>
       </c>
+      <c r="B77">
+        <v>1811</v>
+      </c>
+      <c r="C77">
+        <v>271</v>
+      </c>
+      <c r="D77">
+        <v>221</v>
+      </c>
+      <c r="E77">
+        <v>4633</v>
+      </c>
+      <c r="F77">
+        <v>28</v>
+      </c>
+      <c r="G77">
+        <v>18</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77" s="1">
+        <f t="shared" si="90"/>
+        <v>1991418</v>
+      </c>
+      <c r="N77" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="2">
+        <f t="shared" si="85"/>
+        <v>1811</v>
+      </c>
+      <c r="P77" s="1">
+        <f t="shared" si="86"/>
+        <v>2000548</v>
+      </c>
+      <c r="Q77" s="1">
+        <f t="shared" si="87"/>
+        <v>271</v>
+      </c>
+      <c r="R77" s="1">
+        <f t="shared" si="88"/>
+        <v>126408</v>
+      </c>
       <c r="S77" s="1">
         <v>11320</v>
       </c>
@@ -6853,6 +6967,63 @@
       <c r="A78" s="3">
         <v>45550</v>
       </c>
+      <c r="B78">
+        <v>1572</v>
+      </c>
+      <c r="C78">
+        <v>169</v>
+      </c>
+      <c r="D78">
+        <v>231</v>
+      </c>
+      <c r="E78">
+        <v>4375</v>
+      </c>
+      <c r="F78">
+        <v>114</v>
+      </c>
+      <c r="G78">
+        <v>15</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78" s="1">
+        <f t="shared" si="90"/>
+        <v>1992990</v>
+      </c>
+      <c r="N78" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O78" s="2">
+        <f t="shared" si="85"/>
+        <v>1572</v>
+      </c>
+      <c r="P78" s="1">
+        <f t="shared" si="86"/>
+        <v>2002120</v>
+      </c>
+      <c r="Q78" s="1">
+        <f t="shared" si="87"/>
+        <v>169</v>
+      </c>
+      <c r="R78" s="1">
+        <f t="shared" si="88"/>
+        <v>126577</v>
+      </c>
       <c r="S78" s="1">
         <v>8031</v>
       </c>
@@ -6883,6 +7054,63 @@
     <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>45551</v>
+      </c>
+      <c r="B79">
+        <v>1216</v>
+      </c>
+      <c r="C79">
+        <v>127</v>
+      </c>
+      <c r="D79">
+        <v>115</v>
+      </c>
+      <c r="E79">
+        <v>5809</v>
+      </c>
+      <c r="F79">
+        <v>85</v>
+      </c>
+      <c r="G79">
+        <v>11</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79" s="1">
+        <f t="shared" si="90"/>
+        <v>1994206</v>
+      </c>
+      <c r="N79" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O79" s="2">
+        <f t="shared" si="85"/>
+        <v>1216</v>
+      </c>
+      <c r="P79" s="1">
+        <f t="shared" si="86"/>
+        <v>2003336</v>
+      </c>
+      <c r="Q79" s="1">
+        <f t="shared" si="87"/>
+        <v>127</v>
+      </c>
+      <c r="R79" s="1">
+        <f t="shared" si="88"/>
+        <v>126704</v>
       </c>
       <c r="S79" s="1">
         <v>9447</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0991383-DE32-C349-AD29-EFD2DAF5B71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A037E9-B00A-7048-AAE9-3AC97D397B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-220" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S77" sqref="S77"/>
+      <selection pane="bottomRight" activeCell="R84" sqref="R84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4277,23 +4277,23 @@
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N79" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N81" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O79" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O81" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P79" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P81" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q79" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q81" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R79" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R81" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" ref="M64:M79" si="90">M63+B64</f>
+        <f t="shared" ref="M64:M80" si="90">M63+B64</f>
         <v>1922769</v>
       </c>
       <c r="N64" s="1">
@@ -7143,6 +7143,63 @@
       <c r="A80" s="3">
         <v>45552</v>
       </c>
+      <c r="B80">
+        <v>1570</v>
+      </c>
+      <c r="C80">
+        <v>112</v>
+      </c>
+      <c r="D80">
+        <v>226</v>
+      </c>
+      <c r="E80">
+        <v>5355</v>
+      </c>
+      <c r="F80">
+        <v>67</v>
+      </c>
+      <c r="G80">
+        <v>48</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80" s="1">
+        <f>M79+B80</f>
+        <v>1995776</v>
+      </c>
+      <c r="N80" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O80" s="2">
+        <f t="shared" si="85"/>
+        <v>1571</v>
+      </c>
+      <c r="P80" s="1">
+        <f t="shared" si="86"/>
+        <v>2004907</v>
+      </c>
+      <c r="Q80" s="1">
+        <f t="shared" si="87"/>
+        <v>112</v>
+      </c>
+      <c r="R80" s="1">
+        <f t="shared" si="88"/>
+        <v>126816</v>
+      </c>
       <c r="S80" s="1">
         <v>10145</v>
       </c>
@@ -7173,6 +7230,63 @@
     <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>45553</v>
+      </c>
+      <c r="B81">
+        <v>1906</v>
+      </c>
+      <c r="C81">
+        <v>139</v>
+      </c>
+      <c r="D81">
+        <v>194</v>
+      </c>
+      <c r="E81">
+        <v>5539</v>
+      </c>
+      <c r="F81">
+        <v>98</v>
+      </c>
+      <c r="G81">
+        <v>51</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81" s="1">
+        <f>M80+B81</f>
+        <v>1997682</v>
+      </c>
+      <c r="N81" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O81" s="2">
+        <f t="shared" si="85"/>
+        <v>1906</v>
+      </c>
+      <c r="P81" s="1">
+        <f t="shared" si="86"/>
+        <v>2006813</v>
+      </c>
+      <c r="Q81" s="1">
+        <f t="shared" si="87"/>
+        <v>139</v>
+      </c>
+      <c r="R81" s="1">
+        <f t="shared" si="88"/>
+        <v>126955</v>
       </c>
       <c r="S81" s="1">
         <v>12000</v>

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A037E9-B00A-7048-AAE9-3AC97D397B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2613B17-EFAA-204B-A1F4-BC30FB215D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R84" sqref="R84"/>
+      <selection pane="bottomRight" activeCell="R88" sqref="R88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4277,23 +4277,23 @@
         <v>963894</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N81" si="84">J47+L47</f>
+        <f t="shared" ref="N47:N85" si="84">J47+L47</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:O81" si="85">B47+I47+N47</f>
+        <f t="shared" ref="O47:O85" si="85">B47+I47+N47</f>
         <v>45949</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P81" si="86">P46+O47</f>
+        <f t="shared" ref="P47:P85" si="86">P46+O47</f>
         <v>964161</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q81" si="87">C47+K47</f>
+        <f t="shared" ref="Q47:Q85" si="87">C47+K47</f>
         <v>3035</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R81" si="88">Q47+R46</f>
+        <f t="shared" ref="R47:R85" si="88">Q47+R46</f>
         <v>57072</v>
       </c>
       <c r="S47" s="1">
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" ref="M64:M80" si="90">M63+B64</f>
+        <f t="shared" ref="M64:M79" si="90">M63+B64</f>
         <v>1922769</v>
       </c>
       <c r="N64" s="1">
@@ -7319,6 +7319,63 @@
       <c r="A82" s="3">
         <v>45554</v>
       </c>
+      <c r="B82">
+        <v>1535</v>
+      </c>
+      <c r="C82">
+        <v>176</v>
+      </c>
+      <c r="D82">
+        <v>134</v>
+      </c>
+      <c r="E82">
+        <v>6706</v>
+      </c>
+      <c r="F82">
+        <v>83</v>
+      </c>
+      <c r="G82">
+        <v>53</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82" s="1">
+        <f t="shared" ref="M82:M85" si="92">M81+B82</f>
+        <v>1999217</v>
+      </c>
+      <c r="N82" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O82" s="2">
+        <f t="shared" si="85"/>
+        <v>1535</v>
+      </c>
+      <c r="P82" s="1">
+        <f t="shared" si="86"/>
+        <v>2008348</v>
+      </c>
+      <c r="Q82" s="1">
+        <f t="shared" si="87"/>
+        <v>176</v>
+      </c>
+      <c r="R82" s="1">
+        <f t="shared" si="88"/>
+        <v>127131</v>
+      </c>
       <c r="S82" s="1">
         <v>12883</v>
       </c>
@@ -7350,6 +7407,63 @@
       <c r="A83" s="3">
         <v>45555</v>
       </c>
+      <c r="B83">
+        <v>687</v>
+      </c>
+      <c r="C83">
+        <v>89</v>
+      </c>
+      <c r="D83">
+        <v>58</v>
+      </c>
+      <c r="E83">
+        <v>6763</v>
+      </c>
+      <c r="F83">
+        <v>80</v>
+      </c>
+      <c r="G83">
+        <v>57</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83" s="1">
+        <f t="shared" si="92"/>
+        <v>1999904</v>
+      </c>
+      <c r="N83" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O83" s="2">
+        <f t="shared" si="85"/>
+        <v>687</v>
+      </c>
+      <c r="P83" s="1">
+        <f t="shared" si="86"/>
+        <v>2009035</v>
+      </c>
+      <c r="Q83" s="1">
+        <f t="shared" si="87"/>
+        <v>89</v>
+      </c>
+      <c r="R83" s="1">
+        <f t="shared" si="88"/>
+        <v>127220</v>
+      </c>
       <c r="S83" s="1">
         <v>6366</v>
       </c>
@@ -7381,6 +7495,63 @@
       <c r="A84" s="3">
         <v>45556</v>
       </c>
+      <c r="B84">
+        <v>892</v>
+      </c>
+      <c r="C84">
+        <v>108</v>
+      </c>
+      <c r="D84">
+        <v>114</v>
+      </c>
+      <c r="E84">
+        <v>4860</v>
+      </c>
+      <c r="F84">
+        <v>77</v>
+      </c>
+      <c r="G84">
+        <v>17</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84" s="1">
+        <f t="shared" si="92"/>
+        <v>2000796</v>
+      </c>
+      <c r="N84" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O84" s="2">
+        <f t="shared" si="85"/>
+        <v>892</v>
+      </c>
+      <c r="P84" s="1">
+        <f t="shared" si="86"/>
+        <v>2009927</v>
+      </c>
+      <c r="Q84" s="1">
+        <f t="shared" si="87"/>
+        <v>108</v>
+      </c>
+      <c r="R84" s="1">
+        <f t="shared" si="88"/>
+        <v>127328</v>
+      </c>
       <c r="S84" s="1">
         <v>4155</v>
       </c>
@@ -7388,11 +7559,11 @@
         <v>6189.6</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" ref="U84:V99" si="92">U83+S84</f>
+        <f t="shared" ref="U84:V99" si="93">U83+S84</f>
         <v>2036693</v>
       </c>
       <c r="V84" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1103850.2125901876</v>
       </c>
       <c r="W84" s="1">
@@ -7412,6 +7583,63 @@
       <c r="A85" s="3">
         <v>45557</v>
       </c>
+      <c r="B85">
+        <v>1758</v>
+      </c>
+      <c r="C85">
+        <v>260</v>
+      </c>
+      <c r="D85">
+        <v>200</v>
+      </c>
+      <c r="E85">
+        <v>4261</v>
+      </c>
+      <c r="F85">
+        <v>96</v>
+      </c>
+      <c r="G85">
+        <v>31</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85" s="1">
+        <f t="shared" si="92"/>
+        <v>2002554</v>
+      </c>
+      <c r="N85" s="1">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="2">
+        <f t="shared" si="85"/>
+        <v>1758</v>
+      </c>
+      <c r="P85" s="1">
+        <f t="shared" si="86"/>
+        <v>2011685</v>
+      </c>
+      <c r="Q85" s="1">
+        <f t="shared" si="87"/>
+        <v>260</v>
+      </c>
+      <c r="R85" s="1">
+        <f t="shared" si="88"/>
+        <v>127588</v>
+      </c>
       <c r="S85" s="1">
         <v>2650</v>
       </c>
@@ -7419,11 +7647,11 @@
         <v>4314.3999999999996</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2039343</v>
       </c>
       <c r="V85" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1108164.6125901875</v>
       </c>
       <c r="W85" s="1">
@@ -7450,11 +7678,11 @@
         <v>3802.6</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2043072</v>
       </c>
       <c r="V86" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1111967.2125901876</v>
       </c>
       <c r="W86" s="1">
@@ -7481,11 +7709,11 @@
         <v>3261.3333333333335</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2045727</v>
       </c>
       <c r="V87" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1115228.5459235208</v>
       </c>
       <c r="W87" s="1">
@@ -7512,11 +7740,11 @@
         <v>2728.4444444444443</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2047725</v>
       </c>
       <c r="V88" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1117956.9903679653</v>
       </c>
       <c r="W88" s="1">
@@ -7543,11 +7771,11 @@
         <v>2059.7777777777778</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2049017</v>
       </c>
       <c r="V89" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1120016.7681457431</v>
       </c>
       <c r="W89" s="1">
@@ -7574,11 +7802,11 @@
         <v>1764.2222222222222</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2049846</v>
       </c>
       <c r="V90" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1121780.9903679653</v>
       </c>
       <c r="W90" s="1">
@@ -7605,11 +7833,11 @@
         <v>1664.125</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2051014</v>
       </c>
       <c r="V91" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1123445.1153679653</v>
       </c>
       <c r="W91" s="1">
@@ -7636,11 +7864,11 @@
         <v>1687.375</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2051949</v>
       </c>
       <c r="V92" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1125132.4903679653</v>
       </c>
       <c r="W92" s="1">
@@ -7667,11 +7895,11 @@
         <v>868.83333333333337</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2052845</v>
       </c>
       <c r="V93" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1126001.3237012986</v>
       </c>
       <c r="W93" s="1">
@@ -7695,11 +7923,11 @@
         <v>707.66666666666663</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2052845</v>
       </c>
       <c r="V94" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1126708.9903679653</v>
       </c>
       <c r="W94" s="1">
@@ -7723,11 +7951,11 @@
         <v>440</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2052845</v>
       </c>
       <c r="V95" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1127148.9903679653</v>
       </c>
       <c r="W95" s="1">
@@ -7751,11 +7979,11 @@
         <v>720.66666666666663</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2052845</v>
       </c>
       <c r="V96" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1127869.6570346321</v>
       </c>
       <c r="W96" s="1">
@@ -7779,11 +8007,11 @@
         <v>238</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2052845</v>
       </c>
       <c r="V97" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1128107.6570346321</v>
       </c>
       <c r="W97" s="1">
@@ -7807,11 +8035,11 @@
         <v>323</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2052845</v>
       </c>
       <c r="V98" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1128430.6570346321</v>
       </c>
       <c r="W98" s="1">
@@ -7835,11 +8063,11 @@
         <v>250</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2052845</v>
       </c>
       <c r="V99" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W99" s="1">
@@ -7860,11 +8088,11 @@
         <v>45572</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" ref="U100:V108" si="93">U99+S100</f>
+        <f t="shared" ref="U100:V108" si="94">U99+S100</f>
         <v>2052845</v>
       </c>
       <c r="V100" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W100" s="1">
@@ -7885,11 +8113,11 @@
         <v>45573</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>2052845</v>
       </c>
       <c r="V101" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W101" s="1">
@@ -7904,11 +8132,11 @@
         <v>45574</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>2052845</v>
       </c>
       <c r="V102" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W102" s="1">
@@ -7923,11 +8151,11 @@
         <v>45575</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>2052845</v>
       </c>
       <c r="V103" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W103" s="1">
@@ -7942,11 +8170,11 @@
         <v>45576</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>2052845</v>
       </c>
       <c r="V104" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W104" s="1">
@@ -7961,11 +8189,11 @@
         <v>45577</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>2052845</v>
       </c>
       <c r="V105" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W105" s="1">
@@ -7980,11 +8208,11 @@
         <v>45578</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>2052845</v>
       </c>
       <c r="V106" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W106" s="1">
@@ -7999,11 +8227,11 @@
         <v>45579</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>2052845</v>
       </c>
       <c r="V107" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W107" s="1">
@@ -8018,11 +8246,11 @@
         <v>45580</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>2052845</v>
       </c>
       <c r="V108" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W108" s="1">

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2613B17-EFAA-204B-A1F4-BC30FB215D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E43653-E0F6-474C-AEB5-DC5A4C88D4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="8880" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R88" sqref="R88"/>
+      <selection pane="bottomRight" activeCell="U91" sqref="U91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7671,6 +7671,63 @@
       <c r="A86" s="3">
         <v>45558</v>
       </c>
+      <c r="B86">
+        <v>2139</v>
+      </c>
+      <c r="C86">
+        <v>385</v>
+      </c>
+      <c r="D86">
+        <v>217</v>
+      </c>
+      <c r="E86">
+        <v>4053</v>
+      </c>
+      <c r="F86">
+        <v>85</v>
+      </c>
+      <c r="G86">
+        <v>52</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86" s="1">
+        <f t="shared" ref="M86:M93" si="94">M85+B86</f>
+        <v>2004693</v>
+      </c>
+      <c r="N86" s="1">
+        <f t="shared" ref="N86:N93" si="95">J86+L86</f>
+        <v>0</v>
+      </c>
+      <c r="O86" s="2">
+        <f t="shared" ref="O86:O93" si="96">B86+I86+N86</f>
+        <v>2139</v>
+      </c>
+      <c r="P86" s="1">
+        <f t="shared" ref="P86:P93" si="97">P85+O86</f>
+        <v>2013824</v>
+      </c>
+      <c r="Q86" s="1">
+        <f t="shared" ref="Q86:Q93" si="98">C86+K86</f>
+        <v>385</v>
+      </c>
+      <c r="R86" s="1">
+        <f t="shared" ref="R86:R93" si="99">Q86+R85</f>
+        <v>127973</v>
+      </c>
       <c r="S86" s="1">
         <v>3729</v>
       </c>
@@ -7702,6 +7759,63 @@
       <c r="A87" s="3">
         <v>45559</v>
       </c>
+      <c r="B87">
+        <v>895</v>
+      </c>
+      <c r="C87">
+        <v>230</v>
+      </c>
+      <c r="D87">
+        <v>203</v>
+      </c>
+      <c r="E87">
+        <v>2360</v>
+      </c>
+      <c r="F87">
+        <v>115</v>
+      </c>
+      <c r="G87">
+        <v>57</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87" s="1">
+        <f t="shared" si="94"/>
+        <v>2005588</v>
+      </c>
+      <c r="N87" s="1">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="O87" s="2">
+        <f t="shared" si="96"/>
+        <v>895</v>
+      </c>
+      <c r="P87" s="1">
+        <f t="shared" si="97"/>
+        <v>2014719</v>
+      </c>
+      <c r="Q87" s="1">
+        <f t="shared" si="98"/>
+        <v>230</v>
+      </c>
+      <c r="R87" s="1">
+        <f t="shared" si="99"/>
+        <v>128203</v>
+      </c>
       <c r="S87" s="1">
         <v>2655</v>
       </c>
@@ -7733,6 +7847,63 @@
       <c r="A88" s="3">
         <v>45560</v>
       </c>
+      <c r="B88">
+        <v>515</v>
+      </c>
+      <c r="C88">
+        <v>216</v>
+      </c>
+      <c r="D88">
+        <v>103</v>
+      </c>
+      <c r="E88">
+        <v>1713</v>
+      </c>
+      <c r="F88">
+        <v>78</v>
+      </c>
+      <c r="G88">
+        <v>123</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" s="1">
+        <f t="shared" si="94"/>
+        <v>2006103</v>
+      </c>
+      <c r="N88" s="1">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="2">
+        <f t="shared" si="96"/>
+        <v>515</v>
+      </c>
+      <c r="P88" s="1">
+        <f t="shared" si="97"/>
+        <v>2015234</v>
+      </c>
+      <c r="Q88" s="1">
+        <f t="shared" si="98"/>
+        <v>216</v>
+      </c>
+      <c r="R88" s="1">
+        <f t="shared" si="99"/>
+        <v>128419</v>
+      </c>
       <c r="S88" s="1">
         <v>1998</v>
       </c>
@@ -7764,6 +7935,63 @@
       <c r="A89" s="3">
         <v>45561</v>
       </c>
+      <c r="B89">
+        <v>504</v>
+      </c>
+      <c r="C89">
+        <v>146</v>
+      </c>
+      <c r="D89">
+        <v>90</v>
+      </c>
+      <c r="E89">
+        <v>1122</v>
+      </c>
+      <c r="F89">
+        <v>51</v>
+      </c>
+      <c r="G89">
+        <v>82</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" s="1">
+        <f t="shared" si="94"/>
+        <v>2006607</v>
+      </c>
+      <c r="N89" s="1">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="2">
+        <f t="shared" si="96"/>
+        <v>504</v>
+      </c>
+      <c r="P89" s="1">
+        <f t="shared" si="97"/>
+        <v>2015738</v>
+      </c>
+      <c r="Q89" s="1">
+        <f t="shared" si="98"/>
+        <v>146</v>
+      </c>
+      <c r="R89" s="1">
+        <f t="shared" si="99"/>
+        <v>128565</v>
+      </c>
       <c r="S89" s="1">
         <v>1292</v>
       </c>
@@ -7795,6 +8023,63 @@
       <c r="A90" s="3">
         <v>45562</v>
       </c>
+      <c r="B90">
+        <v>215</v>
+      </c>
+      <c r="C90">
+        <v>69</v>
+      </c>
+      <c r="D90">
+        <v>16</v>
+      </c>
+      <c r="E90">
+        <v>590</v>
+      </c>
+      <c r="F90">
+        <v>28</v>
+      </c>
+      <c r="G90">
+        <v>40</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90" s="1">
+        <f t="shared" si="94"/>
+        <v>2006822</v>
+      </c>
+      <c r="N90" s="1">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="2">
+        <f t="shared" si="96"/>
+        <v>215</v>
+      </c>
+      <c r="P90" s="1">
+        <f t="shared" si="97"/>
+        <v>2015953</v>
+      </c>
+      <c r="Q90" s="1">
+        <f t="shared" si="98"/>
+        <v>69</v>
+      </c>
+      <c r="R90" s="1">
+        <f t="shared" si="99"/>
+        <v>128634</v>
+      </c>
       <c r="S90" s="1">
         <v>829</v>
       </c>
@@ -7826,6 +8111,63 @@
       <c r="A91" s="3">
         <v>45563</v>
       </c>
+      <c r="B91">
+        <v>77</v>
+      </c>
+      <c r="C91">
+        <v>20</v>
+      </c>
+      <c r="D91">
+        <v>7</v>
+      </c>
+      <c r="E91">
+        <v>164</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91" s="1">
+        <f t="shared" si="94"/>
+        <v>2006899</v>
+      </c>
+      <c r="N91" s="1">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="O91" s="2">
+        <f t="shared" si="96"/>
+        <v>77</v>
+      </c>
+      <c r="P91" s="1">
+        <f t="shared" si="97"/>
+        <v>2016030</v>
+      </c>
+      <c r="Q91" s="1">
+        <f t="shared" si="98"/>
+        <v>20</v>
+      </c>
+      <c r="R91" s="1">
+        <f t="shared" si="99"/>
+        <v>128654</v>
+      </c>
       <c r="S91" s="1">
         <v>1168</v>
       </c>
@@ -7857,6 +8199,63 @@
       <c r="A92" s="3">
         <v>45564</v>
       </c>
+      <c r="B92">
+        <v>60</v>
+      </c>
+      <c r="C92">
+        <v>15</v>
+      </c>
+      <c r="D92">
+        <v>16</v>
+      </c>
+      <c r="E92">
+        <v>108</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>15</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92" s="1">
+        <f t="shared" si="94"/>
+        <v>2006959</v>
+      </c>
+      <c r="N92" s="1">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="O92" s="2">
+        <f t="shared" si="96"/>
+        <v>60</v>
+      </c>
+      <c r="P92" s="1">
+        <f t="shared" si="97"/>
+        <v>2016090</v>
+      </c>
+      <c r="Q92" s="1">
+        <f t="shared" si="98"/>
+        <v>15</v>
+      </c>
+      <c r="R92" s="1">
+        <f t="shared" si="99"/>
+        <v>128669</v>
+      </c>
       <c r="S92" s="1">
         <v>935</v>
       </c>
@@ -7888,6 +8287,63 @@
       <c r="A93" s="3">
         <v>45565</v>
       </c>
+      <c r="B93">
+        <v>79</v>
+      </c>
+      <c r="C93">
+        <v>13</v>
+      </c>
+      <c r="D93">
+        <v>12</v>
+      </c>
+      <c r="E93">
+        <v>63</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>11</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93" s="1">
+        <f t="shared" si="94"/>
+        <v>2007038</v>
+      </c>
+      <c r="N93" s="1">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="O93" s="2">
+        <f t="shared" si="96"/>
+        <v>79</v>
+      </c>
+      <c r="P93" s="1">
+        <f t="shared" si="97"/>
+        <v>2016169</v>
+      </c>
+      <c r="Q93" s="1">
+        <f t="shared" si="98"/>
+        <v>13</v>
+      </c>
+      <c r="R93" s="1">
+        <f t="shared" si="99"/>
+        <v>128682</v>
+      </c>
       <c r="S93" s="1">
         <v>896</v>
       </c>
@@ -8088,11 +8544,11 @@
         <v>45572</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" ref="U100:V108" si="94">U99+S100</f>
+        <f t="shared" ref="U100:V108" si="100">U99+S100</f>
         <v>2052845</v>
       </c>
       <c r="V100" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W100" s="1">
@@ -8113,11 +8569,11 @@
         <v>45573</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>2052845</v>
       </c>
       <c r="V101" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W101" s="1">
@@ -8132,11 +8588,11 @@
         <v>45574</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>2052845</v>
       </c>
       <c r="V102" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W102" s="1">
@@ -8151,11 +8607,11 @@
         <v>45575</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>2052845</v>
       </c>
       <c r="V103" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W103" s="1">
@@ -8170,11 +8626,11 @@
         <v>45576</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>2052845</v>
       </c>
       <c r="V104" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W104" s="1">
@@ -8189,11 +8645,11 @@
         <v>45577</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>2052845</v>
       </c>
       <c r="V105" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W105" s="1">
@@ -8208,11 +8664,11 @@
         <v>45578</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>2052845</v>
       </c>
       <c r="V106" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W106" s="1">
@@ -8227,11 +8683,11 @@
         <v>45579</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>2052845</v>
       </c>
       <c r="V107" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W107" s="1">
@@ -8246,11 +8702,11 @@
         <v>45580</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>2052845</v>
       </c>
       <c r="V108" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W108" s="1">

--- a/data/babine data 2024.xlsx
+++ b/data/babine data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elh/coastland/skeena-salmon-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E43653-E0F6-474C-AEB5-DC5A4C88D4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D6B48C-1F2B-D645-8805-27D7074B5D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
+    <workbookView xWindow="11300" yWindow="500" windowWidth="22280" windowHeight="13260" xr2:uid="{52AE178B-9CC6-4B68-8B92-85EF0B36AB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Babine" sheetId="1" r:id="rId1"/>
@@ -500,10 +500,10 @@
   <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U91" sqref="U91"/>
+      <selection pane="bottomRight" activeCell="Q100" sqref="Q100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8375,12 +8375,72 @@
       <c r="A94" s="3">
         <v>45566</v>
       </c>
+      <c r="B94">
+        <v>60</v>
+      </c>
+      <c r="C94">
+        <v>15</v>
+      </c>
+      <c r="D94">
+        <v>17</v>
+      </c>
+      <c r="E94">
+        <v>59</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="G94">
+        <v>5</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94" s="1">
+        <f t="shared" ref="M94:M97" si="100">M93+B94</f>
+        <v>2007098</v>
+      </c>
+      <c r="N94" s="1">
+        <f t="shared" ref="N94:N97" si="101">J94+L94</f>
+        <v>0</v>
+      </c>
+      <c r="O94" s="2">
+        <f t="shared" ref="O94:O97" si="102">B94+I94+N94</f>
+        <v>60</v>
+      </c>
+      <c r="P94" s="1">
+        <f t="shared" ref="P94:P97" si="103">P93+O94</f>
+        <v>2016229</v>
+      </c>
+      <c r="Q94" s="1">
+        <f t="shared" ref="Q94:Q97" si="104">C94+K94</f>
+        <v>15</v>
+      </c>
+      <c r="R94" s="1">
+        <f t="shared" ref="R94:R97" si="105">Q94+R93</f>
+        <v>128697</v>
+      </c>
+      <c r="S94" s="1">
+        <v>897</v>
+      </c>
       <c r="T94" s="1">
         <v>707.66666666666663</v>
       </c>
       <c r="U94" s="1">
         <f t="shared" si="93"/>
-        <v>2052845</v>
+        <v>2053742</v>
       </c>
       <c r="V94" s="1">
         <f t="shared" si="93"/>
@@ -8403,12 +8463,72 @@
       <c r="A95" s="3">
         <v>45567</v>
       </c>
+      <c r="B95">
+        <v>62</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>8</v>
+      </c>
+      <c r="E95">
+        <v>23</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" s="1">
+        <f t="shared" si="100"/>
+        <v>2007160</v>
+      </c>
+      <c r="N95" s="1">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="O95" s="2">
+        <f t="shared" si="102"/>
+        <v>62</v>
+      </c>
+      <c r="P95" s="1">
+        <f t="shared" si="103"/>
+        <v>2016291</v>
+      </c>
+      <c r="Q95" s="1">
+        <f t="shared" si="104"/>
+        <v>10</v>
+      </c>
+      <c r="R95" s="1">
+        <f t="shared" si="105"/>
+        <v>128707</v>
+      </c>
+      <c r="S95" s="1">
+        <v>898</v>
+      </c>
       <c r="T95" s="1">
         <v>440</v>
       </c>
       <c r="U95" s="1">
         <f t="shared" si="93"/>
-        <v>2052845</v>
+        <v>2054640</v>
       </c>
       <c r="V95" s="1">
         <f t="shared" si="93"/>
@@ -8431,12 +8551,72 @@
       <c r="A96" s="3">
         <v>45568</v>
       </c>
+      <c r="B96">
+        <v>60</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>15</v>
+      </c>
+      <c r="E96">
+        <v>9</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" s="1">
+        <f t="shared" si="100"/>
+        <v>2007220</v>
+      </c>
+      <c r="N96" s="1">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="O96" s="2">
+        <f t="shared" si="102"/>
+        <v>60</v>
+      </c>
+      <c r="P96" s="1">
+        <f t="shared" si="103"/>
+        <v>2016351</v>
+      </c>
+      <c r="Q96" s="1">
+        <f t="shared" si="104"/>
+        <v>5</v>
+      </c>
+      <c r="R96" s="1">
+        <f t="shared" si="105"/>
+        <v>128712</v>
+      </c>
+      <c r="S96" s="1">
+        <v>899</v>
+      </c>
       <c r="T96" s="1">
         <v>720.66666666666663</v>
       </c>
       <c r="U96" s="1">
         <f t="shared" si="93"/>
-        <v>2052845</v>
+        <v>2055539</v>
       </c>
       <c r="V96" s="1">
         <f t="shared" si="93"/>
@@ -8459,12 +8639,72 @@
       <c r="A97" s="3">
         <v>45569</v>
       </c>
+      <c r="B97">
+        <v>48</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>15</v>
+      </c>
+      <c r="E97">
+        <v>11</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" s="1">
+        <f t="shared" si="100"/>
+        <v>2007268</v>
+      </c>
+      <c r="N97" s="1">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="O97" s="2">
+        <f t="shared" si="102"/>
+        <v>48</v>
+      </c>
+      <c r="P97" s="1">
+        <f t="shared" si="103"/>
+        <v>2016399</v>
+      </c>
+      <c r="Q97" s="1">
+        <f t="shared" si="104"/>
+        <v>2</v>
+      </c>
+      <c r="R97" s="1">
+        <f t="shared" si="105"/>
+        <v>128714</v>
+      </c>
+      <c r="S97" s="1">
+        <v>900</v>
+      </c>
       <c r="T97" s="1">
         <v>238</v>
       </c>
       <c r="U97" s="1">
         <f t="shared" si="93"/>
-        <v>2052845</v>
+        <v>2056439</v>
       </c>
       <c r="V97" s="1">
         <f t="shared" si="93"/>
@@ -8492,7 +8732,7 @@
       </c>
       <c r="U98" s="1">
         <f t="shared" si="93"/>
-        <v>2052845</v>
+        <v>2056439</v>
       </c>
       <c r="V98" s="1">
         <f t="shared" si="93"/>
@@ -8520,7 +8760,7 @@
       </c>
       <c r="U99" s="1">
         <f t="shared" si="93"/>
-        <v>2052845</v>
+        <v>2056439</v>
       </c>
       <c r="V99" s="1">
         <f t="shared" si="93"/>
@@ -8544,11 +8784,11 @@
         <v>45572</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" ref="U100:V108" si="100">U99+S100</f>
-        <v>2052845</v>
+        <f t="shared" ref="U100:V108" si="106">U99+S100</f>
+        <v>2056439</v>
       </c>
       <c r="V100" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W100" s="1">
@@ -8569,11 +8809,11 @@
         <v>45573</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="100"/>
-        <v>2052845</v>
+        <f t="shared" si="106"/>
+        <v>2056439</v>
       </c>
       <c r="V101" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W101" s="1">
@@ -8588,11 +8828,11 @@
         <v>45574</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="100"/>
-        <v>2052845</v>
+        <f t="shared" si="106"/>
+        <v>2056439</v>
       </c>
       <c r="V102" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W102" s="1">
@@ -8607,11 +8847,11 @@
         <v>45575</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="100"/>
-        <v>2052845</v>
+        <f t="shared" si="106"/>
+        <v>2056439</v>
       </c>
       <c r="V103" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W103" s="1">
@@ -8626,11 +8866,11 @@
         <v>45576</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="100"/>
-        <v>2052845</v>
+        <f t="shared" si="106"/>
+        <v>2056439</v>
       </c>
       <c r="V104" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W104" s="1">
@@ -8645,11 +8885,11 @@
         <v>45577</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="100"/>
-        <v>2052845</v>
+        <f t="shared" si="106"/>
+        <v>2056439</v>
       </c>
       <c r="V105" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W105" s="1">
@@ -8664,11 +8904,11 @@
         <v>45578</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="100"/>
-        <v>2052845</v>
+        <f t="shared" si="106"/>
+        <v>2056439</v>
       </c>
       <c r="V106" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W106" s="1">
@@ -8683,11 +8923,11 @@
         <v>45579</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="100"/>
-        <v>2052845</v>
+        <f t="shared" si="106"/>
+        <v>2056439</v>
       </c>
       <c r="V107" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W107" s="1">
@@ -8702,11 +8942,11 @@
         <v>45580</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="100"/>
-        <v>2052845</v>
+        <f t="shared" si="106"/>
+        <v>2056439</v>
       </c>
       <c r="V108" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>1128680.6570346321</v>
       </c>
       <c r="W108" s="1">
